--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,75 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Portugal Liga NOS</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Sporting Braga</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Rio Ave FC</t>
+  </si>
+  <si>
+    <t>Famalicão</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>FC Vizela</t>
+  </si>
+  <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['9', '45+5', '58', '72', '90+5']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['14', '15', '90+9']</t>
+  </si>
+  <si>
+    <t>['64', '90+8']</t>
+  </si>
+  <si>
+    <t>['67', '90+5']</t>
+  </si>
+  <si>
+    <t>['15', '64', '90']</t>
+  </si>
+  <si>
+    <t>['75', '77']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +821,961 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7024938</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45149.67708333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1.36</v>
+      </c>
+      <c r="AD2">
+        <v>4.6</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1.65</v>
+      </c>
+      <c r="AK2">
+        <v>2.1</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>2</v>
+      </c>
+      <c r="BG2">
+        <v>4</v>
+      </c>
+      <c r="BH2">
+        <v>3</v>
+      </c>
+      <c r="BI2">
+        <v>7</v>
+      </c>
+      <c r="BJ2">
+        <v>5</v>
+      </c>
+      <c r="BK2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7024944</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45150.47916666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>2.15</v>
+      </c>
+      <c r="AD3">
+        <v>3.2</v>
+      </c>
+      <c r="AE3">
+        <v>3.35</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>2.1</v>
+      </c>
+      <c r="AK3">
+        <v>1.65</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>4</v>
+      </c>
+      <c r="BH3">
+        <v>4</v>
+      </c>
+      <c r="BI3">
+        <v>4</v>
+      </c>
+      <c r="BJ3">
+        <v>4</v>
+      </c>
+      <c r="BK3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7024937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>2.65</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>2.71</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>2.25</v>
+      </c>
+      <c r="AK4">
+        <v>1.57</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>3</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>8</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>4</v>
+      </c>
+      <c r="BI4">
+        <v>6</v>
+      </c>
+      <c r="BJ4">
+        <v>12</v>
+      </c>
+      <c r="BK4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7024941</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45150.6875</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1.22</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>13</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1.62</v>
+      </c>
+      <c r="AK5">
+        <v>2.25</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>6</v>
+      </c>
+      <c r="BG5">
+        <v>3</v>
+      </c>
+      <c r="BH5">
+        <v>6</v>
+      </c>
+      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <v>12</v>
+      </c>
+      <c r="BK5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7024936</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45151.47916666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>17</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>2.41</v>
+      </c>
+      <c r="AD6">
+        <v>3.1</v>
+      </c>
+      <c r="AE6">
+        <v>2.97</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>2.25</v>
+      </c>
+      <c r="AK6">
+        <v>1.6</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>9</v>
+      </c>
+      <c r="BG6">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>9</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>18</v>
+      </c>
+      <c r="BK6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -226,6 +226,12 @@
     <t>Rio Ave FC</t>
   </si>
   <si>
+    <t>Estrela Amadora</t>
+  </si>
+  <si>
+    <t>FC Arouca</t>
+  </si>
+  <si>
     <t>Famalicão</t>
   </si>
   <si>
@@ -241,6 +247,12 @@
     <t>GD Chaves</t>
   </si>
   <si>
+    <t>Vitória Guimarães</t>
+  </si>
+  <si>
+    <t>GD Estoril Praia</t>
+  </si>
+  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t>['64', '90+8']</t>
   </si>
   <si>
+    <t>['20', '57', '73', '90+6']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -263,6 +278,12 @@
   </si>
   <si>
     <t>['75', '77']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['10', '49', '70']</t>
   </si>
 </sst>
 </file>
@@ -624,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +865,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -865,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1035,7 +1056,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1056,10 +1077,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1226,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1247,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1417,7 +1438,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1438,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1608,7 +1629,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1629,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q6">
         <v>14</v>
@@ -1774,6 +1795,388 @@
       </c>
       <c r="BK6">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7024942</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45151.58333333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>13</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>2</v>
+      </c>
+      <c r="BG7">
+        <v>4</v>
+      </c>
+      <c r="BH7">
+        <v>2</v>
+      </c>
+      <c r="BI7">
+        <v>4</v>
+      </c>
+      <c r="BJ7">
+        <v>4</v>
+      </c>
+      <c r="BK7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7024943</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45151.6875</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>2.13</v>
+      </c>
+      <c r="AD8">
+        <v>3.3</v>
+      </c>
+      <c r="AE8">
+        <v>3.6</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2</v>
+      </c>
+      <c r="AK8">
+        <v>1.6</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>2</v>
+      </c>
+      <c r="BG8">
+        <v>5</v>
+      </c>
+      <c r="BH8">
+        <v>5</v>
+      </c>
+      <c r="BI8">
+        <v>2</v>
+      </c>
+      <c r="BJ8">
+        <v>7</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,6 +232,12 @@
     <t>FC Arouca</t>
   </si>
   <si>
+    <t>Moreirense FC</t>
+  </si>
+  <si>
+    <t>Boavista FC</t>
+  </si>
+  <si>
     <t>Famalicão</t>
   </si>
   <si>
@@ -253,6 +259,12 @@
     <t>GD Estoril Praia</t>
   </si>
   <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -271,6 +283,12 @@
     <t>['20', '57', '73', '90+6']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['55', '90', '90+13']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -284,6 +302,12 @@
   </si>
   <si>
     <t>['10', '49', '70']</t>
+  </si>
+  <si>
+    <t>['67', '74']</t>
+  </si>
+  <si>
+    <t>['22', '75']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +889,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -886,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1056,7 +1080,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1077,10 +1101,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1247,7 +1271,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1268,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1438,7 +1462,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1459,10 +1483,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1629,7 +1653,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1650,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q6">
         <v>14</v>
@@ -1820,7 +1844,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1841,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2011,7 +2035,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2032,10 +2056,10 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2177,6 +2201,388 @@
       </c>
       <c r="BK8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7024939</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45152.61458333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>7.25</v>
+      </c>
+      <c r="AD9">
+        <v>4.3</v>
+      </c>
+      <c r="AE9">
+        <v>1.35</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>1.61</v>
+      </c>
+      <c r="AK9">
+        <v>2.23</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>6</v>
+      </c>
+      <c r="BH9">
+        <v>6</v>
+      </c>
+      <c r="BI9">
+        <v>5</v>
+      </c>
+      <c r="BJ9">
+        <v>6</v>
+      </c>
+      <c r="BK9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7024940</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45152.69791666666</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>5.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.3</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1.52</v>
+      </c>
+      <c r="AK10">
+        <v>2.43</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>4</v>
+      </c>
+      <c r="BK10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,15 +238,15 @@
     <t>Boavista FC</t>
   </si>
   <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
     <t>Famalicão</t>
   </si>
   <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Casa Pia</t>
-  </si>
-  <si>
     <t>FC Vizela</t>
   </si>
   <si>
@@ -289,6 +289,9 @@
     <t>['55', '90', '90+13']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t>['22', '75']</t>
+  </si>
+  <si>
+    <t>['3', '61']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +895,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -913,7 +919,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1080,7 +1086,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1271,7 +1277,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1295,7 +1301,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1486,7 +1492,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1868,7 +1874,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2059,7 +2065,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2250,7 +2256,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2441,7 +2447,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2583,6 +2589,197 @@
       </c>
       <c r="BK10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7024953</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45156.67708333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>7.4</v>
+      </c>
+      <c r="AD11">
+        <v>4.75</v>
+      </c>
+      <c r="AE11">
+        <v>1.42</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1.76</v>
+      </c>
+      <c r="AK11">
+        <v>2.06</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>4</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
+        <v>5</v>
+      </c>
+      <c r="BI11">
+        <v>10</v>
+      </c>
+      <c r="BJ11">
+        <v>9</v>
+      </c>
+      <c r="BK11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,30 +241,30 @@
     <t>Casa Pia</t>
   </si>
   <si>
+    <t>Vitória Guimarães</t>
+  </si>
+  <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>GD Estoril Praia</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>FC Vizela</t>
+  </si>
+  <si>
     <t>Famalicão</t>
   </si>
   <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>FC Vizela</t>
-  </si>
-  <si>
-    <t>GD Chaves</t>
-  </si>
-  <si>
-    <t>Vitória Guimarães</t>
-  </si>
-  <si>
-    <t>GD Estoril Praia</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -292,6 +292,27 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['62', '82']</t>
+  </si>
+  <si>
+    <t>['43', '53']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['79', '90+3']</t>
+  </si>
+  <si>
+    <t>['55', '90+8']</t>
+  </si>
+  <si>
+    <t>['13', '90+10']</t>
+  </si>
+  <si>
+    <t>['9', '88']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -314,6 +335,21 @@
   </si>
   <si>
     <t>['3', '61']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['16', '58', '81', '90+6']</t>
+  </si>
+  <si>
+    <t>['6', '9', '22', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['39', '64']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +931,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -919,7 +955,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1086,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1301,7 +1337,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1468,7 +1504,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1492,7 +1528,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1659,7 +1695,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1850,7 +1886,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1874,7 +1910,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2041,7 +2077,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2065,7 +2101,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2232,7 +2268,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2256,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2423,7 +2459,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2447,7 +2483,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2638,7 +2674,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2780,6 +2816,1343 @@
       </c>
       <c r="BK11">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7024949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45157.47916666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>2.1</v>
+      </c>
+      <c r="AD12">
+        <v>3.25</v>
+      </c>
+      <c r="AE12">
+        <v>3.44</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>2.06</v>
+      </c>
+      <c r="AK12">
+        <v>1.68</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>3</v>
+      </c>
+      <c r="BG12">
+        <v>6</v>
+      </c>
+      <c r="BH12">
+        <v>10</v>
+      </c>
+      <c r="BI12">
+        <v>3</v>
+      </c>
+      <c r="BJ12">
+        <v>13</v>
+      </c>
+      <c r="BK12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7024948</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>5.33</v>
+      </c>
+      <c r="AD13">
+        <v>4.2</v>
+      </c>
+      <c r="AE13">
+        <v>1.54</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1.7</v>
+      </c>
+      <c r="AK13">
+        <v>2.03</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>3</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+      <c r="BH13">
+        <v>11</v>
+      </c>
+      <c r="BI13">
+        <v>6</v>
+      </c>
+      <c r="BJ13">
+        <v>14</v>
+      </c>
+      <c r="BK13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7024946</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45157.6875</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>2.71</v>
+      </c>
+      <c r="AD14">
+        <v>3.2</v>
+      </c>
+      <c r="AE14">
+        <v>2.5</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>2.09</v>
+      </c>
+      <c r="AK14">
+        <v>1.66</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>4</v>
+      </c>
+      <c r="BH14">
+        <v>4</v>
+      </c>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14">
+        <v>10</v>
+      </c>
+      <c r="BK14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7024950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45157.6875</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1.08</v>
+      </c>
+      <c r="AD15">
+        <v>9.6</v>
+      </c>
+      <c r="AE15">
+        <v>19</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1.33</v>
+      </c>
+      <c r="AK15">
+        <v>3.04</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>10</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <v>13</v>
+      </c>
+      <c r="BI15">
+        <v>4</v>
+      </c>
+      <c r="BJ15">
+        <v>23</v>
+      </c>
+      <c r="BK15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7024951</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45158.47916666666</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>2.19</v>
+      </c>
+      <c r="AD16">
+        <v>3.3</v>
+      </c>
+      <c r="AE16">
+        <v>3.47</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>2.25</v>
+      </c>
+      <c r="AK16">
+        <v>1.57</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>3</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>3</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BH16">
+        <v>3</v>
+      </c>
+      <c r="BI16">
+        <v>5</v>
+      </c>
+      <c r="BJ16">
+        <v>6</v>
+      </c>
+      <c r="BK16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7024947</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45158.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17">
+        <v>17</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1.14</v>
+      </c>
+      <c r="AD17">
+        <v>6.4</v>
+      </c>
+      <c r="AE17">
+        <v>14.39</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>1.45</v>
+      </c>
+      <c r="AK17">
+        <v>2.56</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>8</v>
+      </c>
+      <c r="BG17">
+        <v>3</v>
+      </c>
+      <c r="BH17">
+        <v>14</v>
+      </c>
+      <c r="BI17">
+        <v>3</v>
+      </c>
+      <c r="BJ17">
+        <v>22</v>
+      </c>
+      <c r="BK17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7024945</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45158.6875</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>2.16</v>
+      </c>
+      <c r="AD18">
+        <v>3.3</v>
+      </c>
+      <c r="AE18">
+        <v>3.15</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>2.12</v>
+      </c>
+      <c r="AK18">
+        <v>1.67</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>8</v>
+      </c>
+      <c r="BG18">
+        <v>2</v>
+      </c>
+      <c r="BH18">
+        <v>3</v>
+      </c>
+      <c r="BI18">
+        <v>6</v>
+      </c>
+      <c r="BJ18">
+        <v>11</v>
+      </c>
+      <c r="BK18">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -711,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4155,6 +4155,197 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7024952</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45159.67708333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>2.07</v>
+      </c>
+      <c r="AD19">
+        <v>3.15</v>
+      </c>
+      <c r="AE19">
+        <v>3.35</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>2.15</v>
+      </c>
+      <c r="AK19">
+        <v>1.62</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>4</v>
+      </c>
+      <c r="BG19">
+        <v>5</v>
+      </c>
+      <c r="BH19">
+        <v>2</v>
+      </c>
+      <c r="BI19">
+        <v>7</v>
+      </c>
+      <c r="BJ19">
+        <v>6</v>
+      </c>
+      <c r="BK19">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,21 @@
     <t>['9', '88']</t>
   </si>
   <si>
+    <t>['47', '90+10']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['10', '17', '20', '22', '49']</t>
+  </si>
+  <si>
+    <t>['74', '90+8']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -350,6 +365,18 @@
   </si>
   <si>
     <t>['39', '64']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['19', '53', '90+4']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +982,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1233,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1337,7 +1364,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1424,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1528,7 +1555,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1910,7 +1937,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -1997,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -2101,7 +2128,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2188,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2292,7 +2319,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2483,7 +2510,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2570,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2674,7 +2701,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2865,7 +2892,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3056,7 +3083,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3247,7 +3274,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3820,7 +3847,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -4011,7 +4038,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4344,6 +4371,961 @@
       </c>
       <c r="BK19">
         <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7024962</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45163.67708333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1.5</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>1.21</v>
+      </c>
+      <c r="AW20">
+        <v>1.21</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>3</v>
+      </c>
+      <c r="BG20">
+        <v>5</v>
+      </c>
+      <c r="BH20">
+        <v>8</v>
+      </c>
+      <c r="BI20">
+        <v>6</v>
+      </c>
+      <c r="BJ20">
+        <v>11</v>
+      </c>
+      <c r="BK20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7024961</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45164.47916666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21">
+        <v>16</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>18</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>1.65</v>
+      </c>
+      <c r="AD21">
+        <v>3.85</v>
+      </c>
+      <c r="AE21">
+        <v>5.25</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>1.88</v>
+      </c>
+      <c r="AK21">
+        <v>1.82</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <v>0.5</v>
+      </c>
+      <c r="AU21">
+        <v>0.73</v>
+      </c>
+      <c r="AV21">
+        <v>1.03</v>
+      </c>
+      <c r="AW21">
+        <v>1.76</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>6</v>
+      </c>
+      <c r="BG21">
+        <v>2</v>
+      </c>
+      <c r="BH21">
+        <v>10</v>
+      </c>
+      <c r="BI21">
+        <v>2</v>
+      </c>
+      <c r="BJ21">
+        <v>16</v>
+      </c>
+      <c r="BK21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7024955</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>2.3</v>
+      </c>
+      <c r="AD22">
+        <v>3.25</v>
+      </c>
+      <c r="AE22">
+        <v>3.2</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>2.35</v>
+      </c>
+      <c r="AK22">
+        <v>1.53</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.5</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>1.69</v>
+      </c>
+      <c r="AV22">
+        <v>0.78</v>
+      </c>
+      <c r="AW22">
+        <v>2.47</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>7</v>
+      </c>
+      <c r="BG22">
+        <v>11</v>
+      </c>
+      <c r="BH22">
+        <v>4</v>
+      </c>
+      <c r="BI22">
+        <v>4</v>
+      </c>
+      <c r="BJ22">
+        <v>11</v>
+      </c>
+      <c r="BK22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7024959</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45164.6875</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>9.75</v>
+      </c>
+      <c r="AD23">
+        <v>6</v>
+      </c>
+      <c r="AE23">
+        <v>1.25</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>1.52</v>
+      </c>
+      <c r="AK23">
+        <v>2.31</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>1.5</v>
+      </c>
+      <c r="AT23">
+        <v>1.5</v>
+      </c>
+      <c r="AU23">
+        <v>0.57</v>
+      </c>
+      <c r="AV23">
+        <v>1.04</v>
+      </c>
+      <c r="AW23">
+        <v>1.61</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>5</v>
+      </c>
+      <c r="BG23">
+        <v>5</v>
+      </c>
+      <c r="BH23">
+        <v>5</v>
+      </c>
+      <c r="BI23">
+        <v>4</v>
+      </c>
+      <c r="BJ23">
+        <v>10</v>
+      </c>
+      <c r="BK23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7024960</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45165.47916666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>2.3</v>
+      </c>
+      <c r="AD24">
+        <v>3.25</v>
+      </c>
+      <c r="AE24">
+        <v>3.27</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>2.27</v>
+      </c>
+      <c r="AK24">
+        <v>1.54</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>2</v>
+      </c>
+      <c r="AU24">
+        <v>0.57</v>
+      </c>
+      <c r="AV24">
+        <v>1.25</v>
+      </c>
+      <c r="AW24">
+        <v>1.82</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>3</v>
+      </c>
+      <c r="BG24">
+        <v>5</v>
+      </c>
+      <c r="BH24">
+        <v>2</v>
+      </c>
+      <c r="BI24">
+        <v>2</v>
+      </c>
+      <c r="BJ24">
+        <v>5</v>
+      </c>
+      <c r="BK24">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,12 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['59', '72']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -377,6 +383,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +991,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1072,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1364,7 +1373,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1555,7 +1564,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1833,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -1937,7 +1946,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2128,7 +2137,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2319,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2510,7 +2519,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2701,7 +2710,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2892,7 +2901,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3083,7 +3092,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3274,7 +3283,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3847,7 +3856,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -4038,7 +4047,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4420,7 +4429,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4611,7 +4620,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>16</v>
@@ -4993,7 +5002,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5184,16 +5193,16 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q24">
+        <v>11</v>
+      </c>
+      <c r="R24">
         <v>4</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
       <c r="S24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -5310,22 +5319,595 @@
         <v>0</v>
       </c>
       <c r="BF24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG24">
+        <v>8</v>
+      </c>
+      <c r="BH24">
+        <v>4</v>
+      </c>
+      <c r="BI24">
+        <v>2</v>
+      </c>
+      <c r="BJ24">
+        <v>12</v>
+      </c>
+      <c r="BK24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7024958</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45165.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>2.18</v>
+      </c>
+      <c r="AD25">
+        <v>3.3</v>
+      </c>
+      <c r="AE25">
+        <v>3.46</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>2.18</v>
+      </c>
+      <c r="AK25">
+        <v>1.59</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>1.36</v>
+      </c>
+      <c r="AV25">
+        <v>0.95</v>
+      </c>
+      <c r="AW25">
+        <v>2.31</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
+        <v>6</v>
+      </c>
+      <c r="BH25">
+        <v>3</v>
+      </c>
+      <c r="BI25">
+        <v>7</v>
+      </c>
+      <c r="BJ25">
+        <v>6</v>
+      </c>
+      <c r="BK25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7024957</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45165.6875</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>9</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1.25</v>
+      </c>
+      <c r="AD26">
+        <v>6.5</v>
+      </c>
+      <c r="AE26">
+        <v>9</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>1.51</v>
+      </c>
+      <c r="AK26">
+        <v>2.34</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <v>1.5</v>
+      </c>
+      <c r="AU26">
+        <v>1.8</v>
+      </c>
+      <c r="AV26">
+        <v>1.3</v>
+      </c>
+      <c r="AW26">
+        <v>3.1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>8</v>
+      </c>
+      <c r="BG26">
+        <v>2</v>
+      </c>
+      <c r="BH26">
+        <v>2</v>
+      </c>
+      <c r="BI26">
+        <v>4</v>
+      </c>
+      <c r="BJ26">
+        <v>10</v>
+      </c>
+      <c r="BK26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7024956</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45166.67708333334</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>5.8</v>
+      </c>
+      <c r="AD27">
+        <v>4.45</v>
+      </c>
+      <c r="AE27">
+        <v>1.46</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1.83</v>
+      </c>
+      <c r="AK27">
+        <v>1.93</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>1.5</v>
+      </c>
+      <c r="AT27">
+        <v>3</v>
+      </c>
+      <c r="AU27">
+        <v>2.48</v>
+      </c>
+      <c r="AV27">
+        <v>1.47</v>
+      </c>
+      <c r="AW27">
+        <v>3.95</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>4</v>
+      </c>
+      <c r="BI27">
         <v>5</v>
       </c>
-      <c r="BH24">
-        <v>2</v>
-      </c>
-      <c r="BI24">
-        <v>2</v>
-      </c>
-      <c r="BJ24">
-        <v>5</v>
-      </c>
-      <c r="BK24">
-        <v>7</v>
+      <c r="BJ27">
+        <v>4</v>
+      </c>
+      <c r="BK27">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,27 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['11', '33', '45+5', '46']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -386,6 +407,15 @@
   </si>
   <si>
     <t>['90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['4', '41']</t>
+  </si>
+  <si>
+    <t>['3', '84']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1021,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1373,7 +1403,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1564,7 +1594,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1946,7 +1976,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2036,7 +2066,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2137,7 +2167,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2328,7 +2358,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2519,7 +2549,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2710,7 +2740,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2797,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -2901,7 +2931,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3092,7 +3122,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3283,7 +3313,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3370,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT14">
         <v>3</v>
@@ -3564,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3752,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3856,7 +3886,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -4047,7 +4077,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4134,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4325,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4429,7 +4459,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4620,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>16</v>
@@ -5002,7 +5032,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5193,7 +5223,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>11</v>
@@ -5766,7 +5796,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -5908,6 +5938,1343 @@
       </c>
       <c r="BK27">
         <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7024965</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45170.67708333334</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>2.23</v>
+      </c>
+      <c r="AD28">
+        <v>3.3</v>
+      </c>
+      <c r="AE28">
+        <v>3.15</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>1.9</v>
+      </c>
+      <c r="AK28">
+        <v>1.85</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>2</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>1.77</v>
+      </c>
+      <c r="AV28">
+        <v>1.26</v>
+      </c>
+      <c r="AW28">
+        <v>3.03</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>7</v>
+      </c>
+      <c r="BG28">
+        <v>3</v>
+      </c>
+      <c r="BH28">
+        <v>6</v>
+      </c>
+      <c r="BI28">
+        <v>3</v>
+      </c>
+      <c r="BJ28">
+        <v>13</v>
+      </c>
+      <c r="BK28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7024967</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45171.47916666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>2.15</v>
+      </c>
+      <c r="AD29">
+        <v>3.3</v>
+      </c>
+      <c r="AE29">
+        <v>3.4</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>2.15</v>
+      </c>
+      <c r="AK29">
+        <v>1.65</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0.5</v>
+      </c>
+      <c r="AT29">
+        <v>0.5</v>
+      </c>
+      <c r="AU29">
+        <v>1.16</v>
+      </c>
+      <c r="AV29">
+        <v>1.29</v>
+      </c>
+      <c r="AW29">
+        <v>2.45</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>7</v>
+      </c>
+      <c r="BG29">
+        <v>4</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>6</v>
+      </c>
+      <c r="BJ29">
+        <v>11</v>
+      </c>
+      <c r="BK29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7024966</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>2.55</v>
+      </c>
+      <c r="AD30">
+        <v>3.3</v>
+      </c>
+      <c r="AE30">
+        <v>2.8</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>2.05</v>
+      </c>
+      <c r="AK30">
+        <v>1.7</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0.5</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+      <c r="AU30">
+        <v>1.4</v>
+      </c>
+      <c r="AV30">
+        <v>0.98</v>
+      </c>
+      <c r="AW30">
+        <v>2.38</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>4</v>
+      </c>
+      <c r="BG30">
+        <v>2</v>
+      </c>
+      <c r="BH30">
+        <v>8</v>
+      </c>
+      <c r="BI30">
+        <v>10</v>
+      </c>
+      <c r="BJ30">
+        <v>12</v>
+      </c>
+      <c r="BK30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7024968</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>16</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1.72</v>
+      </c>
+      <c r="AD31">
+        <v>3.75</v>
+      </c>
+      <c r="AE31">
+        <v>4.97</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>2.1</v>
+      </c>
+      <c r="AK31">
+        <v>1.67</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>2</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0.83</v>
+      </c>
+      <c r="AV31">
+        <v>0.78</v>
+      </c>
+      <c r="AW31">
+        <v>1.61</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>6</v>
+      </c>
+      <c r="BG31">
+        <v>2</v>
+      </c>
+      <c r="BH31">
+        <v>13</v>
+      </c>
+      <c r="BI31">
+        <v>4</v>
+      </c>
+      <c r="BJ31">
+        <v>19</v>
+      </c>
+      <c r="BK31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7024970</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45171.6875</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32">
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>13</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>1.22</v>
+      </c>
+      <c r="AD32">
+        <v>6</v>
+      </c>
+      <c r="AE32">
+        <v>13</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>1.41</v>
+      </c>
+      <c r="AK32">
+        <v>2.69</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>3</v>
+      </c>
+      <c r="AT32">
+        <v>1.5</v>
+      </c>
+      <c r="AU32">
+        <v>2.86</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>2.86</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>7</v>
+      </c>
+      <c r="BG32">
+        <v>2</v>
+      </c>
+      <c r="BH32">
+        <v>5</v>
+      </c>
+      <c r="BI32">
+        <v>3</v>
+      </c>
+      <c r="BJ32">
+        <v>12</v>
+      </c>
+      <c r="BK32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7024964</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45172.47916666666</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>2.35</v>
+      </c>
+      <c r="AD33">
+        <v>3.15</v>
+      </c>
+      <c r="AE33">
+        <v>2.9</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>1.95</v>
+      </c>
+      <c r="AK33">
+        <v>1.75</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>1.5</v>
+      </c>
+      <c r="AT33">
+        <v>3</v>
+      </c>
+      <c r="AU33">
+        <v>0.85</v>
+      </c>
+      <c r="AV33">
+        <v>0.91</v>
+      </c>
+      <c r="AW33">
+        <v>1.76</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>2</v>
+      </c>
+      <c r="BG33">
+        <v>4</v>
+      </c>
+      <c r="BH33">
+        <v>2</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>4</v>
+      </c>
+      <c r="BK33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7024971</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45172.47916666666</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>2.4</v>
+      </c>
+      <c r="AD34">
+        <v>3.15</v>
+      </c>
+      <c r="AE34">
+        <v>2.85</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>2.1</v>
+      </c>
+      <c r="AK34">
+        <v>1.65</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>1.4</v>
+      </c>
+      <c r="AV34">
+        <v>1.68</v>
+      </c>
+      <c r="AW34">
+        <v>3.08</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>3</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>4</v>
+      </c>
+      <c r="BI34">
+        <v>2</v>
+      </c>
+      <c r="BJ34">
+        <v>7</v>
+      </c>
+      <c r="BK34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,12 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['90+19']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -416,6 +422,9 @@
   </si>
   <si>
     <t>['3', '84']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1030,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1403,7 +1412,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1594,7 +1603,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1976,7 +1985,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2167,7 +2176,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2358,7 +2367,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2549,7 +2558,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2740,7 +2749,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2830,7 +2839,7 @@
         <v>0.5</v>
       </c>
       <c r="AT11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2931,7 +2940,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3122,7 +3131,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3313,7 +3322,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3886,7 +3895,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -3973,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4077,7 +4086,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4459,7 +4468,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4650,7 +4659,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>16</v>
@@ -5032,7 +5041,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5223,7 +5232,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>11</v>
@@ -5796,7 +5805,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6369,7 +6378,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6942,16 +6951,16 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -7068,22 +7077,22 @@
         <v>0</v>
       </c>
       <c r="BF33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BK33">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7133,16 +7142,16 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -7259,22 +7268,404 @@
         <v>0</v>
       </c>
       <c r="BF34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH34">
+        <v>6</v>
+      </c>
+      <c r="BI34">
         <v>4</v>
       </c>
-      <c r="BI34">
-        <v>2</v>
-      </c>
       <c r="BJ34">
+        <v>11</v>
+      </c>
+      <c r="BK34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7024963</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45172.58333333334</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
         <v>7</v>
       </c>
-      <c r="BK34">
-        <v>2</v>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1.25</v>
+      </c>
+      <c r="AD35">
+        <v>5.75</v>
+      </c>
+      <c r="AE35">
+        <v>9</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1.5</v>
+      </c>
+      <c r="AK35">
+        <v>2.4</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>2.63</v>
+      </c>
+      <c r="AV35">
+        <v>0.87</v>
+      </c>
+      <c r="AW35">
+        <v>3.5</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35">
+        <v>2</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>6</v>
+      </c>
+      <c r="BJ35">
+        <v>10</v>
+      </c>
+      <c r="BK35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7024969</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45172.6875</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>3.55</v>
+      </c>
+      <c r="AE36">
+        <v>2.25</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>1.71</v>
+      </c>
+      <c r="AK36">
+        <v>1.97</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <v>0.5</v>
+      </c>
+      <c r="AT36">
+        <v>2</v>
+      </c>
+      <c r="AU36">
+        <v>0.8</v>
+      </c>
+      <c r="AV36">
+        <v>1.47</v>
+      </c>
+      <c r="AW36">
+        <v>2.27</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
+        <v>2</v>
+      </c>
+      <c r="BH36">
+        <v>4</v>
+      </c>
+      <c r="BI36">
+        <v>2</v>
+      </c>
+      <c r="BJ36">
+        <v>7</v>
+      </c>
+      <c r="BK36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,9 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['40', '45+1']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['27', '82', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1036,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1412,7 +1418,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1603,7 +1609,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1985,7 +1991,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2176,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2367,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2558,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2749,7 +2755,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2940,7 +2946,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3131,7 +3137,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3322,7 +3328,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3895,7 +3901,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -4086,7 +4092,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4468,7 +4474,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4659,7 +4665,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>16</v>
@@ -5041,7 +5047,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5232,7 +5238,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>11</v>
@@ -5805,7 +5811,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6378,7 +6384,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6951,7 +6957,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7142,7 +7148,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7524,7 +7530,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7666,6 +7672,197 @@
       </c>
       <c r="BK36">
         <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7024954</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45178.58333333334</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>4</v>
+      </c>
+      <c r="AD37">
+        <v>3.75</v>
+      </c>
+      <c r="AE37">
+        <v>1.77</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>1.66</v>
+      </c>
+      <c r="AK37">
+        <v>2.14</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>3</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>3</v>
+      </c>
+      <c r="AU37">
+        <v>0.68</v>
+      </c>
+      <c r="AV37">
+        <v>1.43</v>
+      </c>
+      <c r="AW37">
+        <v>2.11</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>2</v>
+      </c>
+      <c r="BG37">
+        <v>3</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
+        <v>3</v>
+      </c>
+      <c r="BJ37">
+        <v>7</v>
+      </c>
+      <c r="BK37">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>0.73</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>0.57</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0.57</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.4</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU37" t="n">
         <v>0.68</v>
@@ -8466,6 +8466,1427 @@
       </c>
       <c r="BK39" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7024975</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['31', '44', '58']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7024977</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45185.6875</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['9', '39']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7024979</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45186.47916666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7</v>
+      </c>
+      <c r="S42" t="n">
+        <v>9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7024973</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45186.47916666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['9', '39', '45+2', '54', '56']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['51', '61', '84']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7024976</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45186.58333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['81', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>10</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7024974</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45186.6875</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['54', '61', '90+6']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7024978</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45187.67708333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['1', '5', '11', '23']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>12</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4151,7 +4151,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.36</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT34" t="n">
         <v>3</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>2.63</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>2</v>
@@ -9887,6 +9887,615 @@
       </c>
       <c r="BK46" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7024985</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45191.67708333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7024989</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45192.47916666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['53', '67']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['62', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7024984</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45192.47916666666</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>12</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
         <v>0.57</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>2.86</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -7399,7 +7399,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>0.85</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>2</v>
@@ -8820,7 +8820,7 @@
         <v>1.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.71</v>
@@ -9954,10 +9954,10 @@
         <v>6</v>
       </c>
       <c r="R47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -10154,13 +10154,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -10277,22 +10277,22 @@
         <v>0</v>
       </c>
       <c r="BF48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI48" t="n">
         <v>4</v>
       </c>
-      <c r="BI48" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -10357,13 +10357,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -10480,22 +10480,1037 @@
         <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG49" t="n">
         <v>6</v>
       </c>
       <c r="BH49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI49" t="n">
         <v>3</v>
       </c>
       <c r="BJ49" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK49" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7024987</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>8</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9</v>
+      </c>
+      <c r="S50" t="n">
+        <v>17</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7024983</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['8', '90+1']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>9</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7024988</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45193.47916666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['85', '90+4']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['45+1', '70']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7024986</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['5', '17', '66']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7024981</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.6875</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['19', '37', '54', '58']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,7 +3745,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.16</v>
@@ -11169,13 +11169,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -11292,22 +11292,22 @@
         <v>0</v>
       </c>
       <c r="BF53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI53" t="n">
         <v>4</v>
       </c>
-      <c r="BH53" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ53" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -11372,13 +11372,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -11495,21 +11495,224 @@
         <v>0</v>
       </c>
       <c r="BF54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7024982</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45194.67708333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['10', '26']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
         <v>5</v>
       </c>
-      <c r="BG54" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH54" t="n">
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG55" t="n">
         <v>4</v>
       </c>
-      <c r="BI54" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK54" t="n">
+      <c r="BH55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK55" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:AZ56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.33</v>
@@ -2709,7 +2709,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -6956,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38" t="n">
         <v>3</v>
@@ -7299,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9877,6 +9877,176 @@
       </c>
       <c r="AZ55" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7024994</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45197.67708333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['75', '79']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['13', '49', '68', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ56"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.25</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.67</v>
@@ -4069,7 +4069,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -4576,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>2.33</v>
@@ -4919,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -5089,7 +5089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -7466,7 +7466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.25</v>
@@ -7979,7 +7979,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -10031,22 +10031,532 @@
         <v>2.75</v>
       </c>
       <c r="AU56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7024997</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45198.67708333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW57" t="n">
         <v>8</v>
       </c>
-      <c r="AV56" t="n">
+      <c r="AX57" t="n">
         <v>4</v>
       </c>
-      <c r="AW56" t="n">
+      <c r="AY57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7024992</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45199.47916666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
         <v>5</v>
       </c>
-      <c r="AX56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ56" t="n">
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['58', '85']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['31', '45+1', '87']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ58" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7024998</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['44', '68']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['12', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ59"/>
+  <dimension ref="A1:AZ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>2.33</v>
@@ -1519,7 +1519,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.75</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.33</v>
@@ -6619,7 +6619,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -7296,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.25</v>
@@ -7636,7 +7636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.33</v>
@@ -7976,7 +7976,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.75</v>
@@ -8319,7 +8319,7 @@
         <v>2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -10374,19 +10374,19 @@
         <v>5</v>
       </c>
       <c r="AV58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX58" t="n">
         <v>2</v>
       </c>
       <c r="AY58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -10544,7 +10544,7 @@
         <v>5</v>
       </c>
       <c r="AV59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -10556,7 +10556,517 @@
         <v>5</v>
       </c>
       <c r="AZ59" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7024995</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45199.6875</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['37', '55']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['21', '35', '90']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7024996</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45200.47916666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['53', '85']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7024991</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45200.58333333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['56', '69', '90+3']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['12', '20']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ62"/>
+  <dimension ref="A1:AZ64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.75</v>
@@ -1179,7 +1179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.75</v>
@@ -3729,7 +3729,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.25</v>
@@ -4579,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -5086,7 +5086,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.25</v>
@@ -6109,7 +6109,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7126,7 +7126,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.25</v>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -10881,22 +10881,22 @@
         <v>3.18</v>
       </c>
       <c r="AU61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -11067,6 +11067,346 @@
       </c>
       <c r="AZ62" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>7024993</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45200.6875</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['8', '18', '50', '82']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7024990</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45201.67708333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['61', '78']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ64"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>11</v>
       </c>
+      <c r="BA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>8</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>10</v>
       </c>
+      <c r="BA4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>7</v>
       </c>
+      <c r="BA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
+      <c r="BA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>8</v>
       </c>
+      <c r="BA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>7</v>
       </c>
+      <c r="BA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>11</v>
       </c>
+      <c r="BA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>5</v>
       </c>
+      <c r="BA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>14</v>
       </c>
+      <c r="BA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>9</v>
       </c>
+      <c r="BA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>11</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>6</v>
       </c>
+      <c r="BA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>8</v>
       </c>
+      <c r="BA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>10</v>
       </c>
+      <c r="BA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>6</v>
       </c>
+      <c r="BA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>8</v>
       </c>
+      <c r="BA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>12</v>
       </c>
+      <c r="BA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>11</v>
       </c>
+      <c r="BA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>4</v>
       </c>
+      <c r="BA21" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>15</v>
       </c>
+      <c r="BA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>9</v>
       </c>
+      <c r="BA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>10</v>
       </c>
+      <c r="BA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>13</v>
       </c>
+      <c r="BA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
+      <c r="BA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>9</v>
       </c>
+      <c r="BA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>6</v>
       </c>
+      <c r="BA28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>10</v>
       </c>
+      <c r="BA29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
+      <c r="BA30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
+      <c r="BA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>5</v>
       </c>
+      <c r="BA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>6</v>
       </c>
+      <c r="BA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>10</v>
       </c>
+      <c r="BA34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>8</v>
       </c>
+      <c r="BA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>4</v>
       </c>
+      <c r="BA36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>6</v>
       </c>
+      <c r="BA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>7</v>
       </c>
+      <c r="BA38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>11</v>
       </c>
+      <c r="BA39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>11</v>
       </c>
+      <c r="BA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>12</v>
       </c>
+      <c r="BA41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>13</v>
       </c>
+      <c r="BA42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>13</v>
       </c>
+      <c r="BA43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>8</v>
       </c>
+      <c r="BA44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>6</v>
       </c>
+      <c r="BA45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>20</v>
       </c>
+      <c r="BA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>10</v>
       </c>
+      <c r="BA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>8</v>
       </c>
+      <c r="BA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>9</v>
       </c>
+      <c r="BA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>14</v>
       </c>
+      <c r="BA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>8</v>
       </c>
+      <c r="BA51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>7</v>
       </c>
+      <c r="BA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>10</v>
       </c>
+      <c r="BA53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>6</v>
       </c>
+      <c r="BA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>10</v>
       </c>
+      <c r="BA55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>12</v>
       </c>
+      <c r="BA56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>8</v>
       </c>
+      <c r="BA57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>8</v>
       </c>
+      <c r="BA58" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>4</v>
       </c>
+      <c r="BA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>19</v>
       </c>
+      <c r="BA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>3</v>
       </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>7</v>
       </c>
+      <c r="BA62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>7</v>
       </c>
+      <c r="BA63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11391,7 +14447,7 @@
         <v>2.3</v>
       </c>
       <c r="AU64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV64" t="n">
         <v>2</v>
@@ -11403,10 +14459,58 @@
         <v>6</v>
       </c>
       <c r="AY64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ64" t="n">
         <v>8</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.25</v>
@@ -1137,7 +1137,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.75</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.33</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.25</v>
@@ -3535,7 +3535,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.75</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.75</v>
@@ -5497,7 +5497,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -5933,7 +5933,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7023,7 +7023,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.75</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34" t="n">
         <v>0.85</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.33</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.25</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -10075,7 +10075,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11380,10 +11380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR52" t="n">
         <v>1.44</v>
@@ -12037,7 +12037,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12252,10 +12252,10 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.33</v>
@@ -14510,6 +14510,1968 @@
         <v>0</v>
       </c>
       <c r="BP64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7025002</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45205.67708333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7025007</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45206.47916666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['26', '58', '81', '90+8']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['19', '39']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7024999</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45206.47916666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7025005</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['90+1', '90+6']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7025000</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45206.6875</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7025003</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45207.47916666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7025004</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45207.47916666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['1', '45+4', '77']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7025006</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7025001</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45207.6875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['31', '68']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP73" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -16409,31 +16409,31 @@
         <v>2.72</v>
       </c>
       <c r="AU73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY73" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ73" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB73" t="n">
         <v>2</v>
       </c>
       <c r="BC73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD73" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.75</v>
@@ -4625,7 +4625,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.4</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.25</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.75</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.4</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.75</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -16472,6 +16472,442 @@
         <v>0</v>
       </c>
       <c r="BP73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7025012</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45226.67708333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7025009</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.47916666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.4</v>
@@ -1355,7 +1355,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.75</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.25</v>
@@ -4189,7 +4189,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.5</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.4</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.5</v>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.75</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -9203,7 +9203,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.4</v>
@@ -9639,7 +9639,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.4</v>
@@ -10511,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR49" t="n">
         <v>0.91</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12906,10 +12906,10 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.4</v>
@@ -13345,7 +13345,7 @@
         <v>2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>0.84</v>
@@ -13781,7 +13781,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63" t="n">
         <v>2</v>
@@ -14432,10 +14432,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -16845,69 +16845,1377 @@
         <v>2.46</v>
       </c>
       <c r="AU75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV75" t="n">
         <v>7</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>6</v>
       </c>
       <c r="AW75" t="n">
         <v>5</v>
       </c>
       <c r="AX75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ75" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB75" t="n">
         <v>4</v>
       </c>
       <c r="BC75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7025008</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['3', '43', '45+2', '52', '90+1']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7025015</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ77" t="n">
         <v>8</v>
       </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP75" t="n">
+      <c r="BA77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7025011</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45227.6875</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['21', '58', '89']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['71', '78', '82']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7025010</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45228.52083333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['33', '42', '62']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['4', '45+2', '89', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7025016</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7025013</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45228.72916666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['22', '44']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.4</v>
@@ -2881,7 +2881,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.6</v>
@@ -8331,7 +8331,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.6</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -17717,31 +17717,31 @@
         <v>2.19</v>
       </c>
       <c r="AU79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA79" t="n">
         <v>5</v>
       </c>
-      <c r="AZ79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>4</v>
-      </c>
       <c r="BB79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC79" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD79" t="n">
         <v>0</v>
@@ -17935,7 +17935,7 @@
         <v>2.32</v>
       </c>
       <c r="AU80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV80" t="n">
         <v>3</v>
@@ -17944,22 +17944,22 @@
         <v>5</v>
       </c>
       <c r="AX80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA80" t="n">
         <v>3</v>
       </c>
-      <c r="AY80" t="n">
+      <c r="BB80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC80" t="n">
         <v>5</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>2</v>
       </c>
       <c r="BD80" t="n">
         <v>0</v>
@@ -18156,66 +18156,284 @@
         <v>2</v>
       </c>
       <c r="AV81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7025014</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45229.71875</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['37', '85']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA82" t="n">
         <v>3</v>
       </c>
-      <c r="AW81" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY81" t="n">
+      <c r="BB82" t="n">
         <v>5</v>
       </c>
-      <c r="AZ81" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP81" t="n">
+      <c r="BC82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP82" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -18371,31 +18371,31 @@
         <v>2.46</v>
       </c>
       <c r="AU82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW82" t="n">
         <v>4</v>
       </c>
       <c r="AX82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA82" t="n">
         <v>4</v>
       </c>
-      <c r="AZ82" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>3</v>
-      </c>
       <c r="BB82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC82" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD82" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13" t="n">
         <v>2</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.75</v>
@@ -4843,7 +4843,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.5</v>
@@ -9421,7 +9421,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.25</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -13999,7 +13999,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ66" t="n">
         <v>0</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.4</v>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -18434,6 +18434,442 @@
         <v>0</v>
       </c>
       <c r="BP82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7025019</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45233.71875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7025022</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45234.52083333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['59', '80']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP84" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.6</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.6</v>
@@ -2009,7 +2009,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.4</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.5</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.6</v>
@@ -5933,7 +5933,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.4</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.25</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.75</v>
@@ -7459,7 +7459,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR34" t="n">
         <v>0.85</v>
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.5</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37" t="n">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
         <v>2</v>
@@ -10075,7 +10075,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.75</v>
@@ -11380,10 +11380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -11819,7 +11819,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.44</v>
@@ -12252,10 +12252,10 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -13127,7 +13127,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.5</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63" t="n">
         <v>2</v>
@@ -14650,10 +14650,10 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR65" t="n">
         <v>1.09</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.34</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.25</v>
@@ -15740,10 +15740,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.26</v>
@@ -15958,10 +15958,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR73" t="n">
         <v>1.69</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.75</v>
@@ -18589,31 +18589,31 @@
         <v>3.48</v>
       </c>
       <c r="AU83" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV83" t="n">
         <v>4</v>
       </c>
       <c r="AW83" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX83" t="n">
         <v>1</v>
       </c>
       <c r="AY83" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ83" t="n">
         <v>5</v>
       </c>
       <c r="BA83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD83" t="n">
         <v>0</v>
@@ -18813,63 +18813,1589 @@
         <v>3</v>
       </c>
       <c r="AW84" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX84" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY84" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ84" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA84" t="n">
         <v>3</v>
       </c>
       <c r="BB84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7025023</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['36', '44', '60']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ85" t="n">
         <v>7</v>
       </c>
-      <c r="BC84" t="n">
+      <c r="BA85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7025024</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45234.72916666666</v>
+      </c>
+      <c r="F86" t="n">
         <v>10</v>
       </c>
-      <c r="BD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP84" t="n">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['47', '52', '59', '83', '87', '90']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7025017</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45235.52083333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7025025</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45235.52083333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7025018</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['37', '47']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7025020</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45235.72916666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['33', '71', '79']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['50', '55']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7025021</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45236.71875</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['31', '38']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP91" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -20333,31 +20333,31 @@
         <v>2.47</v>
       </c>
       <c r="AU91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV91" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW91" t="n">
         <v>5</v>
       </c>
       <c r="AX91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ91" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC91" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD91" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.25</v>
@@ -5715,7 +5715,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.4</v>
@@ -9639,7 +9639,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.5</v>
@@ -17269,7 +17269,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>2.21</v>
@@ -20396,6 +20396,224 @@
         <v>0</v>
       </c>
       <c r="BP91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7025029</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45240.71875</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['1', '24', '69', '90+5']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP92" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.17</v>
@@ -1791,7 +1791,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.4</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5</v>
@@ -2445,7 +2445,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.5</v>
@@ -2881,7 +2881,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.4</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.4</v>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.5</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.17</v>
@@ -5279,7 +5279,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.5</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.33</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.4</v>
@@ -7677,7 +7677,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.5</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.33</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.5</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.17</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -11165,7 +11165,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR49" t="n">
         <v>0.91</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.5</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12906,10 +12906,10 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>2.5</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>2.4</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.17</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.5</v>
@@ -14217,7 +14217,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.33</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -16612,10 +16612,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.5</v>
@@ -17048,10 +17048,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR76" t="n">
         <v>1.52</v>
@@ -17266,7 +17266,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.33</v>
@@ -17484,10 +17484,10 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18138,10 +18138,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -18356,10 +18356,10 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>0.88</v>
@@ -20551,69 +20551,1813 @@
         <v>2.48</v>
       </c>
       <c r="AU92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7025027</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45241.52083333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
         <v>3</v>
       </c>
-      <c r="AW92" t="n">
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['14', '38']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA93" t="n">
         <v>3</v>
       </c>
-      <c r="AX92" t="n">
+      <c r="BB93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7025028</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU94" t="n">
         <v>5</v>
       </c>
-      <c r="AY92" t="n">
+      <c r="AV94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA94" t="n">
         <v>5</v>
       </c>
-      <c r="AZ92" t="n">
+      <c r="BB94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7025026</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7025034</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45241.72916666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['39', '59']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7025030</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX97" t="n">
         <v>8</v>
       </c>
-      <c r="BA92" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB92" t="n">
+      <c r="AY97" t="n">
         <v>6</v>
       </c>
-      <c r="BC92" t="n">
+      <c r="AZ97" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7025031</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>11</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['29', '90+2', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7025032</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU99" t="n">
         <v>8</v>
       </c>
-      <c r="BD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP92" t="n">
+      <c r="AV99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7025033</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45242.72916666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['90+4', '90+7']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP100" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.33</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.17</v>
@@ -4407,7 +4407,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.17</v>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.5</v>
@@ -5497,7 +5497,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.33</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.4</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.2</v>
@@ -7459,7 +7459,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>2.17</v>
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36" t="n">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.17</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.17</v>
@@ -9421,7 +9421,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -9857,7 +9857,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.5</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.2</v>
@@ -11380,10 +11380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12252,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.4</v>
@@ -12909,7 +12909,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13127,7 +13127,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
         <v>2.17</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.4</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66" t="n">
         <v>0</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR67" t="n">
         <v>1.34</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.4</v>
@@ -15525,7 +15525,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -15740,7 +15740,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -15958,10 +15958,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR73" t="n">
         <v>1.69</v>
@@ -16833,7 +16833,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -18141,7 +18141,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -18356,7 +18356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
         <v>2</v>
@@ -18577,7 +18577,7 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR83" t="n">
         <v>2.11</v>
@@ -18792,10 +18792,10 @@
         <v>2.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85" t="n">
         <v>0</v>
@@ -19228,10 +19228,10 @@
         <v>1.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.83</v>
@@ -19446,10 +19446,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19664,10 +19664,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -19882,7 +19882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.4</v>
@@ -20318,10 +20318,10 @@
         <v>0.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR91" t="n">
         <v>1.41</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.2</v>
@@ -22358,6 +22358,1750 @@
         <v>0</v>
       </c>
       <c r="BP100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7025041</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45261.72916666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['30', '48']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7025038</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45262.52083333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7025039</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45262.52083333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['3', '87']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7025043</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['9', '45+4', '87']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7025040</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45262.72916666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7025042</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45263.52083333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['31', '51', '90']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7025035</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7025036</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45263.72916666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['2', '23', '39', '72']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP108" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24039,7 +24039,7 @@
         <v>2.22</v>
       </c>
       <c r="AU108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV108" t="n">
         <v>4</v>
@@ -24048,60 +24048,278 @@
         <v>2</v>
       </c>
       <c r="AX108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7025037</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45264.71875</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
         <v>3</v>
       </c>
-      <c r="AY108" t="n">
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
         <v>4</v>
       </c>
-      <c r="AZ108" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA108" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC108" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP108" t="n">
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['43', '52', '56']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP109" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,7 +3317,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.83</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.67</v>
@@ -7542,7 +7542,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>7024971</v>
+        <v>7024964</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7562,22 +7562,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>GD Estoril Praia</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Boavista FC</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -7590,12 +7590,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['3', '84']</t>
+          <t>['4', '41']</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -7626,13 +7626,13 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AA33" t="n">
         <v>3.15</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -7647,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -7668,52 +7668,52 @@
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.68</v>
+        <v>0.91</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="AU33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW33" t="n">
         <v>6</v>
       </c>
       <c r="AX33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC33" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD33" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>7024964</v>
+        <v>7024971</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7780,22 +7780,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>GD Estoril Praia</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Boavista FC</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -7808,12 +7808,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['4', '41']</t>
+          <t>['3', '84']</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -7844,13 +7844,13 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AA34" t="n">
         <v>3.15</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -7886,52 +7886,52 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR34" t="n">
         <v>1.4</v>
       </c>
-      <c r="AQ34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0.85</v>
-      </c>
       <c r="AS34" t="n">
-        <v>0.91</v>
+        <v>1.68</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.76</v>
+        <v>3.08</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW34" t="n">
         <v>6</v>
       </c>
       <c r="AX34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA34" t="n">
         <v>3</v>
       </c>
-      <c r="AY34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>10</v>
-      </c>
       <c r="BB34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC34" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BD34" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -9203,7 +9203,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.29</v>
@@ -10812,7 +10812,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>7024989</v>
+        <v>7024984</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -10832,40 +10832,40 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>GD Estoril Praia</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['53', '67']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>['62', '90+11']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AA48" t="n">
         <v>3.4</v>
       </c>
       <c r="AB48" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC48" t="n">
         <v>0</v>
@@ -10938,52 +10938,52 @@
         <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.31</v>
+        <v>0.91</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.27</v>
+        <v>0.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="AU48" t="n">
         <v>4</v>
       </c>
       <c r="AV48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB48" t="n">
         <v>4</v>
       </c>
-      <c r="AW48" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>3</v>
-      </c>
       <c r="BC48" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD48" t="n">
         <v>0</v>
@@ -11030,7 +11030,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>7024984</v>
+        <v>7024989</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -11050,40 +11050,40 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>GD Estoril Praia</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>['53', '67']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['62', '90+11']</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -11114,13 +11114,13 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AA49" t="n">
         <v>3.4</v>
       </c>
       <c r="AB49" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
@@ -11156,52 +11156,52 @@
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO49" t="n">
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.91</v>
+        <v>1.31</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.75</v>
+        <v>1.27</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.66</v>
+        <v>2.58</v>
       </c>
       <c r="AU49" t="n">
         <v>4</v>
       </c>
       <c r="AV49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW49" t="n">
         <v>6</v>
       </c>
-      <c r="AW49" t="n">
+      <c r="AX49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY49" t="n">
         <v>10</v>
       </c>
-      <c r="AX49" t="n">
+      <c r="AZ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
         <v>3</v>
       </c>
-      <c r="AY49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>4</v>
-      </c>
       <c r="BC49" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD49" t="n">
         <v>0</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12906,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
         <v>2.57</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -15608,7 +15608,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>7025003</v>
+        <v>7025004</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -15628,40 +15628,40 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['1', '45+4', '77']</t>
         </is>
       </c>
       <c r="Q70" t="n">
@@ -15692,13 +15692,13 @@
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="AA70" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AB70" t="n">
-        <v>3.55</v>
+        <v>2.69</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
@@ -15713,10 +15713,10 @@
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AH70" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI70" t="n">
         <v>0</v>
@@ -15734,52 +15734,52 @@
         <v>0</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AU70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB70" t="n">
         <v>3</v>
       </c>
-      <c r="AV70" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>6</v>
-      </c>
       <c r="BC70" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD70" t="n">
         <v>0</v>
@@ -15826,7 +15826,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>7025004</v>
+        <v>7025003</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -15846,158 +15846,158 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU71" t="n">
         <v>3</v>
       </c>
-      <c r="N71" t="n">
-        <v>4</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>['63']</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>['1', '45+4', '77']</t>
-        </is>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AU71" t="n">
+      <c r="AV71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ71" t="n">
         <v>7</v>
       </c>
-      <c r="AV71" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ71" t="n">
+      <c r="BA71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB71" t="n">
         <v>6</v>
       </c>
-      <c r="BA71" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>3</v>
-      </c>
       <c r="BC71" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD71" t="n">
         <v>0</v>
@@ -16916,7 +16916,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>7025008</v>
+        <v>7025015</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -16936,158 +16936,158 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
         <v>3</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>['3', '43', '45+2', '52', '90+1']</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AO76" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.52</v>
+        <v>2.21</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.96</v>
+        <v>3.42</v>
       </c>
       <c r="AU76" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV76" t="n">
         <v>4</v>
       </c>
       <c r="AW76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX76" t="n">
         <v>4</v>
       </c>
-      <c r="AX76" t="n">
-        <v>2</v>
-      </c>
       <c r="AY76" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ76" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA76" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC76" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD76" t="n">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>7025015</v>
+        <v>7025008</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -17154,40 +17154,40 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['3', '43', '45+2', '52', '90+1']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q77" t="n">
@@ -17218,13 +17218,13 @@
         <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="AB77" t="n">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
@@ -17239,10 +17239,10 @@
         <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AH77" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="AI77" t="n">
         <v>0</v>
@@ -17260,52 +17260,52 @@
         <v>0</v>
       </c>
       <c r="AN77" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO77" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR77" t="n">
-        <v>2.21</v>
+        <v>1.52</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.42</v>
+        <v>2.96</v>
       </c>
       <c r="AU77" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV77" t="n">
         <v>4</v>
       </c>
       <c r="AW77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB77" t="n">
         <v>3</v>
       </c>
-      <c r="AX77" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>2</v>
-      </c>
       <c r="BC77" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD77" t="n">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -18138,7 +18138,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.57</v>
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>7025028</v>
+        <v>7025026</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,12 +20860,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -20881,10 +20881,10 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q94" t="n">
@@ -20924,13 +20924,13 @@
         <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="AA94" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="AB94" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AC94" t="n">
         <v>0</v>
@@ -20945,10 +20945,10 @@
         <v>0</v>
       </c>
       <c r="AG94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH94" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AI94" t="n">
         <v>0</v>
@@ -20966,52 +20966,52 @@
         <v>0</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AO94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="AU94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB94" t="n">
         <v>5</v>
       </c>
-      <c r="AV94" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB94" t="n">
+      <c r="BC94" t="n">
         <v>7</v>
-      </c>
-      <c r="BC94" t="n">
-        <v>12</v>
       </c>
       <c r="BD94" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>7025026</v>
+        <v>7025028</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -21078,12 +21078,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -21099,10 +21099,10 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q95" t="n">
@@ -21142,13 +21142,13 @@
         <v>0</v>
       </c>
       <c r="Z95" t="n">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="AA95" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AB95" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AC95" t="n">
         <v>0</v>
@@ -21163,10 +21163,10 @@
         <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH95" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AI95" t="n">
         <v>0</v>
@@ -21184,52 +21184,52 @@
         <v>0</v>
       </c>
       <c r="AN95" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AO95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="AU95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV95" t="n">
         <v>4</v>
       </c>
-      <c r="AV95" t="n">
-        <v>3</v>
-      </c>
       <c r="AW95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY95" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ95" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB95" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC95" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD95" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR98" t="n">
         <v>0.89</v>
@@ -22065,7 +22065,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR99" t="n">
         <v>1.41</v>
@@ -22280,7 +22280,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>2</v>
@@ -22584,7 +22584,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>7025038</v>
+        <v>7025039</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -22604,40 +22604,40 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Rio Ave FC</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['3', '87']</t>
         </is>
       </c>
       <c r="Q102" t="n">
@@ -22668,13 +22668,13 @@
         <v>0</v>
       </c>
       <c r="Z102" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="AA102" t="n">
         <v>3.35</v>
       </c>
       <c r="AB102" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="AC102" t="n">
         <v>0</v>
@@ -22689,10 +22689,10 @@
         <v>0</v>
       </c>
       <c r="AG102" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="AH102" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AI102" t="n">
         <v>0</v>
@@ -22710,52 +22710,52 @@
         <v>0</v>
       </c>
       <c r="AN102" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO102" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="AU102" t="n">
         <v>4</v>
       </c>
       <c r="AV102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB102" t="n">
         <v>7</v>
       </c>
-      <c r="AX102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ102" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA102" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB102" t="n">
-        <v>0</v>
-      </c>
       <c r="BC102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD102" t="n">
         <v>0</v>
@@ -22802,7 +22802,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>7025039</v>
+        <v>7025038</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -22822,40 +22822,40 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Rio Ave FC</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
       <c r="M103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>['3', '87']</t>
+          <t>['86']</t>
         </is>
       </c>
       <c r="Q103" t="n">
@@ -22886,13 +22886,13 @@
         <v>0</v>
       </c>
       <c r="Z103" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="AA103" t="n">
         <v>3.35</v>
       </c>
       <c r="AB103" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="AC103" t="n">
         <v>0</v>
@@ -22907,10 +22907,10 @@
         <v>0</v>
       </c>
       <c r="AG103" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AH103" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AI103" t="n">
         <v>0</v>
@@ -22928,52 +22928,52 @@
         <v>0</v>
       </c>
       <c r="AN103" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO103" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="AU103" t="n">
         <v>4</v>
       </c>
       <c r="AV103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX103" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY103" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ103" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BA103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
         <v>7</v>
-      </c>
-      <c r="BC103" t="n">
-        <v>8</v>
       </c>
       <c r="BD103" t="n">
         <v>0</v>
@@ -24320,6 +24320,442 @@
         <v>0</v>
       </c>
       <c r="BP109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7025048</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45268.52083333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['15', '56', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7025051</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45268.625</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>36</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP111" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.67</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.43</v>
@@ -2881,7 +2881,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.17</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.43</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.83</v>
@@ -6805,7 +6805,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR33" t="n">
         <v>0.85</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.83</v>
@@ -8331,7 +8331,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.57</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.29</v>
@@ -12255,7 +12255,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.29</v>
@@ -13563,7 +13563,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.5</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.43</v>
@@ -14435,7 +14435,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -14653,7 +14653,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR65" t="n">
         <v>1.09</v>
@@ -15307,7 +15307,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.17</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.43</v>
@@ -17051,7 +17051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR76" t="n">
         <v>2.21</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.5</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR82" t="n">
         <v>0.88</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.43</v>
@@ -19885,7 +19885,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR89" t="n">
         <v>1.22</v>
@@ -20539,7 +20539,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR92" t="n">
         <v>1.32</v>
@@ -20754,7 +20754,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ94" t="n">
         <v>2.17</v>
@@ -21408,7 +21408,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.57</v>
@@ -21629,7 +21629,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ99" t="n">
         <v>2.29</v>
@@ -22283,7 +22283,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR100" t="n">
         <v>2.2</v>
@@ -24756,6 +24756,1096 @@
         <v>0</v>
       </c>
       <c r="BP111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7025045</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45269.52083333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7025052</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['45+7', '73', '80']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['41', '77']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7025047</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45269.72916666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['12', '49', '81']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7025046</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45270.52083333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['52', '78', '84']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7025050</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['50', '62']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['5', '29']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP116" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.5</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.29</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.17</v>
@@ -7895,7 +7895,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.43</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -10511,7 +10511,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.83</v>
@@ -13781,7 +13781,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -14217,7 +14217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.14</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.29</v>
@@ -16615,7 +16615,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -17269,7 +17269,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17484,7 +17484,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.29</v>
@@ -20536,7 +20536,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.14</v>
@@ -20757,7 +20757,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR93" t="n">
         <v>1.36</v>
@@ -20975,7 +20975,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ94" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR94" t="n">
         <v>1.45</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.5</v>
@@ -25783,69 +25783,505 @@
         <v>2.67</v>
       </c>
       <c r="AU116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB116" t="n">
         <v>3</v>
       </c>
-      <c r="AW116" t="n">
+      <c r="BC116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7025044</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45270.72916666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
         <v>4</v>
       </c>
-      <c r="AX116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY116" t="n">
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
         <v>4</v>
       </c>
-      <c r="AZ116" t="n">
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['6', '61', '70', '90+2']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV117" t="n">
         <v>3</v>
       </c>
-      <c r="BA116" t="n">
+      <c r="AW117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA117" t="n">
         <v>3</v>
       </c>
-      <c r="BB116" t="n">
+      <c r="BB117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7025049</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45271.71875</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
         <v>2</v>
       </c>
-      <c r="BC116" t="n">
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU118" t="n">
         <v>5</v>
       </c>
-      <c r="BD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP116" t="n">
+      <c r="AV118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP118" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.14</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.43</v>
@@ -2009,7 +2009,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.43</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.29</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.43</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.14</v>
@@ -5933,7 +5933,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.57</v>
@@ -7459,7 +7459,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.29</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.14</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.43</v>
@@ -11165,7 +11165,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -11383,7 +11383,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.67</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.43</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63" t="n">
         <v>2</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR67" t="n">
         <v>1.34</v>
@@ -15743,7 +15743,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
         <v>2</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.17</v>
@@ -18356,7 +18356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19667,7 +19667,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -19882,7 +19882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.17</v>
@@ -20318,7 +20318,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.83</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.17</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>2.29</v>
@@ -22501,7 +22501,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR101" t="n">
         <v>1.24</v>
@@ -22716,10 +22716,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR102" t="n">
         <v>1.32</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -24024,7 +24024,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.83</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.5</v>
@@ -26282,6 +26282,878 @@
         <v>0</v>
       </c>
       <c r="BP118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7025056</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45275.71875</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7025058</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45276.52083333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7025060</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['45+1', '61', '78']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7025061</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45276.72916666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP122" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.57</v>
@@ -2663,7 +2663,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.29</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -4843,7 +4843,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5497,7 +5497,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -5715,7 +5715,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.17</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>2</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.29</v>
@@ -9421,7 +9421,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -9857,7 +9857,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -10075,7 +10075,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.83</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.17</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12252,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.17</v>
@@ -13127,7 +13127,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13999,7 +13999,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -14435,7 +14435,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.17</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ66" t="n">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -15525,7 +15525,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.57</v>
@@ -16179,7 +16179,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16833,7 +16833,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -17051,7 +17051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR76" t="n">
         <v>2.21</v>
@@ -18577,7 +18577,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>2.11</v>
@@ -18792,10 +18792,10 @@
         <v>2.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85" t="n">
         <v>0</v>
@@ -19228,10 +19228,10 @@
         <v>1.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR86" t="n">
         <v>1.83</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.57</v>
@@ -20539,7 +20539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR92" t="n">
         <v>1.32</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.86</v>
@@ -23152,7 +23152,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.57</v>
@@ -23373,7 +23373,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR105" t="n">
         <v>1.16</v>
@@ -23588,10 +23588,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -23806,10 +23806,10 @@
         <v>2.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -25335,7 +25335,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR114" t="n">
         <v>2.14</v>
@@ -27091,69 +27091,941 @@
         <v>2.23</v>
       </c>
       <c r="AU122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7025057</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45277.52083333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="AV122" t="n">
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" t="n">
+        <v>5</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>7</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['23', '25', '84', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['40', '74']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV123" t="n">
         <v>4</v>
       </c>
-      <c r="AW122" t="n">
+      <c r="AW123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7025059</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45277.52083333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
         <v>3</v>
       </c>
-      <c r="AX122" t="n">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
         <v>3</v>
       </c>
-      <c r="AY122" t="n">
+      <c r="N124" t="n">
+        <v>4</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['20', '23', '82']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7025055</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW125" t="n">
         <v>5</v>
       </c>
-      <c r="AZ122" t="n">
+      <c r="AX125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB125" t="n">
         <v>7</v>
       </c>
-      <c r="BA122" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB122" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC122" t="n">
+      <c r="BC125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7025053</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45277.72916666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV126" t="n">
         <v>5</v>
       </c>
-      <c r="BD122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP122" t="n">
+      <c r="AW126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP126" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -8767,7 +8767,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -18141,7 +18141,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -21411,7 +21411,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -23155,7 +23155,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR104" t="n">
         <v>1.23</v>
@@ -27963,31 +27963,31 @@
         <v>3.32</v>
       </c>
       <c r="AU126" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW126" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX126" t="n">
         <v>3</v>
       </c>
       <c r="AY126" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA126" t="n">
         <v>5</v>
-      </c>
-      <c r="AZ126" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA126" t="n">
-        <v>3</v>
       </c>
       <c r="BB126" t="n">
         <v>2</v>
       </c>
       <c r="BC126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD126" t="n">
         <v>0</v>
@@ -28026,6 +28026,224 @@
         <v>0</v>
       </c>
       <c r="BP126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7025054</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45278.71875</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['11', '60']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP127" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.83</v>
@@ -4625,7 +4625,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.86</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR34" t="n">
         <v>1.4</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.38</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.88</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.88</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.5</v>
@@ -14217,7 +14217,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -15307,7 +15307,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.43</v>
@@ -18138,7 +18138,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.25</v>
@@ -20975,7 +20975,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ94" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR94" t="n">
         <v>1.45</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21408,7 +21408,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.25</v>
@@ -21629,7 +21629,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -24460,7 +24460,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
         <v>2.29</v>
@@ -25114,7 +25114,7 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.67</v>
@@ -25771,7 +25771,7 @@
         <v>1</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR116" t="n">
         <v>1.42</v>
@@ -26207,7 +26207,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR118" t="n">
         <v>1.13</v>
@@ -28244,6 +28244,442 @@
         <v>0</v>
       </c>
       <c r="BP127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7025068</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45283.52083333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7025065</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45283.52083333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP129" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.88</v>
@@ -1791,7 +1791,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.57</v>
@@ -3535,7 +3535,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.43</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.5</v>
@@ -5279,7 +5279,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.38</v>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -7241,7 +7241,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.57</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>0.85</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.25</v>
@@ -8985,7 +8985,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.5</v>
@@ -10511,7 +10511,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -10729,7 +10729,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>0.91</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.86</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.29</v>
@@ -12906,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ57" t="n">
         <v>2.25</v>
@@ -13345,7 +13345,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR59" t="n">
         <v>0.84</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.38</v>
@@ -14653,7 +14653,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.09</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.38</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.88</v>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR73" t="n">
         <v>1.69</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.38</v>
@@ -17269,7 +17269,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17484,7 +17484,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.29</v>
@@ -17705,7 +17705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -17920,10 +17920,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -19885,7 +19885,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89" t="n">
         <v>1.22</v>
@@ -20321,7 +20321,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR91" t="n">
         <v>1.41</v>
@@ -20536,7 +20536,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.38</v>
@@ -20757,7 +20757,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR93" t="n">
         <v>1.36</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.88</v>
@@ -21193,7 +21193,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.43</v>
@@ -21847,7 +21847,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR98" t="n">
         <v>0.89</v>
@@ -22280,7 +22280,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.67</v>
@@ -24027,7 +24027,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR108" t="n">
         <v>0.97</v>
@@ -24678,10 +24678,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR111" t="n">
         <v>2.02</v>
@@ -24899,7 +24899,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25332,7 +25332,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.38</v>
@@ -25550,10 +25550,10 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.29</v>
@@ -25986,10 +25986,10 @@
         <v>0.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR117" t="n">
         <v>1.28</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.88</v>
@@ -28680,6 +28680,1096 @@
         <v>0</v>
       </c>
       <c r="BP129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7025062</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45288.71875</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>5</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['47', '77', '80', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7025069</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45289.65625</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['31', '85', '89']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7025063</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45289.73958333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7025064</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45290.52083333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7025070</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45290.52083333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>4</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['4', '45+5', '47', '78']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP134" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.43</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -9203,7 +9203,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.57</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.38</v>
@@ -12691,7 +12691,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -13563,7 +13563,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -15958,7 +15958,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.5</v>
@@ -17487,7 +17487,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -18359,7 +18359,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR82" t="n">
         <v>0.88</v>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.86</v>
@@ -20754,7 +20754,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.38</v>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR99" t="n">
         <v>1.41</v>
@@ -22283,7 +22283,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR100" t="n">
         <v>2.2</v>
@@ -23370,7 +23370,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.88</v>
@@ -24463,7 +24463,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR110" t="n">
         <v>1.48</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.88</v>
@@ -25117,7 +25117,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR113" t="n">
         <v>1.5</v>
@@ -29770,6 +29770,442 @@
         <v>0</v>
       </c>
       <c r="BP134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7025066</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45290.625</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>4</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['51', '77', '88']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7025067</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45290.72916666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['59', '80']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP136" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.88</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.38</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.88</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.38</v>
@@ -5497,7 +5497,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.38</v>
@@ -5933,7 +5933,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6369,7 +6369,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -7459,7 +7459,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.86</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.38</v>
@@ -9421,7 +9421,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.38</v>
@@ -9857,7 +9857,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.38</v>
@@ -11165,7 +11165,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -11383,7 +11383,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -12037,7 +12037,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12252,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.38</v>
@@ -12909,7 +12909,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.88</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.86</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.38</v>
@@ -13999,7 +13999,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR67" t="n">
         <v>1.34</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.43</v>
@@ -15525,7 +15525,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -15743,7 +15743,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.88</v>
@@ -16833,7 +16833,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.88</v>
@@ -18141,7 +18141,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -18356,7 +18356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.86</v>
@@ -18577,7 +18577,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR83" t="n">
         <v>2.11</v>
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19228,7 +19228,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.88</v>
@@ -19449,7 +19449,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19667,7 +19667,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -20318,7 +20318,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.14</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.88</v>
@@ -21411,7 +21411,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ98" t="n">
         <v>1</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
         <v>2.38</v>
@@ -22501,7 +22501,7 @@
         <v>1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR101" t="n">
         <v>1.24</v>
@@ -22716,10 +22716,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR102" t="n">
         <v>1.32</v>
@@ -23155,7 +23155,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR104" t="n">
         <v>1.23</v>
@@ -23588,10 +23588,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -23809,7 +23809,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -24024,7 +24024,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.14</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.43</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119" t="n">
         <v>1</v>
@@ -26643,7 +26643,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR120" t="n">
         <v>1.15</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ121" t="n">
         <v>0</v>
@@ -27076,10 +27076,10 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR122" t="n">
         <v>1.01</v>
@@ -27733,7 +27733,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.27</v>
@@ -27948,10 +27948,10 @@
         <v>2.29</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -28169,7 +28169,7 @@
         <v>3</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR127" t="n">
         <v>1.65</v>
@@ -28820,7 +28820,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.14</v>
@@ -30206,6 +30206,1314 @@
         <v>0</v>
       </c>
       <c r="BP136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7025073</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45296.65625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>5</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>6</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['21', '45+2', '51', '69', '78']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7025079</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45296.73958333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7025075</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45297.52083333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7025076</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45297.52083333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7025077</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45297.625</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['39', '47', '85']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7025078</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45297.72916666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP142" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.11</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.88</v>
@@ -5061,7 +5061,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5279,7 +5279,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5715,7 +5715,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.11</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.38</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.88</v>
@@ -9639,7 +9639,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -10075,7 +10075,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10511,7 +10511,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.14</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13781,7 +13781,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.88</v>
@@ -14435,7 +14435,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.5</v>
@@ -16179,7 +16179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -17051,7 +17051,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR76" t="n">
         <v>2.21</v>
@@ -17269,7 +17269,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR86" t="n">
         <v>1.83</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.5</v>
@@ -19882,7 +19882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -20539,7 +20539,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR92" t="n">
         <v>1.32</v>
@@ -20757,7 +20757,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR93" t="n">
         <v>1.36</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.11</v>
@@ -23373,7 +23373,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR105" t="n">
         <v>1.16</v>
@@ -23806,7 +23806,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.44</v>
@@ -25335,7 +25335,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR114" t="n">
         <v>2.14</v>
@@ -25989,7 +25989,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR117" t="n">
         <v>1.28</v>
@@ -26640,7 +26640,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.88</v>
@@ -27294,10 +27294,10 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR124" t="n">
         <v>1.24</v>
@@ -27730,7 +27730,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.44</v>
@@ -29259,7 +29259,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR132" t="n">
         <v>2.01</v>
@@ -31451,69 +31451,723 @@
         <v>3.11</v>
       </c>
       <c r="AU142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7025074</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
         <v>2</v>
       </c>
-      <c r="AV142" t="n">
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
         <v>2</v>
       </c>
-      <c r="AW142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX142" t="n">
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['54', '89']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7025071</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45298.72916666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>4</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['33', '40']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['23', '56']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW144" t="n">
         <v>5</v>
       </c>
-      <c r="AY142" t="n">
+      <c r="AX144" t="n">
         <v>3</v>
       </c>
-      <c r="AZ142" t="n">
+      <c r="AY144" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ144" t="n">
         <v>7</v>
       </c>
-      <c r="BA142" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB142" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC142" t="n">
+      <c r="BA144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7025072</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45299.71875</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K145" t="n">
         <v>4</v>
       </c>
-      <c r="BD142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP142" t="n">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>4</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['18', '26', '39', '56']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP145" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.78</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.44</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.88</v>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.5</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR33" t="n">
         <v>0.85</v>
@@ -7892,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.4</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -8331,7 +8331,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -8985,7 +8985,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -9203,7 +9203,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.44</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.44</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.78</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -10729,7 +10729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR48" t="n">
         <v>0.91</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.88</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.5</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.44</v>
@@ -12255,7 +12255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12691,7 +12691,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12906,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>2.11</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.78</v>
@@ -13345,7 +13345,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR59" t="n">
         <v>0.84</v>
@@ -13563,7 +13563,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.44</v>
@@ -14217,7 +14217,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.56</v>
@@ -14653,7 +14653,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.09</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ66" t="n">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.44</v>
@@ -15958,7 +15958,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.78</v>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.69</v>
@@ -16615,7 +16615,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.44</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.56</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.44</v>
@@ -17484,10 +17484,10 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -17923,7 +17923,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18138,7 +18138,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.11</v>
@@ -18359,7 +18359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>0.88</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.44</v>
@@ -18792,7 +18792,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.44</v>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.88</v>
@@ -19885,7 +19885,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR89" t="n">
         <v>1.22</v>
@@ -20321,7 +20321,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.41</v>
@@ -20536,7 +20536,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.56</v>
@@ -20754,7 +20754,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.44</v>
@@ -20975,7 +20975,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR94" t="n">
         <v>1.45</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21408,7 +21408,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.11</v>
@@ -21626,10 +21626,10 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21847,7 +21847,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR98" t="n">
         <v>0.89</v>
@@ -22065,7 +22065,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR99" t="n">
         <v>1.41</v>
@@ -22280,10 +22280,10 @@
         <v>2.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR100" t="n">
         <v>2.2</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.88</v>
@@ -23370,7 +23370,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.78</v>
@@ -24027,7 +24027,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>0.97</v>
@@ -24460,10 +24460,10 @@
         <v>2.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR110" t="n">
         <v>1.48</v>
@@ -24678,10 +24678,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR111" t="n">
         <v>2.02</v>
@@ -24896,10 +24896,10 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25114,10 +25114,10 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR113" t="n">
         <v>1.5</v>
@@ -25332,7 +25332,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.56</v>
@@ -25553,7 +25553,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR115" t="n">
         <v>1.29</v>
@@ -25771,7 +25771,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR116" t="n">
         <v>1.42</v>
@@ -25986,7 +25986,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.44</v>
@@ -26204,10 +26204,10 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.13</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.56</v>
@@ -28384,10 +28384,10 @@
         <v>0.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR128" t="n">
         <v>1.39</v>
@@ -28602,10 +28602,10 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR129" t="n">
         <v>1.5</v>
@@ -28823,7 +28823,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.05</v>
@@ -29038,10 +29038,10 @@
         <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR131" t="n">
         <v>2.42</v>
@@ -29256,7 +29256,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.44</v>
@@ -29474,10 +29474,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR133" t="n">
         <v>1.14</v>
@@ -29692,10 +29692,10 @@
         <v>1.17</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR134" t="n">
         <v>1.3</v>
@@ -29910,10 +29910,10 @@
         <v>2.29</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR135" t="n">
         <v>1.15</v>
@@ -30128,10 +30128,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR136" t="n">
         <v>1.27</v>
@@ -32168,6 +32168,1968 @@
         <v>0</v>
       </c>
       <c r="BP145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7025084</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45303.71875</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7025088</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45304.52083333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['45+1', '66']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" t="n">
+        <v>0</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7025086</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['44', '52', '56']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7025085</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45304.72916666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['30', '33', '74']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>7025082</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45305.52083333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>7025087</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45305.625</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>5</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['29', '61', '80', '90+1']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7025081</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45305.625</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>4</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['24', '40', '52', '65']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7025083</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45305.72916666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['12', '49']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7025080</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45306.71875</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['45', '64']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP154" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,7 +2881,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.88</v>
@@ -8331,7 +8331,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -9203,7 +9203,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.44</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.78</v>
@@ -13563,7 +13563,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.5</v>
@@ -17487,7 +17487,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -18138,7 +18138,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.11</v>
@@ -18359,7 +18359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR82" t="n">
         <v>0.88</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.11</v>
@@ -22065,7 +22065,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR99" t="n">
         <v>1.41</v>
@@ -22283,7 +22283,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR100" t="n">
         <v>2.2</v>
@@ -23152,7 +23152,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.11</v>
@@ -24460,10 +24460,10 @@
         <v>2.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.48</v>
@@ -25117,7 +25117,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR113" t="n">
         <v>1.5</v>
@@ -27730,7 +27730,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.44</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ129" t="n">
         <v>2</v>
@@ -29913,7 +29913,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR135" t="n">
         <v>1.15</v>
@@ -30131,7 +30131,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR136" t="n">
         <v>1.27</v>
@@ -31872,7 +31872,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.44</v>
@@ -32747,7 +32747,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR148" t="n">
         <v>1.28</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.25</v>
@@ -33837,7 +33837,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR153" t="n">
         <v>2.02</v>
@@ -34130,6 +34130,442 @@
         <v>0</v>
       </c>
       <c r="BP154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7025094</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45309.65625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['73', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" t="n">
+        <v>0</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7025096</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45309.73958333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
+      <c r="N156" t="n">
+        <v>7</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['13', '63']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['45+8', '46', '57', '72', '86']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
+      <c r="S156" t="n">
+        <v>0</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP156" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.11</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.2</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.88</v>
@@ -6587,7 +6587,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.77</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.5</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR33" t="n">
         <v>0.85</v>
@@ -7892,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR34" t="n">
         <v>1.4</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.78</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -10729,7 +10729,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR48" t="n">
         <v>0.91</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.88</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.5</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR51" t="n">
         <v>2.12</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR52" t="n">
         <v>1.44</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.44</v>
@@ -12255,7 +12255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12906,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ57" t="n">
         <v>2.11</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.44</v>
@@ -14217,7 +14217,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -14653,7 +14653,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR65" t="n">
         <v>1.09</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.44</v>
@@ -15958,10 +15958,10 @@
         <v>0.67</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR71" t="n">
         <v>1.26</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.78</v>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR73" t="n">
         <v>1.69</v>
@@ -16615,7 +16615,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.44</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.56</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.44</v>
@@ -17705,7 +17705,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.44</v>
@@ -18792,7 +18792,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.44</v>
@@ -19013,7 +19013,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.28</v>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.88</v>
@@ -19885,7 +19885,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR89" t="n">
         <v>1.22</v>
@@ -20103,7 +20103,7 @@
         <v>3</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR90" t="n">
         <v>1.66</v>
@@ -20321,7 +20321,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR91" t="n">
         <v>1.41</v>
@@ -20536,7 +20536,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.56</v>
@@ -20754,7 +20754,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.44</v>
@@ -20975,7 +20975,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR94" t="n">
         <v>1.45</v>
@@ -21408,7 +21408,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.11</v>
@@ -21629,7 +21629,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21847,7 +21847,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR98" t="n">
         <v>0.89</v>
@@ -22280,7 +22280,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ100" t="n">
         <v>2.11</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.88</v>
@@ -22937,7 +22937,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR103" t="n">
         <v>1.12</v>
@@ -23370,7 +23370,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.78</v>
@@ -24027,7 +24027,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR108" t="n">
         <v>0.97</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR109" t="n">
         <v>1.71</v>
@@ -24678,10 +24678,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR111" t="n">
         <v>2.02</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.11</v>
@@ -25114,7 +25114,7 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ113" t="n">
         <v>2.11</v>
@@ -25332,7 +25332,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.56</v>
@@ -25553,7 +25553,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR115" t="n">
         <v>1.29</v>
@@ -25771,7 +25771,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR116" t="n">
         <v>1.42</v>
@@ -25986,7 +25986,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.44</v>
@@ -26207,7 +26207,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR118" t="n">
         <v>1.13</v>
@@ -26425,7 +26425,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR119" t="n">
         <v>1.26</v>
@@ -26861,7 +26861,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR121" t="n">
         <v>1.42</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.56</v>
@@ -28384,10 +28384,10 @@
         <v>0.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR128" t="n">
         <v>1.39</v>
@@ -28605,7 +28605,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ129" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR129" t="n">
         <v>1.5</v>
@@ -28823,7 +28823,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR130" t="n">
         <v>1.05</v>
@@ -29038,7 +29038,7 @@
         <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.11</v>
@@ -29256,7 +29256,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.44</v>
@@ -29477,7 +29477,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR133" t="n">
         <v>1.14</v>
@@ -29692,10 +29692,10 @@
         <v>1.17</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR134" t="n">
         <v>1.3</v>
@@ -29910,7 +29910,7 @@
         <v>2.29</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ135" t="n">
         <v>2.2</v>
@@ -30128,7 +30128,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ136" t="n">
         <v>2.11</v>
@@ -30785,7 +30785,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR139" t="n">
         <v>1.23</v>
@@ -32308,10 +32308,10 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR146" t="n">
         <v>1.19</v>
@@ -32526,7 +32526,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.11</v>
@@ -32744,7 +32744,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ148" t="n">
         <v>2.11</v>
@@ -32962,10 +32962,10 @@
         <v>1.88</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR149" t="n">
         <v>1.28</v>
@@ -33183,7 +33183,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR150" t="n">
         <v>1.14</v>
@@ -33398,10 +33398,10 @@
         <v>0.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR151" t="n">
         <v>2.34</v>
@@ -33619,7 +33619,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR152" t="n">
         <v>1.42</v>
@@ -33834,7 +33834,7 @@
         <v>2.38</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ153" t="n">
         <v>2.2</v>
@@ -34052,10 +34052,10 @@
         <v>1.14</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR154" t="n">
         <v>1.33</v>
@@ -34566,6 +34566,1532 @@
         <v>0</v>
       </c>
       <c r="BP156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7025089</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45310.71875</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['61', '90+4']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7025095</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45311.52083333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['8', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7025091</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45311.625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['24', '40', '75']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>0</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7025092</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45311.72916666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>5</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['8', '60', '69', '72', '83']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>0</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7025097</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45312.52083333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['42', '81']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>0</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7025090</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45312.625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>0</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7025093</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45312.72916666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['14', '79', '88']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>0</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP163" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.56</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.44</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.44</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.44</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.44</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.56</v>
@@ -5933,7 +5933,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -6369,7 +6369,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -7459,7 +7459,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.2</v>
@@ -8767,7 +8767,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.2</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.56</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.44</v>
@@ -10075,7 +10075,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.44</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.11</v>
@@ -11165,7 +11165,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -11383,7 +11383,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -12909,7 +12909,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13127,7 +13127,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13342,10 +13342,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>0.84</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.11</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.44</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.56</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.11</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR67" t="n">
         <v>1.34</v>
@@ -15743,7 +15743,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.8</v>
@@ -17484,7 +17484,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.2</v>
@@ -17923,7 +17923,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18141,7 +18141,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -18356,7 +18356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>2.11</v>
@@ -19231,7 +19231,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.83</v>
@@ -19446,10 +19446,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19667,7 +19667,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -20318,7 +20318,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.22</v>
@@ -21193,7 +21193,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21411,7 +21411,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.44</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.11</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
         <v>2.2</v>
@@ -22501,7 +22501,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR101" t="n">
         <v>1.24</v>
@@ -22716,10 +22716,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR102" t="n">
         <v>1.32</v>
@@ -23155,7 +23155,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR104" t="n">
         <v>1.23</v>
@@ -23373,7 +23373,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.16</v>
@@ -23806,7 +23806,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.44</v>
@@ -24024,7 +24024,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.22</v>
@@ -24899,7 +24899,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.44</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.8</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.89</v>
@@ -26643,7 +26643,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR120" t="n">
         <v>1.15</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.33</v>
@@ -27076,10 +27076,10 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.01</v>
@@ -27294,10 +27294,10 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -28169,7 +28169,7 @@
         <v>3</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.65</v>
@@ -29041,7 +29041,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>2.42</v>
@@ -29474,7 +29474,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.11</v>
@@ -30564,10 +30564,10 @@
         <v>2.25</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR138" t="n">
         <v>1.03</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.33</v>
@@ -31003,7 +31003,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR140" t="n">
         <v>0.99</v>
@@ -31218,7 +31218,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.44</v>
@@ -31439,7 +31439,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR142" t="n">
         <v>1.87</v>
@@ -31657,7 +31657,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR143" t="n">
         <v>1.17</v>
@@ -32090,7 +32090,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.56</v>
@@ -32529,7 +32529,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>1.08</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.89</v>
@@ -36092,6 +36092,1096 @@
         <v>0</v>
       </c>
       <c r="BP163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7025099</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45319.52083333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>4</v>
+      </c>
+      <c r="N164" t="n">
+        <v>5</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['18', '25', '35', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7025104</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45319.52083333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7025100</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45319.625</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['35', '41', '76']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" t="n">
+        <v>0</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7025098</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45319.72916666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>5</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['11', '17', '50', '86', '90+2']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>0</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7025105</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45319.72916666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
+      <c r="S168" t="n">
+        <v>0</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP168" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.33</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.44</v>
@@ -5497,7 +5497,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.2</v>
@@ -9421,7 +9421,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -9639,7 +9639,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -12037,7 +12037,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.2</v>
@@ -14435,7 +14435,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -15525,7 +15525,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -17051,7 +17051,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR76" t="n">
         <v>2.21</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -20539,7 +20539,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR92" t="n">
         <v>1.32</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.8</v>
@@ -23809,7 +23809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -25335,7 +25335,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR114" t="n">
         <v>2.14</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR124" t="n">
         <v>1.24</v>
@@ -27951,7 +27951,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -28820,7 +28820,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.22</v>
@@ -31000,7 +31000,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.78</v>
@@ -31221,7 +31221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR141" t="n">
         <v>1.37</v>
@@ -32093,7 +32093,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR145" t="n">
         <v>1.11</v>
@@ -37182,6 +37182,442 @@
         <v>0</v>
       </c>
       <c r="BP168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7025103</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45320.65625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>4</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['44', '45+1', '52', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" t="n">
+        <v>0</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>7025106</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45320.73958333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>5</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5</v>
+      </c>
+      <c r="L170" t="n">
+        <v>8</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>8</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['14', '23', '25', '32', '43', '64', '81', '90+4']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP170" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.2</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.11</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -12252,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.11</v>
@@ -13781,7 +13781,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -13999,7 +13999,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.8</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.44</v>
@@ -16833,7 +16833,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -17269,7 +17269,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -18577,7 +18577,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>2.11</v>
@@ -19228,7 +19228,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19882,7 +19882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.11</v>
@@ -20757,7 +20757,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.36</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.89</v>
@@ -23588,10 +23588,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -25989,7 +25989,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.28</v>
@@ -26640,7 +26640,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.78</v>
@@ -27733,7 +27733,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR125" t="n">
         <v>1.27</v>
@@ -27948,7 +27948,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.5</v>
@@ -29259,7 +29259,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR132" t="n">
         <v>2.01</v>
@@ -30349,7 +30349,7 @@
         <v>3</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR137" t="n">
         <v>1.61</v>
@@ -31436,7 +31436,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -31654,7 +31654,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -31875,7 +31875,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR144" t="n">
         <v>1.24</v>
@@ -37618,6 +37618,442 @@
         <v>0</v>
       </c>
       <c r="BP170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>7025102</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45322.65625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7025101</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45322.73958333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>0</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP172" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.11</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR28" t="n">
         <v>1.77</v>
@@ -6805,7 +6805,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR31" t="n">
         <v>0.83</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR32" t="n">
         <v>2.86</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.11</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.8</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR35" t="n">
         <v>2.63</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.5</v>
@@ -10729,7 +10729,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR48" t="n">
         <v>0.91</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.78</v>
@@ -11383,7 +11383,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.33</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR51" t="n">
         <v>2.12</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR52" t="n">
         <v>1.44</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.5</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -12906,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ57" t="n">
         <v>2.2</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15307,7 +15307,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69" t="n">
         <v>2.5</v>
@@ -15743,7 +15743,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15961,7 +15961,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR71" t="n">
         <v>1.26</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR73" t="n">
         <v>1.69</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.5</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.4</v>
@@ -17705,7 +17705,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -18138,7 +18138,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.2</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -18792,7 +18792,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.5</v>
@@ -19013,7 +19013,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR85" t="n">
         <v>1.28</v>
@@ -19449,7 +19449,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -20103,7 +20103,7 @@
         <v>3</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR90" t="n">
         <v>1.66</v>
@@ -20321,7 +20321,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR91" t="n">
         <v>1.41</v>
@@ -20536,7 +20536,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.4</v>
@@ -20754,7 +20754,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21629,7 +21629,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR98" t="n">
         <v>0.89</v>
@@ -22280,7 +22280,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ100" t="n">
         <v>2.11</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.78</v>
@@ -22719,7 +22719,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR102" t="n">
         <v>1.32</v>
@@ -22937,7 +22937,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR103" t="n">
         <v>1.12</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR108" t="n">
         <v>0.97</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR109" t="n">
         <v>1.71</v>
@@ -24460,7 +24460,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ110" t="n">
         <v>2.2</v>
@@ -24678,10 +24678,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR111" t="n">
         <v>2.02</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25332,7 +25332,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.4</v>
@@ -25771,7 +25771,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR116" t="n">
         <v>1.42</v>
@@ -25986,7 +25986,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.5</v>
@@ -26425,7 +26425,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR119" t="n">
         <v>1.26</v>
@@ -26861,7 +26861,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR121" t="n">
         <v>1.42</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR122" t="n">
         <v>1.01</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.4</v>
@@ -28387,7 +28387,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.39</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.8</v>
@@ -28823,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR130" t="n">
         <v>1.05</v>
@@ -29038,7 +29038,7 @@
         <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ131" t="n">
         <v>1</v>
@@ -29256,7 +29256,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.5</v>
@@ -29692,10 +29692,10 @@
         <v>1.17</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.3</v>
@@ -30128,7 +30128,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ136" t="n">
         <v>2.11</v>
@@ -30785,7 +30785,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR139" t="n">
         <v>1.23</v>
@@ -31439,7 +31439,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR142" t="n">
         <v>1.87</v>
@@ -32308,10 +32308,10 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR146" t="n">
         <v>1.19</v>
@@ -32744,7 +32744,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ148" t="n">
         <v>2.11</v>
@@ -32962,7 +32962,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.8</v>
@@ -33183,7 +33183,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR150" t="n">
         <v>1.14</v>
@@ -33398,10 +33398,10 @@
         <v>0.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR151" t="n">
         <v>2.34</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.11</v>
@@ -33834,7 +33834,7 @@
         <v>2.38</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ153" t="n">
         <v>2.2</v>
@@ -34055,7 +34055,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR154" t="n">
         <v>1.33</v>
@@ -34488,7 +34488,7 @@
         <v>2</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ156" t="n">
         <v>2.11</v>
@@ -34706,7 +34706,7 @@
         <v>1.25</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.11</v>
@@ -34924,10 +34924,10 @@
         <v>1</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR158" t="n">
         <v>1.29</v>
@@ -35145,7 +35145,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR159" t="n">
         <v>1.05</v>
@@ -35360,7 +35360,7 @@
         <v>2</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.8</v>
@@ -35578,10 +35578,10 @@
         <v>0</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR161" t="n">
         <v>1.18</v>
@@ -35796,10 +35796,10 @@
         <v>0.38</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR162" t="n">
         <v>1.2</v>
@@ -36017,7 +36017,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR163" t="n">
         <v>1.36</v>
@@ -37107,7 +37107,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR168" t="n">
         <v>1.11</v>
@@ -38054,6 +38054,1314 @@
         <v>0</v>
       </c>
       <c r="BP172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7025112</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45325.52083333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['48', '52']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>0</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>7025110</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45325.72916666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>0</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>7025108</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>0</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7025114</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7025111</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45326.625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['15', '34', '49']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" t="n">
+        <v>0</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7025115</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45326.625</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP178" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.11</v>
@@ -3535,7 +3535,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7677,7 +7677,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR33" t="n">
         <v>0.85</v>
@@ -7895,7 +7895,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR34" t="n">
         <v>1.4</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.11</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.5</v>
@@ -12252,10 +12252,10 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR54" t="n">
         <v>0.95</v>
@@ -14217,7 +14217,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -14653,7 +14653,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.09</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -15958,7 +15958,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.8</v>
@@ -16615,7 +16615,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -19228,7 +19228,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.78</v>
@@ -19885,7 +19885,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR89" t="n">
         <v>1.22</v>
@@ -20975,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR94" t="n">
         <v>1.45</v>
@@ -23370,7 +23370,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23588,7 +23588,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.5</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.29</v>
@@ -26207,7 +26207,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR118" t="n">
         <v>1.13</v>
@@ -27948,7 +27948,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.5</v>
@@ -28605,7 +28605,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR129" t="n">
         <v>1.5</v>
@@ -29477,7 +29477,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR133" t="n">
         <v>1.14</v>
@@ -29910,7 +29910,7 @@
         <v>2.29</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ135" t="n">
         <v>2.2</v>
@@ -31436,7 +31436,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.5</v>
@@ -32526,7 +32526,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ147" t="n">
         <v>1</v>
@@ -32965,7 +32965,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.28</v>
@@ -33619,7 +33619,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR152" t="n">
         <v>1.42</v>
@@ -34709,7 +34709,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR157" t="n">
         <v>2.26</v>
@@ -35142,7 +35142,7 @@
         <v>0.88</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.1</v>
@@ -35363,7 +35363,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR160" t="n">
         <v>1.89</v>
@@ -37976,7 +37976,7 @@
         <v>0.44</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.5</v>
@@ -38648,28 +38648,28 @@
         <v>2</v>
       </c>
       <c r="AV175" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW175" t="n">
         <v>1</v>
       </c>
       <c r="AX175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY175" t="n">
         <v>3</v>
       </c>
       <c r="AZ175" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC175" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD175" t="n">
         <v>0</v>
@@ -38866,28 +38866,28 @@
         <v>3</v>
       </c>
       <c r="AV176" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW176" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX176" t="n">
         <v>9</v>
       </c>
       <c r="AY176" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ176" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB176" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC176" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD176" t="n">
         <v>0</v>
@@ -39081,31 +39081,31 @@
         <v>3.43</v>
       </c>
       <c r="AU177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV177" t="n">
         <v>4</v>
       </c>
-      <c r="AV177" t="n">
-        <v>0</v>
-      </c>
       <c r="AW177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX177" t="n">
         <v>2</v>
       </c>
       <c r="AY177" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ177" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC177" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD177" t="n">
         <v>0</v>
@@ -39299,22 +39299,22 @@
         <v>2.31</v>
       </c>
       <c r="AU178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW178" t="n">
         <v>4</v>
       </c>
-      <c r="AV178" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW178" t="n">
-        <v>3</v>
-      </c>
       <c r="AX178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY178" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ178" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA178" t="n">
         <v>6</v>
@@ -39362,6 +39362,442 @@
         <v>0</v>
       </c>
       <c r="BP178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7025107</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45326.72916666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7025113</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45327.71875</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP180" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.5</v>
@@ -2227,7 +2227,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.2</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.5</v>
@@ -3317,7 +3317,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.2</v>
@@ -8546,10 +8546,10 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.2</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9639,7 +9639,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -9857,7 +9857,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -10075,7 +10075,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.1</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -13127,7 +13127,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.11</v>
@@ -13781,7 +13781,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -13999,7 +13999,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.64</v>
@@ -14435,7 +14435,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.1</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.78</v>
@@ -16179,7 +16179,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16833,7 +16833,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -17051,7 +17051,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR76" t="n">
         <v>2.21</v>
@@ -17269,7 +17269,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17487,7 +17487,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.1</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ82" t="n">
         <v>2.11</v>
@@ -18577,7 +18577,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR83" t="n">
         <v>2.11</v>
@@ -19231,7 +19231,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR86" t="n">
         <v>1.83</v>
@@ -19446,7 +19446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.5</v>
@@ -19882,7 +19882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.1</v>
@@ -20318,7 +20318,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.4</v>
@@ -20539,7 +20539,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR92" t="n">
         <v>1.32</v>
@@ -20757,7 +20757,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR93" t="n">
         <v>1.36</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.64</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.1</v>
@@ -22065,7 +22065,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR99" t="n">
         <v>1.41</v>
@@ -22716,7 +22716,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.5</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.8</v>
@@ -23373,7 +23373,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR105" t="n">
         <v>1.16</v>
@@ -23591,7 +23591,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -23806,7 +23806,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.5</v>
@@ -24024,7 +24024,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.4</v>
@@ -24463,7 +24463,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.48</v>
@@ -25335,7 +25335,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR114" t="n">
         <v>2.14</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.1</v>
@@ -25989,7 +25989,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR117" t="n">
         <v>1.28</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.8</v>
@@ -26640,7 +26640,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.78</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.5</v>
@@ -27294,10 +27294,10 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR124" t="n">
         <v>1.24</v>
@@ -27733,7 +27733,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR125" t="n">
         <v>1.27</v>
@@ -28820,7 +28820,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.4</v>
@@ -29259,7 +29259,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR132" t="n">
         <v>2.01</v>
@@ -29913,7 +29913,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR135" t="n">
         <v>1.15</v>
@@ -30349,7 +30349,7 @@
         <v>3</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR137" t="n">
         <v>1.61</v>
@@ -30564,7 +30564,7 @@
         <v>2.25</v>
       </c>
       <c r="AP138" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ138" t="n">
         <v>2.2</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.3</v>
@@ -31000,7 +31000,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.78</v>
@@ -31654,10 +31654,10 @@
         <v>0.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR143" t="n">
         <v>1.17</v>
@@ -31875,7 +31875,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR144" t="n">
         <v>1.24</v>
@@ -32090,10 +32090,10 @@
         <v>1.38</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR145" t="n">
         <v>1.11</v>
@@ -33837,7 +33837,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR153" t="n">
         <v>2.02</v>
@@ -34273,7 +34273,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR155" t="n">
         <v>1.31</v>
@@ -36232,10 +36232,10 @@
         <v>0.78</v>
       </c>
       <c r="AP164" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR164" t="n">
         <v>0.98</v>
@@ -36450,7 +36450,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -36668,7 +36668,7 @@
         <v>2.11</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ166" t="n">
         <v>2.2</v>
@@ -37322,7 +37322,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ169" t="n">
         <v>2.5</v>
@@ -37543,7 +37543,7 @@
         <v>3</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR170" t="n">
         <v>1.61</v>
@@ -37758,10 +37758,10 @@
         <v>0.44</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR171" t="n">
         <v>1.16</v>
@@ -37979,7 +37979,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR172" t="n">
         <v>1.78</v>
@@ -39798,6 +39798,1314 @@
         <v>0</v>
       </c>
       <c r="BP180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7025120</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45331.71875</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>3</v>
+      </c>
+      <c r="L181" t="n">
+        <v>3</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['6', '13', '25']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>7025121</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45332.52083333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" t="n">
+        <v>0</v>
+      </c>
+      <c r="T182" t="n">
+        <v>0</v>
+      </c>
+      <c r="U182" t="n">
+        <v>0</v>
+      </c>
+      <c r="V182" t="n">
+        <v>0</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7025124</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>0</v>
+      </c>
+      <c r="V183" t="n">
+        <v>0</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>7025117</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45332.72916666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['15', '29']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>0</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>7025119</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45333.52083333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>0</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>0</v>
+      </c>
+      <c r="V185" t="n">
+        <v>0</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>7025122</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45333.625</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>5</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['8', '18', '71', '73', '85']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" t="n">
+        <v>0</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP186" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.3</v>
@@ -5497,7 +5497,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR23" t="n">
         <v>0.57</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.78</v>
@@ -9421,7 +9421,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR41" t="n">
         <v>1.71</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.91</v>
@@ -12037,7 +12037,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR53" t="n">
         <v>1.38</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.45</v>
@@ -15525,7 +15525,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -17266,7 +17266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.45</v>
@@ -18795,7 +18795,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -21408,7 +21408,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.2</v>
@@ -23809,7 +23809,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR107" t="n">
         <v>1.15</v>
@@ -25114,7 +25114,7 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ113" t="n">
         <v>2.11</v>
@@ -27951,7 +27951,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -28384,7 +28384,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.5</v>
@@ -31221,7 +31221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR141" t="n">
         <v>1.37</v>
@@ -34052,7 +34052,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.4</v>
@@ -36014,7 +36014,7 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.8</v>
@@ -37325,7 +37325,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AR169" t="n">
         <v>0.99</v>
@@ -41106,6 +41106,224 @@
         <v>0</v>
       </c>
       <c r="BP186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>7025123</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45333.72916666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['35', '61']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['40', '90']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>0</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>0</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP187" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.91</v>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.45</v>
@@ -2445,7 +2445,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.91</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.36</v>
@@ -5933,7 +5933,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6369,7 +6369,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -8767,7 +8767,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.27</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.45</v>
@@ -11165,7 +11165,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.31</v>
@@ -12909,7 +12909,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.45</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.27</v>
@@ -15089,7 +15089,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.34</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.64</v>
@@ -17484,7 +17484,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ78" t="n">
         <v>2</v>
@@ -18141,7 +18141,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -19667,7 +19667,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -21411,7 +21411,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.5</v>
@@ -22062,7 +22062,7 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
         <v>2</v>
@@ -22501,7 +22501,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.24</v>
@@ -23155,7 +23155,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR104" t="n">
         <v>1.23</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.5</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.64</v>
@@ -26643,7 +26643,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.15</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.3</v>
@@ -28169,7 +28169,7 @@
         <v>3</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.65</v>
@@ -29474,7 +29474,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.1</v>
@@ -30567,7 +30567,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR138" t="n">
         <v>1.03</v>
@@ -31003,7 +31003,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>0.99</v>
@@ -31218,7 +31218,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.36</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.8</v>
@@ -36671,7 +36671,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ166" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR166" t="n">
         <v>1.25</v>
@@ -36886,10 +36886,10 @@
         <v>0.88</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR167" t="n">
         <v>1.37</v>
@@ -37104,7 +37104,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.5</v>
@@ -40828,28 +40828,28 @@
         <v>3</v>
       </c>
       <c r="AV185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW185" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX185" t="n">
         <v>3</v>
       </c>
       <c r="AY185" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB185" t="n">
         <v>3</v>
       </c>
-      <c r="BA185" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB185" t="n">
-        <v>2</v>
-      </c>
       <c r="BC185" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD185" t="n">
         <v>0</v>
@@ -41046,28 +41046,28 @@
         <v>0</v>
       </c>
       <c r="AV186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW186" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX186" t="n">
         <v>2</v>
       </c>
       <c r="AY186" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB186" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC186" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD186" t="n">
         <v>0</v>
@@ -41261,69 +41261,505 @@
         <v>2.82</v>
       </c>
       <c r="AU187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>7025116</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45334.71875</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['1', '30', '60']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['9', '86']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>0</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>0</v>
+      </c>
+      <c r="V188" t="n">
+        <v>0</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0</v>
+      </c>
+      <c r="X188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU188" t="n">
         <v>4</v>
       </c>
-      <c r="AV187" t="n">
+      <c r="AV188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>7025118</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45335.52083333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>0</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>0</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV189" t="n">
         <v>2</v>
       </c>
-      <c r="AW187" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX187" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY187" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ187" t="n">
+      <c r="AW189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB189" t="n">
         <v>3</v>
       </c>
-      <c r="BA187" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB187" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC187" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO187" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP187" t="n">
+      <c r="BC189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP189" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3971,7 +3971,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.64</v>
@@ -6805,7 +6805,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR29" t="n">
         <v>1.16</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.1</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.4</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR55" t="n">
         <v>1.81</v>
@@ -15307,7 +15307,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR68" t="n">
         <v>1.47</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.5</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.3</v>
@@ -21629,7 +21629,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -23152,7 +23152,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>2</v>
@@ -25771,7 +25771,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR116" t="n">
         <v>1.42</v>
@@ -27730,7 +27730,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.45</v>
@@ -28387,7 +28387,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR128" t="n">
         <v>1.39</v>
@@ -31872,7 +31872,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.45</v>
@@ -33401,7 +33401,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR151" t="n">
         <v>2.34</v>
@@ -34270,7 +34270,7 @@
         <v>2.11</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
         <v>2</v>
@@ -35799,7 +35799,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR162" t="n">
         <v>1.2</v>
@@ -38415,7 +38415,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR174" t="n">
         <v>1.81</v>
@@ -41760,6 +41760,224 @@
         <v>0</v>
       </c>
       <c r="BP189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>7025125</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45338.71875</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['17', '66']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" t="n">
+        <v>0</v>
+      </c>
+      <c r="T190" t="n">
+        <v>0</v>
+      </c>
+      <c r="U190" t="n">
+        <v>0</v>
+      </c>
+      <c r="V190" t="n">
+        <v>0</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP190" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.45</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.36</v>
@@ -2881,7 +2881,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.55</v>
@@ -3317,7 +3317,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.73</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.27</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR21" t="n">
         <v>0.73</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.69</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.36</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR24" t="n">
         <v>0.57</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.91</v>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR26" t="n">
         <v>1.8</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR27" t="n">
         <v>2.48</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.55</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.45</v>
@@ -7895,7 +7895,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR34" t="n">
         <v>1.4</v>
@@ -8331,7 +8331,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR37" t="n">
         <v>0.68</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.36</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>0.9399999999999999</v>
@@ -10072,10 +10072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR44" t="n">
         <v>1.13</v>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.8</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR46" t="n">
         <v>1.11</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12906,10 +12906,10 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR57" t="n">
         <v>2.44</v>
@@ -13124,10 +13124,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR58" t="n">
         <v>1.52</v>
@@ -13342,10 +13342,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR59" t="n">
         <v>0.84</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR60" t="n">
         <v>1.51</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.27</v>
@@ -14214,10 +14214,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR63" t="n">
         <v>1.21</v>
@@ -14432,10 +14432,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR64" t="n">
         <v>0.96</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.91</v>
@@ -16179,7 +16179,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR72" t="n">
         <v>2.15</v>
@@ -16612,10 +16612,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR74" t="n">
         <v>1.37</v>
@@ -16833,7 +16833,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.24</v>
@@ -17048,10 +17048,10 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR76" t="n">
         <v>2.21</v>
@@ -17266,10 +17266,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.52</v>
@@ -17484,10 +17484,10 @@
         <v>2.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17920,10 +17920,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18138,10 +18138,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR81" t="n">
         <v>1.62</v>
@@ -18356,10 +18356,10 @@
         <v>2.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR82" t="n">
         <v>0.88</v>
@@ -18577,7 +18577,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>2.11</v>
@@ -19231,7 +19231,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR86" t="n">
         <v>1.83</v>
@@ -19882,7 +19882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -20318,7 +20318,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.27</v>
@@ -20539,7 +20539,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR92" t="n">
         <v>1.32</v>
@@ -20757,7 +20757,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.36</v>
@@ -20972,10 +20972,10 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR94" t="n">
         <v>1.45</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21408,10 +21408,10 @@
         <v>2.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR96" t="n">
         <v>1.41</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.45</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ98" t="n">
         <v>1</v>
@@ -22062,10 +22062,10 @@
         <v>2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR99" t="n">
         <v>1.41</v>
@@ -22280,10 +22280,10 @@
         <v>2.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR100" t="n">
         <v>2.2</v>
@@ -22716,7 +22716,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.45</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.73</v>
@@ -23155,7 +23155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR104" t="n">
         <v>1.23</v>
@@ -23373,7 +23373,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR105" t="n">
         <v>1.16</v>
@@ -23591,7 +23591,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -24024,7 +24024,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.27</v>
@@ -24460,10 +24460,10 @@
         <v>2.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR110" t="n">
         <v>1.48</v>
@@ -24678,7 +24678,7 @@
         <v>1.2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -24899,7 +24899,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR112" t="n">
         <v>1.34</v>
@@ -25114,10 +25114,10 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR113" t="n">
         <v>1.5</v>
@@ -25335,7 +25335,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR114" t="n">
         <v>2.14</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.45</v>
@@ -25989,7 +25989,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.28</v>
@@ -26204,10 +26204,10 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR118" t="n">
         <v>1.13</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.73</v>
@@ -26640,7 +26640,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.91</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.55</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.45</v>
@@ -27297,7 +27297,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR123" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR124" t="n">
         <v>1.24</v>
@@ -27733,7 +27733,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR125" t="n">
         <v>1.27</v>
@@ -28169,7 +28169,7 @@
         <v>3</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR127" t="n">
         <v>1.65</v>
@@ -28384,7 +28384,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.45</v>
@@ -28602,10 +28602,10 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR129" t="n">
         <v>1.5</v>
@@ -28820,7 +28820,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.27</v>
@@ -29038,10 +29038,10 @@
         <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR131" t="n">
         <v>2.42</v>
@@ -29259,7 +29259,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR132" t="n">
         <v>2.01</v>
@@ -29474,7 +29474,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR135" t="n">
         <v>1.15</v>
@@ -30131,7 +30131,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR136" t="n">
         <v>1.27</v>
@@ -30349,7 +30349,7 @@
         <v>3</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR137" t="n">
         <v>1.61</v>
@@ -30564,10 +30564,10 @@
         <v>2.25</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR138" t="n">
         <v>1.03</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.55</v>
@@ -31000,7 +31000,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.91</v>
@@ -31218,7 +31218,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.36</v>
@@ -31654,10 +31654,10 @@
         <v>0.88</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR143" t="n">
         <v>1.17</v>
@@ -31875,7 +31875,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR144" t="n">
         <v>1.24</v>
@@ -32093,7 +32093,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR145" t="n">
         <v>1.11</v>
@@ -32529,7 +32529,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR147" t="n">
         <v>1.08</v>
@@ -32747,7 +32747,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR148" t="n">
         <v>1.28</v>
@@ -32965,7 +32965,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR149" t="n">
         <v>1.28</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.73</v>
@@ -33398,7 +33398,7 @@
         <v>0.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.45</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -33837,7 +33837,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR153" t="n">
         <v>2.02</v>
@@ -34052,7 +34052,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.27</v>
@@ -34273,7 +34273,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR155" t="n">
         <v>1.31</v>
@@ -34488,10 +34488,10 @@
         <v>2</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ156" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -34706,7 +34706,7 @@
         <v>1.25</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ157" t="n">
         <v>1</v>
@@ -35363,7 +35363,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR160" t="n">
         <v>1.89</v>
@@ -36014,7 +36014,7 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.73</v>
@@ -36100,7 +36100,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>7025099</v>
+        <v>7025104</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -36120,158 +36120,158 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Boavista FC</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU164" t="n">
         <v>3</v>
-      </c>
-      <c r="K164" t="n">
-        <v>3</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="n">
-        <v>4</v>
-      </c>
-      <c r="N164" t="n">
-        <v>5</v>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>['68']</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>['18', '25', '35', '90+5']</t>
-        </is>
-      </c>
-      <c r="Q164" t="n">
-        <v>0</v>
-      </c>
-      <c r="R164" t="n">
-        <v>0</v>
-      </c>
-      <c r="S164" t="n">
-        <v>0</v>
-      </c>
-      <c r="T164" t="n">
-        <v>0</v>
-      </c>
-      <c r="U164" t="n">
-        <v>0</v>
-      </c>
-      <c r="V164" t="n">
-        <v>0</v>
-      </c>
-      <c r="W164" t="n">
-        <v>0</v>
-      </c>
-      <c r="X164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AP164" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AQ164" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR164" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AS164" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT164" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AU164" t="n">
-        <v>5</v>
       </c>
       <c r="AV164" t="n">
         <v>3</v>
       </c>
       <c r="AW164" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AX164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY164" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AZ164" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA164" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BB164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC164" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD164" t="n">
         <v>0</v>
@@ -36318,7 +36318,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>7025104</v>
+        <v>7025099</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -36338,40 +36338,40 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Boavista FC</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N165" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18', '25', '35', '90+5']</t>
         </is>
       </c>
       <c r="Q165" t="n">
@@ -36402,13 +36402,13 @@
         <v>0</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AA165" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="AB165" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="AC165" t="n">
         <v>0</v>
@@ -36423,10 +36423,10 @@
         <v>0</v>
       </c>
       <c r="AG165" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH165" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI165" t="n">
         <v>0</v>
@@ -36444,52 +36444,52 @@
         <v>0</v>
       </c>
       <c r="AN165" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AO165" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR165" t="n">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="AU165" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV165" t="n">
         <v>3</v>
       </c>
       <c r="AW165" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX165" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY165" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA165" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC165" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD165" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>2.11</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR166" t="n">
         <v>1.25</v>
@@ -36886,7 +36886,7 @@
         <v>0.88</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.91</v>
@@ -37104,7 +37104,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.45</v>
@@ -37322,7 +37322,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ169" t="n">
         <v>2.36</v>
@@ -37543,7 +37543,7 @@
         <v>3</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR170" t="n">
         <v>1.61</v>
@@ -37758,10 +37758,10 @@
         <v>0.44</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR171" t="n">
         <v>1.16</v>
@@ -37979,7 +37979,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR172" t="n">
         <v>1.78</v>
@@ -38498,7 +38498,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>7025108</v>
+        <v>7025114</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -38518,40 +38518,40 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
       <c r="N175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>['35']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q175" t="n">
@@ -38582,13 +38582,13 @@
         <v>0</v>
       </c>
       <c r="Z175" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AA175" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB175" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AC175" t="n">
         <v>0</v>
@@ -38603,10 +38603,10 @@
         <v>0</v>
       </c>
       <c r="AG175" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AH175" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AI175" t="n">
         <v>0</v>
@@ -38624,52 +38624,52 @@
         <v>0</v>
       </c>
       <c r="AN175" t="n">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AO175" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.09</v>
+        <v>0.58</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AR175" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="AU175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV175" t="n">
         <v>6</v>
       </c>
       <c r="AW175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX175" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ175" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB175" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC175" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD175" t="n">
         <v>0</v>
@@ -38716,7 +38716,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>7025114</v>
+        <v>7025108</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -38736,40 +38736,40 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
       <c r="N176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['35']</t>
         </is>
       </c>
       <c r="Q176" t="n">
@@ -38800,13 +38800,13 @@
         <v>0</v>
       </c>
       <c r="Z176" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AA176" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB176" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AC176" t="n">
         <v>0</v>
@@ -38821,10 +38821,10 @@
         <v>0</v>
       </c>
       <c r="AG176" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="AH176" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AI176" t="n">
         <v>0</v>
@@ -38842,52 +38842,52 @@
         <v>0</v>
       </c>
       <c r="AN176" t="n">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AO176" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AR176" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
       <c r="AU176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV176" t="n">
         <v>6</v>
       </c>
       <c r="AW176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC176" t="n">
         <v>9</v>
-      </c>
-      <c r="AY176" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ176" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA176" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB176" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC176" t="n">
-        <v>13</v>
       </c>
       <c r="BD176" t="n">
         <v>0</v>
@@ -38934,7 +38934,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>7025111</v>
+        <v>7025115</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -38954,35 +38954,35 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>GD Estoril Praia</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>['15', '34', '49']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -39018,13 +39018,13 @@
         <v>0</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AA177" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AB177" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC177" t="n">
         <v>0</v>
@@ -39039,10 +39039,10 @@
         <v>0</v>
       </c>
       <c r="AG177" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AH177" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AI177" t="n">
         <v>0</v>
@@ -39060,52 +39060,52 @@
         <v>0</v>
       </c>
       <c r="AN177" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="AO177" t="n">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.64</v>
+        <v>1.45</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="AR177" t="n">
-        <v>2.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT177" t="n">
-        <v>3.43</v>
+        <v>2.31</v>
       </c>
       <c r="AU177" t="n">
         <v>5</v>
       </c>
       <c r="AV177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW177" t="n">
         <v>4</v>
-      </c>
-      <c r="AW177" t="n">
-        <v>3</v>
       </c>
       <c r="AX177" t="n">
         <v>2</v>
       </c>
       <c r="AY177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ177" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA177" t="n">
         <v>6</v>
       </c>
       <c r="BB177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC177" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD177" t="n">
         <v>0</v>
@@ -39152,7 +39152,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>7025115</v>
+        <v>7025111</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -39172,35 +39172,35 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>GD Estoril Praia</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['15', '34', '49']</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -39236,13 +39236,13 @@
         <v>0</v>
       </c>
       <c r="Z178" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA178" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AB178" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC178" t="n">
         <v>0</v>
@@ -39257,10 +39257,10 @@
         <v>0</v>
       </c>
       <c r="AG178" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH178" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AI178" t="n">
         <v>0</v>
@@ -39278,52 +39278,52 @@
         <v>0</v>
       </c>
       <c r="AN178" t="n">
-        <v>1.44</v>
+        <v>2.56</v>
       </c>
       <c r="AO178" t="n">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.45</v>
+        <v>2.67</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="AR178" t="n">
-        <v>1.28</v>
+        <v>2.27</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.31</v>
+        <v>3.43</v>
       </c>
       <c r="AU178" t="n">
         <v>5</v>
       </c>
       <c r="AV178" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX178" t="n">
         <v>2</v>
       </c>
       <c r="AY178" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ178" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA178" t="n">
         <v>6</v>
       </c>
       <c r="BB178" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC178" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD178" t="n">
         <v>0</v>
@@ -39505,7 +39505,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR179" t="n">
         <v>1.89</v>
@@ -39938,10 +39938,10 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR181" t="n">
         <v>1.01</v>
@@ -40156,10 +40156,10 @@
         <v>1</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR182" t="n">
         <v>1.22</v>
@@ -40377,7 +40377,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR183" t="n">
         <v>1.13</v>
@@ -40592,10 +40592,10 @@
         <v>0.5</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR184" t="n">
         <v>1.07</v>
@@ -40810,10 +40810,10 @@
         <v>1.4</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR185" t="n">
         <v>1.14</v>
@@ -41031,7 +41031,7 @@
         <v>3</v>
       </c>
       <c r="AQ186" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR186" t="n">
         <v>1.59</v>
@@ -41246,7 +41246,7 @@
         <v>2.5</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ187" t="n">
         <v>2.36</v>
@@ -41464,10 +41464,10 @@
         <v>2.2</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ188" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR188" t="n">
         <v>1.35</v>
@@ -41682,7 +41682,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.91</v>
@@ -43208,7 +43208,7 @@
         <v>1</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.91</v>
@@ -43647,7 +43647,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ198" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR198" t="n">
         <v>1.19</v>
@@ -43722,6 +43722,1968 @@
         <v>0</v>
       </c>
       <c r="BP198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>7025137</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45345.71875</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>3</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['33', '45+1', '64']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['12', '56']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" t="n">
+        <v>0</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>7025138</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45346.52083333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>23</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" t="n">
+        <v>0</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7025141</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45346.625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>23</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" t="n">
+        <v>0</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7025140</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45346.72916666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['4', '35']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
+      <c r="S202" t="n">
+        <v>0</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0</v>
+      </c>
+      <c r="U202" t="n">
+        <v>0</v>
+      </c>
+      <c r="V202" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7025142</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45347.52083333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>23</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>3</v>
+      </c>
+      <c r="N203" t="n">
+        <v>6</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['26', '36', '90+5']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['83', '85', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" t="n">
+        <v>0</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>0</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7025139</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45347.625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>4</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>4</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['55', '57', '59', '75']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" t="n">
+        <v>0</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>0</v>
+      </c>
+      <c r="V204" t="n">
+        <v>0</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0</v>
+      </c>
+      <c r="X204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7025136</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45347.625</v>
+      </c>
+      <c r="F205" t="n">
+        <v>23</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" t="n">
+        <v>0</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
+        <v>0</v>
+      </c>
+      <c r="V205" t="n">
+        <v>0</v>
+      </c>
+      <c r="W205" t="n">
+        <v>0</v>
+      </c>
+      <c r="X205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7025135</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45347.72916666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>23</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>4</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>3</v>
+      </c>
+      <c r="N206" t="n">
+        <v>6</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['3', '45+4', '67']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['9', '44', '73']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" t="n">
+        <v>0</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
+        <v>0</v>
+      </c>
+      <c r="V206" t="n">
+        <v>0</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0</v>
+      </c>
+      <c r="X206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7025134</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45348.71875</v>
+      </c>
+      <c r="F207" t="n">
+        <v>23</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>4</v>
+      </c>
+      <c r="N207" t="n">
+        <v>4</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['42', '44', '62', '72']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
+      <c r="S207" t="n">
+        <v>0</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
+        <v>0</v>
+      </c>
+      <c r="V207" t="n">
+        <v>0</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0</v>
+      </c>
+      <c r="X207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP207" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,12 @@
     <t>['20', '44', '55', '75', '90']</t>
   </si>
   <si>
+    <t>['57', '75', '90+1']</t>
+  </si>
+  <si>
+    <t>['71', '85']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1022,6 +1028,9 @@
   </si>
   <si>
     <t>['32', '50']</t>
+  </si>
+  <si>
+    <t>['7', '59', '79']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1651,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1723,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2054,7 +2063,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2135,7 +2144,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2260,7 +2269,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2544,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2672,7 +2681,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2750,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
         <v>1.58</v>
@@ -2878,7 +2887,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3084,7 +3093,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3165,7 +3174,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3290,7 +3299,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3368,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ10">
         <v>2.17</v>
@@ -3496,7 +3505,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3780,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ12">
         <v>0.58</v>
@@ -3908,7 +3917,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3989,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4114,7 +4123,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4192,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4732,7 +4741,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4813,7 +4822,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ17">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4938,7 +4947,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5016,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ18">
         <v>1.42</v>
@@ -5225,7 +5234,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5350,7 +5359,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5428,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5556,7 +5565,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5968,7 +5977,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6174,7 +6183,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6252,10 +6261,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ24">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR24">
         <v>0.57</v>
@@ -6458,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ25">
         <v>0.92</v>
@@ -6667,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR26">
         <v>1.8</v>
@@ -6792,7 +6801,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6870,10 +6879,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>2.48</v>
@@ -7076,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ28">
         <v>0.58</v>
@@ -7488,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7697,7 +7706,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ31">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -8028,7 +8037,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8234,7 +8243,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8315,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8646,7 +8655,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8852,7 +8861,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8933,7 +8942,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>0.68</v>
@@ -9058,7 +9067,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9136,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ38">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9342,10 +9351,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR39">
         <v>1.44</v>
@@ -9551,7 +9560,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9676,7 +9685,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9754,7 +9763,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ41">
         <v>2.17</v>
@@ -9963,7 +9972,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ42">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10088,7 +10097,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10294,7 +10303,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10372,7 +10381,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10581,7 +10590,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -10784,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -11199,7 +11208,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR48">
         <v>0.91</v>
@@ -11324,7 +11333,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11736,7 +11745,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11942,7 +11951,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12148,7 +12157,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12226,7 +12235,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>2.17</v>
@@ -12354,7 +12363,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12766,7 +12775,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12844,10 +12853,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ56">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13053,7 +13062,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13178,7 +13187,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13256,7 +13265,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ58">
         <v>0.83</v>
@@ -13384,7 +13393,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13462,10 +13471,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ59">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR59">
         <v>0.84</v>
@@ -13590,7 +13599,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13796,7 +13805,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14002,7 +14011,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14080,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14208,7 +14217,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14286,10 +14295,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14495,7 +14504,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
         <v>0.96</v>
@@ -14620,7 +14629,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14826,7 +14835,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15238,7 +15247,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15650,7 +15659,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16474,7 +16483,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16555,7 +16564,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16758,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.5</v>
@@ -16967,7 +16976,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ76">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR76">
         <v>2.21</v>
@@ -17170,7 +17179,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17298,7 +17307,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17379,7 +17388,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.14</v>
@@ -17504,7 +17513,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17582,10 +17591,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17788,10 +17797,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ80">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17916,7 +17925,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17994,10 +18003,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ81">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18122,7 +18131,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18200,7 +18209,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ82">
         <v>2.09</v>
@@ -18328,7 +18337,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18534,7 +18543,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18740,7 +18749,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18946,7 +18955,7 @@
         <v>153</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -19642,7 +19651,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19770,7 +19779,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20263,7 +20272,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20466,7 +20475,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>0.5</v>
@@ -20672,10 +20681,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ94">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR94">
         <v>1.45</v>
@@ -20878,10 +20887,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ95">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21006,7 +21015,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21084,10 +21093,10 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ96">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR96">
         <v>1.41</v>
@@ -21418,7 +21427,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21496,10 +21505,10 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ98">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR98">
         <v>0.89</v>
@@ -21624,7 +21633,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -21705,7 +21714,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ99">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -22242,7 +22251,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22526,7 +22535,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22654,7 +22663,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22735,7 +22744,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ104">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -23066,7 +23075,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23478,7 +23487,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23556,7 +23565,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ108">
         <v>1.42</v>
@@ -23890,7 +23899,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -23968,10 +23977,10 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ110">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.48</v>
@@ -24177,7 +24186,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ111">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR111">
         <v>2.02</v>
@@ -24380,10 +24389,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR112">
         <v>1.34</v>
@@ -24508,7 +24517,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24586,7 +24595,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ113">
         <v>2.09</v>
@@ -24714,7 +24723,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -24795,7 +24804,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -24998,7 +25007,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25126,7 +25135,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25538,7 +25547,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25619,7 +25628,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ118">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR118">
         <v>1.13</v>
@@ -26028,7 +26037,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
         <v>0.92</v>
@@ -26362,7 +26371,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26440,7 +26449,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ122">
         <v>1.58</v>
@@ -26568,7 +26577,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26774,7 +26783,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -26855,7 +26864,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -26980,7 +26989,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27186,7 +27195,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27473,7 +27482,7 @@
         <v>3</v>
       </c>
       <c r="AQ127">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -27676,7 +27685,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ128">
         <v>0.5</v>
@@ -27882,10 +27891,10 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ129">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -28010,7 +28019,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28088,7 +28097,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ130">
         <v>1.42</v>
@@ -28297,7 +28306,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ131">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR131">
         <v>2.42</v>
@@ -28915,7 +28924,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29040,7 +29049,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29121,7 +29130,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ135">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR135">
         <v>1.15</v>
@@ -29246,7 +29255,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29324,7 +29333,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>2.09</v>
@@ -29658,7 +29667,7 @@
         <v>128</v>
       </c>
       <c r="P138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -29736,10 +29745,10 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ138">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR138">
         <v>1.03</v>
@@ -30148,7 +30157,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ140">
         <v>0.92</v>
@@ -30276,7 +30285,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30482,7 +30491,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30766,7 +30775,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
         <v>0.83</v>
@@ -30894,7 +30903,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31100,7 +31109,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31181,7 +31190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ145">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR145">
         <v>1.11</v>
@@ -31384,10 +31393,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31512,7 +31521,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31593,7 +31602,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ147">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR147">
         <v>1.08</v>
@@ -31718,7 +31727,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31924,7 +31933,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32005,7 +32014,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ149">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR149">
         <v>1.28</v>
@@ -32542,7 +32551,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32620,7 +32629,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32829,7 +32838,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ153">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR153">
         <v>2.02</v>
@@ -33032,7 +33041,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ154">
         <v>1.42</v>
@@ -33160,7 +33169,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33241,7 +33250,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ155">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33366,7 +33375,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33444,7 +33453,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ156">
         <v>2.09</v>
@@ -33778,7 +33787,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -33984,7 +33993,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34065,7 +34074,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ159">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR159">
         <v>1.05</v>
@@ -34271,7 +34280,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ160">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR160">
         <v>1.89</v>
@@ -34396,7 +34405,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34474,7 +34483,7 @@
         <v>0</v>
       </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
         <v>0.58</v>
@@ -34886,7 +34895,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ163">
         <v>0.67</v>
@@ -35095,7 +35104,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35220,7 +35229,7 @@
         <v>135</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -35298,7 +35307,7 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ165">
         <v>0.83</v>
@@ -35426,7 +35435,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35507,7 +35516,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ166">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR166">
         <v>1.25</v>
@@ -36044,7 +36053,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36122,7 +36131,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ169">
         <v>2.17</v>
@@ -36331,7 +36340,7 @@
         <v>3</v>
       </c>
       <c r="AQ170">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR170">
         <v>1.61</v>
@@ -36534,7 +36543,7 @@
         <v>0.44</v>
       </c>
       <c r="AP171">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
@@ -36868,7 +36877,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -36946,7 +36955,7 @@
         <v>1.22</v>
       </c>
       <c r="AP173">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>1.42</v>
@@ -37280,7 +37289,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -37358,7 +37367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ175">
         <v>1.58</v>
@@ -37567,7 +37576,7 @@
         <v>1</v>
       </c>
       <c r="AQ176">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR176">
         <v>1.26</v>
@@ -38185,7 +38194,7 @@
         <v>2</v>
       </c>
       <c r="AQ179">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR179">
         <v>1.89</v>
@@ -38594,7 +38603,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ181">
         <v>0.83</v>
@@ -38722,7 +38731,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -38803,7 +38812,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ182">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -39134,7 +39143,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39212,7 +39221,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ184">
         <v>0.5</v>
@@ -39418,10 +39427,10 @@
         <v>1.4</v>
       </c>
       <c r="AP185">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ185">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR185">
         <v>1.14</v>
@@ -39627,7 +39636,7 @@
         <v>3</v>
       </c>
       <c r="AQ186">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR186">
         <v>1.59</v>
@@ -39752,7 +39761,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39830,7 +39839,7 @@
         <v>2.5</v>
       </c>
       <c r="AP187">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ187">
         <v>2.17</v>
@@ -39958,7 +39967,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40039,7 +40048,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ188">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR188">
         <v>1.35</v>
@@ -40576,7 +40585,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -40782,7 +40791,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -40860,7 +40869,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ192">
         <v>1.58</v>
@@ -41400,7 +41409,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41893,7 +41902,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR197">
         <v>1.85</v>
@@ -42018,7 +42027,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42224,7 +42233,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42305,7 +42314,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ199">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR199">
         <v>1.29</v>
@@ -42511,7 +42520,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ200">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -42714,7 +42723,7 @@
         <v>0.45</v>
       </c>
       <c r="AP201">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ201">
         <v>0.5</v>
@@ -42842,7 +42851,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -42920,10 +42929,10 @@
         <v>1.27</v>
       </c>
       <c r="AP202">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ202">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43048,7 +43057,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43126,7 +43135,7 @@
         <v>0.45</v>
       </c>
       <c r="AP203">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ203">
         <v>0.5</v>
@@ -43541,7 +43550,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ205">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR205">
         <v>1.16</v>
@@ -43666,7 +43675,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43744,7 +43753,7 @@
         <v>2.2</v>
       </c>
       <c r="AP206">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ206">
         <v>2.09</v>
@@ -43872,7 +43881,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -43950,10 +43959,10 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ207">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR207">
         <v>1.03</v>
@@ -44078,7 +44087,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44490,7 +44499,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45186,7 +45195,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ213">
         <v>0.92</v>
@@ -45314,7 +45323,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45395,7 +45404,7 @@
         <v>3</v>
       </c>
       <c r="AQ214">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45882,6 +45891,1242 @@
         <v>0</v>
       </c>
       <c r="BP216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7025159</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45359.65625</v>
+      </c>
+      <c r="F217">
+        <v>25</v>
+      </c>
+      <c r="G217" t="s">
+        <v>82</v>
+      </c>
+      <c r="H217" t="s">
+        <v>85</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>3</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>90</v>
+      </c>
+      <c r="P217" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>8</v>
+      </c>
+      <c r="AA217">
+        <v>5</v>
+      </c>
+      <c r="AB217">
+        <v>1.28</v>
+      </c>
+      <c r="AC217">
+        <v>0</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>0</v>
+      </c>
+      <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
+        <v>1.6</v>
+      </c>
+      <c r="AH217">
+        <v>2.2</v>
+      </c>
+      <c r="AI217">
+        <v>0</v>
+      </c>
+      <c r="AJ217">
+        <v>0</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>0</v>
+      </c>
+      <c r="AN217">
+        <v>1.08</v>
+      </c>
+      <c r="AO217">
+        <v>1.92</v>
+      </c>
+      <c r="AP217">
+        <v>1</v>
+      </c>
+      <c r="AQ217">
+        <v>2</v>
+      </c>
+      <c r="AR217">
+        <v>1.18</v>
+      </c>
+      <c r="AS217">
+        <v>1.29</v>
+      </c>
+      <c r="AT217">
+        <v>2.47</v>
+      </c>
+      <c r="AU217">
+        <v>3</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>2</v>
+      </c>
+      <c r="AX217">
+        <v>4</v>
+      </c>
+      <c r="AY217">
+        <v>5</v>
+      </c>
+      <c r="AZ217">
+        <v>7</v>
+      </c>
+      <c r="BA217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>13</v>
+      </c>
+      <c r="BC217">
+        <v>14</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>0</v>
+      </c>
+      <c r="BG217">
+        <v>0</v>
+      </c>
+      <c r="BH217">
+        <v>0</v>
+      </c>
+      <c r="BI217">
+        <v>0</v>
+      </c>
+      <c r="BJ217">
+        <v>0</v>
+      </c>
+      <c r="BK217">
+        <v>0</v>
+      </c>
+      <c r="BL217">
+        <v>0</v>
+      </c>
+      <c r="BM217">
+        <v>0</v>
+      </c>
+      <c r="BN217">
+        <v>0</v>
+      </c>
+      <c r="BO217">
+        <v>0</v>
+      </c>
+      <c r="BP217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7025156</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45359.73958333334</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>75</v>
+      </c>
+      <c r="H218" t="s">
+        <v>79</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218" t="s">
+        <v>236</v>
+      </c>
+      <c r="P218" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>2.45</v>
+      </c>
+      <c r="AA218">
+        <v>3.1</v>
+      </c>
+      <c r="AB218">
+        <v>3</v>
+      </c>
+      <c r="AC218">
+        <v>0</v>
+      </c>
+      <c r="AD218">
+        <v>0</v>
+      </c>
+      <c r="AE218">
+        <v>0</v>
+      </c>
+      <c r="AF218">
+        <v>0</v>
+      </c>
+      <c r="AG218">
+        <v>2.35</v>
+      </c>
+      <c r="AH218">
+        <v>1.55</v>
+      </c>
+      <c r="AI218">
+        <v>0</v>
+      </c>
+      <c r="AJ218">
+        <v>0</v>
+      </c>
+      <c r="AK218">
+        <v>0</v>
+      </c>
+      <c r="AL218">
+        <v>0</v>
+      </c>
+      <c r="AM218">
+        <v>0</v>
+      </c>
+      <c r="AN218">
+        <v>1.17</v>
+      </c>
+      <c r="AO218">
+        <v>1.42</v>
+      </c>
+      <c r="AP218">
+        <v>1.31</v>
+      </c>
+      <c r="AQ218">
+        <v>1.31</v>
+      </c>
+      <c r="AR218">
+        <v>1.05</v>
+      </c>
+      <c r="AS218">
+        <v>1.02</v>
+      </c>
+      <c r="AT218">
+        <v>2.07</v>
+      </c>
+      <c r="AU218">
+        <v>4</v>
+      </c>
+      <c r="AV218">
+        <v>3</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>2</v>
+      </c>
+      <c r="AY218">
+        <v>9</v>
+      </c>
+      <c r="AZ218">
+        <v>5</v>
+      </c>
+      <c r="BA218">
+        <v>10</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>12</v>
+      </c>
+      <c r="BD218">
+        <v>0</v>
+      </c>
+      <c r="BE218">
+        <v>0</v>
+      </c>
+      <c r="BF218">
+        <v>0</v>
+      </c>
+      <c r="BG218">
+        <v>0</v>
+      </c>
+      <c r="BH218">
+        <v>0</v>
+      </c>
+      <c r="BI218">
+        <v>0</v>
+      </c>
+      <c r="BJ218">
+        <v>0</v>
+      </c>
+      <c r="BK218">
+        <v>0</v>
+      </c>
+      <c r="BL218">
+        <v>0</v>
+      </c>
+      <c r="BM218">
+        <v>0</v>
+      </c>
+      <c r="BN218">
+        <v>0</v>
+      </c>
+      <c r="BO218">
+        <v>0</v>
+      </c>
+      <c r="BP218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7025152</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>86</v>
+      </c>
+      <c r="H219" t="s">
+        <v>72</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>237</v>
+      </c>
+      <c r="P219" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>2.33</v>
+      </c>
+      <c r="AA219">
+        <v>3.38</v>
+      </c>
+      <c r="AB219">
+        <v>3.08</v>
+      </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>1.95</v>
+      </c>
+      <c r="AH219">
+        <v>1.76</v>
+      </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
+      <c r="AJ219">
+        <v>0</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
+      <c r="AN219">
+        <v>0.58</v>
+      </c>
+      <c r="AO219">
+        <v>0.92</v>
+      </c>
+      <c r="AP219">
+        <v>0.77</v>
+      </c>
+      <c r="AQ219">
+        <v>0.85</v>
+      </c>
+      <c r="AR219">
+        <v>1.4</v>
+      </c>
+      <c r="AS219">
+        <v>0.99</v>
+      </c>
+      <c r="AT219">
+        <v>2.39</v>
+      </c>
+      <c r="AU219">
+        <v>5</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>2</v>
+      </c>
+      <c r="AX219">
+        <v>3</v>
+      </c>
+      <c r="AY219">
+        <v>7</v>
+      </c>
+      <c r="AZ219">
+        <v>6</v>
+      </c>
+      <c r="BA219">
+        <v>8</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>11</v>
+      </c>
+      <c r="BD219">
+        <v>0</v>
+      </c>
+      <c r="BE219">
+        <v>0</v>
+      </c>
+      <c r="BF219">
+        <v>0</v>
+      </c>
+      <c r="BG219">
+        <v>0</v>
+      </c>
+      <c r="BH219">
+        <v>0</v>
+      </c>
+      <c r="BI219">
+        <v>0</v>
+      </c>
+      <c r="BJ219">
+        <v>0</v>
+      </c>
+      <c r="BK219">
+        <v>0</v>
+      </c>
+      <c r="BL219">
+        <v>0</v>
+      </c>
+      <c r="BM219">
+        <v>0</v>
+      </c>
+      <c r="BN219">
+        <v>0</v>
+      </c>
+      <c r="BO219">
+        <v>0</v>
+      </c>
+      <c r="BP219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7025155</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s">
+        <v>77</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>205</v>
+      </c>
+      <c r="P220" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>2.67</v>
+      </c>
+      <c r="AA220">
+        <v>3.2</v>
+      </c>
+      <c r="AB220">
+        <v>2.76</v>
+      </c>
+      <c r="AC220">
+        <v>0</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
+      <c r="AF220">
+        <v>0</v>
+      </c>
+      <c r="AG220">
+        <v>2.02</v>
+      </c>
+      <c r="AH220">
+        <v>1.71</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>0</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>1.08</v>
+      </c>
+      <c r="AO220">
+        <v>1.75</v>
+      </c>
+      <c r="AP220">
+        <v>1.23</v>
+      </c>
+      <c r="AQ220">
+        <v>1.62</v>
+      </c>
+      <c r="AR220">
+        <v>1.03</v>
+      </c>
+      <c r="AS220">
+        <v>1.05</v>
+      </c>
+      <c r="AT220">
+        <v>2.08</v>
+      </c>
+      <c r="AU220">
+        <v>3</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>3</v>
+      </c>
+      <c r="AX220">
+        <v>2</v>
+      </c>
+      <c r="AY220">
+        <v>6</v>
+      </c>
+      <c r="AZ220">
+        <v>6</v>
+      </c>
+      <c r="BA220">
+        <v>4</v>
+      </c>
+      <c r="BB220">
+        <v>4</v>
+      </c>
+      <c r="BC220">
+        <v>8</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>0</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>0</v>
+      </c>
+      <c r="BJ220">
+        <v>0</v>
+      </c>
+      <c r="BK220">
+        <v>0</v>
+      </c>
+      <c r="BL220">
+        <v>0</v>
+      </c>
+      <c r="BM220">
+        <v>0</v>
+      </c>
+      <c r="BN220">
+        <v>0</v>
+      </c>
+      <c r="BO220">
+        <v>0</v>
+      </c>
+      <c r="BP220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7025158</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" t="s">
+        <v>70</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>90</v>
+      </c>
+      <c r="P221" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>4.48</v>
+      </c>
+      <c r="AA221">
+        <v>3.78</v>
+      </c>
+      <c r="AB221">
+        <v>1.78</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>1.77</v>
+      </c>
+      <c r="AH221">
+        <v>1.94</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>0</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>1.42</v>
+      </c>
+      <c r="AO221">
+        <v>2.08</v>
+      </c>
+      <c r="AP221">
+        <v>1.38</v>
+      </c>
+      <c r="AQ221">
+        <v>2</v>
+      </c>
+      <c r="AR221">
+        <v>1.1</v>
+      </c>
+      <c r="AS221">
+        <v>1.36</v>
+      </c>
+      <c r="AT221">
+        <v>2.46</v>
+      </c>
+      <c r="AU221">
+        <v>4</v>
+      </c>
+      <c r="AV221">
+        <v>2</v>
+      </c>
+      <c r="AW221">
+        <v>1</v>
+      </c>
+      <c r="AX221">
+        <v>2</v>
+      </c>
+      <c r="AY221">
+        <v>5</v>
+      </c>
+      <c r="AZ221">
+        <v>4</v>
+      </c>
+      <c r="BA221">
+        <v>2</v>
+      </c>
+      <c r="BB221">
+        <v>4</v>
+      </c>
+      <c r="BC221">
+        <v>6</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>0</v>
+      </c>
+      <c r="BG221">
+        <v>0</v>
+      </c>
+      <c r="BH221">
+        <v>0</v>
+      </c>
+      <c r="BI221">
+        <v>0</v>
+      </c>
+      <c r="BJ221">
+        <v>0</v>
+      </c>
+      <c r="BK221">
+        <v>0</v>
+      </c>
+      <c r="BL221">
+        <v>0</v>
+      </c>
+      <c r="BM221">
+        <v>0</v>
+      </c>
+      <c r="BN221">
+        <v>0</v>
+      </c>
+      <c r="BO221">
+        <v>0</v>
+      </c>
+      <c r="BP221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7025157</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45360.72916666666</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+      <c r="H222" t="s">
+        <v>87</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
+        <v>113</v>
+      </c>
+      <c r="P222" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>1.83</v>
+      </c>
+      <c r="AA222">
+        <v>3.48</v>
+      </c>
+      <c r="AB222">
+        <v>4.62</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>1.97</v>
+      </c>
+      <c r="AH222">
+        <v>1.75</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>2.08</v>
+      </c>
+      <c r="AO222">
+        <v>0.92</v>
+      </c>
+      <c r="AP222">
+        <v>2.15</v>
+      </c>
+      <c r="AQ222">
+        <v>0.85</v>
+      </c>
+      <c r="AR222">
+        <v>1.45</v>
+      </c>
+      <c r="AS222">
+        <v>1.19</v>
+      </c>
+      <c r="AT222">
+        <v>2.64</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>0</v>
+      </c>
+      <c r="AW222">
+        <v>3</v>
+      </c>
+      <c r="AX222">
+        <v>2</v>
+      </c>
+      <c r="AY222">
+        <v>9</v>
+      </c>
+      <c r="AZ222">
+        <v>2</v>
+      </c>
+      <c r="BA222">
+        <v>9</v>
+      </c>
+      <c r="BB222">
+        <v>1</v>
+      </c>
+      <c r="BC222">
+        <v>10</v>
+      </c>
+      <c r="BD222">
+        <v>0</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>0</v>
+      </c>
+      <c r="BG222">
+        <v>0</v>
+      </c>
+      <c r="BH222">
+        <v>0</v>
+      </c>
+      <c r="BI222">
+        <v>0</v>
+      </c>
+      <c r="BJ222">
+        <v>0</v>
+      </c>
+      <c r="BK222">
+        <v>0</v>
+      </c>
+      <c r="BL222">
+        <v>0</v>
+      </c>
+      <c r="BM222">
+        <v>0</v>
+      </c>
+      <c r="BN222">
+        <v>0</v>
+      </c>
+      <c r="BO222">
+        <v>0</v>
+      </c>
+      <c r="BP222">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['71', '85']</t>
   </si>
   <si>
+    <t>['15', '45+2', '49']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1031,6 +1034,12 @@
   </si>
   <si>
     <t>['7', '59', '79']</t>
+  </si>
+  <si>
+    <t>['19', '90+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP222"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1660,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2063,7 +2072,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2269,7 +2278,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2681,7 +2690,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2887,7 +2896,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2965,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3093,7 +3102,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3299,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3505,7 +3514,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3586,7 +3595,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ11">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3917,7 +3926,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4123,7 +4132,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4407,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4741,7 +4750,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4947,7 +4956,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5359,7 +5368,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5440,7 +5449,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5565,7 +5574,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5643,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ21">
         <v>0.83</v>
@@ -5977,7 +5986,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6183,7 +6192,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6801,7 +6810,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7909,7 +7918,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ32">
         <v>1.58</v>
@@ -8037,7 +8046,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8243,7 +8252,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8655,7 +8664,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8736,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR36">
         <v>0.8</v>
@@ -8861,7 +8870,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9067,7 +9076,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9685,7 +9694,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9969,7 +9978,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ42">
         <v>1.31</v>
@@ -10097,7 +10106,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10178,7 +10187,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR43">
         <v>0.9399999999999999</v>
@@ -10303,7 +10312,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11333,7 +11342,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11745,7 +11754,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11951,7 +11960,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12157,7 +12166,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12363,7 +12372,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12775,7 +12784,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13059,7 +13068,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -13187,7 +13196,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13393,7 +13402,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13599,7 +13608,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13680,7 +13689,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13805,7 +13814,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -13883,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14011,7 +14020,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14092,7 +14101,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR62">
         <v>1.27</v>
@@ -14217,7 +14226,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14629,7 +14638,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14835,7 +14844,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15247,7 +15256,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15659,7 +15668,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16483,7 +16492,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16561,7 +16570,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ74">
         <v>1.62</v>
@@ -16770,7 +16779,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -16973,7 +16982,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ76">
         <v>1.31</v>
@@ -17307,7 +17316,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17513,7 +17522,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17925,7 +17934,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18131,7 +18140,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18212,7 +18221,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ82">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR82">
         <v>0.88</v>
@@ -18337,7 +18346,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18418,7 +18427,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR83">
         <v>2.11</v>
@@ -18543,7 +18552,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18749,7 +18758,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18955,7 +18964,7 @@
         <v>153</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -19779,7 +19788,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -21015,7 +21024,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21427,7 +21436,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21633,7 +21642,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -21711,7 +21720,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21917,10 +21926,10 @@
         <v>2.5</v>
       </c>
       <c r="AP100">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ100">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR100">
         <v>2.2</v>
@@ -22251,7 +22260,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22663,7 +22672,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23075,7 +23084,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23156,7 +23165,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR106">
         <v>1.85</v>
@@ -23487,7 +23496,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23899,7 +23908,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24183,7 +24192,7 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ111">
         <v>0.85</v>
@@ -24517,7 +24526,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24598,7 +24607,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ113">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -24723,7 +24732,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25135,7 +25144,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25213,7 +25222,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ116">
         <v>0.5</v>
@@ -25547,7 +25556,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26243,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121">
         <v>0.58</v>
@@ -26371,7 +26380,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26577,7 +26586,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26783,7 +26792,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -26989,7 +26998,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27070,7 +27079,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR125">
         <v>1.27</v>
@@ -27195,7 +27204,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -28019,7 +28028,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28303,7 +28312,7 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ131">
         <v>0.85</v>
@@ -29049,7 +29058,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29255,7 +29264,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29336,7 +29345,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29542,7 +29551,7 @@
         <v>3</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR137">
         <v>1.61</v>
@@ -29667,7 +29676,7 @@
         <v>128</v>
       </c>
       <c r="P138" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -30285,7 +30294,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30363,7 +30372,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ141">
         <v>2.17</v>
@@ -30491,7 +30500,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30903,7 +30912,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31109,7 +31118,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31521,7 +31530,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31727,7 +31736,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31808,7 +31817,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR148">
         <v>1.28</v>
@@ -31933,7 +31942,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32423,7 +32432,7 @@
         <v>0.43</v>
       </c>
       <c r="AP151">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ151">
         <v>0.5</v>
@@ -32551,7 +32560,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33169,7 +33178,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33375,7 +33384,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33456,7 +33465,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ156">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -33659,7 +33668,7 @@
         <v>1.25</v>
       </c>
       <c r="AP157">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33787,7 +33796,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -33993,7 +34002,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34405,7 +34414,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35229,7 +35238,7 @@
         <v>135</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -35435,7 +35444,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35719,7 +35728,7 @@
         <v>0.88</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ167">
         <v>0.92</v>
@@ -36053,7 +36062,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36546,7 +36555,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR171">
         <v>1.16</v>
@@ -36877,7 +36886,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37289,7 +37298,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -37985,7 +37994,7 @@
         <v>0.33</v>
       </c>
       <c r="AP178">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ178">
         <v>0.58</v>
@@ -38731,7 +38740,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39143,7 +39152,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39224,7 +39233,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ184">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR184">
         <v>1.07</v>
@@ -39761,7 +39770,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39967,7 +39976,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40045,7 +40054,7 @@
         <v>2.2</v>
       </c>
       <c r="AP188">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ188">
         <v>2</v>
@@ -40585,7 +40594,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -40791,7 +40800,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41409,7 +41418,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41693,7 +41702,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ196">
         <v>0.92</v>
@@ -42027,7 +42036,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42108,7 +42117,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42233,7 +42242,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42311,7 +42320,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ199">
         <v>0.85</v>
@@ -42851,7 +42860,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43057,7 +43066,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43138,7 +43147,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ203">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR203">
         <v>1.42</v>
@@ -43341,7 +43350,7 @@
         <v>0.91</v>
       </c>
       <c r="AP204">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ204">
         <v>0.83</v>
@@ -43675,7 +43684,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43756,7 +43765,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ206">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -43881,7 +43890,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44087,7 +44096,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44499,7 +44508,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45323,7 +45332,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45941,7 +45950,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46449,28 +46458,28 @@
         <v>5</v>
       </c>
       <c r="AV219">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW219">
         <v>2</v>
       </c>
       <c r="AX219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY219">
         <v>7</v>
       </c>
       <c r="AZ219">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA219">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB219">
         <v>3</v>
       </c>
       <c r="BC219">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD219">
         <v>0</v>
@@ -46658,13 +46667,13 @@
         <v>4</v>
       </c>
       <c r="AW220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX220">
         <v>2</v>
       </c>
       <c r="AY220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ220">
         <v>6</v>
@@ -46861,28 +46870,28 @@
         <v>4</v>
       </c>
       <c r="AV221">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY221">
+        <v>7</v>
+      </c>
+      <c r="AZ221">
+        <v>9</v>
+      </c>
+      <c r="BA221">
+        <v>6</v>
+      </c>
+      <c r="BB221">
         <v>5</v>
       </c>
-      <c r="AZ221">
-        <v>4</v>
-      </c>
-      <c r="BA221">
-        <v>2</v>
-      </c>
-      <c r="BB221">
-        <v>4</v>
-      </c>
       <c r="BC221">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD221">
         <v>0</v>
@@ -47067,66 +47076,478 @@
         <v>6</v>
       </c>
       <c r="AV222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>10</v>
+      </c>
+      <c r="AZ222">
+        <v>7</v>
+      </c>
+      <c r="BA222">
+        <v>10</v>
+      </c>
+      <c r="BB222">
+        <v>4</v>
+      </c>
+      <c r="BC222">
+        <v>14</v>
+      </c>
+      <c r="BD222">
+        <v>0</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>0</v>
+      </c>
+      <c r="BG222">
+        <v>0</v>
+      </c>
+      <c r="BH222">
+        <v>0</v>
+      </c>
+      <c r="BI222">
+        <v>0</v>
+      </c>
+      <c r="BJ222">
+        <v>0</v>
+      </c>
+      <c r="BK222">
+        <v>0</v>
+      </c>
+      <c r="BL222">
+        <v>0</v>
+      </c>
+      <c r="BM222">
+        <v>0</v>
+      </c>
+      <c r="BN222">
+        <v>0</v>
+      </c>
+      <c r="BO222">
+        <v>0</v>
+      </c>
+      <c r="BP222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7025154</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45361.625</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s">
+        <v>73</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
         <v>3</v>
       </c>
-      <c r="AX222">
-        <v>2</v>
-      </c>
-      <c r="AY222">
-        <v>9</v>
-      </c>
-      <c r="AZ222">
-        <v>2</v>
-      </c>
-      <c r="BA222">
-        <v>9</v>
-      </c>
-      <c r="BB222">
-        <v>1</v>
-      </c>
-      <c r="BC222">
-        <v>10</v>
-      </c>
-      <c r="BD222">
-        <v>0</v>
-      </c>
-      <c r="BE222">
-        <v>0</v>
-      </c>
-      <c r="BF222">
-        <v>0</v>
-      </c>
-      <c r="BG222">
-        <v>0</v>
-      </c>
-      <c r="BH222">
-        <v>0</v>
-      </c>
-      <c r="BI222">
-        <v>0</v>
-      </c>
-      <c r="BJ222">
-        <v>0</v>
-      </c>
-      <c r="BK222">
-        <v>0</v>
-      </c>
-      <c r="BL222">
-        <v>0</v>
-      </c>
-      <c r="BM222">
-        <v>0</v>
-      </c>
-      <c r="BN222">
-        <v>0</v>
-      </c>
-      <c r="BO222">
-        <v>0</v>
-      </c>
-      <c r="BP222">
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>90</v>
+      </c>
+      <c r="P223" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>6.47</v>
+      </c>
+      <c r="AA223">
+        <v>4.85</v>
+      </c>
+      <c r="AB223">
+        <v>1.4</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>1.6</v>
+      </c>
+      <c r="AH223">
+        <v>2.19</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>1.42</v>
+      </c>
+      <c r="AO223">
+        <v>2.09</v>
+      </c>
+      <c r="AP223">
+        <v>1.31</v>
+      </c>
+      <c r="AQ223">
+        <v>2.17</v>
+      </c>
+      <c r="AR223">
+        <v>1.25</v>
+      </c>
+      <c r="AS223">
+        <v>1.49</v>
+      </c>
+      <c r="AT223">
+        <v>2.74</v>
+      </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
+      <c r="AV223">
+        <v>3</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>2</v>
+      </c>
+      <c r="AY223">
+        <v>6</v>
+      </c>
+      <c r="AZ223">
+        <v>5</v>
+      </c>
+      <c r="BA223">
+        <v>2</v>
+      </c>
+      <c r="BB223">
+        <v>0</v>
+      </c>
+      <c r="BC223">
+        <v>2</v>
+      </c>
+      <c r="BD223">
+        <v>0</v>
+      </c>
+      <c r="BE223">
+        <v>0</v>
+      </c>
+      <c r="BF223">
+        <v>0</v>
+      </c>
+      <c r="BG223">
+        <v>0</v>
+      </c>
+      <c r="BH223">
+        <v>0</v>
+      </c>
+      <c r="BI223">
+        <v>0</v>
+      </c>
+      <c r="BJ223">
+        <v>0</v>
+      </c>
+      <c r="BK223">
+        <v>0</v>
+      </c>
+      <c r="BL223">
+        <v>0</v>
+      </c>
+      <c r="BM223">
+        <v>0</v>
+      </c>
+      <c r="BN223">
+        <v>0</v>
+      </c>
+      <c r="BO223">
+        <v>0</v>
+      </c>
+      <c r="BP223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7025153</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45361.72916666666</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>83</v>
+      </c>
+      <c r="H224" t="s">
+        <v>84</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224" t="s">
+        <v>238</v>
+      </c>
+      <c r="P224" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>1.16</v>
+      </c>
+      <c r="AA224">
+        <v>7.75</v>
+      </c>
+      <c r="AB224">
+        <v>11.92</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>1.35</v>
+      </c>
+      <c r="AH224">
+        <v>2.94</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>2.67</v>
+      </c>
+      <c r="AO224">
+        <v>0.5</v>
+      </c>
+      <c r="AP224">
+        <v>2.69</v>
+      </c>
+      <c r="AQ224">
+        <v>0.46</v>
+      </c>
+      <c r="AR224">
+        <v>2.07</v>
+      </c>
+      <c r="AS224">
+        <v>1.23</v>
+      </c>
+      <c r="AT224">
+        <v>3.3</v>
+      </c>
+      <c r="AU224">
+        <v>2</v>
+      </c>
+      <c r="AV224">
+        <v>0</v>
+      </c>
+      <c r="AW224">
+        <v>1</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>3</v>
+      </c>
+      <c r="AZ224">
+        <v>0</v>
+      </c>
+      <c r="BA224">
+        <v>3</v>
+      </c>
+      <c r="BB224">
+        <v>1</v>
+      </c>
+      <c r="BC224">
+        <v>4</v>
+      </c>
+      <c r="BD224">
+        <v>0</v>
+      </c>
+      <c r="BE224">
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <v>0</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>0</v>
+      </c>
+      <c r="BI224">
+        <v>0</v>
+      </c>
+      <c r="BJ224">
+        <v>0</v>
+      </c>
+      <c r="BK224">
+        <v>0</v>
+      </c>
+      <c r="BL224">
+        <v>0</v>
+      </c>
+      <c r="BM224">
+        <v>0</v>
+      </c>
+      <c r="BN224">
+        <v>0</v>
+      </c>
+      <c r="BO224">
+        <v>0</v>
+      </c>
+      <c r="BP224">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1401,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -5655,7 +5655,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR21">
         <v>0.73</v>
@@ -5861,7 +5861,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23">
         <v>2.17</v>
@@ -8124,7 +8124,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ43">
         <v>0.46</v>
@@ -10393,7 +10393,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR44">
         <v>1.13</v>
@@ -10805,7 +10805,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ49">
         <v>0.92</v>
@@ -13277,7 +13277,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR58">
         <v>1.52</v>
@@ -13895,7 +13895,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14510,7 +14510,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ64">
         <v>1.31</v>
@@ -15540,7 +15540,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ69">
         <v>2.17</v>
@@ -16161,7 +16161,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -17191,7 +17191,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17394,7 +17394,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -19045,7 +19045,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR86">
         <v>1.83</v>
@@ -20278,7 +20278,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ92">
         <v>1.31</v>
@@ -20487,7 +20487,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR93">
         <v>1.36</v>
@@ -21308,7 +21308,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ97">
         <v>0.5</v>
@@ -22959,7 +22959,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -25428,10 +25428,10 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -25634,7 +25634,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ118">
         <v>1.62</v>
@@ -26667,7 +26667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR123">
         <v>1.11</v>
@@ -28521,7 +28521,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR132">
         <v>2.01</v>
@@ -28724,7 +28724,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28930,7 +28930,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ134">
         <v>0.85</v>
@@ -30787,7 +30787,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR143">
         <v>1.17</v>
@@ -30993,7 +30993,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR144">
         <v>1.24</v>
@@ -32020,7 +32020,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ149">
         <v>1.62</v>
@@ -32226,7 +32226,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ150">
         <v>0.67</v>
@@ -33874,7 +33874,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ158">
         <v>1.42</v>
@@ -35319,7 +35319,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ165">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR165">
         <v>0.98</v>
@@ -35934,7 +35934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ168">
         <v>1.58</v>
@@ -36761,7 +36761,7 @@
         <v>2</v>
       </c>
       <c r="AQ172">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR172">
         <v>1.78</v>
@@ -37788,7 +37788,7 @@
         <v>0.89</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ177">
         <v>0.67</v>
@@ -38615,7 +38615,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ181">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR181">
         <v>1.01</v>
@@ -39027,7 +39027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR183">
         <v>1.13</v>
@@ -40260,7 +40260,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ189">
         <v>0.92</v>
@@ -41496,7 +41496,7 @@
         <v>0.3</v>
       </c>
       <c r="AP195">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ195">
         <v>0.58</v>
@@ -42735,7 +42735,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ201">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR201">
         <v>1.01</v>
@@ -43353,7 +43353,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ204">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR204">
         <v>2.06</v>
@@ -43556,7 +43556,7 @@
         <v>2</v>
       </c>
       <c r="AP205">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ205">
         <v>2</v>
@@ -44586,7 +44586,7 @@
         <v>1.45</v>
       </c>
       <c r="AP210">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ210">
         <v>1.58</v>
@@ -47279,22 +47279,22 @@
         <v>2.74</v>
       </c>
       <c r="AU223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV223">
         <v>3</v>
       </c>
       <c r="AW223">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY223">
+        <v>10</v>
+      </c>
+      <c r="AZ223">
         <v>6</v>
-      </c>
-      <c r="AZ223">
-        <v>5</v>
       </c>
       <c r="BA223">
         <v>2</v>
@@ -47485,69 +47485,481 @@
         <v>3.3</v>
       </c>
       <c r="AU224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV224">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW224">
         <v>1</v>
       </c>
       <c r="AX224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY224">
+        <v>5</v>
+      </c>
+      <c r="AZ224">
+        <v>7</v>
+      </c>
+      <c r="BA224">
+        <v>6</v>
+      </c>
+      <c r="BB224">
+        <v>4</v>
+      </c>
+      <c r="BC224">
+        <v>10</v>
+      </c>
+      <c r="BD224">
+        <v>0</v>
+      </c>
+      <c r="BE224">
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <v>0</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>0</v>
+      </c>
+      <c r="BI224">
+        <v>0</v>
+      </c>
+      <c r="BJ224">
+        <v>0</v>
+      </c>
+      <c r="BK224">
+        <v>0</v>
+      </c>
+      <c r="BL224">
+        <v>0</v>
+      </c>
+      <c r="BM224">
+        <v>0</v>
+      </c>
+      <c r="BN224">
+        <v>0</v>
+      </c>
+      <c r="BO224">
+        <v>0</v>
+      </c>
+      <c r="BP224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7025160</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45362.71875</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>71</v>
+      </c>
+      <c r="H225" t="s">
+        <v>81</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>90</v>
+      </c>
+      <c r="P225" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>1.78</v>
+      </c>
+      <c r="AA225">
+        <v>3.5</v>
+      </c>
+      <c r="AB225">
+        <v>4.33</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>1.91</v>
+      </c>
+      <c r="AH225">
+        <v>1.8</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>1.67</v>
+      </c>
+      <c r="AO225">
+        <v>0.5</v>
+      </c>
+      <c r="AP225">
+        <v>1.62</v>
+      </c>
+      <c r="AQ225">
+        <v>0.54</v>
+      </c>
+      <c r="AR225">
+        <v>1.11</v>
+      </c>
+      <c r="AS225">
+        <v>1.18</v>
+      </c>
+      <c r="AT225">
+        <v>2.29</v>
+      </c>
+      <c r="AU225">
+        <v>7</v>
+      </c>
+      <c r="AV225">
+        <v>0</v>
+      </c>
+      <c r="AW225">
+        <v>5</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>12</v>
+      </c>
+      <c r="AZ225">
+        <v>4</v>
+      </c>
+      <c r="BA225">
+        <v>12</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>13</v>
+      </c>
+      <c r="BD225">
+        <v>0</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>0</v>
+      </c>
+      <c r="BG225">
+        <v>0</v>
+      </c>
+      <c r="BH225">
+        <v>0</v>
+      </c>
+      <c r="BI225">
+        <v>0</v>
+      </c>
+      <c r="BJ225">
+        <v>0</v>
+      </c>
+      <c r="BK225">
+        <v>0</v>
+      </c>
+      <c r="BL225">
+        <v>0</v>
+      </c>
+      <c r="BM225">
+        <v>0</v>
+      </c>
+      <c r="BN225">
+        <v>0</v>
+      </c>
+      <c r="BO225">
+        <v>0</v>
+      </c>
+      <c r="BP225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7025163</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45366.71875</v>
+      </c>
+      <c r="F226">
+        <v>26</v>
+      </c>
+      <c r="G226" t="s">
+        <v>84</v>
+      </c>
+      <c r="H226" t="s">
+        <v>82</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>190</v>
+      </c>
+      <c r="P226" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>2.3</v>
+      </c>
+      <c r="AA226">
+        <v>1.83</v>
+      </c>
+      <c r="AB226">
+        <v>7.57</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>1.8</v>
+      </c>
+      <c r="AH226">
+        <v>1.91</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <v>0</v>
+      </c>
+      <c r="AN226">
+        <v>1.33</v>
+      </c>
+      <c r="AO226">
+        <v>0.83</v>
+      </c>
+      <c r="AP226">
+        <v>1.46</v>
+      </c>
+      <c r="AQ226">
+        <v>0.77</v>
+      </c>
+      <c r="AR226">
+        <v>1.26</v>
+      </c>
+      <c r="AS226">
+        <v>1.02</v>
+      </c>
+      <c r="AT226">
+        <v>2.28</v>
+      </c>
+      <c r="AU226">
+        <v>2</v>
+      </c>
+      <c r="AV226">
         <v>3</v>
       </c>
-      <c r="AZ224">
-        <v>0</v>
-      </c>
-      <c r="BA224">
+      <c r="AW226">
+        <v>4</v>
+      </c>
+      <c r="AX226">
+        <v>0</v>
+      </c>
+      <c r="AY226">
+        <v>6</v>
+      </c>
+      <c r="AZ226">
         <v>3</v>
       </c>
-      <c r="BB224">
-        <v>1</v>
-      </c>
-      <c r="BC224">
-        <v>4</v>
-      </c>
-      <c r="BD224">
-        <v>0</v>
-      </c>
-      <c r="BE224">
-        <v>0</v>
-      </c>
-      <c r="BF224">
-        <v>0</v>
-      </c>
-      <c r="BG224">
-        <v>0</v>
-      </c>
-      <c r="BH224">
-        <v>0</v>
-      </c>
-      <c r="BI224">
-        <v>0</v>
-      </c>
-      <c r="BJ224">
-        <v>0</v>
-      </c>
-      <c r="BK224">
-        <v>0</v>
-      </c>
-      <c r="BL224">
-        <v>0</v>
-      </c>
-      <c r="BM224">
-        <v>0</v>
-      </c>
-      <c r="BN224">
-        <v>0</v>
-      </c>
-      <c r="BO224">
-        <v>0</v>
-      </c>
-      <c r="BP224">
+      <c r="BA226">
+        <v>1</v>
+      </c>
+      <c r="BB226">
+        <v>2</v>
+      </c>
+      <c r="BC226">
+        <v>3</v>
+      </c>
+      <c r="BD226">
+        <v>0</v>
+      </c>
+      <c r="BE226">
+        <v>0</v>
+      </c>
+      <c r="BF226">
+        <v>0</v>
+      </c>
+      <c r="BG226">
+        <v>0</v>
+      </c>
+      <c r="BH226">
+        <v>0</v>
+      </c>
+      <c r="BI226">
+        <v>0</v>
+      </c>
+      <c r="BJ226">
+        <v>0</v>
+      </c>
+      <c r="BK226">
+        <v>0</v>
+      </c>
+      <c r="BL226">
+        <v>0</v>
+      </c>
+      <c r="BM226">
+        <v>0</v>
+      </c>
+      <c r="BN226">
+        <v>0</v>
+      </c>
+      <c r="BO226">
+        <v>0</v>
+      </c>
+      <c r="BP226">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,18 @@
     <t>['15', '45+2', '49']</t>
   </si>
   <si>
+    <t>['39', '89']</t>
+  </si>
+  <si>
+    <t>['54', '68', '77', '89']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -874,9 +886,6 @@
     <t>['59', '80']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['50', '55']</t>
   </si>
   <si>
@@ -929,9 +938,6 @@
   </si>
   <si>
     <t>['51', '77', '88']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['39', '47', '85']</t>
@@ -1040,6 +1046,12 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['20', '62']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1672,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1738,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ2">
         <v>0.85</v>
@@ -2072,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2150,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ4">
         <v>1.31</v>
@@ -2278,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2359,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2690,7 +2702,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2771,7 +2783,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2896,7 +2908,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3102,7 +3114,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3180,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3308,7 +3320,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3514,7 +3526,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3801,7 +3813,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ12">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3926,7 +3938,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4004,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -4132,7 +4144,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4419,7 +4431,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4625,7 +4637,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4750,7 +4762,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4828,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ17">
         <v>0.85</v>
@@ -4956,7 +4968,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5037,7 +5049,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ18">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5240,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ19">
         <v>1.62</v>
@@ -5368,7 +5380,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5574,7 +5586,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5858,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ22">
         <v>0.54</v>
@@ -5986,7 +5998,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6192,7 +6204,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6479,7 +6491,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ25">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6810,7 +6822,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7097,7 +7109,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ28">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR28">
         <v>1.77</v>
@@ -7303,7 +7315,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR29">
         <v>1.16</v>
@@ -7509,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7712,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
         <v>0.85</v>
@@ -7921,7 +7933,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ32">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR32">
         <v>2.86</v>
@@ -8046,7 +8058,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8252,7 +8264,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8330,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ34">
         <v>1.62</v>
@@ -8536,10 +8548,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ35">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR35">
         <v>2.63</v>
@@ -8664,7 +8676,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8742,7 +8754,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ36">
         <v>2.17</v>
@@ -8870,7 +8882,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8948,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -9076,7 +9088,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9566,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9694,7 +9706,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10106,7 +10118,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10312,7 +10324,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11008,10 +11020,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ47">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11214,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ48">
         <v>0.85</v>
@@ -11342,7 +11354,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11423,7 +11435,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ49">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11629,7 +11641,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11754,7 +11766,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11832,10 +11844,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ51">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11960,7 +11972,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12038,10 +12050,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -12166,7 +12178,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12372,7 +12384,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12450,7 +12462,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12659,7 +12671,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR55">
         <v>1.81</v>
@@ -12784,7 +12796,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13196,7 +13208,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13402,7 +13414,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13608,7 +13620,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13686,7 +13698,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ60">
         <v>2.17</v>
@@ -13814,7 +13826,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14020,7 +14032,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14226,7 +14238,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14638,7 +14650,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14716,7 +14728,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14844,7 +14856,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -14922,10 +14934,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ66">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15128,10 +15140,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ67">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15256,7 +15268,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15334,10 +15346,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15668,7 +15680,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15746,10 +15758,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15955,7 +15967,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16158,7 +16170,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ72">
         <v>0.77</v>
@@ -16367,7 +16379,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
         <v>1.69</v>
@@ -16492,7 +16504,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17316,7 +17328,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17522,7 +17534,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17934,7 +17946,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18140,7 +18152,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18346,7 +18358,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18424,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ83">
         <v>0.46</v>
@@ -18552,7 +18564,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18630,7 +18642,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ84">
         <v>2.17</v>
@@ -18758,7 +18770,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18836,10 +18848,10 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ85">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -18964,7 +18976,7 @@
         <v>153</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -19042,7 +19054,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ86">
         <v>0.77</v>
@@ -19248,10 +19260,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ87">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR87">
         <v>1.19</v>
@@ -19457,7 +19469,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ88">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19788,7 +19800,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -19869,7 +19881,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -20072,10 +20084,10 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ91">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR91">
         <v>1.41</v>
@@ -21024,7 +21036,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21311,7 +21323,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21436,7 +21448,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21642,7 +21654,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -22132,10 +22144,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ101">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22260,7 +22272,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22338,10 +22350,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ102">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22547,7 +22559,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -22672,7 +22684,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22750,7 +22762,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -23084,7 +23096,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23162,7 +23174,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ106">
         <v>0.46</v>
@@ -23368,7 +23380,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ107">
         <v>2.17</v>
@@ -23496,7 +23508,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23577,7 +23589,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ108">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR108">
         <v>0.97</v>
@@ -23783,7 +23795,7 @@
         <v>3</v>
       </c>
       <c r="AQ109">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23908,7 +23920,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24526,7 +24538,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24732,7 +24744,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -24810,7 +24822,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ114">
         <v>1.31</v>
@@ -25144,7 +25156,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25225,7 +25237,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ116">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR116">
         <v>1.42</v>
@@ -25556,7 +25568,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25840,10 +25852,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ119">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR119">
         <v>1.26</v>
@@ -26049,7 +26061,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR120">
         <v>1.15</v>
@@ -26255,7 +26267,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ121">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26380,7 +26392,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26461,7 +26473,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ122">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR122">
         <v>1.01</v>
@@ -26586,7 +26598,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26664,7 +26676,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123">
         <v>0.77</v>
@@ -26792,7 +26804,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -26870,7 +26882,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124">
         <v>1.31</v>
@@ -26998,7 +27010,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27076,7 +27088,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125">
         <v>0.46</v>
@@ -27204,7 +27216,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27282,7 +27294,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ126">
         <v>2.17</v>
@@ -27697,7 +27709,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR128">
         <v>1.39</v>
@@ -28028,7 +28040,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28109,7 +28121,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ130">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR130">
         <v>1.05</v>
@@ -28518,7 +28530,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ132">
         <v>0.54</v>
@@ -29058,7 +29070,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29264,7 +29276,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29676,7 +29688,7 @@
         <v>128</v>
       </c>
       <c r="P138" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -29960,10 +29972,10 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ139">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR139">
         <v>1.23</v>
@@ -30169,7 +30181,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ140">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR140">
         <v>0.99</v>
@@ -30294,7 +30306,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30500,7 +30512,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30578,10 +30590,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ142">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR142">
         <v>1.87</v>
@@ -30912,7 +30924,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -30990,7 +31002,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
         <v>0.54</v>
@@ -31118,7 +31130,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31196,7 +31208,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ145">
         <v>1.31</v>
@@ -31530,7 +31542,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31736,7 +31748,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31814,7 +31826,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ148">
         <v>2.17</v>
@@ -31942,7 +31954,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32229,7 +32241,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ150">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR150">
         <v>1.14</v>
@@ -32435,7 +32447,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ151">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR151">
         <v>2.34</v>
@@ -32560,7 +32572,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32844,7 +32856,7 @@
         <v>2.38</v>
       </c>
       <c r="AP153">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ153">
         <v>2</v>
@@ -33053,7 +33065,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ154">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33178,7 +33190,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33256,7 +33268,7 @@
         <v>2.11</v>
       </c>
       <c r="AP155">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ155">
         <v>2</v>
@@ -33384,7 +33396,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33796,7 +33808,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -33877,7 +33889,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ158">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR158">
         <v>1.29</v>
@@ -34002,7 +34014,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34286,7 +34298,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ160">
         <v>1.62</v>
@@ -34414,7 +34426,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34495,7 +34507,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34698,10 +34710,10 @@
         <v>0.38</v>
       </c>
       <c r="AP162">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ162">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -34907,7 +34919,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ163">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35110,7 +35122,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ164">
         <v>0.85</v>
@@ -35238,7 +35250,7 @@
         <v>135</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -35444,7 +35456,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35522,7 +35534,7 @@
         <v>2.11</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ166">
         <v>2</v>
@@ -35731,7 +35743,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ167">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35937,7 +35949,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ168">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR168">
         <v>1.11</v>
@@ -36062,7 +36074,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36758,7 +36770,7 @@
         <v>0.44</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ172">
         <v>0.54</v>
@@ -36886,7 +36898,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -36967,7 +36979,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR173">
         <v>1.16</v>
@@ -37170,10 +37182,10 @@
         <v>0.44</v>
       </c>
       <c r="AP174">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ174">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR174">
         <v>1.81</v>
@@ -37298,7 +37310,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -37379,7 +37391,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ175">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR175">
         <v>1.46</v>
@@ -37582,7 +37594,7 @@
         <v>1.11</v>
       </c>
       <c r="AP176">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ176">
         <v>0.85</v>
@@ -37791,7 +37803,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -37997,7 +38009,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ178">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR178">
         <v>2.27</v>
@@ -38200,7 +38212,7 @@
         <v>1.8</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ179">
         <v>1.62</v>
@@ -38740,7 +38752,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -38818,7 +38830,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ182">
         <v>0.85</v>
@@ -39024,7 +39036,7 @@
         <v>0.5</v>
       </c>
       <c r="AP183">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ183">
         <v>0.54</v>
@@ -39152,7 +39164,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39770,7 +39782,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39976,7 +39988,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40263,7 +40275,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ189">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -40466,10 +40478,10 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR190">
         <v>1.36</v>
@@ -40594,7 +40606,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -40672,7 +40684,7 @@
         <v>1.1</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ191">
         <v>1</v>
@@ -40800,7 +40812,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -40881,7 +40893,7 @@
         <v>1</v>
       </c>
       <c r="AQ192">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR192">
         <v>1.15</v>
@@ -41084,10 +41096,10 @@
         <v>0.8</v>
       </c>
       <c r="AP193">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ193">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR193">
         <v>1.92</v>
@@ -41293,7 +41305,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ194">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR194">
         <v>1.12</v>
@@ -41418,7 +41430,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41499,7 +41511,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ195">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR195">
         <v>1.28</v>
@@ -41705,7 +41717,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ196">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR196">
         <v>2.17</v>
@@ -41908,7 +41920,7 @@
         <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ197">
         <v>0.85</v>
@@ -42036,7 +42048,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42114,7 +42126,7 @@
         <v>2.11</v>
       </c>
       <c r="AP198">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ198">
         <v>2.17</v>
@@ -42242,7 +42254,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42526,7 +42538,7 @@
         <v>1.64</v>
       </c>
       <c r="AP200">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ200">
         <v>1.62</v>
@@ -42860,7 +42872,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43066,7 +43078,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43684,7 +43696,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43890,7 +43902,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44096,7 +44108,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44174,10 +44186,10 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ208">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR208">
         <v>1.16</v>
@@ -44380,10 +44392,10 @@
         <v>0.45</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ209">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR209">
         <v>1.11</v>
@@ -44508,7 +44520,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44589,7 +44601,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ210">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR210">
         <v>1.26</v>
@@ -44792,10 +44804,10 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ211">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR211">
         <v>1.86</v>
@@ -45001,7 +45013,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ212">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR212">
         <v>1.11</v>
@@ -45207,7 +45219,7 @@
         <v>1</v>
       </c>
       <c r="AQ213">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45332,7 +45344,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45616,7 +45628,7 @@
         <v>2.36</v>
       </c>
       <c r="AP215">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ215">
         <v>2.17</v>
@@ -45822,7 +45834,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ216">
         <v>1</v>
@@ -45950,7 +45962,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -47186,7 +47198,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47392,7 +47404,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47897,7 +47909,7 @@
         <v>2.28</v>
       </c>
       <c r="AU226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV226">
         <v>3</v>
@@ -47906,60 +47918,1296 @@
         <v>4</v>
       </c>
       <c r="AX226">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY226">
+        <v>7</v>
+      </c>
+      <c r="AZ226">
+        <v>10</v>
+      </c>
+      <c r="BA226">
+        <v>2</v>
+      </c>
+      <c r="BB226">
+        <v>7</v>
+      </c>
+      <c r="BC226">
+        <v>9</v>
+      </c>
+      <c r="BD226">
+        <v>0</v>
+      </c>
+      <c r="BE226">
+        <v>0</v>
+      </c>
+      <c r="BF226">
+        <v>0</v>
+      </c>
+      <c r="BG226">
+        <v>0</v>
+      </c>
+      <c r="BH226">
+        <v>0</v>
+      </c>
+      <c r="BI226">
+        <v>0</v>
+      </c>
+      <c r="BJ226">
+        <v>0</v>
+      </c>
+      <c r="BK226">
+        <v>0</v>
+      </c>
+      <c r="BL226">
+        <v>0</v>
+      </c>
+      <c r="BM226">
+        <v>0</v>
+      </c>
+      <c r="BN226">
+        <v>0</v>
+      </c>
+      <c r="BO226">
+        <v>0</v>
+      </c>
+      <c r="BP226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7025169</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45367.52083333334</v>
+      </c>
+      <c r="F227">
+        <v>26</v>
+      </c>
+      <c r="G227" t="s">
+        <v>87</v>
+      </c>
+      <c r="H227" t="s">
+        <v>75</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227" t="s">
+        <v>90</v>
+      </c>
+      <c r="P227" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>1.91</v>
+      </c>
+      <c r="AA227">
+        <v>3.3</v>
+      </c>
+      <c r="AB227">
+        <v>4.2</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>2.15</v>
+      </c>
+      <c r="AH227">
+        <v>1.62</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>1.45</v>
+      </c>
+      <c r="AO227">
+        <v>0.67</v>
+      </c>
+      <c r="AP227">
+        <v>1.42</v>
+      </c>
+      <c r="AQ227">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR227">
+        <v>1.35</v>
+      </c>
+      <c r="AS227">
+        <v>1.04</v>
+      </c>
+      <c r="AT227">
+        <v>2.39</v>
+      </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
         <v>6</v>
       </c>
-      <c r="AZ226">
+      <c r="AX227">
+        <v>4</v>
+      </c>
+      <c r="AY227">
+        <v>11</v>
+      </c>
+      <c r="AZ227">
+        <v>7</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>7</v>
+      </c>
+      <c r="BC227">
+        <v>11</v>
+      </c>
+      <c r="BD227">
+        <v>0</v>
+      </c>
+      <c r="BE227">
+        <v>0</v>
+      </c>
+      <c r="BF227">
+        <v>0</v>
+      </c>
+      <c r="BG227">
+        <v>0</v>
+      </c>
+      <c r="BH227">
+        <v>0</v>
+      </c>
+      <c r="BI227">
+        <v>0</v>
+      </c>
+      <c r="BJ227">
+        <v>0</v>
+      </c>
+      <c r="BK227">
+        <v>0</v>
+      </c>
+      <c r="BL227">
+        <v>0</v>
+      </c>
+      <c r="BM227">
+        <v>0</v>
+      </c>
+      <c r="BN227">
+        <v>0</v>
+      </c>
+      <c r="BO227">
+        <v>0</v>
+      </c>
+      <c r="BP227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7025162</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F228">
+        <v>26</v>
+      </c>
+      <c r="G228" t="s">
+        <v>70</v>
+      </c>
+      <c r="H228" t="s">
+        <v>71</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
         <v>3</v>
       </c>
-      <c r="BA226">
-        <v>1</v>
-      </c>
-      <c r="BB226">
-        <v>2</v>
-      </c>
-      <c r="BC226">
+      <c r="O228" t="s">
+        <v>239</v>
+      </c>
+      <c r="P228" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>1.4</v>
+      </c>
+      <c r="AA228">
+        <v>4.75</v>
+      </c>
+      <c r="AB228">
+        <v>7</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>1.6</v>
+      </c>
+      <c r="AH228">
+        <v>2.2</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>2</v>
+      </c>
+      <c r="AO228">
+        <v>0.58</v>
+      </c>
+      <c r="AP228">
+        <v>2.08</v>
+      </c>
+      <c r="AQ228">
+        <v>0.54</v>
+      </c>
+      <c r="AR228">
+        <v>1.86</v>
+      </c>
+      <c r="AS228">
+        <v>1.15</v>
+      </c>
+      <c r="AT228">
+        <v>3.01</v>
+      </c>
+      <c r="AU228">
+        <v>2</v>
+      </c>
+      <c r="AV228">
+        <v>4</v>
+      </c>
+      <c r="AW228">
+        <v>11</v>
+      </c>
+      <c r="AX228">
+        <v>2</v>
+      </c>
+      <c r="AY228">
+        <v>13</v>
+      </c>
+      <c r="AZ228">
+        <v>6</v>
+      </c>
+      <c r="BA228">
+        <v>7</v>
+      </c>
+      <c r="BB228">
+        <v>2</v>
+      </c>
+      <c r="BC228">
+        <v>9</v>
+      </c>
+      <c r="BD228">
+        <v>0</v>
+      </c>
+      <c r="BE228">
+        <v>0</v>
+      </c>
+      <c r="BF228">
+        <v>0</v>
+      </c>
+      <c r="BG228">
+        <v>0</v>
+      </c>
+      <c r="BH228">
+        <v>0</v>
+      </c>
+      <c r="BI228">
+        <v>0</v>
+      </c>
+      <c r="BJ228">
+        <v>0</v>
+      </c>
+      <c r="BK228">
+        <v>0</v>
+      </c>
+      <c r="BL228">
+        <v>0</v>
+      </c>
+      <c r="BM228">
+        <v>0</v>
+      </c>
+      <c r="BN228">
+        <v>0</v>
+      </c>
+      <c r="BO228">
+        <v>0</v>
+      </c>
+      <c r="BP228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7025164</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F229">
+        <v>26</v>
+      </c>
+      <c r="G229" t="s">
+        <v>72</v>
+      </c>
+      <c r="H229" t="s">
+        <v>74</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>146</v>
+      </c>
+      <c r="P229" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>2.5</v>
+      </c>
+      <c r="AA229">
+        <v>3.1</v>
+      </c>
+      <c r="AB229">
+        <v>2.88</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>2.1</v>
+      </c>
+      <c r="AH229">
+        <v>1.65</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>1.25</v>
+      </c>
+      <c r="AO229">
+        <v>0.5</v>
+      </c>
+      <c r="AP229">
+        <v>1.23</v>
+      </c>
+      <c r="AQ229">
+        <v>0.54</v>
+      </c>
+      <c r="AR229">
+        <v>1.25</v>
+      </c>
+      <c r="AS229">
+        <v>1.07</v>
+      </c>
+      <c r="AT229">
+        <v>2.32</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
         <v>3</v>
       </c>
-      <c r="BD226">
-        <v>0</v>
-      </c>
-      <c r="BE226">
-        <v>0</v>
-      </c>
-      <c r="BF226">
-        <v>0</v>
-      </c>
-      <c r="BG226">
-        <v>0</v>
-      </c>
-      <c r="BH226">
-        <v>0</v>
-      </c>
-      <c r="BI226">
-        <v>0</v>
-      </c>
-      <c r="BJ226">
-        <v>0</v>
-      </c>
-      <c r="BK226">
-        <v>0</v>
-      </c>
-      <c r="BL226">
-        <v>0</v>
-      </c>
-      <c r="BM226">
-        <v>0</v>
-      </c>
-      <c r="BN226">
-        <v>0</v>
-      </c>
-      <c r="BO226">
-        <v>0</v>
-      </c>
-      <c r="BP226">
+      <c r="AW229">
+        <v>1</v>
+      </c>
+      <c r="AX229">
+        <v>4</v>
+      </c>
+      <c r="AY229">
+        <v>5</v>
+      </c>
+      <c r="AZ229">
+        <v>7</v>
+      </c>
+      <c r="BA229">
+        <v>3</v>
+      </c>
+      <c r="BB229">
+        <v>1</v>
+      </c>
+      <c r="BC229">
+        <v>4</v>
+      </c>
+      <c r="BD229">
+        <v>0</v>
+      </c>
+      <c r="BE229">
+        <v>0</v>
+      </c>
+      <c r="BF229">
+        <v>0</v>
+      </c>
+      <c r="BG229">
+        <v>0</v>
+      </c>
+      <c r="BH229">
+        <v>0</v>
+      </c>
+      <c r="BI229">
+        <v>0</v>
+      </c>
+      <c r="BJ229">
+        <v>0</v>
+      </c>
+      <c r="BK229">
+        <v>0</v>
+      </c>
+      <c r="BL229">
+        <v>0</v>
+      </c>
+      <c r="BM229">
+        <v>0</v>
+      </c>
+      <c r="BN229">
+        <v>0</v>
+      </c>
+      <c r="BO229">
+        <v>0</v>
+      </c>
+      <c r="BP229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7025166</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45367.72916666666</v>
+      </c>
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>85</v>
+      </c>
+      <c r="H230" t="s">
+        <v>86</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>5</v>
+      </c>
+      <c r="O230" t="s">
+        <v>240</v>
+      </c>
+      <c r="P230" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>1.15</v>
+      </c>
+      <c r="AA230">
+        <v>7.5</v>
+      </c>
+      <c r="AB230">
+        <v>15</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>1.45</v>
+      </c>
+      <c r="AH230">
+        <v>2.55</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>2.42</v>
+      </c>
+      <c r="AO230">
+        <v>0.92</v>
+      </c>
+      <c r="AP230">
+        <v>2.46</v>
+      </c>
+      <c r="AQ230">
+        <v>0.85</v>
+      </c>
+      <c r="AR230">
+        <v>1.86</v>
+      </c>
+      <c r="AS230">
+        <v>1.17</v>
+      </c>
+      <c r="AT230">
+        <v>3.03</v>
+      </c>
+      <c r="AU230">
+        <v>5</v>
+      </c>
+      <c r="AV230">
+        <v>0</v>
+      </c>
+      <c r="AW230">
+        <v>8</v>
+      </c>
+      <c r="AX230">
+        <v>0</v>
+      </c>
+      <c r="AY230">
+        <v>13</v>
+      </c>
+      <c r="AZ230">
+        <v>0</v>
+      </c>
+      <c r="BA230">
+        <v>6</v>
+      </c>
+      <c r="BB230">
+        <v>3</v>
+      </c>
+      <c r="BC230">
+        <v>9</v>
+      </c>
+      <c r="BD230">
+        <v>0</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>0</v>
+      </c>
+      <c r="BG230">
+        <v>0</v>
+      </c>
+      <c r="BH230">
+        <v>0</v>
+      </c>
+      <c r="BI230">
+        <v>0</v>
+      </c>
+      <c r="BJ230">
+        <v>0</v>
+      </c>
+      <c r="BK230">
+        <v>0</v>
+      </c>
+      <c r="BL230">
+        <v>0</v>
+      </c>
+      <c r="BM230">
+        <v>0</v>
+      </c>
+      <c r="BN230">
+        <v>0</v>
+      </c>
+      <c r="BO230">
+        <v>0</v>
+      </c>
+      <c r="BP230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7025167</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45368.52083333334</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231" t="s">
+        <v>77</v>
+      </c>
+      <c r="H231" t="s">
+        <v>76</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>241</v>
+      </c>
+      <c r="P231" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>2.4</v>
+      </c>
+      <c r="AA231">
+        <v>3.1</v>
+      </c>
+      <c r="AB231">
+        <v>3.1</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>2.15</v>
+      </c>
+      <c r="AH231">
+        <v>1.62</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>1.5</v>
+      </c>
+      <c r="AO231">
+        <v>1.42</v>
+      </c>
+      <c r="AP231">
+        <v>1.62</v>
+      </c>
+      <c r="AQ231">
+        <v>1.31</v>
+      </c>
+      <c r="AR231">
+        <v>1.15</v>
+      </c>
+      <c r="AS231">
+        <v>1.08</v>
+      </c>
+      <c r="AT231">
+        <v>2.23</v>
+      </c>
+      <c r="AU231">
+        <v>2</v>
+      </c>
+      <c r="AV231">
+        <v>3</v>
+      </c>
+      <c r="AW231">
+        <v>6</v>
+      </c>
+      <c r="AX231">
+        <v>2</v>
+      </c>
+      <c r="AY231">
+        <v>8</v>
+      </c>
+      <c r="AZ231">
+        <v>5</v>
+      </c>
+      <c r="BA231">
+        <v>2</v>
+      </c>
+      <c r="BB231">
+        <v>3</v>
+      </c>
+      <c r="BC231">
+        <v>5</v>
+      </c>
+      <c r="BD231">
+        <v>0</v>
+      </c>
+      <c r="BE231">
+        <v>0</v>
+      </c>
+      <c r="BF231">
+        <v>0</v>
+      </c>
+      <c r="BG231">
+        <v>0</v>
+      </c>
+      <c r="BH231">
+        <v>0</v>
+      </c>
+      <c r="BI231">
+        <v>0</v>
+      </c>
+      <c r="BJ231">
+        <v>0</v>
+      </c>
+      <c r="BK231">
+        <v>0</v>
+      </c>
+      <c r="BL231">
+        <v>0</v>
+      </c>
+      <c r="BM231">
+        <v>0</v>
+      </c>
+      <c r="BN231">
+        <v>0</v>
+      </c>
+      <c r="BO231">
+        <v>0</v>
+      </c>
+      <c r="BP231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7025161</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45368.52083333334</v>
+      </c>
+      <c r="F232">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>81</v>
+      </c>
+      <c r="H232" t="s">
+        <v>80</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>242</v>
+      </c>
+      <c r="P232" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>4.33</v>
+      </c>
+      <c r="AA232">
+        <v>3.5</v>
+      </c>
+      <c r="AB232">
+        <v>1.83</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>2.03</v>
+      </c>
+      <c r="AH232">
+        <v>1.83</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>1</v>
+      </c>
+      <c r="AO232">
+        <v>1.58</v>
+      </c>
+      <c r="AP232">
+        <v>0.92</v>
+      </c>
+      <c r="AQ232">
+        <v>1.69</v>
+      </c>
+      <c r="AR232">
+        <v>1.18</v>
+      </c>
+      <c r="AS232">
+        <v>1.28</v>
+      </c>
+      <c r="AT232">
+        <v>2.46</v>
+      </c>
+      <c r="AU232">
+        <v>3</v>
+      </c>
+      <c r="AV232">
+        <v>6</v>
+      </c>
+      <c r="AW232">
+        <v>1</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
+        <v>4</v>
+      </c>
+      <c r="AZ232">
+        <v>11</v>
+      </c>
+      <c r="BA232">
+        <v>2</v>
+      </c>
+      <c r="BB232">
+        <v>7</v>
+      </c>
+      <c r="BC232">
+        <v>9</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>0</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['45', '54', '68', '79', '88', '90+5']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP232"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1675,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2084,7 +2087,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2290,7 +2293,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2702,7 +2705,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2908,7 +2911,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3114,7 +3117,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3320,7 +3323,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3401,7 +3404,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ10">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3526,7 +3529,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3604,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ11">
         <v>2.17</v>
@@ -3938,7 +3941,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4144,7 +4147,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4225,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4762,7 +4765,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4968,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5380,7 +5383,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5586,7 +5589,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5998,7 +6001,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6079,7 +6082,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ23">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR23">
         <v>0.57</v>
@@ -6204,7 +6207,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6822,7 +6825,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7312,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ29">
         <v>0.54</v>
@@ -8058,7 +8061,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8139,7 +8142,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR33">
         <v>0.85</v>
@@ -8264,7 +8267,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8676,7 +8679,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8882,7 +8885,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9088,7 +9091,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9706,7 +9709,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9787,7 +9790,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ41">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -10118,7 +10121,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10324,7 +10327,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11354,7 +11357,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11638,7 +11641,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ50">
         <v>1.69</v>
@@ -11766,7 +11769,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11972,7 +11975,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12178,7 +12181,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12259,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12384,7 +12387,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12465,7 +12468,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12796,7 +12799,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13208,7 +13211,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13414,7 +13417,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13620,7 +13623,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13826,7 +13829,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14032,7 +14035,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14238,7 +14241,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14650,7 +14653,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14731,7 +14734,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14856,7 +14859,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15268,7 +15271,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15555,7 +15558,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ69">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR69">
         <v>1.28</v>
@@ -15680,7 +15683,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15964,7 +15967,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ71">
         <v>0.6899999999999999</v>
@@ -16504,7 +16507,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17328,7 +17331,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17534,7 +17537,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17946,7 +17949,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18152,7 +18155,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18358,7 +18361,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18564,7 +18567,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18645,7 +18648,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ84">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR84">
         <v>1.39</v>
@@ -18770,7 +18773,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19466,7 +19469,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ88">
         <v>0.85</v>
@@ -19675,7 +19678,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR89">
         <v>1.22</v>
@@ -19800,7 +19803,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -21036,7 +21039,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21448,7 +21451,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21654,7 +21657,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -22272,7 +22275,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22684,7 +22687,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22968,7 +22971,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ105">
         <v>0.77</v>
@@ -23096,7 +23099,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23383,7 +23386,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ107">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR107">
         <v>1.15</v>
@@ -23508,7 +23511,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23920,7 +23923,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24538,7 +24541,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24744,7 +24747,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25031,7 +25034,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR115">
         <v>1.29</v>
@@ -25156,7 +25159,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25568,7 +25571,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26392,7 +26395,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26598,7 +26601,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26804,7 +26807,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27010,7 +27013,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27216,7 +27219,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27297,7 +27300,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ126">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -28040,7 +28043,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28739,7 +28742,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR133">
         <v>1.14</v>
@@ -29070,7 +29073,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29148,7 +29151,7 @@
         <v>2.29</v>
       </c>
       <c r="AP135">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ135">
         <v>2</v>
@@ -29276,7 +29279,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30306,7 +30309,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30387,7 +30390,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ141">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR141">
         <v>1.37</v>
@@ -30512,7 +30515,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30924,7 +30927,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31130,7 +31133,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31542,7 +31545,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31620,7 +31623,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ147">
         <v>0.85</v>
@@ -31748,7 +31751,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31954,7 +31957,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32572,7 +32575,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32653,7 +32656,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR152">
         <v>1.42</v>
@@ -33190,7 +33193,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33396,7 +33399,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33683,7 +33686,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR157">
         <v>2.26</v>
@@ -33808,7 +33811,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34014,7 +34017,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34092,7 +34095,7 @@
         <v>0.88</v>
       </c>
       <c r="AP159">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ159">
         <v>0.85</v>
@@ -34426,7 +34429,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35250,7 +35253,7 @@
         <v>135</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -35456,7 +35459,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -36074,7 +36077,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36155,7 +36158,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ169">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR169">
         <v>0.99</v>
@@ -36898,7 +36901,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37310,7 +37313,7 @@
         <v>90</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -38418,10 +38421,10 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR180">
         <v>1.16</v>
@@ -38752,7 +38755,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39164,7 +39167,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39782,7 +39785,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39863,7 +39866,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ187">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR187">
         <v>1.36</v>
@@ -39988,7 +39991,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40687,7 +40690,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR191">
         <v>1.19</v>
@@ -40812,7 +40815,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41302,7 +41305,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ194">
         <v>1.31</v>
@@ -41430,7 +41433,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -42048,7 +42051,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42254,7 +42257,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42872,7 +42875,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43078,7 +43081,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43696,7 +43699,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43902,7 +43905,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44108,7 +44111,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44520,7 +44523,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45010,7 +45013,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ212">
         <v>0.54</v>
@@ -45344,7 +45347,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45631,7 +45634,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ215">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45837,7 +45840,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ216">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR216">
         <v>1.39</v>
@@ -45962,7 +45965,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -47198,7 +47201,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47404,7 +47407,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48327,25 +48330,25 @@
         <v>4</v>
       </c>
       <c r="AW228">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX228">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY228">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ228">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA228">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB228">
         <v>2</v>
       </c>
       <c r="BC228">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD228">
         <v>0</v>
@@ -48434,7 +48437,7 @@
         <v>146</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q229">
         <v>0</v>
@@ -48527,31 +48530,31 @@
         <v>2.32</v>
       </c>
       <c r="AU229">
+        <v>6</v>
+      </c>
+      <c r="AV229">
         <v>4</v>
       </c>
-      <c r="AV229">
+      <c r="AW229">
         <v>3</v>
       </c>
-      <c r="AW229">
-        <v>1</v>
-      </c>
       <c r="AX229">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
+        <v>13</v>
+      </c>
+      <c r="BA229">
         <v>5</v>
       </c>
-      <c r="AZ229">
+      <c r="BB229">
+        <v>2</v>
+      </c>
+      <c r="BC229">
         <v>7</v>
-      </c>
-      <c r="BA229">
-        <v>3</v>
-      </c>
-      <c r="BB229">
-        <v>1</v>
-      </c>
-      <c r="BC229">
-        <v>4</v>
       </c>
       <c r="BD229">
         <v>0</v>
@@ -48733,31 +48736,31 @@
         <v>3.03</v>
       </c>
       <c r="AU230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV230">
         <v>0</v>
       </c>
       <c r="AW230">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AX230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY230">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA230">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BB230">
         <v>3</v>
       </c>
       <c r="BC230">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48948,13 +48951,13 @@
         <v>6</v>
       </c>
       <c r="AX231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY231">
         <v>8</v>
       </c>
       <c r="AZ231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA231">
         <v>2</v>
@@ -49052,7 +49055,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49145,69 +49148,481 @@
         <v>2.46</v>
       </c>
       <c r="AU232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV232">
         <v>6</v>
       </c>
       <c r="AW232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX232">
+        <v>6</v>
+      </c>
+      <c r="AY232">
+        <v>6</v>
+      </c>
+      <c r="AZ232">
+        <v>12</v>
+      </c>
+      <c r="BA232">
+        <v>3</v>
+      </c>
+      <c r="BB232">
+        <v>10</v>
+      </c>
+      <c r="BC232">
+        <v>13</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>0</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7025168</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45368.625</v>
+      </c>
+      <c r="F233">
+        <v>26</v>
+      </c>
+      <c r="G233" t="s">
+        <v>79</v>
+      </c>
+      <c r="H233" t="s">
+        <v>83</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>90</v>
+      </c>
+      <c r="P233" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>8.5</v>
+      </c>
+      <c r="AA233">
         <v>5</v>
       </c>
-      <c r="AY232">
+      <c r="AB233">
+        <v>1.33</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>1.83</v>
+      </c>
+      <c r="AH233">
+        <v>2.03</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>0.83</v>
+      </c>
+      <c r="AO233">
+        <v>2.17</v>
+      </c>
+      <c r="AP233">
+        <v>0.77</v>
+      </c>
+      <c r="AQ233">
+        <v>2.23</v>
+      </c>
+      <c r="AR233">
+        <v>1.12</v>
+      </c>
+      <c r="AS233">
+        <v>1.36</v>
+      </c>
+      <c r="AT233">
+        <v>2.48</v>
+      </c>
+      <c r="AU233">
         <v>4</v>
       </c>
-      <c r="AZ232">
-        <v>11</v>
-      </c>
-      <c r="BA232">
+      <c r="AV233">
+        <v>5</v>
+      </c>
+      <c r="AW233">
+        <v>3</v>
+      </c>
+      <c r="AX233">
+        <v>7</v>
+      </c>
+      <c r="AY233">
+        <v>7</v>
+      </c>
+      <c r="AZ233">
+        <v>12</v>
+      </c>
+      <c r="BA233">
+        <v>4</v>
+      </c>
+      <c r="BB233">
+        <v>13</v>
+      </c>
+      <c r="BC233">
+        <v>17</v>
+      </c>
+      <c r="BD233">
+        <v>0</v>
+      </c>
+      <c r="BE233">
+        <v>0</v>
+      </c>
+      <c r="BF233">
+        <v>0</v>
+      </c>
+      <c r="BG233">
+        <v>0</v>
+      </c>
+      <c r="BH233">
+        <v>0</v>
+      </c>
+      <c r="BI233">
+        <v>0</v>
+      </c>
+      <c r="BJ233">
+        <v>0</v>
+      </c>
+      <c r="BK233">
+        <v>0</v>
+      </c>
+      <c r="BL233">
+        <v>0</v>
+      </c>
+      <c r="BM233">
+        <v>0</v>
+      </c>
+      <c r="BN233">
+        <v>0</v>
+      </c>
+      <c r="BO233">
+        <v>0</v>
+      </c>
+      <c r="BP233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7025165</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45368.72916666666</v>
+      </c>
+      <c r="F234">
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>73</v>
+      </c>
+      <c r="H234" t="s">
+        <v>78</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
         <v>2</v>
       </c>
-      <c r="BB232">
+      <c r="L234">
+        <v>6</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
         <v>7</v>
       </c>
-      <c r="BC232">
-        <v>9</v>
-      </c>
-      <c r="BD232">
-        <v>0</v>
-      </c>
-      <c r="BE232">
-        <v>0</v>
-      </c>
-      <c r="BF232">
-        <v>0</v>
-      </c>
-      <c r="BG232">
-        <v>0</v>
-      </c>
-      <c r="BH232">
-        <v>0</v>
-      </c>
-      <c r="BI232">
-        <v>0</v>
-      </c>
-      <c r="BJ232">
-        <v>0</v>
-      </c>
-      <c r="BK232">
-        <v>0</v>
-      </c>
-      <c r="BL232">
-        <v>0</v>
-      </c>
-      <c r="BM232">
-        <v>0</v>
-      </c>
-      <c r="BN232">
-        <v>0</v>
-      </c>
-      <c r="BO232">
-        <v>0</v>
-      </c>
-      <c r="BP232">
+      <c r="O234" t="s">
+        <v>243</v>
+      </c>
+      <c r="P234" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>1.14</v>
+      </c>
+      <c r="AA234">
+        <v>7.5</v>
+      </c>
+      <c r="AB234">
+        <v>19</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>0</v>
+      </c>
+      <c r="AG234">
+        <v>1.4</v>
+      </c>
+      <c r="AH234">
+        <v>2.75</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
+        <v>3</v>
+      </c>
+      <c r="AO234">
+        <v>1</v>
+      </c>
+      <c r="AP234">
+        <v>3</v>
+      </c>
+      <c r="AQ234">
+        <v>0.92</v>
+      </c>
+      <c r="AR234">
+        <v>1.49</v>
+      </c>
+      <c r="AS234">
+        <v>0.96</v>
+      </c>
+      <c r="AT234">
+        <v>2.45</v>
+      </c>
+      <c r="AU234">
+        <v>4</v>
+      </c>
+      <c r="AV234">
+        <v>0</v>
+      </c>
+      <c r="AW234">
+        <v>4</v>
+      </c>
+      <c r="AX234">
+        <v>3</v>
+      </c>
+      <c r="AY234">
+        <v>8</v>
+      </c>
+      <c r="AZ234">
+        <v>3</v>
+      </c>
+      <c r="BA234">
+        <v>1</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>1</v>
+      </c>
+      <c r="BD234">
+        <v>0</v>
+      </c>
+      <c r="BE234">
+        <v>0</v>
+      </c>
+      <c r="BF234">
+        <v>0</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234">
+        <v>0</v>
+      </c>
+      <c r="BI234">
+        <v>0</v>
+      </c>
+      <c r="BJ234">
+        <v>0</v>
+      </c>
+      <c r="BK234">
+        <v>0</v>
+      </c>
+      <c r="BL234">
+        <v>0</v>
+      </c>
+      <c r="BM234">
+        <v>0</v>
+      </c>
+      <c r="BN234">
+        <v>0</v>
+      </c>
+      <c r="BO234">
+        <v>0</v>
+      </c>
+      <c r="BP234">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -685,10 +685,10 @@
     <t>['35', '56']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['16', '25', '30', '45+1', '45+4', '88']</t>
   </si>
   <si>
-    <t>['16', '25', '30', '45+1', '45+4', '88']</t>
+    <t>['46']</t>
   </si>
   <si>
     <t>['62', '85']</t>
@@ -35005,7 +35005,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7025104</v>
+        <v>7025099</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -35020,34 +35020,34 @@
         <v>19</v>
       </c>
       <c r="G164" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H164" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L164">
         <v>1</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O164" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35077,13 +35077,13 @@
         <v>0</v>
       </c>
       <c r="Z164">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AA164">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="AB164">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="AC164">
         <v>0</v>
@@ -35098,10 +35098,10 @@
         <v>0</v>
       </c>
       <c r="AG164">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH164">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI164">
         <v>0</v>
@@ -35119,52 +35119,52 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AO164">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="AQ164">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="AR164">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AS164">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AT164">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="AU164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV164">
         <v>3</v>
       </c>
       <c r="AW164">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY164">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ164">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA164">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC164">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD164">
         <v>0</v>
@@ -35211,7 +35211,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7025099</v>
+        <v>7025104</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35226,151 +35226,151 @@
         <v>19</v>
       </c>
       <c r="G165" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H165" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>205</v>
+      </c>
+      <c r="P165" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>2.15</v>
+      </c>
+      <c r="AA165">
+        <v>3.15</v>
+      </c>
+      <c r="AB165">
+        <v>3.25</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <v>0</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>2.1</v>
+      </c>
+      <c r="AH165">
+        <v>1.65</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1.38</v>
+      </c>
+      <c r="AO165">
+        <v>1.11</v>
+      </c>
+      <c r="AP165">
+        <v>1.62</v>
+      </c>
+      <c r="AQ165">
+        <v>0.85</v>
+      </c>
+      <c r="AR165">
+        <v>1.17</v>
+      </c>
+      <c r="AS165">
+        <v>1.15</v>
+      </c>
+      <c r="AT165">
+        <v>2.32</v>
+      </c>
+      <c r="AU165">
         <v>3</v>
-      </c>
-      <c r="K165">
-        <v>3</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
-        <v>4</v>
-      </c>
-      <c r="N165">
-        <v>5</v>
-      </c>
-      <c r="O165" t="s">
-        <v>135</v>
-      </c>
-      <c r="P165" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>0</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <v>0</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>1.85</v>
-      </c>
-      <c r="AA165">
-        <v>3.45</v>
-      </c>
-      <c r="AB165">
-        <v>3.85</v>
-      </c>
-      <c r="AC165">
-        <v>0</v>
-      </c>
-      <c r="AD165">
-        <v>0</v>
-      </c>
-      <c r="AE165">
-        <v>0</v>
-      </c>
-      <c r="AF165">
-        <v>0</v>
-      </c>
-      <c r="AG165">
-        <v>1.85</v>
-      </c>
-      <c r="AH165">
-        <v>1.85</v>
-      </c>
-      <c r="AI165">
-        <v>0</v>
-      </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
-      <c r="AK165">
-        <v>0</v>
-      </c>
-      <c r="AL165">
-        <v>0</v>
-      </c>
-      <c r="AM165">
-        <v>0</v>
-      </c>
-      <c r="AN165">
-        <v>1.11</v>
-      </c>
-      <c r="AO165">
-        <v>0.78</v>
-      </c>
-      <c r="AP165">
-        <v>1.23</v>
-      </c>
-      <c r="AQ165">
-        <v>0.77</v>
-      </c>
-      <c r="AR165">
-        <v>0.98</v>
-      </c>
-      <c r="AS165">
-        <v>1.01</v>
-      </c>
-      <c r="AT165">
-        <v>1.99</v>
-      </c>
-      <c r="AU165">
-        <v>5</v>
       </c>
       <c r="AV165">
         <v>3</v>
       </c>
       <c r="AW165">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AX165">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY165">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AZ165">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA165">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BB165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC165">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD165">
         <v>0</v>
@@ -37271,7 +37271,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7025114</v>
+        <v>7025108</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37286,34 +37286,34 @@
         <v>20</v>
       </c>
       <c r="G175" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H175" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>1</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -37343,13 +37343,13 @@
         <v>0</v>
       </c>
       <c r="Z175">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AA175">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB175">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AC175">
         <v>0</v>
@@ -37364,10 +37364,10 @@
         <v>0</v>
       </c>
       <c r="AG175">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="AH175">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AI175">
         <v>0</v>
@@ -37385,52 +37385,52 @@
         <v>0</v>
       </c>
       <c r="AN175">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AO175">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AP175">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AQ175">
-        <v>1.69</v>
+        <v>0.85</v>
       </c>
       <c r="AR175">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AS175">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AT175">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
       <c r="AU175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV175">
         <v>6</v>
       </c>
       <c r="AW175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX175">
+        <v>6</v>
+      </c>
+      <c r="AY175">
+        <v>3</v>
+      </c>
+      <c r="AZ175">
+        <v>12</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
         <v>9</v>
-      </c>
-      <c r="AY175">
-        <v>7</v>
-      </c>
-      <c r="AZ175">
-        <v>15</v>
-      </c>
-      <c r="BA175">
-        <v>4</v>
-      </c>
-      <c r="BB175">
-        <v>9</v>
-      </c>
-      <c r="BC175">
-        <v>13</v>
       </c>
       <c r="BD175">
         <v>0</v>
@@ -37477,7 +37477,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7025108</v>
+        <v>7025114</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37492,34 +37492,34 @@
         <v>20</v>
       </c>
       <c r="G176" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H176" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M176">
         <v>1</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O176" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>0</v>
       </c>
       <c r="Z176">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AA176">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB176">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AC176">
         <v>0</v>
@@ -37570,10 +37570,10 @@
         <v>0</v>
       </c>
       <c r="AG176">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AH176">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AI176">
         <v>0</v>
@@ -37591,52 +37591,52 @@
         <v>0</v>
       </c>
       <c r="AN176">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AO176">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AP176">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="AQ176">
-        <v>0.85</v>
+        <v>1.69</v>
       </c>
       <c r="AR176">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS176">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="AT176">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="AU176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV176">
         <v>6</v>
       </c>
       <c r="AW176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX176">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY176">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ176">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB176">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC176">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD176">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7025115</v>
+        <v>7025111</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37698,31 +37698,31 @@
         <v>20</v>
       </c>
       <c r="G177" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H177" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M177">
         <v>0</v>
       </c>
       <c r="N177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O177" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="P177" t="s">
         <v>90</v>
@@ -37755,13 +37755,13 @@
         <v>0</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC177">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="AG177">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH177">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AI177">
         <v>0</v>
@@ -37797,52 +37797,52 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1.44</v>
+        <v>2.56</v>
       </c>
       <c r="AO177">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="AP177">
-        <v>1.46</v>
+        <v>2.69</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AR177">
-        <v>1.28</v>
+        <v>2.27</v>
       </c>
       <c r="AS177">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT177">
-        <v>2.31</v>
+        <v>3.43</v>
       </c>
       <c r="AU177">
         <v>5</v>
       </c>
       <c r="AV177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX177">
         <v>2</v>
       </c>
       <c r="AY177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ177">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA177">
         <v>6</v>
       </c>
       <c r="BB177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC177">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD177">
         <v>0</v>
@@ -37889,7 +37889,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7025111</v>
+        <v>7025115</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37904,31 +37904,31 @@
         <v>20</v>
       </c>
       <c r="G178" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H178" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M178">
         <v>0</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O178" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="P178" t="s">
         <v>90</v>
@@ -37961,13 +37961,13 @@
         <v>0</v>
       </c>
       <c r="Z178">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AB178">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC178">
         <v>0</v>
@@ -37982,10 +37982,10 @@
         <v>0</v>
       </c>
       <c r="AG178">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AH178">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AI178">
         <v>0</v>
@@ -38003,52 +38003,52 @@
         <v>0</v>
       </c>
       <c r="AN178">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="AO178">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>2.69</v>
+        <v>1.46</v>
       </c>
       <c r="AQ178">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR178">
-        <v>2.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS178">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT178">
-        <v>3.43</v>
+        <v>2.31</v>
       </c>
       <c r="AU178">
         <v>5</v>
       </c>
       <c r="AV178">
+        <v>7</v>
+      </c>
+      <c r="AW178">
         <v>4</v>
-      </c>
-      <c r="AW178">
-        <v>3</v>
       </c>
       <c r="AX178">
         <v>2</v>
       </c>
       <c r="AY178">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ178">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA178">
         <v>6</v>
       </c>
       <c r="BB178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD178">
         <v>0</v>
@@ -41391,7 +41391,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7025126</v>
+        <v>7025129</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41406,34 +41406,34 @@
         <v>22</v>
       </c>
       <c r="G195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H195" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O195" t="s">
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41463,13 +41463,13 @@
         <v>0</v>
       </c>
       <c r="Z195">
-        <v>1.99</v>
+        <v>1.09</v>
       </c>
       <c r="AA195">
-        <v>3.2</v>
+        <v>7.25</v>
       </c>
       <c r="AB195">
-        <v>3.15</v>
+        <v>17</v>
       </c>
       <c r="AC195">
         <v>0</v>
@@ -41484,10 +41484,10 @@
         <v>0</v>
       </c>
       <c r="AG195">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="AH195">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="AI195">
         <v>0</v>
@@ -41505,52 +41505,52 @@
         <v>0</v>
       </c>
       <c r="AN195">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AO195">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.46</v>
+        <v>2.69</v>
       </c>
       <c r="AQ195">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="AR195">
-        <v>1.28</v>
+        <v>2.17</v>
       </c>
       <c r="AS195">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AT195">
-        <v>2.42</v>
+        <v>3.34</v>
       </c>
       <c r="AU195">
         <v>4</v>
       </c>
       <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>7</v>
+      </c>
+      <c r="AZ195">
+        <v>5</v>
+      </c>
+      <c r="BA195">
         <v>6</v>
       </c>
-      <c r="AW195">
-        <v>2</v>
-      </c>
-      <c r="AX195">
-        <v>2</v>
-      </c>
-      <c r="AY195">
-        <v>6</v>
-      </c>
-      <c r="AZ195">
-        <v>8</v>
-      </c>
-      <c r="BA195">
-        <v>2</v>
-      </c>
       <c r="BB195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC195">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD195">
         <v>0</v>
@@ -41597,7 +41597,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7025129</v>
+        <v>7025126</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41612,34 +41612,34 @@
         <v>22</v>
       </c>
       <c r="G196" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H196" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O196" t="s">
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41669,13 +41669,13 @@
         <v>0</v>
       </c>
       <c r="Z196">
-        <v>1.09</v>
+        <v>1.99</v>
       </c>
       <c r="AA196">
-        <v>7.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB196">
-        <v>17</v>
+        <v>3.15</v>
       </c>
       <c r="AC196">
         <v>0</v>
@@ -41690,10 +41690,10 @@
         <v>0</v>
       </c>
       <c r="AG196">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="AH196">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="AI196">
         <v>0</v>
@@ -41711,52 +41711,52 @@
         <v>0</v>
       </c>
       <c r="AN196">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AO196">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AP196">
-        <v>2.69</v>
+        <v>1.46</v>
       </c>
       <c r="AQ196">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
       <c r="AR196">
-        <v>2.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS196">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT196">
-        <v>3.34</v>
+        <v>2.42</v>
       </c>
       <c r="AU196">
         <v>4</v>
       </c>
       <c r="AV196">
+        <v>6</v>
+      </c>
+      <c r="AW196">
+        <v>2</v>
+      </c>
+      <c r="AX196">
+        <v>2</v>
+      </c>
+      <c r="AY196">
+        <v>6</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>2</v>
+      </c>
+      <c r="BB196">
         <v>4</v>
       </c>
-      <c r="AW196">
-        <v>3</v>
-      </c>
-      <c r="AX196">
-        <v>1</v>
-      </c>
-      <c r="AY196">
-        <v>7</v>
-      </c>
-      <c r="AZ196">
-        <v>5</v>
-      </c>
-      <c r="BA196">
+      <c r="BC196">
         <v>6</v>
-      </c>
-      <c r="BB196">
-        <v>1</v>
-      </c>
-      <c r="BC196">
-        <v>7</v>
       </c>
       <c r="BD196">
         <v>0</v>
@@ -46541,7 +46541,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7025155</v>
+        <v>7025158</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46556,10 +46556,10 @@
         <v>25</v>
       </c>
       <c r="G220" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H220" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -46571,16 +46571,16 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220">
         <v>0</v>
       </c>
       <c r="N220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O220" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="P220" t="s">
         <v>90</v>
@@ -46613,13 +46613,13 @@
         <v>0</v>
       </c>
       <c r="Z220">
-        <v>2.67</v>
+        <v>4.48</v>
       </c>
       <c r="AA220">
-        <v>3.2</v>
+        <v>3.78</v>
       </c>
       <c r="AB220">
-        <v>2.76</v>
+        <v>1.78</v>
       </c>
       <c r="AC220">
         <v>0</v>
@@ -46634,10 +46634,10 @@
         <v>0</v>
       </c>
       <c r="AG220">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="AH220">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="AI220">
         <v>0</v>
@@ -46655,52 +46655,52 @@
         <v>0</v>
       </c>
       <c r="AN220">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AO220">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="AP220">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AQ220">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AR220">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AS220">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AT220">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="AU220">
+        <v>4</v>
+      </c>
+      <c r="AV220">
+        <v>6</v>
+      </c>
+      <c r="AW220">
         <v>3</v>
       </c>
-      <c r="AV220">
-        <v>4</v>
-      </c>
-      <c r="AW220">
-        <v>4</v>
-      </c>
       <c r="AX220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY220">
         <v>7</v>
       </c>
       <c r="AZ220">
+        <v>9</v>
+      </c>
+      <c r="BA220">
         <v>6</v>
       </c>
-      <c r="BA220">
-        <v>4</v>
-      </c>
       <c r="BB220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC220">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD220">
         <v>0</v>
@@ -46747,7 +46747,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7025158</v>
+        <v>7025155</v>
       </c>
       <c r="C221" t="s">
         <v>68</v>
@@ -46762,10 +46762,10 @@
         <v>25</v>
       </c>
       <c r="G221" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H221" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -46777,16 +46777,16 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221">
         <v>0</v>
       </c>
       <c r="N221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="P221" t="s">
         <v>90</v>
@@ -46819,13 +46819,13 @@
         <v>0</v>
       </c>
       <c r="Z221">
-        <v>4.48</v>
+        <v>2.67</v>
       </c>
       <c r="AA221">
-        <v>3.78</v>
+        <v>3.2</v>
       </c>
       <c r="AB221">
-        <v>1.78</v>
+        <v>2.76</v>
       </c>
       <c r="AC221">
         <v>0</v>
@@ -46840,10 +46840,10 @@
         <v>0</v>
       </c>
       <c r="AG221">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="AH221">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="AI221">
         <v>0</v>
@@ -46861,52 +46861,52 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AO221">
+        <v>1.75</v>
+      </c>
+      <c r="AP221">
+        <v>1.23</v>
+      </c>
+      <c r="AQ221">
+        <v>1.62</v>
+      </c>
+      <c r="AR221">
+        <v>1.03</v>
+      </c>
+      <c r="AS221">
+        <v>1.05</v>
+      </c>
+      <c r="AT221">
         <v>2.08</v>
       </c>
-      <c r="AP221">
-        <v>1.38</v>
-      </c>
-      <c r="AQ221">
+      <c r="AU221">
+        <v>3</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>4</v>
+      </c>
+      <c r="AX221">
         <v>2</v>
-      </c>
-      <c r="AR221">
-        <v>1.1</v>
-      </c>
-      <c r="AS221">
-        <v>1.36</v>
-      </c>
-      <c r="AT221">
-        <v>2.46</v>
-      </c>
-      <c r="AU221">
-        <v>4</v>
-      </c>
-      <c r="AV221">
-        <v>6</v>
-      </c>
-      <c r="AW221">
-        <v>3</v>
-      </c>
-      <c r="AX221">
-        <v>3</v>
       </c>
       <c r="AY221">
         <v>7</v>
       </c>
       <c r="AZ221">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA221">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC221">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD221">
         <v>0</v>
@@ -48189,7 +48189,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7025162</v>
+        <v>7025164</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48204,10 +48204,10 @@
         <v>26</v>
       </c>
       <c r="G228" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H228" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -48219,19 +48219,19 @@
         <v>1</v>
       </c>
       <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
         <v>2</v>
       </c>
-      <c r="M228">
-        <v>1</v>
-      </c>
-      <c r="N228">
-        <v>3</v>
-      </c>
       <c r="O228" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48261,13 +48261,13 @@
         <v>0</v>
       </c>
       <c r="Z228">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AA228">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="AB228">
-        <v>7</v>
+        <v>2.88</v>
       </c>
       <c r="AC228">
         <v>0</v>
@@ -48282,10 +48282,10 @@
         <v>0</v>
       </c>
       <c r="AG228">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AH228">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="AI228">
         <v>0</v>
@@ -48303,52 +48303,52 @@
         <v>0</v>
       </c>
       <c r="AN228">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO228">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ228">
         <v>0.54</v>
       </c>
       <c r="AR228">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="AS228">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT228">
-        <v>3.01</v>
+        <v>2.32</v>
       </c>
       <c r="AU228">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV228">
         <v>4</v>
       </c>
       <c r="AW228">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AX228">
+        <v>9</v>
+      </c>
+      <c r="AY228">
+        <v>9</v>
+      </c>
+      <c r="AZ228">
+        <v>13</v>
+      </c>
+      <c r="BA228">
         <v>5</v>
-      </c>
-      <c r="AY228">
-        <v>14</v>
-      </c>
-      <c r="AZ228">
-        <v>9</v>
-      </c>
-      <c r="BA228">
-        <v>8</v>
       </c>
       <c r="BB228">
         <v>2</v>
       </c>
       <c r="BC228">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD228">
         <v>0</v>
@@ -48395,7 +48395,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7025164</v>
+        <v>7025162</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48410,10 +48410,10 @@
         <v>26</v>
       </c>
       <c r="G229" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H229" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -48425,136 +48425,136 @@
         <v>1</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M229">
         <v>1</v>
       </c>
       <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>239</v>
+      </c>
+      <c r="P229" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>1.4</v>
+      </c>
+      <c r="AA229">
+        <v>4.75</v>
+      </c>
+      <c r="AB229">
+        <v>7</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>1.6</v>
+      </c>
+      <c r="AH229">
+        <v>2.2</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
         <v>2</v>
       </c>
-      <c r="O229" t="s">
-        <v>146</v>
-      </c>
-      <c r="P229" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>0</v>
-      </c>
-      <c r="S229">
-        <v>0</v>
-      </c>
-      <c r="T229">
-        <v>0</v>
-      </c>
-      <c r="U229">
-        <v>0</v>
-      </c>
-      <c r="V229">
-        <v>0</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>2.5</v>
-      </c>
-      <c r="AA229">
-        <v>3.1</v>
-      </c>
-      <c r="AB229">
-        <v>2.88</v>
-      </c>
-      <c r="AC229">
-        <v>0</v>
-      </c>
-      <c r="AD229">
-        <v>0</v>
-      </c>
-      <c r="AE229">
-        <v>0</v>
-      </c>
-      <c r="AF229">
-        <v>0</v>
-      </c>
-      <c r="AG229">
-        <v>2.1</v>
-      </c>
-      <c r="AH229">
-        <v>1.65</v>
-      </c>
-      <c r="AI229">
-        <v>0</v>
-      </c>
-      <c r="AJ229">
-        <v>0</v>
-      </c>
-      <c r="AK229">
-        <v>0</v>
-      </c>
-      <c r="AL229">
-        <v>0</v>
-      </c>
-      <c r="AM229">
-        <v>0</v>
-      </c>
-      <c r="AN229">
-        <v>1.25</v>
-      </c>
       <c r="AO229">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>1.23</v>
+        <v>2.08</v>
       </c>
       <c r="AQ229">
         <v>0.54</v>
       </c>
       <c r="AR229">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="AS229">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT229">
-        <v>2.32</v>
+        <v>3.01</v>
       </c>
       <c r="AU229">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV229">
         <v>4</v>
       </c>
       <c r="AW229">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX229">
+        <v>5</v>
+      </c>
+      <c r="AY229">
+        <v>14</v>
+      </c>
+      <c r="AZ229">
         <v>9</v>
       </c>
-      <c r="AY229">
-        <v>9</v>
-      </c>
-      <c r="AZ229">
-        <v>13</v>
-      </c>
       <c r="BA229">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB229">
         <v>2</v>
       </c>
       <c r="BC229">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD229">
         <v>0</v>
@@ -49560,31 +49560,31 @@
         <v>2.45</v>
       </c>
       <c r="AU234">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV234">
         <v>0</v>
       </c>
       <c r="AW234">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX234">
         <v>3</v>
       </c>
       <c r="AY234">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ234">
         <v>3</v>
       </c>
       <c r="BA234">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC234">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BD234">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1056,6 +1056,12 @@
   <si>
     <t>['20', '62']</t>
   </si>
+  <si>
+    <t>['45+4', '68']</t>
+  </si>
+  <si>
+    <t>['23', '40']</t>
+  </si>
 </sst>
 </file>
 
@@ -1416,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1756,7 +1762,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.77</v>
@@ -2580,7 +2586,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ7">
         <v>1.69</v>
@@ -3610,7 +3616,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4431,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ15">
         <v>0.6899999999999999</v>
@@ -5461,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ20">
         <v>0.46</v>
@@ -5876,7 +5882,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ22">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -6079,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>2.23</v>
@@ -6700,7 +6706,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.8</v>
@@ -7933,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ32">
         <v>1.69</v>
@@ -8760,7 +8766,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR36">
         <v>0.8</v>
@@ -9169,7 +9175,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -9378,7 +9384,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.44</v>
@@ -10199,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>0.46</v>
@@ -10820,7 +10826,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ46">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -12877,7 +12883,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -13083,7 +13089,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -13498,7 +13504,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ59">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>0.84</v>
@@ -13704,7 +13710,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ60">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13910,7 +13916,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14525,7 +14531,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>1.31</v>
@@ -16997,7 +17003,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ76">
         <v>1.31</v>
@@ -17206,7 +17212,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ77">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17409,7 +17415,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17821,10 +17827,10 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ80">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18236,7 +18242,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ82">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR82">
         <v>0.88</v>
@@ -20502,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>1.36</v>
@@ -20705,7 +20711,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ94">
         <v>1.62</v>
@@ -20914,7 +20920,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ95">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21323,7 +21329,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.54</v>
@@ -21941,10 +21947,10 @@
         <v>2.5</v>
       </c>
       <c r="AP100">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ100">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR100">
         <v>2.2</v>
@@ -24207,7 +24213,7 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ111">
         <v>0.85</v>
@@ -24416,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.34</v>
@@ -24622,7 +24628,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ113">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -25031,7 +25037,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ115">
         <v>0.92</v>
@@ -25446,7 +25452,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ117">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -25649,7 +25655,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.62</v>
@@ -28121,7 +28127,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ130">
         <v>1.31</v>
@@ -28327,10 +28333,10 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ131">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>2.42</v>
@@ -28536,7 +28542,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ132">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR132">
         <v>2.01</v>
@@ -28739,7 +28745,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133">
         <v>0.92</v>
@@ -29360,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -30181,7 +30187,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ140">
         <v>0.85</v>
@@ -31008,7 +31014,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR144">
         <v>1.24</v>
@@ -31626,7 +31632,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ147">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.08</v>
@@ -31832,7 +31838,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ148">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR148">
         <v>1.28</v>
@@ -32241,7 +32247,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>0.6899999999999999</v>
@@ -32447,7 +32453,7 @@
         <v>0.43</v>
       </c>
       <c r="AP151">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ151">
         <v>0.54</v>
@@ -33480,7 +33486,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ156">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -33683,7 +33689,7 @@
         <v>1.25</v>
       </c>
       <c r="AP157">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ157">
         <v>0.92</v>
@@ -35334,7 +35340,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ165">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.17</v>
@@ -35949,7 +35955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
         <v>1.69</v>
@@ -36155,7 +36161,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ169">
         <v>2.23</v>
@@ -36776,7 +36782,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ172">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR172">
         <v>1.78</v>
@@ -37803,7 +37809,7 @@
         <v>0.33</v>
       </c>
       <c r="AP177">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ177">
         <v>0.54</v>
@@ -38627,7 +38633,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ181">
         <v>0.77</v>
@@ -38836,7 +38842,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ182">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -39042,7 +39048,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ183">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR183">
         <v>1.13</v>
@@ -40275,7 +40281,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ189">
         <v>0.85</v>
@@ -41511,7 +41517,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ195">
         <v>0.85</v>
@@ -42132,7 +42138,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ198">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42338,7 +42344,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ199">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.29</v>
@@ -42747,10 +42753,10 @@
         <v>0.45</v>
       </c>
       <c r="AP201">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ201">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR201">
         <v>1.01</v>
@@ -43365,7 +43371,7 @@
         <v>0.91</v>
       </c>
       <c r="AP204">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ204">
         <v>0.77</v>
@@ -43571,7 +43577,7 @@
         <v>2</v>
       </c>
       <c r="AP205">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ205">
         <v>2</v>
@@ -43780,7 +43786,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ206">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -46249,7 +46255,7 @@
         <v>1.42</v>
       </c>
       <c r="AP218">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ218">
         <v>1.31</v>
@@ -47076,7 +47082,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ222">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR222">
         <v>1.45</v>
@@ -47282,7 +47288,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ223">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR223">
         <v>1.25</v>
@@ -47485,7 +47491,7 @@
         <v>0.5</v>
       </c>
       <c r="AP224">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ224">
         <v>0.46</v>
@@ -47691,10 +47697,10 @@
         <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR225">
         <v>1.11</v>
@@ -49623,6 +49629,624 @@
         <v>0</v>
       </c>
       <c r="BP234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7025177</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45380.52083333334</v>
+      </c>
+      <c r="F235">
+        <v>27</v>
+      </c>
+      <c r="G235" t="s">
+        <v>71</v>
+      </c>
+      <c r="H235" t="s">
+        <v>87</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>117</v>
+      </c>
+      <c r="P235" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>2.42</v>
+      </c>
+      <c r="AA235">
+        <v>3.15</v>
+      </c>
+      <c r="AB235">
+        <v>3.15</v>
+      </c>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+      <c r="AD235">
+        <v>0</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>2.2</v>
+      </c>
+      <c r="AH235">
+        <v>1.6</v>
+      </c>
+      <c r="AI235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>0</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>0</v>
+      </c>
+      <c r="AN235">
+        <v>1.62</v>
+      </c>
+      <c r="AO235">
+        <v>0.85</v>
+      </c>
+      <c r="AP235">
+        <v>1.5</v>
+      </c>
+      <c r="AQ235">
+        <v>1</v>
+      </c>
+      <c r="AR235">
+        <v>1.15</v>
+      </c>
+      <c r="AS235">
+        <v>1.17</v>
+      </c>
+      <c r="AT235">
+        <v>2.32</v>
+      </c>
+      <c r="AU235">
+        <v>0</v>
+      </c>
+      <c r="AV235">
+        <v>2</v>
+      </c>
+      <c r="AW235">
+        <v>6</v>
+      </c>
+      <c r="AX235">
+        <v>0</v>
+      </c>
+      <c r="AY235">
+        <v>6</v>
+      </c>
+      <c r="AZ235">
+        <v>2</v>
+      </c>
+      <c r="BA235">
+        <v>1</v>
+      </c>
+      <c r="BB235">
+        <v>4</v>
+      </c>
+      <c r="BC235">
+        <v>5</v>
+      </c>
+      <c r="BD235">
+        <v>0</v>
+      </c>
+      <c r="BE235">
+        <v>0</v>
+      </c>
+      <c r="BF235">
+        <v>0</v>
+      </c>
+      <c r="BG235">
+        <v>0</v>
+      </c>
+      <c r="BH235">
+        <v>0</v>
+      </c>
+      <c r="BI235">
+        <v>0</v>
+      </c>
+      <c r="BJ235">
+        <v>0</v>
+      </c>
+      <c r="BK235">
+        <v>0</v>
+      </c>
+      <c r="BL235">
+        <v>0</v>
+      </c>
+      <c r="BM235">
+        <v>0</v>
+      </c>
+      <c r="BN235">
+        <v>0</v>
+      </c>
+      <c r="BO235">
+        <v>0</v>
+      </c>
+      <c r="BP235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7025184</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45380.625</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>83</v>
+      </c>
+      <c r="H236" t="s">
+        <v>81</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>135</v>
+      </c>
+      <c r="P236" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>1.14</v>
+      </c>
+      <c r="AA236">
+        <v>8.6</v>
+      </c>
+      <c r="AB236">
+        <v>17</v>
+      </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>0</v>
+      </c>
+      <c r="AF236">
+        <v>0</v>
+      </c>
+      <c r="AG236">
+        <v>1.34</v>
+      </c>
+      <c r="AH236">
+        <v>2.99</v>
+      </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
+      <c r="AJ236">
+        <v>0</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AN236">
+        <v>2.69</v>
+      </c>
+      <c r="AO236">
+        <v>0.54</v>
+      </c>
+      <c r="AP236">
+        <v>2.71</v>
+      </c>
+      <c r="AQ236">
+        <v>0.5</v>
+      </c>
+      <c r="AR236">
+        <v>1.99</v>
+      </c>
+      <c r="AS236">
+        <v>1.12</v>
+      </c>
+      <c r="AT236">
+        <v>3.11</v>
+      </c>
+      <c r="AU236">
+        <v>6</v>
+      </c>
+      <c r="AV236">
+        <v>0</v>
+      </c>
+      <c r="AW236">
+        <v>10</v>
+      </c>
+      <c r="AX236">
+        <v>7</v>
+      </c>
+      <c r="AY236">
+        <v>16</v>
+      </c>
+      <c r="AZ236">
+        <v>7</v>
+      </c>
+      <c r="BA236">
+        <v>11</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
+        <v>13</v>
+      </c>
+      <c r="BD236">
+        <v>0</v>
+      </c>
+      <c r="BE236">
+        <v>0</v>
+      </c>
+      <c r="BF236">
+        <v>0</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>0</v>
+      </c>
+      <c r="BI236">
+        <v>0</v>
+      </c>
+      <c r="BJ236">
+        <v>0</v>
+      </c>
+      <c r="BK236">
+        <v>0</v>
+      </c>
+      <c r="BL236">
+        <v>0</v>
+      </c>
+      <c r="BM236">
+        <v>0</v>
+      </c>
+      <c r="BN236">
+        <v>0</v>
+      </c>
+      <c r="BO236">
+        <v>0</v>
+      </c>
+      <c r="BP236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7025172</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45380.72916666666</v>
+      </c>
+      <c r="F237">
+        <v>27</v>
+      </c>
+      <c r="G237" t="s">
+        <v>75</v>
+      </c>
+      <c r="H237" t="s">
+        <v>73</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>2</v>
+      </c>
+      <c r="K237">
+        <v>3</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>232</v>
+      </c>
+      <c r="P237" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>10</v>
+      </c>
+      <c r="AA237">
+        <v>6</v>
+      </c>
+      <c r="AB237">
+        <v>1.27</v>
+      </c>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+      <c r="AD237">
+        <v>0</v>
+      </c>
+      <c r="AE237">
+        <v>0</v>
+      </c>
+      <c r="AF237">
+        <v>0</v>
+      </c>
+      <c r="AG237">
+        <v>1.55</v>
+      </c>
+      <c r="AH237">
+        <v>2.35</v>
+      </c>
+      <c r="AI237">
+        <v>0</v>
+      </c>
+      <c r="AJ237">
+        <v>0</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>0</v>
+      </c>
+      <c r="AN237">
+        <v>1.31</v>
+      </c>
+      <c r="AO237">
+        <v>2.17</v>
+      </c>
+      <c r="AP237">
+        <v>1.21</v>
+      </c>
+      <c r="AQ237">
+        <v>2.23</v>
+      </c>
+      <c r="AR237">
+        <v>1.06</v>
+      </c>
+      <c r="AS237">
+        <v>1.45</v>
+      </c>
+      <c r="AT237">
+        <v>2.51</v>
+      </c>
+      <c r="AU237">
+        <v>4</v>
+      </c>
+      <c r="AV237">
+        <v>3</v>
+      </c>
+      <c r="AW237">
+        <v>1</v>
+      </c>
+      <c r="AX237">
+        <v>4</v>
+      </c>
+      <c r="AY237">
+        <v>5</v>
+      </c>
+      <c r="AZ237">
+        <v>7</v>
+      </c>
+      <c r="BA237">
+        <v>3</v>
+      </c>
+      <c r="BB237">
+        <v>3</v>
+      </c>
+      <c r="BC237">
+        <v>6</v>
+      </c>
+      <c r="BD237">
+        <v>0</v>
+      </c>
+      <c r="BE237">
+        <v>0</v>
+      </c>
+      <c r="BF237">
+        <v>0</v>
+      </c>
+      <c r="BG237">
+        <v>0</v>
+      </c>
+      <c r="BH237">
+        <v>0</v>
+      </c>
+      <c r="BI237">
+        <v>0</v>
+      </c>
+      <c r="BJ237">
+        <v>0</v>
+      </c>
+      <c r="BK237">
+        <v>0</v>
+      </c>
+      <c r="BL237">
+        <v>0</v>
+      </c>
+      <c r="BM237">
+        <v>0</v>
+      </c>
+      <c r="BN237">
+        <v>0</v>
+      </c>
+      <c r="BO237">
+        <v>0</v>
+      </c>
+      <c r="BP237">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,9 @@
     <t>['45', '54', '68', '79', '88', '90+5']</t>
   </si>
   <si>
+    <t>['45+1', '68']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1422,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP237"/>
+  <dimension ref="A1:BP239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1684,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2093,7 +2096,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2299,7 +2302,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2711,7 +2714,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2917,7 +2920,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2995,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>0.46</v>
@@ -3123,7 +3126,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3329,7 +3332,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3535,7 +3538,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3819,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ12">
         <v>0.54</v>
@@ -3947,7 +3950,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4153,7 +4156,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4771,7 +4774,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4852,7 +4855,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4977,7 +4980,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5264,7 +5267,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ19">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5389,7 +5392,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5595,7 +5598,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5673,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
         <v>0.77</v>
@@ -6007,7 +6010,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6213,7 +6216,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6497,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ25">
         <v>0.85</v>
@@ -6831,7 +6834,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7736,7 +7739,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -8067,7 +8070,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8273,7 +8276,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8354,7 +8357,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ34">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8685,7 +8688,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8891,7 +8894,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9097,7 +9100,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9715,7 +9718,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9999,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>1.31</v>
@@ -10127,7 +10130,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10333,7 +10336,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10411,7 +10414,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ44">
         <v>0.77</v>
@@ -10620,7 +10623,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -11238,7 +11241,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ48">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR48">
         <v>0.91</v>
@@ -11363,7 +11366,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11775,7 +11778,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11981,7 +11984,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12187,7 +12190,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12393,7 +12396,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12805,7 +12808,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13217,7 +13220,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13423,7 +13426,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13629,7 +13632,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13835,7 +13838,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -13913,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14041,7 +14044,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14119,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ62">
         <v>0.46</v>
@@ -14247,7 +14250,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14328,7 +14331,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14659,7 +14662,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14865,7 +14868,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15277,7 +15280,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15689,7 +15692,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16513,7 +16516,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16591,10 +16594,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ74">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -17209,7 +17212,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17337,7 +17340,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17543,7 +17546,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17624,7 +17627,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17955,7 +17958,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18161,7 +18164,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18367,7 +18370,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18573,7 +18576,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18779,7 +18782,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19809,7 +19812,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20714,7 +20717,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ94">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.45</v>
@@ -21045,7 +21048,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21123,7 +21126,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -21457,7 +21460,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21538,7 +21541,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ98">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
         <v>0.89</v>
@@ -21663,7 +21666,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -21741,7 +21744,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -22281,7 +22284,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22693,7 +22696,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23105,7 +23108,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23517,7 +23520,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23929,7 +23932,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24216,7 +24219,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ111">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR111">
         <v>2.02</v>
@@ -24547,7 +24550,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24625,7 +24628,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ113">
         <v>2.23</v>
@@ -24753,7 +24756,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25165,7 +25168,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25243,7 +25246,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
         <v>0.54</v>
@@ -25577,7 +25580,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25658,7 +25661,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.13</v>
@@ -26273,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ121">
         <v>0.54</v>
@@ -26401,7 +26404,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26607,7 +26610,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26813,7 +26816,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27019,7 +27022,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27225,7 +27228,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27715,7 +27718,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ128">
         <v>0.54</v>
@@ -27924,7 +27927,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ129">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -28049,7 +28052,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28954,7 +28957,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ134">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29079,7 +29082,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29285,7 +29288,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30315,7 +30318,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30393,7 +30396,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ141">
         <v>2.23</v>
@@ -30521,7 +30524,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30933,7 +30936,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31139,7 +31142,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31426,7 +31429,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31551,7 +31554,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31757,7 +31760,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31963,7 +31966,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32044,7 +32047,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ149">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.28</v>
@@ -32581,7 +32584,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33071,7 +33074,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ154">
         <v>1.31</v>
@@ -33199,7 +33202,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33405,7 +33408,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33817,7 +33820,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34023,7 +34026,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34104,7 +34107,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ159">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR159">
         <v>1.05</v>
@@ -34310,7 +34313,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ160">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>1.89</v>
@@ -34435,7 +34438,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34925,7 +34928,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ163">
         <v>0.6899999999999999</v>
@@ -35053,7 +35056,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35465,7 +35468,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35749,7 +35752,7 @@
         <v>0.88</v>
       </c>
       <c r="AP167">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ167">
         <v>0.85</v>
@@ -36083,7 +36086,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36907,7 +36910,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37400,7 +37403,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ175">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37525,7 +37528,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -38224,7 +38227,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ179">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
         <v>1.89</v>
@@ -38761,7 +38764,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39173,7 +39176,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39791,7 +39794,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39869,7 +39872,7 @@
         <v>2.5</v>
       </c>
       <c r="AP187">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ187">
         <v>2.23</v>
@@ -39997,7 +40000,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40075,7 +40078,7 @@
         <v>2.2</v>
       </c>
       <c r="AP188">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ188">
         <v>2</v>
@@ -40821,7 +40824,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41645,7 +41648,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41932,7 +41935,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ197">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR197">
         <v>1.85</v>
@@ -42057,7 +42060,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42263,7 +42266,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42341,7 +42344,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42550,7 +42553,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ200">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -42881,7 +42884,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -42959,7 +42962,7 @@
         <v>1.27</v>
       </c>
       <c r="AP202">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ202">
         <v>1.31</v>
@@ -43087,7 +43090,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43705,7 +43708,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43911,7 +43914,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44117,7 +44120,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44529,7 +44532,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45353,7 +45356,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45434,7 +45437,7 @@
         <v>3</v>
       </c>
       <c r="AQ214">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45971,7 +45974,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46464,7 +46467,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ219">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -46876,7 +46879,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ221">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR221">
         <v>1.03</v>
@@ -47079,7 +47082,7 @@
         <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ222">
         <v>1</v>
@@ -47207,7 +47210,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47285,7 +47288,7 @@
         <v>2.09</v>
       </c>
       <c r="AP223">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ223">
         <v>2.23</v>
@@ -47413,7 +47416,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48237,7 +48240,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -49061,7 +49064,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49473,7 +49476,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49679,7 +49682,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -49772,31 +49775,31 @@
         <v>2.32</v>
       </c>
       <c r="AU235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV235">
+        <v>3</v>
+      </c>
+      <c r="AW235">
+        <v>9</v>
+      </c>
+      <c r="AX235">
+        <v>4</v>
+      </c>
+      <c r="AY235">
+        <v>11</v>
+      </c>
+      <c r="AZ235">
+        <v>7</v>
+      </c>
+      <c r="BA235">
         <v>2</v>
       </c>
-      <c r="AW235">
-        <v>6</v>
-      </c>
-      <c r="AX235">
-        <v>0</v>
-      </c>
-      <c r="AY235">
-        <v>6</v>
-      </c>
-      <c r="AZ235">
-        <v>2</v>
-      </c>
-      <c r="BA235">
-        <v>1</v>
-      </c>
       <c r="BB235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC235">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD235">
         <v>0</v>
@@ -50091,7 +50094,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50247,6 +50250,418 @@
         <v>0</v>
       </c>
       <c r="BP237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7025173</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F238">
+        <v>27</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" t="s">
+        <v>77</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>135</v>
+      </c>
+      <c r="P238" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>1.89</v>
+      </c>
+      <c r="AA238">
+        <v>3.35</v>
+      </c>
+      <c r="AB238">
+        <v>3.95</v>
+      </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
+      <c r="AG238">
+        <v>2.1</v>
+      </c>
+      <c r="AH238">
+        <v>1.65</v>
+      </c>
+      <c r="AI238">
+        <v>0</v>
+      </c>
+      <c r="AJ238">
+        <v>0</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AN238">
+        <v>2.15</v>
+      </c>
+      <c r="AO238">
+        <v>1.62</v>
+      </c>
+      <c r="AP238">
+        <v>2.21</v>
+      </c>
+      <c r="AQ238">
+        <v>1.5</v>
+      </c>
+      <c r="AR238">
+        <v>1.45</v>
+      </c>
+      <c r="AS238">
+        <v>1.05</v>
+      </c>
+      <c r="AT238">
+        <v>2.5</v>
+      </c>
+      <c r="AU238">
+        <v>3</v>
+      </c>
+      <c r="AV238">
+        <v>2</v>
+      </c>
+      <c r="AW238">
+        <v>4</v>
+      </c>
+      <c r="AX238">
+        <v>3</v>
+      </c>
+      <c r="AY238">
+        <v>7</v>
+      </c>
+      <c r="AZ238">
+        <v>5</v>
+      </c>
+      <c r="BA238">
+        <v>6</v>
+      </c>
+      <c r="BB238">
+        <v>1</v>
+      </c>
+      <c r="BC238">
+        <v>7</v>
+      </c>
+      <c r="BD238">
+        <v>0</v>
+      </c>
+      <c r="BE238">
+        <v>0</v>
+      </c>
+      <c r="BF238">
+        <v>0</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238">
+        <v>0</v>
+      </c>
+      <c r="BI238">
+        <v>0</v>
+      </c>
+      <c r="BJ238">
+        <v>0</v>
+      </c>
+      <c r="BK238">
+        <v>0</v>
+      </c>
+      <c r="BL238">
+        <v>0</v>
+      </c>
+      <c r="BM238">
+        <v>0</v>
+      </c>
+      <c r="BN238">
+        <v>0</v>
+      </c>
+      <c r="BO238">
+        <v>0</v>
+      </c>
+      <c r="BP238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7025174</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F239">
+        <v>27</v>
+      </c>
+      <c r="G239" t="s">
+        <v>76</v>
+      </c>
+      <c r="H239" t="s">
+        <v>72</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>244</v>
+      </c>
+      <c r="P239" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>1.76</v>
+      </c>
+      <c r="AA239">
+        <v>3.65</v>
+      </c>
+      <c r="AB239">
+        <v>4.2</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>0</v>
+      </c>
+      <c r="AF239">
+        <v>0</v>
+      </c>
+      <c r="AG239">
+        <v>1.9</v>
+      </c>
+      <c r="AH239">
+        <v>1.94</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>0</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>1.31</v>
+      </c>
+      <c r="AO239">
+        <v>0.85</v>
+      </c>
+      <c r="AP239">
+        <v>1.43</v>
+      </c>
+      <c r="AQ239">
+        <v>0.79</v>
+      </c>
+      <c r="AR239">
+        <v>1.25</v>
+      </c>
+      <c r="AS239">
+        <v>1</v>
+      </c>
+      <c r="AT239">
+        <v>2.25</v>
+      </c>
+      <c r="AU239">
+        <v>12</v>
+      </c>
+      <c r="AV239">
+        <v>3</v>
+      </c>
+      <c r="AW239">
+        <v>4</v>
+      </c>
+      <c r="AX239">
+        <v>2</v>
+      </c>
+      <c r="AY239">
+        <v>16</v>
+      </c>
+      <c r="AZ239">
+        <v>5</v>
+      </c>
+      <c r="BA239">
+        <v>11</v>
+      </c>
+      <c r="BB239">
+        <v>1</v>
+      </c>
+      <c r="BC239">
+        <v>12</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>0</v>
+      </c>
+      <c r="BF239">
+        <v>0</v>
+      </c>
+      <c r="BG239">
+        <v>0</v>
+      </c>
+      <c r="BH239">
+        <v>0</v>
+      </c>
+      <c r="BI239">
+        <v>0</v>
+      </c>
+      <c r="BJ239">
+        <v>0</v>
+      </c>
+      <c r="BK239">
+        <v>0</v>
+      </c>
+      <c r="BL239">
+        <v>0</v>
+      </c>
+      <c r="BM239">
+        <v>0</v>
+      </c>
+      <c r="BN239">
+        <v>0</v>
+      </c>
+      <c r="BO239">
+        <v>0</v>
+      </c>
+      <c r="BP239">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1065,6 +1065,9 @@
   <si>
     <t>['23', '40']</t>
   </si>
+  <si>
+    <t>['25', '57', '70', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1425,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP239"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2177,7 +2180,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3207,7 +3210,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3410,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ10">
         <v>2.23</v>
@@ -4646,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5058,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18">
         <v>1.31</v>
@@ -6294,10 +6297,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>0.57</v>
@@ -6915,7 +6918,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR27">
         <v>2.48</v>
@@ -7118,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28">
         <v>0.54</v>
@@ -7327,7 +7330,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ29">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>1.16</v>
@@ -8148,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>0.92</v>
@@ -9181,7 +9184,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9796,7 +9799,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
         <v>2.23</v>
@@ -10005,7 +10008,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10826,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -11444,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>0.85</v>
@@ -12683,7 +12686,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>1.81</v>
@@ -13095,7 +13098,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13298,7 +13301,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58">
         <v>0.77</v>
@@ -13504,7 +13507,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -14537,7 +14540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>0.96</v>
@@ -15361,7 +15364,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15564,7 +15567,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ69">
         <v>2.23</v>
@@ -17009,7 +17012,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ76">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
         <v>2.21</v>
@@ -18036,10 +18039,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18242,7 +18245,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ82">
         <v>2.23</v>
@@ -20302,10 +20305,10 @@
         <v>1.6</v>
       </c>
       <c r="AP92">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20920,7 +20923,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21129,7 +21132,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR96">
         <v>1.41</v>
@@ -21335,7 +21338,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21538,7 +21541,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ98">
         <v>0.79</v>
@@ -22777,7 +22780,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -23598,7 +23601,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108">
         <v>1.31</v>
@@ -24010,7 +24013,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -24837,7 +24840,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ114">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -25249,7 +25252,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
         <v>1.42</v>
@@ -25452,7 +25455,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -26482,7 +26485,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ122">
         <v>1.69</v>
@@ -26897,7 +26900,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ124">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27515,7 +27518,7 @@
         <v>3</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -27721,7 +27724,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ128">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR128">
         <v>1.39</v>
@@ -27924,7 +27927,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -28954,7 +28957,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ134">
         <v>0.79</v>
@@ -29778,10 +29781,10 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ138">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR138">
         <v>1.03</v>
@@ -31223,7 +31226,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ145">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR145">
         <v>1.11</v>
@@ -32044,7 +32047,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -32459,7 +32462,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ151">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR151">
         <v>2.34</v>
@@ -32662,7 +32665,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ152">
         <v>0.92</v>
@@ -33486,7 +33489,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ156">
         <v>2.23</v>
@@ -33898,7 +33901,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ158">
         <v>1.31</v>
@@ -34725,7 +34728,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ162">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -35134,7 +35137,7 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ164">
         <v>0.77</v>
@@ -35549,7 +35552,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ166">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR166">
         <v>1.25</v>
@@ -36373,7 +36376,7 @@
         <v>3</v>
       </c>
       <c r="AQ170">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR170">
         <v>1.61</v>
@@ -37197,7 +37200,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ174">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR174">
         <v>1.81</v>
@@ -37606,7 +37609,7 @@
         <v>1.33</v>
       </c>
       <c r="AP176">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ176">
         <v>1.69</v>
@@ -38018,7 +38021,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ178">
         <v>0.6899999999999999</v>
@@ -39254,7 +39257,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ184">
         <v>0.46</v>
@@ -39463,7 +39466,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ185">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR185">
         <v>1.14</v>
@@ -40081,7 +40084,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ188">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR188">
         <v>1.35</v>
@@ -40493,7 +40496,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ190">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR190">
         <v>1.36</v>
@@ -41726,7 +41729,7 @@
         <v>0.3</v>
       </c>
       <c r="AP196">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ196">
         <v>0.54</v>
@@ -42965,7 +42968,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ202">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43168,7 +43171,7 @@
         <v>0.45</v>
       </c>
       <c r="AP203">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ203">
         <v>0.46</v>
@@ -43583,7 +43586,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ205">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR205">
         <v>1.16</v>
@@ -43992,7 +43995,7 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ207">
         <v>2</v>
@@ -44407,7 +44410,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ209">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR209">
         <v>1.11</v>
@@ -44610,7 +44613,7 @@
         <v>1.45</v>
       </c>
       <c r="AP210">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ210">
         <v>1.69</v>
@@ -46055,7 +46058,7 @@
         <v>1</v>
       </c>
       <c r="AQ217">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR217">
         <v>1.18</v>
@@ -46261,7 +46264,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ218">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR218">
         <v>1.05</v>
@@ -46464,7 +46467,7 @@
         <v>0.92</v>
       </c>
       <c r="AP219">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ219">
         <v>0.79</v>
@@ -46876,7 +46879,7 @@
         <v>1.75</v>
       </c>
       <c r="AP221">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ221">
         <v>1.5</v>
@@ -47906,7 +47909,7 @@
         <v>0.83</v>
       </c>
       <c r="AP226">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ226">
         <v>0.77</v>
@@ -48321,7 +48324,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ228">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR228">
         <v>1.25</v>
@@ -50190,28 +50193,28 @@
         <v>4</v>
       </c>
       <c r="AV237">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY237">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ237">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA237">
         <v>3</v>
       </c>
       <c r="BB237">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC237">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD237">
         <v>0</v>
@@ -50393,31 +50396,31 @@
         <v>2.5</v>
       </c>
       <c r="AU238">
+        <v>4</v>
+      </c>
+      <c r="AV238">
         <v>3</v>
       </c>
-      <c r="AV238">
+      <c r="AW238">
+        <v>5</v>
+      </c>
+      <c r="AX238">
+        <v>6</v>
+      </c>
+      <c r="AY238">
+        <v>9</v>
+      </c>
+      <c r="AZ238">
+        <v>9</v>
+      </c>
+      <c r="BA238">
+        <v>7</v>
+      </c>
+      <c r="BB238">
         <v>2</v>
       </c>
-      <c r="AW238">
-        <v>4</v>
-      </c>
-      <c r="AX238">
-        <v>3</v>
-      </c>
-      <c r="AY238">
-        <v>7</v>
-      </c>
-      <c r="AZ238">
-        <v>5</v>
-      </c>
-      <c r="BA238">
-        <v>6</v>
-      </c>
-      <c r="BB238">
-        <v>1</v>
-      </c>
       <c r="BC238">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD238">
         <v>0</v>
@@ -50599,69 +50602,687 @@
         <v>2.25</v>
       </c>
       <c r="AU239">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV239">
+        <v>5</v>
+      </c>
+      <c r="AW239">
+        <v>8</v>
+      </c>
+      <c r="AX239">
+        <v>5</v>
+      </c>
+      <c r="AY239">
+        <v>23</v>
+      </c>
+      <c r="AZ239">
+        <v>10</v>
+      </c>
+      <c r="BA239">
+        <v>13</v>
+      </c>
+      <c r="BB239">
+        <v>4</v>
+      </c>
+      <c r="BC239">
+        <v>17</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>0</v>
+      </c>
+      <c r="BF239">
+        <v>0</v>
+      </c>
+      <c r="BG239">
+        <v>0</v>
+      </c>
+      <c r="BH239">
+        <v>0</v>
+      </c>
+      <c r="BI239">
+        <v>0</v>
+      </c>
+      <c r="BJ239">
+        <v>0</v>
+      </c>
+      <c r="BK239">
+        <v>0</v>
+      </c>
+      <c r="BL239">
+        <v>0</v>
+      </c>
+      <c r="BM239">
+        <v>0</v>
+      </c>
+      <c r="BN239">
+        <v>0</v>
+      </c>
+      <c r="BO239">
+        <v>0</v>
+      </c>
+      <c r="BP239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7025170</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F240">
+        <v>27</v>
+      </c>
+      <c r="G240" t="s">
+        <v>78</v>
+      </c>
+      <c r="H240" t="s">
+        <v>74</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240" t="s">
+        <v>90</v>
+      </c>
+      <c r="P240" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>2.52</v>
+      </c>
+      <c r="AA240">
+        <v>3.15</v>
+      </c>
+      <c r="AB240">
+        <v>2.74</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240">
+        <v>0</v>
+      </c>
+      <c r="AF240">
+        <v>0</v>
+      </c>
+      <c r="AG240">
+        <v>2.2</v>
+      </c>
+      <c r="AH240">
+        <v>1.6</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>0</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>0</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AN240">
+        <v>1.23</v>
+      </c>
+      <c r="AO240">
+        <v>0.54</v>
+      </c>
+      <c r="AP240">
+        <v>1.21</v>
+      </c>
+      <c r="AQ240">
+        <v>0.57</v>
+      </c>
+      <c r="AR240">
+        <v>1.02</v>
+      </c>
+      <c r="AS240">
+        <v>1.1</v>
+      </c>
+      <c r="AT240">
+        <v>2.12</v>
+      </c>
+      <c r="AU240">
+        <v>2</v>
+      </c>
+      <c r="AV240">
+        <v>2</v>
+      </c>
+      <c r="AW240">
+        <v>5</v>
+      </c>
+      <c r="AX240">
+        <v>4</v>
+      </c>
+      <c r="AY240">
+        <v>7</v>
+      </c>
+      <c r="AZ240">
+        <v>6</v>
+      </c>
+      <c r="BA240">
+        <v>2</v>
+      </c>
+      <c r="BB240">
+        <v>5</v>
+      </c>
+      <c r="BC240">
+        <v>7</v>
+      </c>
+      <c r="BD240">
+        <v>0</v>
+      </c>
+      <c r="BE240">
+        <v>0</v>
+      </c>
+      <c r="BF240">
+        <v>0</v>
+      </c>
+      <c r="BG240">
+        <v>0</v>
+      </c>
+      <c r="BH240">
+        <v>0</v>
+      </c>
+      <c r="BI240">
+        <v>0</v>
+      </c>
+      <c r="BJ240">
+        <v>0</v>
+      </c>
+      <c r="BK240">
+        <v>0</v>
+      </c>
+      <c r="BL240">
+        <v>0</v>
+      </c>
+      <c r="BM240">
+        <v>0</v>
+      </c>
+      <c r="BN240">
+        <v>0</v>
+      </c>
+      <c r="BO240">
+        <v>0</v>
+      </c>
+      <c r="BP240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7025171</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45381.72916666666</v>
+      </c>
+      <c r="F241">
+        <v>27</v>
+      </c>
+      <c r="G241" t="s">
+        <v>84</v>
+      </c>
+      <c r="H241" t="s">
+        <v>85</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
+        <v>187</v>
+      </c>
+      <c r="P241" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>7.1</v>
+      </c>
+      <c r="AA241">
+        <v>4.8</v>
+      </c>
+      <c r="AB241">
+        <v>1.37</v>
+      </c>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+      <c r="AD241">
+        <v>0</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>1.58</v>
+      </c>
+      <c r="AH241">
+        <v>2.38</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>0</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AN241">
+        <v>1.46</v>
+      </c>
+      <c r="AO241">
+        <v>2</v>
+      </c>
+      <c r="AP241">
+        <v>1.57</v>
+      </c>
+      <c r="AQ241">
+        <v>1.86</v>
+      </c>
+      <c r="AR241">
+        <v>1.23</v>
+      </c>
+      <c r="AS241">
+        <v>1.28</v>
+      </c>
+      <c r="AT241">
+        <v>2.51</v>
+      </c>
+      <c r="AU241">
+        <v>2</v>
+      </c>
+      <c r="AV241">
+        <v>4</v>
+      </c>
+      <c r="AW241">
         <v>3</v>
       </c>
-      <c r="AW239">
+      <c r="AX241">
+        <v>7</v>
+      </c>
+      <c r="AY241">
+        <v>5</v>
+      </c>
+      <c r="AZ241">
+        <v>11</v>
+      </c>
+      <c r="BA241">
+        <v>1</v>
+      </c>
+      <c r="BB241">
+        <v>10</v>
+      </c>
+      <c r="BC241">
+        <v>11</v>
+      </c>
+      <c r="BD241">
+        <v>0</v>
+      </c>
+      <c r="BE241">
+        <v>0</v>
+      </c>
+      <c r="BF241">
+        <v>0</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241">
+        <v>0</v>
+      </c>
+      <c r="BI241">
+        <v>0</v>
+      </c>
+      <c r="BJ241">
+        <v>0</v>
+      </c>
+      <c r="BK241">
+        <v>0</v>
+      </c>
+      <c r="BL241">
+        <v>0</v>
+      </c>
+      <c r="BM241">
+        <v>0</v>
+      </c>
+      <c r="BN241">
+        <v>0</v>
+      </c>
+      <c r="BO241">
+        <v>0</v>
+      </c>
+      <c r="BP241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7025176</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45382.58333333334</v>
+      </c>
+      <c r="F242">
+        <v>27</v>
+      </c>
+      <c r="G242" t="s">
+        <v>86</v>
+      </c>
+      <c r="H242" t="s">
+        <v>79</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
         <v>4</v>
       </c>
-      <c r="AX239">
+      <c r="N242">
+        <v>4</v>
+      </c>
+      <c r="O242" t="s">
+        <v>90</v>
+      </c>
+      <c r="P242" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <v>0</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>2.31</v>
+      </c>
+      <c r="AA242">
+        <v>3.2</v>
+      </c>
+      <c r="AB242">
+        <v>2.98</v>
+      </c>
+      <c r="AC242">
+        <v>0</v>
+      </c>
+      <c r="AD242">
+        <v>0</v>
+      </c>
+      <c r="AE242">
+        <v>0</v>
+      </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>2.2</v>
+      </c>
+      <c r="AH242">
+        <v>1.63</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AK242">
+        <v>0</v>
+      </c>
+      <c r="AL242">
+        <v>0</v>
+      </c>
+      <c r="AM242">
+        <v>0</v>
+      </c>
+      <c r="AN242">
+        <v>0.77</v>
+      </c>
+      <c r="AO242">
+        <v>1.31</v>
+      </c>
+      <c r="AP242">
+        <v>0.71</v>
+      </c>
+      <c r="AQ242">
+        <v>1.43</v>
+      </c>
+      <c r="AR242">
+        <v>1.39</v>
+      </c>
+      <c r="AS242">
+        <v>1</v>
+      </c>
+      <c r="AT242">
+        <v>2.39</v>
+      </c>
+      <c r="AU242">
+        <v>3</v>
+      </c>
+      <c r="AV242">
+        <v>6</v>
+      </c>
+      <c r="AW242">
+        <v>5</v>
+      </c>
+      <c r="AX242">
+        <v>1</v>
+      </c>
+      <c r="AY242">
+        <v>8</v>
+      </c>
+      <c r="AZ242">
+        <v>7</v>
+      </c>
+      <c r="BA242">
+        <v>4</v>
+      </c>
+      <c r="BB242">
         <v>2</v>
       </c>
-      <c r="AY239">
-        <v>16</v>
-      </c>
-      <c r="AZ239">
-        <v>5</v>
-      </c>
-      <c r="BA239">
-        <v>11</v>
-      </c>
-      <c r="BB239">
-        <v>1</v>
-      </c>
-      <c r="BC239">
-        <v>12</v>
-      </c>
-      <c r="BD239">
-        <v>0</v>
-      </c>
-      <c r="BE239">
-        <v>0</v>
-      </c>
-      <c r="BF239">
-        <v>0</v>
-      </c>
-      <c r="BG239">
-        <v>0</v>
-      </c>
-      <c r="BH239">
-        <v>0</v>
-      </c>
-      <c r="BI239">
-        <v>0</v>
-      </c>
-      <c r="BJ239">
-        <v>0</v>
-      </c>
-      <c r="BK239">
-        <v>0</v>
-      </c>
-      <c r="BL239">
-        <v>0</v>
-      </c>
-      <c r="BM239">
-        <v>0</v>
-      </c>
-      <c r="BN239">
-        <v>0</v>
-      </c>
-      <c r="BO239">
-        <v>0</v>
-      </c>
-      <c r="BP239">
+      <c r="BC242">
+        <v>6</v>
+      </c>
+      <c r="BD242">
+        <v>0</v>
+      </c>
+      <c r="BE242">
+        <v>0</v>
+      </c>
+      <c r="BF242">
+        <v>0</v>
+      </c>
+      <c r="BG242">
+        <v>0</v>
+      </c>
+      <c r="BH242">
+        <v>0</v>
+      </c>
+      <c r="BI242">
+        <v>0</v>
+      </c>
+      <c r="BJ242">
+        <v>0</v>
+      </c>
+      <c r="BK242">
+        <v>0</v>
+      </c>
+      <c r="BL242">
+        <v>0</v>
+      </c>
+      <c r="BM242">
+        <v>0</v>
+      </c>
+      <c r="BN242">
+        <v>0</v>
+      </c>
+      <c r="BO242">
+        <v>0</v>
+      </c>
+      <c r="BP242">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['45+1', '68']</t>
   </si>
   <si>
+    <t>['18', '71', '86']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1067,6 +1070,9 @@
   </si>
   <si>
     <t>['25', '57', '70', '90+1']</t>
+  </si>
+  <si>
+    <t>['3', '30', '49', '61', '69']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1693,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2099,7 +2105,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2305,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2717,7 +2723,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2923,7 +2929,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3129,7 +3135,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3335,7 +3341,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3541,7 +3547,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3953,7 +3959,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4034,7 +4040,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4159,7 +4165,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4237,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ14">
         <v>0.92</v>
@@ -4777,7 +4783,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4983,7 +4989,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5395,7 +5401,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5601,7 +5607,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6013,7 +6019,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6219,7 +6225,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6837,7 +6843,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7533,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30">
         <v>0.6899999999999999</v>
@@ -8073,7 +8079,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8279,7 +8285,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8691,7 +8697,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8897,7 +8903,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8978,7 +8984,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR37">
         <v>0.68</v>
@@ -9103,7 +9109,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9596,7 +9602,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9721,7 +9727,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10133,7 +10139,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10339,7 +10345,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11369,7 +11375,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11781,7 +11787,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11987,7 +11993,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12193,7 +12199,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12271,7 +12277,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ53">
         <v>2.23</v>
@@ -12399,7 +12405,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12811,7 +12817,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12892,7 +12898,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13223,7 +13229,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13429,7 +13435,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13635,7 +13641,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13841,7 +13847,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14047,7 +14053,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14253,7 +14259,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14665,7 +14671,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14871,7 +14877,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15283,7 +15289,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15695,7 +15701,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16519,7 +16525,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16803,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ75">
         <v>0.46</v>
@@ -17343,7 +17349,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17424,7 +17430,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR78">
         <v>1.14</v>
@@ -17549,7 +17555,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17961,7 +17967,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18167,7 +18173,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18373,7 +18379,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18579,7 +18585,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18785,7 +18791,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19815,7 +19821,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20511,7 +20517,7 @@
         <v>0.6</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ93">
         <v>0.5</v>
@@ -21051,7 +21057,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21463,7 +21469,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21669,7 +21675,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -21750,7 +21756,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -22287,7 +22293,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22699,7 +22705,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23111,7 +23117,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23523,7 +23529,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23935,7 +23941,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24016,7 +24022,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR110">
         <v>1.48</v>
@@ -24425,7 +24431,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24553,7 +24559,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24759,7 +24765,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25171,7 +25177,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25583,7 +25589,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26407,7 +26413,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26613,7 +26619,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26819,7 +26825,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27025,7 +27031,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27231,7 +27237,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -28055,7 +28061,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -29085,7 +29091,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29166,7 +29172,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR135">
         <v>1.15</v>
@@ -29291,7 +29297,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29369,7 +29375,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ136">
         <v>2.23</v>
@@ -30321,7 +30327,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30527,7 +30533,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30939,7 +30945,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31145,7 +31151,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31429,7 +31435,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ146">
         <v>0.79</v>
@@ -31557,7 +31563,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31763,7 +31769,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31969,7 +31975,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32587,7 +32593,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32874,7 +32880,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR153">
         <v>2.02</v>
@@ -33205,7 +33211,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33286,7 +33292,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ155">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33411,7 +33417,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33823,7 +33829,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34029,7 +34035,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34441,7 +34447,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34519,7 +34525,7 @@
         <v>0</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ161">
         <v>0.54</v>
@@ -35059,7 +35065,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35471,7 +35477,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -36089,7 +36095,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36913,7 +36919,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -36991,7 +36997,7 @@
         <v>1.22</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ173">
         <v>1.31</v>
@@ -37531,7 +37537,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -38767,7 +38773,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39179,7 +39185,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39672,7 +39678,7 @@
         <v>3</v>
       </c>
       <c r="AQ186">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR186">
         <v>1.59</v>
@@ -39797,7 +39803,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40003,7 +40009,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40827,7 +40833,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -40905,7 +40911,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ192">
         <v>1.69</v>
@@ -41651,7 +41657,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42063,7 +42069,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42269,7 +42275,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42887,7 +42893,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43093,7 +43099,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43711,7 +43717,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43917,7 +43923,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -43998,7 +44004,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR207">
         <v>1.03</v>
@@ -44123,7 +44129,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44535,7 +44541,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45231,7 +45237,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ213">
         <v>0.85</v>
@@ -45359,7 +45365,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45977,7 +45983,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46055,7 +46061,7 @@
         <v>1.92</v>
       </c>
       <c r="AP217">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ217">
         <v>1.86</v>
@@ -46676,7 +46682,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR220">
         <v>1.1</v>
@@ -47213,7 +47219,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47419,7 +47425,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48243,7 +48249,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -49067,7 +49073,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49479,7 +49485,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49685,7 +49691,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50097,7 +50103,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -51127,7 +51133,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51220,69 +51226,275 @@
         <v>2.39</v>
       </c>
       <c r="AU242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV242">
         <v>6</v>
       </c>
       <c r="AW242">
+        <v>9</v>
+      </c>
+      <c r="AX242">
+        <v>3</v>
+      </c>
+      <c r="AY242">
+        <v>13</v>
+      </c>
+      <c r="AZ242">
+        <v>9</v>
+      </c>
+      <c r="BA242">
+        <v>6</v>
+      </c>
+      <c r="BB242">
+        <v>3</v>
+      </c>
+      <c r="BC242">
+        <v>9</v>
+      </c>
+      <c r="BD242">
+        <v>0</v>
+      </c>
+      <c r="BE242">
+        <v>0</v>
+      </c>
+      <c r="BF242">
+        <v>0</v>
+      </c>
+      <c r="BG242">
+        <v>0</v>
+      </c>
+      <c r="BH242">
+        <v>0</v>
+      </c>
+      <c r="BI242">
+        <v>0</v>
+      </c>
+      <c r="BJ242">
+        <v>0</v>
+      </c>
+      <c r="BK242">
+        <v>0</v>
+      </c>
+      <c r="BL242">
+        <v>0</v>
+      </c>
+      <c r="BM242">
+        <v>0</v>
+      </c>
+      <c r="BN242">
+        <v>0</v>
+      </c>
+      <c r="BO242">
+        <v>0</v>
+      </c>
+      <c r="BP242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7025175</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45383.67708333334</v>
+      </c>
+      <c r="F243">
+        <v>27</v>
+      </c>
+      <c r="G243" t="s">
+        <v>82</v>
+      </c>
+      <c r="H243" t="s">
+        <v>70</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>2</v>
+      </c>
+      <c r="K243">
+        <v>3</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
         <v>5</v>
       </c>
-      <c r="AX242">
-        <v>1</v>
-      </c>
-      <c r="AY242">
+      <c r="N243">
         <v>8</v>
       </c>
-      <c r="AZ242">
+      <c r="O243" t="s">
+        <v>245</v>
+      </c>
+      <c r="P243" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>6.85</v>
+      </c>
+      <c r="AA243">
+        <v>4.55</v>
+      </c>
+      <c r="AB243">
+        <v>1.43</v>
+      </c>
+      <c r="AC243">
+        <v>0</v>
+      </c>
+      <c r="AD243">
+        <v>0</v>
+      </c>
+      <c r="AE243">
+        <v>0</v>
+      </c>
+      <c r="AF243">
+        <v>0</v>
+      </c>
+      <c r="AG243">
+        <v>1.58</v>
+      </c>
+      <c r="AH243">
+        <v>2.29</v>
+      </c>
+      <c r="AI243">
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <v>0</v>
+      </c>
+      <c r="AL243">
+        <v>0</v>
+      </c>
+      <c r="AM243">
+        <v>0</v>
+      </c>
+      <c r="AN243">
+        <v>1</v>
+      </c>
+      <c r="AO243">
+        <v>2</v>
+      </c>
+      <c r="AP243">
+        <v>0.93</v>
+      </c>
+      <c r="AQ243">
+        <v>2.07</v>
+      </c>
+      <c r="AR243">
+        <v>1.14</v>
+      </c>
+      <c r="AS243">
+        <v>1.36</v>
+      </c>
+      <c r="AT243">
+        <v>2.5</v>
+      </c>
+      <c r="AU243">
+        <v>2</v>
+      </c>
+      <c r="AV243">
+        <v>3</v>
+      </c>
+      <c r="AW243">
+        <v>5</v>
+      </c>
+      <c r="AX243">
+        <v>1</v>
+      </c>
+      <c r="AY243">
         <v>7</v>
       </c>
-      <c r="BA242">
+      <c r="AZ243">
         <v>4</v>
       </c>
-      <c r="BB242">
+      <c r="BA243">
         <v>2</v>
       </c>
-      <c r="BC242">
-        <v>6</v>
-      </c>
-      <c r="BD242">
-        <v>0</v>
-      </c>
-      <c r="BE242">
-        <v>0</v>
-      </c>
-      <c r="BF242">
-        <v>0</v>
-      </c>
-      <c r="BG242">
-        <v>0</v>
-      </c>
-      <c r="BH242">
-        <v>0</v>
-      </c>
-      <c r="BI242">
-        <v>0</v>
-      </c>
-      <c r="BJ242">
-        <v>0</v>
-      </c>
-      <c r="BK242">
-        <v>0</v>
-      </c>
-      <c r="BL242">
-        <v>0</v>
-      </c>
-      <c r="BM242">
-        <v>0</v>
-      </c>
-      <c r="BN242">
-        <v>0</v>
-      </c>
-      <c r="BO242">
-        <v>0</v>
-      </c>
-      <c r="BP242">
+      <c r="BB243">
+        <v>2</v>
+      </c>
+      <c r="BC243">
+        <v>4</v>
+      </c>
+      <c r="BD243">
+        <v>0</v>
+      </c>
+      <c r="BE243">
+        <v>0</v>
+      </c>
+      <c r="BF243">
+        <v>0</v>
+      </c>
+      <c r="BG243">
+        <v>0</v>
+      </c>
+      <c r="BH243">
+        <v>0</v>
+      </c>
+      <c r="BI243">
+        <v>0</v>
+      </c>
+      <c r="BJ243">
+        <v>0</v>
+      </c>
+      <c r="BK243">
+        <v>0</v>
+      </c>
+      <c r="BL243">
+        <v>0</v>
+      </c>
+      <c r="BM243">
+        <v>0</v>
+      </c>
+      <c r="BN243">
+        <v>0</v>
+      </c>
+      <c r="BO243">
+        <v>0</v>
+      </c>
+      <c r="BP243">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -51432,31 +51432,31 @@
         <v>2.5</v>
       </c>
       <c r="AU243">
+        <v>3</v>
+      </c>
+      <c r="AV243">
+        <v>5</v>
+      </c>
+      <c r="AW243">
+        <v>8</v>
+      </c>
+      <c r="AX243">
         <v>2</v>
       </c>
-      <c r="AV243">
-        <v>3</v>
-      </c>
-      <c r="AW243">
-        <v>5</v>
-      </c>
-      <c r="AX243">
-        <v>1</v>
-      </c>
       <c r="AY243">
+        <v>11</v>
+      </c>
+      <c r="AZ243">
         <v>7</v>
       </c>
-      <c r="AZ243">
+      <c r="BA243">
         <v>4</v>
       </c>
-      <c r="BA243">
-        <v>2</v>
-      </c>
       <c r="BB243">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC243">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD243">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,15 @@
     <t>['18', '71', '86']</t>
   </si>
   <si>
+    <t>['28', '39']</t>
+  </si>
+  <si>
+    <t>['8', '43', '90+5']</t>
+  </si>
+  <si>
+    <t>['30', '43', '63']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1073,6 +1082,12 @@
   </si>
   <si>
     <t>['3', '30', '49', '61', '69']</t>
+  </si>
+  <si>
+    <t>['55', '80']</t>
+  </si>
+  <si>
+    <t>['29', '34', '89']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1708,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1771,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2105,7 +2120,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2183,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
         <v>1.43</v>
@@ -2311,7 +2326,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2392,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2595,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2723,7 +2738,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2929,7 +2944,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3135,7 +3150,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3341,7 +3356,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3547,7 +3562,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3834,7 +3849,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ12">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3959,7 +3974,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4165,7 +4180,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4246,7 +4261,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ14">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4783,7 +4798,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4989,7 +5004,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5070,7 +5085,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ18">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5273,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5401,7 +5416,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5607,7 +5622,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5891,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -6019,7 +6034,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6225,7 +6240,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6512,7 +6527,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ25">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6843,7 +6858,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6921,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.86</v>
@@ -7130,7 +7145,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.77</v>
@@ -7745,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ31">
         <v>0.79</v>
@@ -8079,7 +8094,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8160,7 +8175,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR33">
         <v>0.85</v>
@@ -8285,7 +8300,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8572,7 +8587,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ35">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>2.63</v>
@@ -8697,7 +8712,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8775,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ36">
         <v>2.23</v>
@@ -8903,7 +8918,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9109,7 +9124,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9393,7 +9408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9599,7 +9614,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ40">
         <v>2.07</v>
@@ -9727,7 +9742,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10139,7 +10154,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10345,7 +10360,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11041,10 +11056,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ47">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11375,7 +11390,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11456,7 +11471,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11787,7 +11802,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11868,7 +11883,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ51">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11993,7 +12008,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12199,7 +12214,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12405,7 +12420,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12483,10 +12498,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ54">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12817,7 +12832,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13229,7 +13244,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13435,7 +13450,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13641,7 +13656,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13719,7 +13734,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ60">
         <v>2.23</v>
@@ -13847,7 +13862,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14053,7 +14068,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14259,7 +14274,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14337,7 +14352,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14671,7 +14686,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14752,7 +14767,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ65">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14877,7 +14892,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -14958,7 +14973,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ66">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15161,10 +15176,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15289,7 +15304,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15367,7 +15382,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ68">
         <v>0.57</v>
@@ -15701,7 +15716,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15779,7 +15794,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ70">
         <v>1.69</v>
@@ -16400,7 +16415,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.69</v>
@@ -16525,7 +16540,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17349,7 +17364,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17555,7 +17570,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17633,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>0.79</v>
@@ -17967,7 +17982,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18173,7 +18188,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18379,7 +18394,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18585,7 +18600,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18791,7 +18806,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18869,10 +18884,10 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ85">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19075,7 +19090,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ86">
         <v>0.77</v>
@@ -19490,7 +19505,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ88">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19693,10 +19708,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR89">
         <v>1.22</v>
@@ -19821,7 +19836,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20105,10 +20120,10 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ91">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.41</v>
@@ -21057,7 +21072,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21469,7 +21484,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21675,7 +21690,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -22168,7 +22183,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ101">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22293,7 +22308,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22371,7 +22386,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102">
         <v>1.69</v>
@@ -22577,7 +22592,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>0.6899999999999999</v>
@@ -22705,7 +22720,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22783,7 +22798,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ104">
         <v>1.86</v>
@@ -23117,7 +23132,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23195,7 +23210,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ106">
         <v>0.46</v>
@@ -23529,7 +23544,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23610,7 +23625,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ108">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR108">
         <v>0.97</v>
@@ -23816,7 +23831,7 @@
         <v>3</v>
       </c>
       <c r="AQ109">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23941,7 +23956,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24559,7 +24574,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24765,7 +24780,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25052,7 +25067,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ115">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR115">
         <v>1.29</v>
@@ -25177,7 +25192,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25589,7 +25604,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25873,7 +25888,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119">
         <v>0.6899999999999999</v>
@@ -26079,10 +26094,10 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR120">
         <v>1.15</v>
@@ -26288,7 +26303,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ121">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26413,7 +26428,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26619,7 +26634,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26825,7 +26840,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27031,7 +27046,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27109,7 +27124,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ125">
         <v>0.46</v>
@@ -27237,7 +27252,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27315,7 +27330,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ126">
         <v>2.23</v>
@@ -28061,7 +28076,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28142,7 +28157,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR130">
         <v>1.05</v>
@@ -28760,7 +28775,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR133">
         <v>1.14</v>
@@ -29091,7 +29106,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29297,7 +29312,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29993,10 +30008,10 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ139">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.23</v>
@@ -30202,7 +30217,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ140">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR140">
         <v>0.99</v>
@@ -30327,7 +30342,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30533,7 +30548,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30611,7 +30626,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ142">
         <v>1.69</v>
@@ -30817,7 +30832,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>0.77</v>
@@ -30945,7 +30960,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31023,7 +31038,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ144">
         <v>0.5</v>
@@ -31151,7 +31166,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31563,7 +31578,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31769,7 +31784,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31975,7 +31990,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32593,7 +32608,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32674,7 +32689,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ152">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR152">
         <v>1.42</v>
@@ -33086,7 +33101,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ154">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33211,7 +33226,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33289,7 +33304,7 @@
         <v>2.11</v>
       </c>
       <c r="AP155">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ155">
         <v>2.07</v>
@@ -33417,7 +33432,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33704,7 +33719,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ157">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR157">
         <v>2.26</v>
@@ -33829,7 +33844,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -33910,7 +33925,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ158">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR158">
         <v>1.29</v>
@@ -34035,7 +34050,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34447,7 +34462,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34528,7 +34543,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -35065,7 +35080,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35477,7 +35492,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35555,7 +35570,7 @@
         <v>2.11</v>
       </c>
       <c r="AP166">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ166">
         <v>1.86</v>
@@ -35764,7 +35779,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ167">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -36095,7 +36110,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36585,7 +36600,7 @@
         <v>0.44</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>0.46</v>
@@ -36791,7 +36806,7 @@
         <v>0.44</v>
       </c>
       <c r="AP172">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ172">
         <v>0.5</v>
@@ -36919,7 +36934,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37000,7 +37015,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ173">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR173">
         <v>1.16</v>
@@ -37537,7 +37552,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37824,7 +37839,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ177">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR177">
         <v>2.27</v>
@@ -38233,7 +38248,7 @@
         <v>1.8</v>
       </c>
       <c r="AP179">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ179">
         <v>1.5</v>
@@ -38442,7 +38457,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ180">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR180">
         <v>1.16</v>
@@ -38773,7 +38788,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -38851,7 +38866,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -39185,7 +39200,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39469,7 +39484,7 @@
         <v>1.4</v>
       </c>
       <c r="AP185">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
         <v>1.43</v>
@@ -39803,7 +39818,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40009,7 +40024,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40296,7 +40311,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -40499,7 +40514,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ190">
         <v>0.57</v>
@@ -40708,7 +40723,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ191">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR191">
         <v>1.19</v>
@@ -40833,7 +40848,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41326,7 +41341,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ194">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR194">
         <v>1.12</v>
@@ -41532,7 +41547,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ195">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR195">
         <v>2.17</v>
@@ -41657,7 +41672,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41738,7 +41753,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ196">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR196">
         <v>1.28</v>
@@ -41941,7 +41956,7 @@
         <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ197">
         <v>0.79</v>
@@ -42069,7 +42084,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42275,7 +42290,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42559,7 +42574,7 @@
         <v>1.64</v>
       </c>
       <c r="AP200">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ200">
         <v>1.5</v>
@@ -42893,7 +42908,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43099,7 +43114,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43717,7 +43732,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43795,7 +43810,7 @@
         <v>2.2</v>
       </c>
       <c r="AP206">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
         <v>2.23</v>
@@ -43923,7 +43938,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44129,7 +44144,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44210,7 +44225,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ208">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR208">
         <v>1.16</v>
@@ -44541,7 +44556,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44825,7 +44840,7 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ211">
         <v>0.6899999999999999</v>
@@ -45034,7 +45049,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ212">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR212">
         <v>1.11</v>
@@ -45240,7 +45255,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ213">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45365,7 +45380,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45855,10 +45870,10 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ216">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR216">
         <v>1.39</v>
@@ -45983,7 +45998,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46679,7 +46694,7 @@
         <v>2.08</v>
       </c>
       <c r="AP220">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ220">
         <v>2.07</v>
@@ -47219,7 +47234,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47425,7 +47440,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48121,7 +48136,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ227">
         <v>0.6899999999999999</v>
@@ -48249,7 +48264,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48327,7 +48342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ228">
         <v>0.57</v>
@@ -48533,10 +48548,10 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ229">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR229">
         <v>1.86</v>
@@ -48742,7 +48757,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ230">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR230">
         <v>1.86</v>
@@ -48948,7 +48963,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ231">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR231">
         <v>1.15</v>
@@ -49073,7 +49088,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49485,7 +49500,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49566,7 +49581,7 @@
         <v>3</v>
       </c>
       <c r="AQ234">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR234">
         <v>1.49</v>
@@ -49691,7 +49706,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50103,7 +50118,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -51133,7 +51148,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51339,7 +51354,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51495,6 +51510,830 @@
         <v>0</v>
       </c>
       <c r="BP243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7025193</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45387.67708333334</v>
+      </c>
+      <c r="F244">
+        <v>28</v>
+      </c>
+      <c r="G244" t="s">
+        <v>72</v>
+      </c>
+      <c r="H244" t="s">
+        <v>78</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>246</v>
+      </c>
+      <c r="P244" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <v>0</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>2.4</v>
+      </c>
+      <c r="AA244">
+        <v>3.2</v>
+      </c>
+      <c r="AB244">
+        <v>3.1</v>
+      </c>
+      <c r="AC244">
+        <v>0</v>
+      </c>
+      <c r="AD244">
+        <v>0</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
+      </c>
+      <c r="AF244">
+        <v>0</v>
+      </c>
+      <c r="AG244">
+        <v>2.02</v>
+      </c>
+      <c r="AH244">
+        <v>1.71</v>
+      </c>
+      <c r="AI244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <v>0</v>
+      </c>
+      <c r="AL244">
+        <v>0</v>
+      </c>
+      <c r="AM244">
+        <v>0</v>
+      </c>
+      <c r="AN244">
+        <v>1.23</v>
+      </c>
+      <c r="AO244">
+        <v>0.92</v>
+      </c>
+      <c r="AP244">
+        <v>1.36</v>
+      </c>
+      <c r="AQ244">
+        <v>0.86</v>
+      </c>
+      <c r="AR244">
+        <v>1.25</v>
+      </c>
+      <c r="AS244">
+        <v>0.91</v>
+      </c>
+      <c r="AT244">
+        <v>2.16</v>
+      </c>
+      <c r="AU244">
+        <v>8</v>
+      </c>
+      <c r="AV244">
+        <v>9</v>
+      </c>
+      <c r="AW244">
+        <v>3</v>
+      </c>
+      <c r="AX244">
+        <v>8</v>
+      </c>
+      <c r="AY244">
+        <v>11</v>
+      </c>
+      <c r="AZ244">
+        <v>17</v>
+      </c>
+      <c r="BA244">
+        <v>5</v>
+      </c>
+      <c r="BB244">
+        <v>12</v>
+      </c>
+      <c r="BC244">
+        <v>17</v>
+      </c>
+      <c r="BD244">
+        <v>0</v>
+      </c>
+      <c r="BE244">
+        <v>0</v>
+      </c>
+      <c r="BF244">
+        <v>0</v>
+      </c>
+      <c r="BG244">
+        <v>0</v>
+      </c>
+      <c r="BH244">
+        <v>0</v>
+      </c>
+      <c r="BI244">
+        <v>0</v>
+      </c>
+      <c r="BJ244">
+        <v>0</v>
+      </c>
+      <c r="BK244">
+        <v>0</v>
+      </c>
+      <c r="BL244">
+        <v>0</v>
+      </c>
+      <c r="BM244">
+        <v>0</v>
+      </c>
+      <c r="BN244">
+        <v>0</v>
+      </c>
+      <c r="BO244">
+        <v>0</v>
+      </c>
+      <c r="BP244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7025186</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45388.47916666666</v>
+      </c>
+      <c r="F245">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>87</v>
+      </c>
+      <c r="H245" t="s">
+        <v>86</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+      <c r="L245">
+        <v>3</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+      <c r="N245">
+        <v>5</v>
+      </c>
+      <c r="O245" t="s">
+        <v>247</v>
+      </c>
+      <c r="P245" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
+      <c r="V245">
+        <v>0</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>1.83</v>
+      </c>
+      <c r="AA245">
+        <v>3.45</v>
+      </c>
+      <c r="AB245">
+        <v>4</v>
+      </c>
+      <c r="AC245">
+        <v>0</v>
+      </c>
+      <c r="AD245">
+        <v>0</v>
+      </c>
+      <c r="AE245">
+        <v>0</v>
+      </c>
+      <c r="AF245">
+        <v>0</v>
+      </c>
+      <c r="AG245">
+        <v>2</v>
+      </c>
+      <c r="AH245">
+        <v>1.73</v>
+      </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <v>0</v>
+      </c>
+      <c r="AL245">
+        <v>0</v>
+      </c>
+      <c r="AM245">
+        <v>0</v>
+      </c>
+      <c r="AN245">
+        <v>1.42</v>
+      </c>
+      <c r="AO245">
+        <v>0.85</v>
+      </c>
+      <c r="AP245">
+        <v>1.54</v>
+      </c>
+      <c r="AQ245">
+        <v>0.79</v>
+      </c>
+      <c r="AR245">
+        <v>1.34</v>
+      </c>
+      <c r="AS245">
+        <v>1.1</v>
+      </c>
+      <c r="AT245">
+        <v>2.44</v>
+      </c>
+      <c r="AU245">
+        <v>6</v>
+      </c>
+      <c r="AV245">
+        <v>3</v>
+      </c>
+      <c r="AW245">
+        <v>6</v>
+      </c>
+      <c r="AX245">
+        <v>1</v>
+      </c>
+      <c r="AY245">
+        <v>12</v>
+      </c>
+      <c r="AZ245">
+        <v>4</v>
+      </c>
+      <c r="BA245">
+        <v>1</v>
+      </c>
+      <c r="BB245">
+        <v>5</v>
+      </c>
+      <c r="BC245">
+        <v>6</v>
+      </c>
+      <c r="BD245">
+        <v>0</v>
+      </c>
+      <c r="BE245">
+        <v>0</v>
+      </c>
+      <c r="BF245">
+        <v>0</v>
+      </c>
+      <c r="BG245">
+        <v>0</v>
+      </c>
+      <c r="BH245">
+        <v>0</v>
+      </c>
+      <c r="BI245">
+        <v>0</v>
+      </c>
+      <c r="BJ245">
+        <v>0</v>
+      </c>
+      <c r="BK245">
+        <v>0</v>
+      </c>
+      <c r="BL245">
+        <v>0</v>
+      </c>
+      <c r="BM245">
+        <v>0</v>
+      </c>
+      <c r="BN245">
+        <v>0</v>
+      </c>
+      <c r="BO245">
+        <v>0</v>
+      </c>
+      <c r="BP245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7025189</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45388.47916666666</v>
+      </c>
+      <c r="F246">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
+        <v>74</v>
+      </c>
+      <c r="H246" t="s">
+        <v>71</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>248</v>
+      </c>
+      <c r="P246" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <v>0</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>2.31</v>
+      </c>
+      <c r="AA246">
+        <v>3.05</v>
+      </c>
+      <c r="AB246">
+        <v>3.1</v>
+      </c>
+      <c r="AC246">
+        <v>0</v>
+      </c>
+      <c r="AD246">
+        <v>0</v>
+      </c>
+      <c r="AE246">
+        <v>0</v>
+      </c>
+      <c r="AF246">
+        <v>0</v>
+      </c>
+      <c r="AG246">
+        <v>2.25</v>
+      </c>
+      <c r="AH246">
+        <v>1.57</v>
+      </c>
+      <c r="AI246">
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <v>0</v>
+      </c>
+      <c r="AK246">
+        <v>0</v>
+      </c>
+      <c r="AL246">
+        <v>0</v>
+      </c>
+      <c r="AM246">
+        <v>0</v>
+      </c>
+      <c r="AN246">
+        <v>1.38</v>
+      </c>
+      <c r="AO246">
+        <v>0.54</v>
+      </c>
+      <c r="AP246">
+        <v>1.5</v>
+      </c>
+      <c r="AQ246">
+        <v>0.5</v>
+      </c>
+      <c r="AR246">
+        <v>1.1</v>
+      </c>
+      <c r="AS246">
+        <v>1.14</v>
+      </c>
+      <c r="AT246">
+        <v>2.24</v>
+      </c>
+      <c r="AU246">
+        <v>5</v>
+      </c>
+      <c r="AV246">
+        <v>3</v>
+      </c>
+      <c r="AW246">
+        <v>3</v>
+      </c>
+      <c r="AX246">
+        <v>0</v>
+      </c>
+      <c r="AY246">
+        <v>8</v>
+      </c>
+      <c r="AZ246">
+        <v>3</v>
+      </c>
+      <c r="BA246">
+        <v>1</v>
+      </c>
+      <c r="BB246">
+        <v>7</v>
+      </c>
+      <c r="BC246">
+        <v>8</v>
+      </c>
+      <c r="BD246">
+        <v>0</v>
+      </c>
+      <c r="BE246">
+        <v>0</v>
+      </c>
+      <c r="BF246">
+        <v>0</v>
+      </c>
+      <c r="BG246">
+        <v>0</v>
+      </c>
+      <c r="BH246">
+        <v>0</v>
+      </c>
+      <c r="BI246">
+        <v>0</v>
+      </c>
+      <c r="BJ246">
+        <v>0</v>
+      </c>
+      <c r="BK246">
+        <v>0</v>
+      </c>
+      <c r="BL246">
+        <v>0</v>
+      </c>
+      <c r="BM246">
+        <v>0</v>
+      </c>
+      <c r="BN246">
+        <v>0</v>
+      </c>
+      <c r="BO246">
+        <v>0</v>
+      </c>
+      <c r="BP246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7025192</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45388.58333333334</v>
+      </c>
+      <c r="F247">
+        <v>28</v>
+      </c>
+      <c r="G247" t="s">
+        <v>70</v>
+      </c>
+      <c r="H247" t="s">
+        <v>76</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>2</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>3</v>
+      </c>
+      <c r="N247">
+        <v>3</v>
+      </c>
+      <c r="O247" t="s">
+        <v>90</v>
+      </c>
+      <c r="P247" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>0</v>
+      </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>1.5</v>
+      </c>
+      <c r="AA247">
+        <v>4.45</v>
+      </c>
+      <c r="AB247">
+        <v>5.3</v>
+      </c>
+      <c r="AC247">
+        <v>0</v>
+      </c>
+      <c r="AD247">
+        <v>0</v>
+      </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
+      <c r="AG247">
+        <v>1.59</v>
+      </c>
+      <c r="AH247">
+        <v>2.16</v>
+      </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <v>0</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
+      <c r="AN247">
+        <v>2.08</v>
+      </c>
+      <c r="AO247">
+        <v>1.31</v>
+      </c>
+      <c r="AP247">
+        <v>1.93</v>
+      </c>
+      <c r="AQ247">
+        <v>1.43</v>
+      </c>
+      <c r="AR247">
+        <v>1.82</v>
+      </c>
+      <c r="AS247">
+        <v>1.07</v>
+      </c>
+      <c r="AT247">
+        <v>2.89</v>
+      </c>
+      <c r="AU247">
+        <v>11</v>
+      </c>
+      <c r="AV247">
+        <v>5</v>
+      </c>
+      <c r="AW247">
+        <v>4</v>
+      </c>
+      <c r="AX247">
+        <v>4</v>
+      </c>
+      <c r="AY247">
+        <v>15</v>
+      </c>
+      <c r="AZ247">
+        <v>9</v>
+      </c>
+      <c r="BA247">
+        <v>10</v>
+      </c>
+      <c r="BB247">
+        <v>9</v>
+      </c>
+      <c r="BC247">
+        <v>19</v>
+      </c>
+      <c r="BD247">
+        <v>0</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
+        <v>0</v>
+      </c>
+      <c r="BG247">
+        <v>0</v>
+      </c>
+      <c r="BH247">
+        <v>0</v>
+      </c>
+      <c r="BI247">
+        <v>0</v>
+      </c>
+      <c r="BJ247">
+        <v>0</v>
+      </c>
+      <c r="BK247">
+        <v>0</v>
+      </c>
+      <c r="BL247">
+        <v>0</v>
+      </c>
+      <c r="BM247">
+        <v>0</v>
+      </c>
+      <c r="BN247">
+        <v>0</v>
+      </c>
+      <c r="BO247">
+        <v>0</v>
+      </c>
+      <c r="BP247">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,15 @@
     <t>['30', '43', '63']</t>
   </si>
   <si>
+    <t>['1', '90+1']</t>
+  </si>
+  <si>
+    <t>['25', '76']</t>
+  </si>
+  <si>
+    <t>['26', '43']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1088,6 +1097,18 @@
   </si>
   <si>
     <t>['29', '34', '89']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['72', '83', '90+1']</t>
+  </si>
+  <si>
+    <t>['54', '83']</t>
+  </si>
+  <si>
+    <t>['12', '33']</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1729,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1995,7 +2016,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2120,7 +2141,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2326,7 +2347,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2738,7 +2759,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2819,7 +2840,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ7">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2944,7 +2965,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3150,7 +3171,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3228,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
         <v>1.86</v>
@@ -3356,7 +3377,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3437,7 +3458,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ10">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3562,7 +3583,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3974,7 +3995,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4052,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ13">
         <v>2.07</v>
@@ -4180,7 +4201,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4467,7 +4488,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ15">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4798,7 +4819,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4876,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17">
         <v>0.79</v>
@@ -5004,7 +5025,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5416,7 +5437,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5622,7 +5643,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5703,7 +5724,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR21">
         <v>0.73</v>
@@ -6034,7 +6055,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6115,7 +6136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR23">
         <v>0.57</v>
@@ -6240,7 +6261,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6858,7 +6879,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7557,7 +7578,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7969,7 +7990,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ32">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR32">
         <v>2.86</v>
@@ -8094,7 +8115,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8300,7 +8321,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8378,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8584,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
         <v>1.43</v>
@@ -8712,7 +8733,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8918,7 +8939,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8996,7 +9017,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>2.07</v>
@@ -9124,7 +9145,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9742,7 +9763,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9823,7 +9844,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -10154,7 +10175,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10360,7 +10381,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10441,7 +10462,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ44">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR44">
         <v>1.13</v>
@@ -11262,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48">
         <v>0.79</v>
@@ -11390,7 +11411,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11677,7 +11698,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ50">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11802,7 +11823,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11880,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -12008,7 +12029,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12086,10 +12107,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -12214,7 +12235,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12295,7 +12316,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ53">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12420,7 +12441,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12832,7 +12853,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13244,7 +13265,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13325,7 +13346,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR58">
         <v>1.52</v>
@@ -13450,7 +13471,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13656,7 +13677,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13862,7 +13883,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14068,7 +14089,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14274,7 +14295,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14686,7 +14707,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14764,7 +14785,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14892,7 +14913,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -14970,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15304,7 +15325,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15591,7 +15612,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ69">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR69">
         <v>1.28</v>
@@ -15716,7 +15737,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15797,7 +15818,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ70">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -16003,7 +16024,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ71">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16206,10 +16227,10 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ72">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16540,7 +16561,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17364,7 +17385,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17570,7 +17591,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17982,7 +18003,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18188,7 +18209,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18394,7 +18415,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18472,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83">
         <v>0.46</v>
@@ -18600,7 +18621,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18678,10 +18699,10 @@
         <v>2.4</v>
       </c>
       <c r="AP84">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR84">
         <v>1.39</v>
@@ -18806,7 +18827,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19093,7 +19114,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ86">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR86">
         <v>1.83</v>
@@ -19296,10 +19317,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR87">
         <v>1.19</v>
@@ -19836,7 +19857,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -19917,7 +19938,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -21072,7 +21093,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21484,7 +21505,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21690,7 +21711,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -22180,7 +22201,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ101">
         <v>0.79</v>
@@ -22308,7 +22329,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22389,7 +22410,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ102">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22595,7 +22616,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -22720,7 +22741,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23007,7 +23028,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ105">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23132,7 +23153,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23416,10 +23437,10 @@
         <v>2.5</v>
       </c>
       <c r="AP107">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR107">
         <v>1.15</v>
@@ -23544,7 +23565,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23956,7 +23977,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24574,7 +24595,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24780,7 +24801,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -24858,7 +24879,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ114">
         <v>1.43</v>
@@ -25192,7 +25213,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25604,7 +25625,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25891,7 +25912,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ119">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR119">
         <v>1.26</v>
@@ -26428,7 +26449,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26509,7 +26530,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ122">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR122">
         <v>1.01</v>
@@ -26634,7 +26655,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26712,10 +26733,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ123">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR123">
         <v>1.11</v>
@@ -26840,7 +26861,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -26918,7 +26939,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ124">
         <v>1.43</v>
@@ -27046,7 +27067,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27252,7 +27273,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27333,7 +27354,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ126">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -28076,7 +28097,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28566,7 +28587,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ132">
         <v>0.5</v>
@@ -29106,7 +29127,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29312,7 +29333,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30342,7 +30363,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30423,7 +30444,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ141">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR141">
         <v>1.37</v>
@@ -30548,7 +30569,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30629,7 +30650,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ142">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR142">
         <v>1.87</v>
@@ -30835,7 +30856,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR143">
         <v>1.17</v>
@@ -30960,7 +30981,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31166,7 +31187,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31244,7 +31265,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ145">
         <v>1.43</v>
@@ -31578,7 +31599,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31784,7 +31805,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31862,7 +31883,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ148">
         <v>2.23</v>
@@ -31990,7 +32011,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32277,7 +32298,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR150">
         <v>1.14</v>
@@ -32608,7 +32629,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32892,7 +32913,7 @@
         <v>2.38</v>
       </c>
       <c r="AP153">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ153">
         <v>2.07</v>
@@ -33226,7 +33247,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33432,7 +33453,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33844,7 +33865,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34050,7 +34071,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34334,7 +34355,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -34462,7 +34483,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34746,7 +34767,7 @@
         <v>0.38</v>
       </c>
       <c r="AP162">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ162">
         <v>0.57</v>
@@ -34955,7 +34976,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ163">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35080,7 +35101,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35161,7 +35182,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ164">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR164">
         <v>0.98</v>
@@ -35364,7 +35385,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35492,7 +35513,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35985,7 +36006,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ168">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR168">
         <v>1.11</v>
@@ -36110,7 +36131,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36191,7 +36212,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ169">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR169">
         <v>0.99</v>
@@ -36934,7 +36955,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37218,7 +37239,7 @@
         <v>0.44</v>
       </c>
       <c r="AP174">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ174">
         <v>0.57</v>
@@ -37424,7 +37445,7 @@
         <v>1.11</v>
       </c>
       <c r="AP175">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ175">
         <v>0.79</v>
@@ -37552,7 +37573,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37633,7 +37654,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ176">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR176">
         <v>1.46</v>
@@ -38045,7 +38066,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ178">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR178">
         <v>1.28</v>
@@ -38663,7 +38684,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ181">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR181">
         <v>1.01</v>
@@ -38788,7 +38809,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39072,7 +39093,7 @@
         <v>0.5</v>
       </c>
       <c r="AP183">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ183">
         <v>0.5</v>
@@ -39200,7 +39221,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39818,7 +39839,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39899,7 +39920,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ187">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR187">
         <v>1.36</v>
@@ -40024,7 +40045,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40720,7 +40741,7 @@
         <v>1.1</v>
       </c>
       <c r="AP191">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ191">
         <v>0.86</v>
@@ -40848,7 +40869,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -40929,7 +40950,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ192">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR192">
         <v>1.15</v>
@@ -41132,10 +41153,10 @@
         <v>0.8</v>
       </c>
       <c r="AP193">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ193">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR193">
         <v>1.92</v>
@@ -41672,7 +41693,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42084,7 +42105,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42162,7 +42183,7 @@
         <v>2.11</v>
       </c>
       <c r="AP198">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ198">
         <v>2.23</v>
@@ -42290,7 +42311,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42908,7 +42929,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43114,7 +43135,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43401,7 +43422,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ204">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR204">
         <v>2.06</v>
@@ -43732,7 +43753,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43938,7 +43959,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44144,7 +44165,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44222,7 +44243,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ208">
         <v>1.43</v>
@@ -44428,7 +44449,7 @@
         <v>0.45</v>
       </c>
       <c r="AP209">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ209">
         <v>0.57</v>
@@ -44556,7 +44577,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44637,7 +44658,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ210">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR210">
         <v>1.26</v>
@@ -44843,7 +44864,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ211">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR211">
         <v>1.86</v>
@@ -45380,7 +45401,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45664,10 +45685,10 @@
         <v>2.36</v>
       </c>
       <c r="AP215">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ215">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45998,7 +46019,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -47234,7 +47255,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47440,7 +47461,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47933,7 +47954,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ226">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR226">
         <v>1.26</v>
@@ -48139,7 +48160,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ227">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR227">
         <v>1.35</v>
@@ -48264,7 +48285,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48754,7 +48775,7 @@
         <v>0.92</v>
       </c>
       <c r="AP230">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ230">
         <v>0.79</v>
@@ -48960,7 +48981,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ231">
         <v>1.43</v>
@@ -49088,7 +49109,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49166,10 +49187,10 @@
         <v>1.58</v>
       </c>
       <c r="AP232">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ232">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR232">
         <v>1.18</v>
@@ -49375,7 +49396,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ233">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR233">
         <v>1.12</v>
@@ -49500,7 +49521,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49706,7 +49727,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50118,7 +50139,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -51148,7 +51169,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51354,7 +51375,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51766,7 +51787,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -51865,16 +51886,16 @@
         <v>3</v>
       </c>
       <c r="AW245">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY245">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA245">
         <v>1</v>
@@ -52065,10 +52086,10 @@
         <v>2.24</v>
       </c>
       <c r="AU246">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW246">
         <v>3</v>
@@ -52077,19 +52098,19 @@
         <v>0</v>
       </c>
       <c r="AY246">
+        <v>9</v>
+      </c>
+      <c r="AZ246">
+        <v>4</v>
+      </c>
+      <c r="BA246">
+        <v>1</v>
+      </c>
+      <c r="BB246">
         <v>8</v>
       </c>
-      <c r="AZ246">
-        <v>3</v>
-      </c>
-      <c r="BA246">
-        <v>1</v>
-      </c>
-      <c r="BB246">
-        <v>7</v>
-      </c>
       <c r="BC246">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD246">
         <v>0</v>
@@ -52178,7 +52199,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52334,6 +52355,830 @@
         <v>0</v>
       </c>
       <c r="BP247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7025190</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45388.6875</v>
+      </c>
+      <c r="F248">
+        <v>28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>73</v>
+      </c>
+      <c r="H248" t="s">
+        <v>83</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>249</v>
+      </c>
+      <c r="P248" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>1.98</v>
+      </c>
+      <c r="AA248">
+        <v>3.8</v>
+      </c>
+      <c r="AB248">
+        <v>3.2</v>
+      </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+      <c r="AD248">
+        <v>0</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>1.61</v>
+      </c>
+      <c r="AH248">
+        <v>2.23</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AN248">
+        <v>3</v>
+      </c>
+      <c r="AO248">
+        <v>2.23</v>
+      </c>
+      <c r="AP248">
+        <v>3</v>
+      </c>
+      <c r="AQ248">
+        <v>2.07</v>
+      </c>
+      <c r="AR248">
+        <v>1.53</v>
+      </c>
+      <c r="AS248">
+        <v>1.39</v>
+      </c>
+      <c r="AT248">
+        <v>2.92</v>
+      </c>
+      <c r="AU248">
+        <v>6</v>
+      </c>
+      <c r="AV248">
+        <v>5</v>
+      </c>
+      <c r="AW248">
+        <v>6</v>
+      </c>
+      <c r="AX248">
+        <v>6</v>
+      </c>
+      <c r="AY248">
+        <v>12</v>
+      </c>
+      <c r="AZ248">
+        <v>11</v>
+      </c>
+      <c r="BA248">
+        <v>7</v>
+      </c>
+      <c r="BB248">
+        <v>13</v>
+      </c>
+      <c r="BC248">
+        <v>20</v>
+      </c>
+      <c r="BD248">
+        <v>0</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>0</v>
+      </c>
+      <c r="BG248">
+        <v>0</v>
+      </c>
+      <c r="BH248">
+        <v>0</v>
+      </c>
+      <c r="BI248">
+        <v>0</v>
+      </c>
+      <c r="BJ248">
+        <v>0</v>
+      </c>
+      <c r="BK248">
+        <v>0</v>
+      </c>
+      <c r="BL248">
+        <v>0</v>
+      </c>
+      <c r="BM248">
+        <v>0</v>
+      </c>
+      <c r="BN248">
+        <v>0</v>
+      </c>
+      <c r="BO248">
+        <v>0</v>
+      </c>
+      <c r="BP248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7025185</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F249">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
+        <v>81</v>
+      </c>
+      <c r="H249" t="s">
+        <v>82</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>3</v>
+      </c>
+      <c r="N249">
+        <v>5</v>
+      </c>
+      <c r="O249" t="s">
+        <v>250</v>
+      </c>
+      <c r="P249" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>2.17</v>
+      </c>
+      <c r="AA249">
+        <v>3.1</v>
+      </c>
+      <c r="AB249">
+        <v>3.1</v>
+      </c>
+      <c r="AC249">
+        <v>0</v>
+      </c>
+      <c r="AD249">
+        <v>0</v>
+      </c>
+      <c r="AE249">
+        <v>0</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>2</v>
+      </c>
+      <c r="AH249">
+        <v>1.73</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <v>0</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AN249">
+        <v>0.92</v>
+      </c>
+      <c r="AO249">
+        <v>0.77</v>
+      </c>
+      <c r="AP249">
+        <v>0.86</v>
+      </c>
+      <c r="AQ249">
+        <v>0.93</v>
+      </c>
+      <c r="AR249">
+        <v>1.15</v>
+      </c>
+      <c r="AS249">
+        <v>1.03</v>
+      </c>
+      <c r="AT249">
+        <v>2.18</v>
+      </c>
+      <c r="AU249">
+        <v>3</v>
+      </c>
+      <c r="AV249">
+        <v>2</v>
+      </c>
+      <c r="AW249">
+        <v>3</v>
+      </c>
+      <c r="AX249">
+        <v>2</v>
+      </c>
+      <c r="AY249">
+        <v>6</v>
+      </c>
+      <c r="AZ249">
+        <v>4</v>
+      </c>
+      <c r="BA249">
+        <v>3</v>
+      </c>
+      <c r="BB249">
+        <v>2</v>
+      </c>
+      <c r="BC249">
+        <v>5</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>0</v>
+      </c>
+      <c r="BG249">
+        <v>0</v>
+      </c>
+      <c r="BH249">
+        <v>0</v>
+      </c>
+      <c r="BI249">
+        <v>0</v>
+      </c>
+      <c r="BJ249">
+        <v>0</v>
+      </c>
+      <c r="BK249">
+        <v>0</v>
+      </c>
+      <c r="BL249">
+        <v>0</v>
+      </c>
+      <c r="BM249">
+        <v>0</v>
+      </c>
+      <c r="BN249">
+        <v>0</v>
+      </c>
+      <c r="BO249">
+        <v>0</v>
+      </c>
+      <c r="BP249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7025188</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45389.58333333334</v>
+      </c>
+      <c r="F250">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
+        <v>77</v>
+      </c>
+      <c r="H250" t="s">
+        <v>75</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>4</v>
+      </c>
+      <c r="O250" t="s">
+        <v>251</v>
+      </c>
+      <c r="P250" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>2</v>
+      </c>
+      <c r="AA250">
+        <v>3</v>
+      </c>
+      <c r="AB250">
+        <v>3.7</v>
+      </c>
+      <c r="AC250">
+        <v>0</v>
+      </c>
+      <c r="AD250">
+        <v>0</v>
+      </c>
+      <c r="AE250">
+        <v>0</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>2.38</v>
+      </c>
+      <c r="AH250">
+        <v>1.51</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
+      <c r="AN250">
+        <v>1.62</v>
+      </c>
+      <c r="AO250">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP250">
+        <v>1.57</v>
+      </c>
+      <c r="AQ250">
+        <v>0.71</v>
+      </c>
+      <c r="AR250">
+        <v>1.13</v>
+      </c>
+      <c r="AS250">
+        <v>1.03</v>
+      </c>
+      <c r="AT250">
+        <v>2.16</v>
+      </c>
+      <c r="AU250">
+        <v>2</v>
+      </c>
+      <c r="AV250">
+        <v>3</v>
+      </c>
+      <c r="AW250">
+        <v>2</v>
+      </c>
+      <c r="AX250">
+        <v>4</v>
+      </c>
+      <c r="AY250">
+        <v>4</v>
+      </c>
+      <c r="AZ250">
+        <v>7</v>
+      </c>
+      <c r="BA250">
+        <v>1</v>
+      </c>
+      <c r="BB250">
+        <v>1</v>
+      </c>
+      <c r="BC250">
+        <v>2</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>0</v>
+      </c>
+      <c r="BG250">
+        <v>0</v>
+      </c>
+      <c r="BH250">
+        <v>0</v>
+      </c>
+      <c r="BI250">
+        <v>0</v>
+      </c>
+      <c r="BJ250">
+        <v>0</v>
+      </c>
+      <c r="BK250">
+        <v>0</v>
+      </c>
+      <c r="BL250">
+        <v>0</v>
+      </c>
+      <c r="BM250">
+        <v>0</v>
+      </c>
+      <c r="BN250">
+        <v>0</v>
+      </c>
+      <c r="BO250">
+        <v>0</v>
+      </c>
+      <c r="BP250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7025191</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45389.6875</v>
+      </c>
+      <c r="F251">
+        <v>28</v>
+      </c>
+      <c r="G251" t="s">
+        <v>85</v>
+      </c>
+      <c r="H251" t="s">
+        <v>80</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>2</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>147</v>
+      </c>
+      <c r="P251" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>1.33</v>
+      </c>
+      <c r="AA251">
+        <v>4.5</v>
+      </c>
+      <c r="AB251">
+        <v>7.8</v>
+      </c>
+      <c r="AC251">
+        <v>0</v>
+      </c>
+      <c r="AD251">
+        <v>0</v>
+      </c>
+      <c r="AE251">
+        <v>0</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>1.68</v>
+      </c>
+      <c r="AH251">
+        <v>2.05</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <v>0</v>
+      </c>
+      <c r="AL251">
+        <v>0</v>
+      </c>
+      <c r="AM251">
+        <v>0</v>
+      </c>
+      <c r="AN251">
+        <v>2.46</v>
+      </c>
+      <c r="AO251">
+        <v>1.69</v>
+      </c>
+      <c r="AP251">
+        <v>2.29</v>
+      </c>
+      <c r="AQ251">
+        <v>1.79</v>
+      </c>
+      <c r="AR251">
+        <v>1.93</v>
+      </c>
+      <c r="AS251">
+        <v>1.3</v>
+      </c>
+      <c r="AT251">
+        <v>3.23</v>
+      </c>
+      <c r="AU251">
+        <v>3</v>
+      </c>
+      <c r="AV251">
+        <v>2</v>
+      </c>
+      <c r="AW251">
+        <v>3</v>
+      </c>
+      <c r="AX251">
+        <v>1</v>
+      </c>
+      <c r="AY251">
+        <v>6</v>
+      </c>
+      <c r="AZ251">
+        <v>3</v>
+      </c>
+      <c r="BA251">
+        <v>4</v>
+      </c>
+      <c r="BB251">
+        <v>1</v>
+      </c>
+      <c r="BC251">
+        <v>5</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>0</v>
+      </c>
+      <c r="BG251">
+        <v>0</v>
+      </c>
+      <c r="BH251">
+        <v>0</v>
+      </c>
+      <c r="BI251">
+        <v>0</v>
+      </c>
+      <c r="BJ251">
+        <v>0</v>
+      </c>
+      <c r="BK251">
+        <v>0</v>
+      </c>
+      <c r="BL251">
+        <v>0</v>
+      </c>
+      <c r="BM251">
+        <v>0</v>
+      </c>
+      <c r="BN251">
+        <v>0</v>
+      </c>
+      <c r="BO251">
+        <v>0</v>
+      </c>
+      <c r="BP251">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1470,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3046,7 +3046,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ11">
         <v>2.23</v>
@@ -5518,7 +5518,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ20">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ29">
         <v>0.57</v>
@@ -10256,7 +10256,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>0.9399999999999999</v>
@@ -11695,7 +11695,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ50">
         <v>1.79</v>
@@ -14170,7 +14170,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ62">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.27</v>
@@ -16021,7 +16021,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ71">
         <v>0.71</v>
@@ -16848,7 +16848,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -18496,7 +18496,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>2.11</v>
@@ -19523,7 +19523,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ88">
         <v>0.79</v>
@@ -23025,7 +23025,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ105">
         <v>0.93</v>
@@ -23234,7 +23234,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ106">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.85</v>
@@ -27148,7 +27148,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ125">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.27</v>
@@ -29205,7 +29205,7 @@
         <v>2.29</v>
       </c>
       <c r="AP135">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ135">
         <v>2.07</v>
@@ -29620,7 +29620,7 @@
         <v>3</v>
       </c>
       <c r="AQ137">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR137">
         <v>1.61</v>
@@ -31677,7 +31677,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -34149,7 +34149,7 @@
         <v>0.88</v>
       </c>
       <c r="AP159">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ159">
         <v>0.79</v>
@@ -36624,7 +36624,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.16</v>
@@ -38475,7 +38475,7 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ180">
         <v>0.86</v>
@@ -39302,7 +39302,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ184">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR184">
         <v>1.07</v>
@@ -41359,7 +41359,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ194">
         <v>1.43</v>
@@ -43216,7 +43216,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ203">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR203">
         <v>1.42</v>
@@ -45067,7 +45067,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ212">
         <v>0.5</v>
@@ -47542,7 +47542,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ224">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR224">
         <v>2.07</v>
@@ -49393,7 +49393,7 @@
         <v>2.17</v>
       </c>
       <c r="AP233">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ233">
         <v>2.07</v>
@@ -52704,31 +52704,31 @@
         <v>2.18</v>
       </c>
       <c r="AU249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV249">
         <v>2</v>
       </c>
       <c r="AW249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX249">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY249">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ249">
+        <v>7</v>
+      </c>
+      <c r="BA249">
         <v>4</v>
       </c>
-      <c r="BA249">
-        <v>3</v>
-      </c>
       <c r="BB249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC249">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD249">
         <v>0</v>
@@ -52910,31 +52910,31 @@
         <v>2.16</v>
       </c>
       <c r="AU250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV250">
         <v>3</v>
       </c>
       <c r="AW250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX250">
         <v>4</v>
       </c>
       <c r="AY250">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ250">
         <v>7</v>
       </c>
       <c r="BA250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB250">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC250">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD250">
         <v>0</v>
@@ -53116,69 +53116,275 @@
         <v>3.23</v>
       </c>
       <c r="AU251">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV251">
         <v>2</v>
       </c>
       <c r="AW251">
+        <v>7</v>
+      </c>
+      <c r="AX251">
+        <v>2</v>
+      </c>
+      <c r="AY251">
+        <v>12</v>
+      </c>
+      <c r="AZ251">
+        <v>4</v>
+      </c>
+      <c r="BA251">
+        <v>6</v>
+      </c>
+      <c r="BB251">
+        <v>1</v>
+      </c>
+      <c r="BC251">
+        <v>7</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>0</v>
+      </c>
+      <c r="BG251">
+        <v>0</v>
+      </c>
+      <c r="BH251">
+        <v>0</v>
+      </c>
+      <c r="BI251">
+        <v>0</v>
+      </c>
+      <c r="BJ251">
+        <v>0</v>
+      </c>
+      <c r="BK251">
+        <v>0</v>
+      </c>
+      <c r="BL251">
+        <v>0</v>
+      </c>
+      <c r="BM251">
+        <v>0</v>
+      </c>
+      <c r="BN251">
+        <v>0</v>
+      </c>
+      <c r="BO251">
+        <v>0</v>
+      </c>
+      <c r="BP251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7025187</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45390.67708333334</v>
+      </c>
+      <c r="F252">
+        <v>28</v>
+      </c>
+      <c r="G252" t="s">
+        <v>79</v>
+      </c>
+      <c r="H252" t="s">
+        <v>84</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252" t="s">
+        <v>90</v>
+      </c>
+      <c r="P252" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>2.21</v>
+      </c>
+      <c r="AA252">
+        <v>3.52</v>
+      </c>
+      <c r="AB252">
+        <v>3.17</v>
+      </c>
+      <c r="AC252">
+        <v>0</v>
+      </c>
+      <c r="AD252">
+        <v>0</v>
+      </c>
+      <c r="AE252">
+        <v>0</v>
+      </c>
+      <c r="AF252">
+        <v>0</v>
+      </c>
+      <c r="AG252">
+        <v>1.86</v>
+      </c>
+      <c r="AH252">
+        <v>1.94</v>
+      </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <v>0</v>
+      </c>
+      <c r="AK252">
+        <v>0</v>
+      </c>
+      <c r="AL252">
+        <v>0</v>
+      </c>
+      <c r="AM252">
+        <v>0</v>
+      </c>
+      <c r="AN252">
+        <v>0.77</v>
+      </c>
+      <c r="AO252">
+        <v>0.46</v>
+      </c>
+      <c r="AP252">
+        <v>0.79</v>
+      </c>
+      <c r="AQ252">
+        <v>0.5</v>
+      </c>
+      <c r="AR252">
+        <v>1.12</v>
+      </c>
+      <c r="AS252">
+        <v>1.23</v>
+      </c>
+      <c r="AT252">
+        <v>2.35</v>
+      </c>
+      <c r="AU252">
+        <v>5</v>
+      </c>
+      <c r="AV252">
         <v>3</v>
       </c>
-      <c r="AX251">
-        <v>1</v>
-      </c>
-      <c r="AY251">
+      <c r="AW252">
+        <v>3</v>
+      </c>
+      <c r="AX252">
+        <v>5</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>8</v>
+      </c>
+      <c r="BA252">
+        <v>2</v>
+      </c>
+      <c r="BB252">
         <v>6</v>
       </c>
-      <c r="AZ251">
-        <v>3</v>
-      </c>
-      <c r="BA251">
-        <v>4</v>
-      </c>
-      <c r="BB251">
-        <v>1</v>
-      </c>
-      <c r="BC251">
-        <v>5</v>
-      </c>
-      <c r="BD251">
-        <v>0</v>
-      </c>
-      <c r="BE251">
-        <v>0</v>
-      </c>
-      <c r="BF251">
-        <v>0</v>
-      </c>
-      <c r="BG251">
-        <v>0</v>
-      </c>
-      <c r="BH251">
-        <v>0</v>
-      </c>
-      <c r="BI251">
-        <v>0</v>
-      </c>
-      <c r="BJ251">
-        <v>0</v>
-      </c>
-      <c r="BK251">
-        <v>0</v>
-      </c>
-      <c r="BL251">
-        <v>0</v>
-      </c>
-      <c r="BM251">
-        <v>0</v>
-      </c>
-      <c r="BN251">
-        <v>0</v>
-      </c>
-      <c r="BO251">
-        <v>0</v>
-      </c>
-      <c r="BP251">
+      <c r="BC252">
+        <v>8</v>
+      </c>
+      <c r="BD252">
+        <v>0</v>
+      </c>
+      <c r="BE252">
+        <v>0</v>
+      </c>
+      <c r="BF252">
+        <v>0</v>
+      </c>
+      <c r="BG252">
+        <v>0</v>
+      </c>
+      <c r="BH252">
+        <v>0</v>
+      </c>
+      <c r="BI252">
+        <v>0</v>
+      </c>
+      <c r="BJ252">
+        <v>0</v>
+      </c>
+      <c r="BK252">
+        <v>0</v>
+      </c>
+      <c r="BL252">
+        <v>0</v>
+      </c>
+      <c r="BM252">
+        <v>0</v>
+      </c>
+      <c r="BN252">
+        <v>0</v>
+      </c>
+      <c r="BO252">
+        <v>0</v>
+      </c>
+      <c r="BP252">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1110,6 +1110,9 @@
   <si>
     <t>['12', '33']</t>
   </si>
+  <si>
+    <t>['7', '11', '31', '38']</t>
+  </si>
 </sst>
 </file>
 
@@ -1470,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP252"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>0.93</v>
@@ -3664,7 +3667,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ11">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -6133,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>2.07</v>
@@ -8814,7 +8817,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ36">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR36">
         <v>0.8</v>
@@ -10253,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -13758,7 +13761,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ60">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14579,7 +14582,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
         <v>1.43</v>
@@ -17463,7 +17466,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>2.07</v>
@@ -18290,7 +18293,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ82">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR82">
         <v>0.88</v>
@@ -21377,7 +21380,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>0.57</v>
@@ -21998,7 +22001,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ100">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR100">
         <v>2.2</v>
@@ -24676,7 +24679,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ113">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -25703,7 +25706,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ118">
         <v>1.5</v>
@@ -28793,7 +28796,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
         <v>0.86</v>
@@ -29414,7 +29417,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ136">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -31886,7 +31889,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ148">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR148">
         <v>1.28</v>
@@ -32295,7 +32298,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150">
         <v>0.71</v>
@@ -33534,7 +33537,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ156">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -36003,7 +36006,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168">
         <v>1.79</v>
@@ -40329,7 +40332,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ189">
         <v>0.79</v>
@@ -42186,7 +42189,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ198">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -43625,7 +43628,7 @@
         <v>2</v>
       </c>
       <c r="AP205">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ205">
         <v>1.86</v>
@@ -43834,7 +43837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -47336,7 +47339,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ223">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR223">
         <v>1.25</v>
@@ -47745,7 +47748,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ225">
         <v>0.5</v>
@@ -49805,7 +49808,7 @@
         <v>0.85</v>
       </c>
       <c r="AP235">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ235">
         <v>1</v>
@@ -50220,7 +50223,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ237">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR237">
         <v>1.06</v>
@@ -53385,6 +53388,212 @@
         <v>0</v>
       </c>
       <c r="BP252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7025195</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45394.67708333334</v>
+      </c>
+      <c r="F253">
+        <v>29</v>
+      </c>
+      <c r="G253" t="s">
+        <v>71</v>
+      </c>
+      <c r="H253" t="s">
+        <v>73</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>4</v>
+      </c>
+      <c r="K253">
+        <v>4</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>4</v>
+      </c>
+      <c r="N253">
+        <v>4</v>
+      </c>
+      <c r="O253" t="s">
+        <v>90</v>
+      </c>
+      <c r="P253" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>9.6</v>
+      </c>
+      <c r="AA253">
+        <v>5.88</v>
+      </c>
+      <c r="AB253">
+        <v>1.29</v>
+      </c>
+      <c r="AC253">
+        <v>0</v>
+      </c>
+      <c r="AD253">
+        <v>0</v>
+      </c>
+      <c r="AE253">
+        <v>0</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>1.56</v>
+      </c>
+      <c r="AH253">
+        <v>2.33</v>
+      </c>
+      <c r="AI253">
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <v>0</v>
+      </c>
+      <c r="AK253">
+        <v>0</v>
+      </c>
+      <c r="AL253">
+        <v>0</v>
+      </c>
+      <c r="AM253">
+        <v>0</v>
+      </c>
+      <c r="AN253">
+        <v>1.5</v>
+      </c>
+      <c r="AO253">
+        <v>2.23</v>
+      </c>
+      <c r="AP253">
+        <v>1.4</v>
+      </c>
+      <c r="AQ253">
+        <v>2.29</v>
+      </c>
+      <c r="AR253">
+        <v>1.15</v>
+      </c>
+      <c r="AS253">
+        <v>1.47</v>
+      </c>
+      <c r="AT253">
+        <v>2.62</v>
+      </c>
+      <c r="AU253">
+        <v>0</v>
+      </c>
+      <c r="AV253">
+        <v>5</v>
+      </c>
+      <c r="AW253">
+        <v>2</v>
+      </c>
+      <c r="AX253">
+        <v>1</v>
+      </c>
+      <c r="AY253">
+        <v>2</v>
+      </c>
+      <c r="AZ253">
+        <v>6</v>
+      </c>
+      <c r="BA253">
+        <v>4</v>
+      </c>
+      <c r="BB253">
+        <v>3</v>
+      </c>
+      <c r="BC253">
+        <v>7</v>
+      </c>
+      <c r="BD253">
+        <v>0</v>
+      </c>
+      <c r="BE253">
+        <v>0</v>
+      </c>
+      <c r="BF253">
+        <v>0</v>
+      </c>
+      <c r="BG253">
+        <v>0</v>
+      </c>
+      <c r="BH253">
+        <v>0</v>
+      </c>
+      <c r="BI253">
+        <v>0</v>
+      </c>
+      <c r="BJ253">
+        <v>0</v>
+      </c>
+      <c r="BK253">
+        <v>0</v>
+      </c>
+      <c r="BL253">
+        <v>0</v>
+      </c>
+      <c r="BM253">
+        <v>0</v>
+      </c>
+      <c r="BN253">
+        <v>0</v>
+      </c>
+      <c r="BO253">
+        <v>0</v>
+      </c>
+      <c r="BP253">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="375">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,21 @@
     <t>['26', '43']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['17', '82']</t>
+  </si>
+  <si>
+    <t>['43', '88']</t>
+  </si>
+  <si>
+    <t>['8', '26']</t>
+  </si>
+  <si>
+    <t>['30', '39']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1112,6 +1127,18 @@
   </si>
   <si>
     <t>['7', '11', '31', '38']</t>
+  </si>
+  <si>
+    <t>['9', '45+1']</t>
+  </si>
+  <si>
+    <t>['12', '90+9']</t>
+  </si>
+  <si>
+    <t>['34', '59']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1759,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2144,7 +2171,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2225,7 +2252,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2350,7 +2377,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2762,7 +2789,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2840,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.79</v>
@@ -2968,7 +2995,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3046,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3174,7 +3201,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3380,7 +3407,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3586,7 +3613,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3870,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3998,7 +4025,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4079,7 +4106,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ13">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4204,7 +4231,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4285,7 +4312,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4694,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4822,7 +4849,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4900,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5028,7 +5055,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5440,7 +5467,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5518,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5646,7 +5673,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5724,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ21">
         <v>0.93</v>
@@ -6058,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6264,7 +6291,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6345,7 +6372,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>0.57</v>
@@ -6548,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25">
         <v>0.79</v>
@@ -6882,7 +6909,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7375,7 +7402,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>1.16</v>
@@ -7787,7 +7814,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ31">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -8118,7 +8145,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8196,10 +8223,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>0.85</v>
@@ -8324,7 +8351,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8608,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>1.43</v>
@@ -8736,7 +8763,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8942,7 +8969,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9023,7 +9050,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
         <v>0.68</v>
@@ -9148,7 +9175,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9226,7 +9253,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>1.86</v>
@@ -9641,7 +9668,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ40">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9766,7 +9793,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10050,10 +10077,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10178,7 +10205,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10384,7 +10411,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10462,7 +10489,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
         <v>0.93</v>
@@ -11289,7 +11316,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ48">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>0.91</v>
@@ -11414,7 +11441,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11492,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
         <v>0.79</v>
@@ -11826,7 +11853,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11904,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -12032,7 +12059,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12238,7 +12265,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12444,7 +12471,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12525,7 +12552,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12731,7 +12758,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
         <v>1.81</v>
@@ -12856,7 +12883,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12934,10 +12961,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13268,7 +13295,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13474,7 +13501,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13680,7 +13707,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13886,7 +13913,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -13964,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14092,7 +14119,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14170,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14298,7 +14325,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14585,7 +14612,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>0.96</v>
@@ -14710,7 +14737,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14791,7 +14818,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14916,7 +14943,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15328,7 +15355,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15409,7 +15436,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ68">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15612,7 +15639,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>2.07</v>
@@ -15740,7 +15767,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16230,7 +16257,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ72">
         <v>0.93</v>
@@ -16564,7 +16591,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16642,7 +16669,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -17057,7 +17084,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>2.21</v>
@@ -17260,7 +17287,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17388,7 +17415,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17469,7 +17496,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR78">
         <v>1.14</v>
@@ -17594,7 +17621,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17675,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17878,7 +17905,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -18006,7 +18033,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18212,7 +18239,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18418,7 +18445,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18496,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -18624,7 +18651,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18830,7 +18857,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19735,7 +19762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.22</v>
@@ -19860,7 +19887,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20350,10 +20377,10 @@
         <v>1.6</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20762,7 +20789,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -21096,7 +21123,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21174,7 +21201,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ96">
         <v>1.86</v>
@@ -21383,7 +21410,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21508,7 +21535,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21589,7 +21616,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ98">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR98">
         <v>0.89</v>
@@ -21714,7 +21741,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -21792,10 +21819,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -22332,7 +22359,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22744,7 +22771,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23156,7 +23183,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23568,7 +23595,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23980,7 +24007,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24061,7 +24088,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR110">
         <v>1.48</v>
@@ -24267,7 +24294,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>2.02</v>
@@ -24598,7 +24625,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24676,7 +24703,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ113">
         <v>2.29</v>
@@ -24804,7 +24831,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -24882,10 +24909,10 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ114">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -25088,10 +25115,10 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR115">
         <v>1.29</v>
@@ -25216,7 +25243,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25294,10 +25321,10 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.42</v>
@@ -25500,7 +25527,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25628,7 +25655,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26324,7 +26351,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ121">
         <v>0.5</v>
@@ -26452,7 +26479,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26658,7 +26685,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26864,7 +26891,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -26945,7 +26972,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ124">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27070,7 +27097,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27276,7 +27303,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27766,10 +27793,10 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ128">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR128">
         <v>1.39</v>
@@ -28100,7 +28127,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28178,7 +28205,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
         <v>1.43</v>
@@ -28590,7 +28617,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ132">
         <v>0.5</v>
@@ -28799,7 +28826,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
         <v>1.14</v>
@@ -29002,10 +29029,10 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29130,7 +29157,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29211,7 +29238,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ135">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR135">
         <v>1.15</v>
@@ -29336,7 +29363,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30238,7 +30265,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ140">
         <v>0.79</v>
@@ -30366,7 +30393,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30444,7 +30471,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ141">
         <v>2.07</v>
@@ -30572,7 +30599,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30984,7 +31011,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31190,7 +31217,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31271,7 +31298,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
         <v>1.11</v>
@@ -31477,7 +31504,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ146">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31602,7 +31629,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31808,7 +31835,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32014,7 +32041,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32092,7 +32119,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -32507,7 +32534,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ151">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR151">
         <v>2.34</v>
@@ -32632,7 +32659,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32713,7 +32740,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ152">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR152">
         <v>1.42</v>
@@ -32916,10 +32943,10 @@
         <v>2.38</v>
       </c>
       <c r="AP153">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ153">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR153">
         <v>2.02</v>
@@ -33122,7 +33149,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ154">
         <v>1.43</v>
@@ -33250,7 +33277,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33331,7 +33358,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ155">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33456,7 +33483,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33743,7 +33770,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ157">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR157">
         <v>2.26</v>
@@ -33868,7 +33895,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -33946,7 +33973,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
         <v>1.43</v>
@@ -34074,7 +34101,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34155,7 +34182,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ159">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
         <v>1.05</v>
@@ -34358,7 +34385,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -34486,7 +34513,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34773,7 +34800,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ162">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -34976,7 +35003,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ163">
         <v>0.71</v>
@@ -35104,7 +35131,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35516,7 +35543,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35800,7 +35827,7 @@
         <v>0.88</v>
       </c>
       <c r="AP167">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ167">
         <v>0.79</v>
@@ -36134,7 +36161,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36212,7 +36239,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169">
         <v>2.07</v>
@@ -36421,7 +36448,7 @@
         <v>3</v>
       </c>
       <c r="AQ170">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR170">
         <v>1.61</v>
@@ -36958,7 +36985,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37242,10 +37269,10 @@
         <v>0.44</v>
       </c>
       <c r="AP174">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ174">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR174">
         <v>1.81</v>
@@ -37451,7 +37478,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ175">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37576,7 +37603,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -38066,7 +38093,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
         <v>0.71</v>
@@ -38481,7 +38508,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ180">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR180">
         <v>1.16</v>
@@ -38684,7 +38711,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ181">
         <v>0.93</v>
@@ -38812,7 +38839,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39224,7 +39251,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39511,7 +39538,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR185">
         <v>1.14</v>
@@ -39717,7 +39744,7 @@
         <v>3</v>
       </c>
       <c r="AQ186">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR186">
         <v>1.59</v>
@@ -39842,7 +39869,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -39920,7 +39947,7 @@
         <v>2.5</v>
       </c>
       <c r="AP187">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ187">
         <v>2.07</v>
@@ -40048,7 +40075,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40126,7 +40153,7 @@
         <v>2.2</v>
       </c>
       <c r="AP188">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ188">
         <v>1.86</v>
@@ -40541,7 +40568,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ190">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR190">
         <v>1.36</v>
@@ -40747,7 +40774,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ191">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR191">
         <v>1.19</v>
@@ -40872,7 +40899,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41156,7 +41183,7 @@
         <v>0.8</v>
       </c>
       <c r="AP193">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ193">
         <v>0.71</v>
@@ -41696,7 +41723,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41774,7 +41801,7 @@
         <v>0.3</v>
       </c>
       <c r="AP196">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
         <v>0.5</v>
@@ -41983,7 +42010,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ197">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR197">
         <v>1.85</v>
@@ -42108,7 +42135,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42314,7 +42341,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42392,7 +42419,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42804,7 +42831,7 @@
         <v>0.45</v>
       </c>
       <c r="AP201">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ201">
         <v>0.5</v>
@@ -42932,7 +42959,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43010,10 +43037,10 @@
         <v>1.27</v>
       </c>
       <c r="AP202">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ202">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43138,7 +43165,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43756,7 +43783,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43962,7 +43989,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44043,7 +44070,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ207">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR207">
         <v>1.03</v>
@@ -44168,7 +44195,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44455,7 +44482,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ209">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR209">
         <v>1.11</v>
@@ -44580,7 +44607,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44658,7 +44685,7 @@
         <v>1.45</v>
       </c>
       <c r="AP210">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
         <v>1.79</v>
@@ -45404,7 +45431,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45485,7 +45512,7 @@
         <v>3</v>
       </c>
       <c r="AQ214">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45688,7 +45715,7 @@
         <v>2.36</v>
       </c>
       <c r="AP215">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ215">
         <v>2.07</v>
@@ -45897,7 +45924,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ216">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR216">
         <v>1.39</v>
@@ -46022,7 +46049,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46306,10 +46333,10 @@
         <v>1.42</v>
       </c>
       <c r="AP218">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ218">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR218">
         <v>1.05</v>
@@ -46515,7 +46542,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ219">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -46721,7 +46748,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR220">
         <v>1.1</v>
@@ -47130,7 +47157,7 @@
         <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ222">
         <v>1</v>
@@ -47258,7 +47285,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47336,7 +47363,7 @@
         <v>2.09</v>
       </c>
       <c r="AP223">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ223">
         <v>2.29</v>
@@ -47464,7 +47491,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47954,7 +47981,7 @@
         <v>0.83</v>
       </c>
       <c r="AP226">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ226">
         <v>0.93</v>
@@ -48288,7 +48315,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48369,7 +48396,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ228">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR228">
         <v>1.25</v>
@@ -48778,7 +48805,7 @@
         <v>0.92</v>
       </c>
       <c r="AP230">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ230">
         <v>0.79</v>
@@ -49112,7 +49139,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49524,7 +49551,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49605,7 +49632,7 @@
         <v>3</v>
       </c>
       <c r="AQ234">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR234">
         <v>1.49</v>
@@ -49730,7 +49757,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50142,7 +50169,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50220,7 +50247,7 @@
         <v>2.17</v>
       </c>
       <c r="AP237">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ237">
         <v>2.29</v>
@@ -50426,7 +50453,7 @@
         <v>1.62</v>
       </c>
       <c r="AP238">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ238">
         <v>1.5</v>
@@ -50632,10 +50659,10 @@
         <v>0.85</v>
       </c>
       <c r="AP239">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -50841,7 +50868,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ240">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR240">
         <v>1.02</v>
@@ -51044,7 +51071,7 @@
         <v>2</v>
       </c>
       <c r="AP241">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241">
         <v>1.86</v>
@@ -51172,7 +51199,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51253,7 +51280,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ242">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR242">
         <v>1.39</v>
@@ -51378,7 +51405,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51459,7 +51486,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ243">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR243">
         <v>1.14</v>
@@ -51665,7 +51692,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ244">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR244">
         <v>1.25</v>
@@ -51790,7 +51817,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52202,7 +52229,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52408,7 +52435,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52614,7 +52641,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52820,7 +52847,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53026,7 +53053,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53104,7 +53131,7 @@
         <v>1.69</v>
       </c>
       <c r="AP251">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AQ251">
         <v>1.79</v>
@@ -53438,7 +53465,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53531,69 +53558,1305 @@
         <v>2.62</v>
       </c>
       <c r="AU253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV253">
         <v>5</v>
       </c>
       <c r="AW253">
+        <v>3</v>
+      </c>
+      <c r="AX253">
+        <v>3</v>
+      </c>
+      <c r="AY253">
+        <v>5</v>
+      </c>
+      <c r="AZ253">
+        <v>8</v>
+      </c>
+      <c r="BA253">
+        <v>6</v>
+      </c>
+      <c r="BB253">
+        <v>4</v>
+      </c>
+      <c r="BC253">
+        <v>10</v>
+      </c>
+      <c r="BD253">
+        <v>0</v>
+      </c>
+      <c r="BE253">
+        <v>0</v>
+      </c>
+      <c r="BF253">
+        <v>0</v>
+      </c>
+      <c r="BG253">
+        <v>0</v>
+      </c>
+      <c r="BH253">
+        <v>0</v>
+      </c>
+      <c r="BI253">
+        <v>0</v>
+      </c>
+      <c r="BJ253">
+        <v>0</v>
+      </c>
+      <c r="BK253">
+        <v>0</v>
+      </c>
+      <c r="BL253">
+        <v>0</v>
+      </c>
+      <c r="BM253">
+        <v>0</v>
+      </c>
+      <c r="BN253">
+        <v>0</v>
+      </c>
+      <c r="BO253">
+        <v>0</v>
+      </c>
+      <c r="BP253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7025198</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45395.47916666666</v>
+      </c>
+      <c r="F254">
+        <v>29</v>
+      </c>
+      <c r="G254" t="s">
+        <v>80</v>
+      </c>
+      <c r="H254" t="s">
+        <v>72</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
         <v>2</v>
       </c>
-      <c r="AX253">
-        <v>1</v>
-      </c>
-      <c r="AY253">
+      <c r="O254" t="s">
+        <v>252</v>
+      </c>
+      <c r="P254" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>1.54</v>
+      </c>
+      <c r="AA254">
+        <v>4.1</v>
+      </c>
+      <c r="AB254">
+        <v>5.75</v>
+      </c>
+      <c r="AC254">
+        <v>0</v>
+      </c>
+      <c r="AD254">
+        <v>0</v>
+      </c>
+      <c r="AE254">
+        <v>0</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>1.82</v>
+      </c>
+      <c r="AH254">
+        <v>1.92</v>
+      </c>
+      <c r="AI254">
+        <v>0</v>
+      </c>
+      <c r="AJ254">
+        <v>0</v>
+      </c>
+      <c r="AK254">
+        <v>0</v>
+      </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
+      <c r="AM254">
+        <v>0</v>
+      </c>
+      <c r="AN254">
+        <v>2.21</v>
+      </c>
+      <c r="AO254">
+        <v>0.79</v>
+      </c>
+      <c r="AP254">
+        <v>2.13</v>
+      </c>
+      <c r="AQ254">
+        <v>0.8</v>
+      </c>
+      <c r="AR254">
+        <v>1.43</v>
+      </c>
+      <c r="AS254">
+        <v>1.02</v>
+      </c>
+      <c r="AT254">
+        <v>2.45</v>
+      </c>
+      <c r="AU254">
+        <v>4</v>
+      </c>
+      <c r="AV254">
+        <v>6</v>
+      </c>
+      <c r="AW254">
+        <v>12</v>
+      </c>
+      <c r="AX254">
         <v>2</v>
       </c>
-      <c r="AZ253">
+      <c r="AY254">
+        <v>16</v>
+      </c>
+      <c r="AZ254">
+        <v>8</v>
+      </c>
+      <c r="BA254">
+        <v>8</v>
+      </c>
+      <c r="BB254">
+        <v>1</v>
+      </c>
+      <c r="BC254">
+        <v>9</v>
+      </c>
+      <c r="BD254">
+        <v>0</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>0</v>
+      </c>
+      <c r="BG254">
+        <v>0</v>
+      </c>
+      <c r="BH254">
+        <v>0</v>
+      </c>
+      <c r="BI254">
+        <v>0</v>
+      </c>
+      <c r="BJ254">
+        <v>0</v>
+      </c>
+      <c r="BK254">
+        <v>0</v>
+      </c>
+      <c r="BL254">
+        <v>0</v>
+      </c>
+      <c r="BM254">
+        <v>0</v>
+      </c>
+      <c r="BN254">
+        <v>0</v>
+      </c>
+      <c r="BO254">
+        <v>0</v>
+      </c>
+      <c r="BP254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7025200</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45395.58333333334</v>
+      </c>
+      <c r="F255">
+        <v>29</v>
+      </c>
+      <c r="G255" t="s">
+        <v>85</v>
+      </c>
+      <c r="H255" t="s">
+        <v>87</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="K255">
+        <v>3</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>2</v>
+      </c>
+      <c r="N255">
+        <v>4</v>
+      </c>
+      <c r="O255" t="s">
+        <v>253</v>
+      </c>
+      <c r="P255" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>1.23</v>
+      </c>
+      <c r="AA255">
+        <v>5.7</v>
+      </c>
+      <c r="AB255">
+        <v>11</v>
+      </c>
+      <c r="AC255">
+        <v>0</v>
+      </c>
+      <c r="AD255">
+        <v>0</v>
+      </c>
+      <c r="AE255">
+        <v>0</v>
+      </c>
+      <c r="AF255">
+        <v>0</v>
+      </c>
+      <c r="AG255">
+        <v>1.65</v>
+      </c>
+      <c r="AH255">
+        <v>2.15</v>
+      </c>
+      <c r="AI255">
+        <v>0</v>
+      </c>
+      <c r="AJ255">
+        <v>0</v>
+      </c>
+      <c r="AK255">
+        <v>0</v>
+      </c>
+      <c r="AL255">
+        <v>0</v>
+      </c>
+      <c r="AM255">
+        <v>0</v>
+      </c>
+      <c r="AN255">
+        <v>2.29</v>
+      </c>
+      <c r="AO255">
+        <v>1</v>
+      </c>
+      <c r="AP255">
+        <v>2.2</v>
+      </c>
+      <c r="AQ255">
+        <v>1</v>
+      </c>
+      <c r="AR255">
+        <v>1.91</v>
+      </c>
+      <c r="AS255">
+        <v>1.15</v>
+      </c>
+      <c r="AT255">
+        <v>3.06</v>
+      </c>
+      <c r="AU255">
+        <v>8</v>
+      </c>
+      <c r="AV255">
+        <v>2</v>
+      </c>
+      <c r="AW255">
+        <v>7</v>
+      </c>
+      <c r="AX255">
+        <v>2</v>
+      </c>
+      <c r="AY255">
+        <v>15</v>
+      </c>
+      <c r="AZ255">
+        <v>4</v>
+      </c>
+      <c r="BA255">
+        <v>10</v>
+      </c>
+      <c r="BB255">
+        <v>0</v>
+      </c>
+      <c r="BC255">
+        <v>10</v>
+      </c>
+      <c r="BD255">
+        <v>0</v>
+      </c>
+      <c r="BE255">
+        <v>0</v>
+      </c>
+      <c r="BF255">
+        <v>0</v>
+      </c>
+      <c r="BG255">
+        <v>0</v>
+      </c>
+      <c r="BH255">
+        <v>0</v>
+      </c>
+      <c r="BI255">
+        <v>0</v>
+      </c>
+      <c r="BJ255">
+        <v>0</v>
+      </c>
+      <c r="BK255">
+        <v>0</v>
+      </c>
+      <c r="BL255">
+        <v>0</v>
+      </c>
+      <c r="BM255">
+        <v>0</v>
+      </c>
+      <c r="BN255">
+        <v>0</v>
+      </c>
+      <c r="BO255">
+        <v>0</v>
+      </c>
+      <c r="BP255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7025199</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45395.6875</v>
+      </c>
+      <c r="F256">
+        <v>29</v>
+      </c>
+      <c r="G256" t="s">
+        <v>84</v>
+      </c>
+      <c r="H256" t="s">
+        <v>70</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>90</v>
+      </c>
+      <c r="P256" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>0</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>3.85</v>
+      </c>
+      <c r="AA256">
+        <v>4</v>
+      </c>
+      <c r="AB256">
+        <v>1.75</v>
+      </c>
+      <c r="AC256">
+        <v>0</v>
+      </c>
+      <c r="AD256">
+        <v>0</v>
+      </c>
+      <c r="AE256">
+        <v>0</v>
+      </c>
+      <c r="AF256">
+        <v>0</v>
+      </c>
+      <c r="AG256">
+        <v>1.53</v>
+      </c>
+      <c r="AH256">
+        <v>2.38</v>
+      </c>
+      <c r="AI256">
+        <v>0</v>
+      </c>
+      <c r="AJ256">
+        <v>0</v>
+      </c>
+      <c r="AK256">
+        <v>0</v>
+      </c>
+      <c r="AL256">
+        <v>0</v>
+      </c>
+      <c r="AM256">
+        <v>0</v>
+      </c>
+      <c r="AN256">
+        <v>1.57</v>
+      </c>
+      <c r="AO256">
+        <v>2.07</v>
+      </c>
+      <c r="AP256">
+        <v>1.47</v>
+      </c>
+      <c r="AQ256">
+        <v>2.13</v>
+      </c>
+      <c r="AR256">
+        <v>1.18</v>
+      </c>
+      <c r="AS256">
+        <v>1.35</v>
+      </c>
+      <c r="AT256">
+        <v>2.53</v>
+      </c>
+      <c r="AU256">
+        <v>0</v>
+      </c>
+      <c r="AV256">
+        <v>4</v>
+      </c>
+      <c r="AW256">
+        <v>3</v>
+      </c>
+      <c r="AX256">
+        <v>4</v>
+      </c>
+      <c r="AY256">
+        <v>3</v>
+      </c>
+      <c r="AZ256">
+        <v>8</v>
+      </c>
+      <c r="BA256">
+        <v>2</v>
+      </c>
+      <c r="BB256">
+        <v>3</v>
+      </c>
+      <c r="BC256">
+        <v>5</v>
+      </c>
+      <c r="BD256">
+        <v>0</v>
+      </c>
+      <c r="BE256">
+        <v>0</v>
+      </c>
+      <c r="BF256">
+        <v>0</v>
+      </c>
+      <c r="BG256">
+        <v>0</v>
+      </c>
+      <c r="BH256">
+        <v>0</v>
+      </c>
+      <c r="BI256">
+        <v>0</v>
+      </c>
+      <c r="BJ256">
+        <v>0</v>
+      </c>
+      <c r="BK256">
+        <v>0</v>
+      </c>
+      <c r="BL256">
+        <v>0</v>
+      </c>
+      <c r="BM256">
+        <v>0</v>
+      </c>
+      <c r="BN256">
+        <v>0</v>
+      </c>
+      <c r="BO256">
+        <v>0</v>
+      </c>
+      <c r="BP256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7025196</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45396.47916666666</v>
+      </c>
+      <c r="F257">
+        <v>29</v>
+      </c>
+      <c r="G257" t="s">
+        <v>75</v>
+      </c>
+      <c r="H257" t="s">
+        <v>74</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>254</v>
+      </c>
+      <c r="P257" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+      <c r="V257">
+        <v>0</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>2.5</v>
+      </c>
+      <c r="AA257">
+        <v>3.25</v>
+      </c>
+      <c r="AB257">
+        <v>2.9</v>
+      </c>
+      <c r="AC257">
+        <v>0</v>
+      </c>
+      <c r="AD257">
+        <v>0</v>
+      </c>
+      <c r="AE257">
+        <v>0</v>
+      </c>
+      <c r="AF257">
+        <v>0</v>
+      </c>
+      <c r="AG257">
+        <v>2.2</v>
+      </c>
+      <c r="AH257">
+        <v>1.6</v>
+      </c>
+      <c r="AI257">
+        <v>0</v>
+      </c>
+      <c r="AJ257">
+        <v>0</v>
+      </c>
+      <c r="AK257">
+        <v>0</v>
+      </c>
+      <c r="AL257">
+        <v>0</v>
+      </c>
+      <c r="AM257">
+        <v>0</v>
+      </c>
+      <c r="AN257">
+        <v>1.21</v>
+      </c>
+      <c r="AO257">
+        <v>0.57</v>
+      </c>
+      <c r="AP257">
+        <v>1.2</v>
+      </c>
+      <c r="AQ257">
+        <v>0.6</v>
+      </c>
+      <c r="AR257">
+        <v>1.04</v>
+      </c>
+      <c r="AS257">
+        <v>1.08</v>
+      </c>
+      <c r="AT257">
+        <v>2.12</v>
+      </c>
+      <c r="AU257">
+        <v>2</v>
+      </c>
+      <c r="AV257">
+        <v>3</v>
+      </c>
+      <c r="AW257">
+        <v>3</v>
+      </c>
+      <c r="AX257">
+        <v>0</v>
+      </c>
+      <c r="AY257">
+        <v>5</v>
+      </c>
+      <c r="AZ257">
+        <v>3</v>
+      </c>
+      <c r="BA257">
         <v>6</v>
       </c>
-      <c r="BA253">
+      <c r="BB257">
+        <v>1</v>
+      </c>
+      <c r="BC257">
+        <v>7</v>
+      </c>
+      <c r="BD257">
+        <v>0</v>
+      </c>
+      <c r="BE257">
+        <v>0</v>
+      </c>
+      <c r="BF257">
+        <v>0</v>
+      </c>
+      <c r="BG257">
+        <v>0</v>
+      </c>
+      <c r="BH257">
+        <v>0</v>
+      </c>
+      <c r="BI257">
+        <v>0</v>
+      </c>
+      <c r="BJ257">
+        <v>0</v>
+      </c>
+      <c r="BK257">
+        <v>0</v>
+      </c>
+      <c r="BL257">
+        <v>0</v>
+      </c>
+      <c r="BM257">
+        <v>0</v>
+      </c>
+      <c r="BN257">
+        <v>0</v>
+      </c>
+      <c r="BO257">
+        <v>0</v>
+      </c>
+      <c r="BP257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7025202</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45396.58333333334</v>
+      </c>
+      <c r="F258">
+        <v>29</v>
+      </c>
+      <c r="G258" t="s">
+        <v>82</v>
+      </c>
+      <c r="H258" t="s">
+        <v>79</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>3</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
         <v>4</v>
       </c>
-      <c r="BB253">
+      <c r="O258" t="s">
+        <v>255</v>
+      </c>
+      <c r="P258" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>2.88</v>
+      </c>
+      <c r="AA258">
+        <v>3.2</v>
+      </c>
+      <c r="AB258">
+        <v>2.61</v>
+      </c>
+      <c r="AC258">
+        <v>0</v>
+      </c>
+      <c r="AD258">
+        <v>0</v>
+      </c>
+      <c r="AE258">
+        <v>0</v>
+      </c>
+      <c r="AF258">
+        <v>0</v>
+      </c>
+      <c r="AG258">
+        <v>1.85</v>
+      </c>
+      <c r="AH258">
+        <v>1.85</v>
+      </c>
+      <c r="AI258">
+        <v>0</v>
+      </c>
+      <c r="AJ258">
+        <v>0</v>
+      </c>
+      <c r="AK258">
+        <v>0</v>
+      </c>
+      <c r="AL258">
+        <v>0</v>
+      </c>
+      <c r="AM258">
+        <v>0</v>
+      </c>
+      <c r="AN258">
+        <v>0.93</v>
+      </c>
+      <c r="AO258">
+        <v>1.43</v>
+      </c>
+      <c r="AP258">
+        <v>0.93</v>
+      </c>
+      <c r="AQ258">
+        <v>1.4</v>
+      </c>
+      <c r="AR258">
+        <v>1.15</v>
+      </c>
+      <c r="AS258">
+        <v>1.02</v>
+      </c>
+      <c r="AT258">
+        <v>2.17</v>
+      </c>
+      <c r="AU258">
+        <v>2</v>
+      </c>
+      <c r="AV258">
+        <v>2</v>
+      </c>
+      <c r="AW258">
         <v>3</v>
       </c>
-      <c r="BC253">
+      <c r="AX258">
+        <v>2</v>
+      </c>
+      <c r="AY258">
+        <v>5</v>
+      </c>
+      <c r="AZ258">
+        <v>4</v>
+      </c>
+      <c r="BA258">
+        <v>3</v>
+      </c>
+      <c r="BB258">
         <v>7</v>
       </c>
-      <c r="BD253">
-        <v>0</v>
-      </c>
-      <c r="BE253">
-        <v>0</v>
-      </c>
-      <c r="BF253">
-        <v>0</v>
-      </c>
-      <c r="BG253">
-        <v>0</v>
-      </c>
-      <c r="BH253">
-        <v>0</v>
-      </c>
-      <c r="BI253">
-        <v>0</v>
-      </c>
-      <c r="BJ253">
-        <v>0</v>
-      </c>
-      <c r="BK253">
-        <v>0</v>
-      </c>
-      <c r="BL253">
-        <v>0</v>
-      </c>
-      <c r="BM253">
-        <v>0</v>
-      </c>
-      <c r="BN253">
-        <v>0</v>
-      </c>
-      <c r="BO253">
-        <v>0</v>
-      </c>
-      <c r="BP253">
+      <c r="BC258">
+        <v>10</v>
+      </c>
+      <c r="BD258">
+        <v>0</v>
+      </c>
+      <c r="BE258">
+        <v>0</v>
+      </c>
+      <c r="BF258">
+        <v>0</v>
+      </c>
+      <c r="BG258">
+        <v>0</v>
+      </c>
+      <c r="BH258">
+        <v>0</v>
+      </c>
+      <c r="BI258">
+        <v>0</v>
+      </c>
+      <c r="BJ258">
+        <v>0</v>
+      </c>
+      <c r="BK258">
+        <v>0</v>
+      </c>
+      <c r="BL258">
+        <v>0</v>
+      </c>
+      <c r="BM258">
+        <v>0</v>
+      </c>
+      <c r="BN258">
+        <v>0</v>
+      </c>
+      <c r="BO258">
+        <v>0</v>
+      </c>
+      <c r="BP258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7025194</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45396.58333333334</v>
+      </c>
+      <c r="F259">
+        <v>29</v>
+      </c>
+      <c r="G259" t="s">
+        <v>76</v>
+      </c>
+      <c r="H259" t="s">
+        <v>78</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>256</v>
+      </c>
+      <c r="P259" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <v>0</v>
+      </c>
+      <c r="V259">
+        <v>0</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>1.76</v>
+      </c>
+      <c r="AA259">
+        <v>3.74</v>
+      </c>
+      <c r="AB259">
+        <v>4.7</v>
+      </c>
+      <c r="AC259">
+        <v>0</v>
+      </c>
+      <c r="AD259">
+        <v>0</v>
+      </c>
+      <c r="AE259">
+        <v>0</v>
+      </c>
+      <c r="AF259">
+        <v>0</v>
+      </c>
+      <c r="AG259">
+        <v>1.99</v>
+      </c>
+      <c r="AH259">
+        <v>1.87</v>
+      </c>
+      <c r="AI259">
+        <v>0</v>
+      </c>
+      <c r="AJ259">
+        <v>0</v>
+      </c>
+      <c r="AK259">
+        <v>0</v>
+      </c>
+      <c r="AL259">
+        <v>0</v>
+      </c>
+      <c r="AM259">
+        <v>0</v>
+      </c>
+      <c r="AN259">
+        <v>1.43</v>
+      </c>
+      <c r="AO259">
+        <v>0.86</v>
+      </c>
+      <c r="AP259">
+        <v>1.53</v>
+      </c>
+      <c r="AQ259">
+        <v>0.8</v>
+      </c>
+      <c r="AR259">
+        <v>1.37</v>
+      </c>
+      <c r="AS259">
+        <v>0.99</v>
+      </c>
+      <c r="AT259">
+        <v>2.36</v>
+      </c>
+      <c r="AU259">
+        <v>2</v>
+      </c>
+      <c r="AV259">
+        <v>2</v>
+      </c>
+      <c r="AW259">
+        <v>4</v>
+      </c>
+      <c r="AX259">
+        <v>2</v>
+      </c>
+      <c r="AY259">
+        <v>6</v>
+      </c>
+      <c r="AZ259">
+        <v>4</v>
+      </c>
+      <c r="BA259">
+        <v>1</v>
+      </c>
+      <c r="BB259">
+        <v>2</v>
+      </c>
+      <c r="BC259">
+        <v>3</v>
+      </c>
+      <c r="BD259">
+        <v>0</v>
+      </c>
+      <c r="BE259">
+        <v>0</v>
+      </c>
+      <c r="BF259">
+        <v>0</v>
+      </c>
+      <c r="BG259">
+        <v>0</v>
+      </c>
+      <c r="BH259">
+        <v>0</v>
+      </c>
+      <c r="BI259">
+        <v>0</v>
+      </c>
+      <c r="BJ259">
+        <v>0</v>
+      </c>
+      <c r="BK259">
+        <v>0</v>
+      </c>
+      <c r="BL259">
+        <v>0</v>
+      </c>
+      <c r="BM259">
+        <v>0</v>
+      </c>
+      <c r="BN259">
+        <v>0</v>
+      </c>
+      <c r="BO259">
+        <v>0</v>
+      </c>
+      <c r="BP259">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -787,6 +787,9 @@
     <t>['30', '39']</t>
   </si>
   <si>
+    <t>['18', '45+1', '78']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1500,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1759,7 +1762,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2171,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2377,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2789,7 +2792,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2995,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3201,7 +3204,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3407,7 +3410,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3613,7 +3616,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4025,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4231,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4515,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4849,7 +4852,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5055,7 +5058,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5342,7 +5345,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5467,7 +5470,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5673,7 +5676,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6085,7 +6088,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6291,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6909,7 +6912,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -8017,7 +8020,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ32">
         <v>1.79</v>
@@ -8145,7 +8148,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8351,7 +8354,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8432,7 +8435,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8763,7 +8766,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8969,7 +8972,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9175,7 +9178,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9793,7 +9796,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10205,7 +10208,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10411,7 +10414,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10698,7 +10701,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -11441,7 +11444,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11853,7 +11856,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -12059,7 +12062,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12265,7 +12268,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12471,7 +12474,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12883,7 +12886,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13167,7 +13170,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ57">
         <v>1.86</v>
@@ -13295,7 +13298,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13501,7 +13504,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13707,7 +13710,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13913,7 +13916,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14119,7 +14122,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14325,7 +14328,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14406,7 +14409,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14737,7 +14740,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14943,7 +14946,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15355,7 +15358,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15767,7 +15770,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16591,7 +16594,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16672,7 +16675,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -17081,7 +17084,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ76">
         <v>1.4</v>
@@ -17415,7 +17418,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17621,7 +17624,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -18033,7 +18036,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18239,7 +18242,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18445,7 +18448,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18651,7 +18654,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18857,7 +18860,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19887,7 +19890,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20792,7 +20795,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR94">
         <v>1.45</v>
@@ -21123,7 +21126,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21535,7 +21538,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21741,7 +21744,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -22025,7 +22028,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ100">
         <v>2.29</v>
@@ -22359,7 +22362,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22771,7 +22774,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23183,7 +23186,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23595,7 +23598,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -24007,7 +24010,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24291,7 +24294,7 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24625,7 +24628,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24831,7 +24834,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25243,7 +25246,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25655,7 +25658,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25736,7 +25739,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR118">
         <v>1.13</v>
@@ -26479,7 +26482,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26685,7 +26688,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26891,7 +26894,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27097,7 +27100,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27303,7 +27306,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -28002,7 +28005,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -28127,7 +28130,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28411,7 +28414,7 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -29157,7 +29160,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29363,7 +29366,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30393,7 +30396,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30599,7 +30602,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -31011,7 +31014,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31217,7 +31220,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31629,7 +31632,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31835,7 +31838,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32041,7 +32044,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32122,7 +32125,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR149">
         <v>1.28</v>
@@ -32531,7 +32534,7 @@
         <v>0.43</v>
       </c>
       <c r="AP151">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ151">
         <v>0.6</v>
@@ -32659,7 +32662,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33277,7 +33280,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33483,7 +33486,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33767,7 +33770,7 @@
         <v>1.25</v>
       </c>
       <c r="AP157">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ157">
         <v>0.8</v>
@@ -33895,7 +33898,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34101,7 +34104,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34388,7 +34391,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR160">
         <v>1.89</v>
@@ -34513,7 +34516,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35131,7 +35134,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35543,7 +35546,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -36161,7 +36164,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36985,7 +36988,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37603,7 +37606,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37887,7 +37890,7 @@
         <v>0.33</v>
       </c>
       <c r="AP177">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ177">
         <v>0.5</v>
@@ -38302,7 +38305,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR179">
         <v>1.89</v>
@@ -38839,7 +38842,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39251,7 +39254,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39869,7 +39872,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40075,7 +40078,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40899,7 +40902,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41595,7 +41598,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ195">
         <v>0.79</v>
@@ -41723,7 +41726,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42135,7 +42138,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42341,7 +42344,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42628,7 +42631,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ200">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -42959,7 +42962,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43165,7 +43168,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43449,7 +43452,7 @@
         <v>0.91</v>
       </c>
       <c r="AP204">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ204">
         <v>0.93</v>
@@ -43783,7 +43786,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43989,7 +43992,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44195,7 +44198,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44607,7 +44610,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45431,7 +45434,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -46049,7 +46052,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46954,7 +46957,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ221">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR221">
         <v>1.03</v>
@@ -47285,7 +47288,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47491,7 +47494,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47569,7 +47572,7 @@
         <v>0.5</v>
       </c>
       <c r="AP224">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ224">
         <v>0.5</v>
@@ -48315,7 +48318,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -49139,7 +49142,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49551,7 +49554,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49757,7 +49760,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50041,7 +50044,7 @@
         <v>0.54</v>
       </c>
       <c r="AP236">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ236">
         <v>0.5</v>
@@ -50169,7 +50172,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50456,7 +50459,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ238">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR238">
         <v>1.45</v>
@@ -51199,7 +51202,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51405,7 +51408,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51817,7 +51820,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52229,7 +52232,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52435,7 +52438,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52641,7 +52644,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52847,7 +52850,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53053,7 +53056,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53465,7 +53468,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53877,7 +53880,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54289,7 +54292,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54382,31 +54385,31 @@
         <v>2.12</v>
       </c>
       <c r="AU257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV257">
         <v>3</v>
       </c>
       <c r="AW257">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX257">
         <v>0</v>
       </c>
       <c r="AY257">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ257">
         <v>3</v>
       </c>
       <c r="BA257">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB257">
         <v>1</v>
       </c>
       <c r="BC257">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD257">
         <v>0</v>
@@ -54495,7 +54498,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54594,25 +54597,25 @@
         <v>2</v>
       </c>
       <c r="AW258">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY258">
+        <v>7</v>
+      </c>
+      <c r="AZ258">
+        <v>6</v>
+      </c>
+      <c r="BA258">
         <v>5</v>
       </c>
-      <c r="AZ258">
-        <v>4</v>
-      </c>
-      <c r="BA258">
-        <v>3</v>
-      </c>
       <c r="BB258">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC258">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD258">
         <v>0</v>
@@ -54701,7 +54704,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -54794,69 +54797,275 @@
         <v>2.36</v>
       </c>
       <c r="AU259">
+        <v>4</v>
+      </c>
+      <c r="AV259">
+        <v>4</v>
+      </c>
+      <c r="AW259">
+        <v>5</v>
+      </c>
+      <c r="AX259">
+        <v>3</v>
+      </c>
+      <c r="AY259">
+        <v>9</v>
+      </c>
+      <c r="AZ259">
+        <v>7</v>
+      </c>
+      <c r="BA259">
+        <v>1</v>
+      </c>
+      <c r="BB259">
+        <v>4</v>
+      </c>
+      <c r="BC259">
+        <v>5</v>
+      </c>
+      <c r="BD259">
+        <v>0</v>
+      </c>
+      <c r="BE259">
+        <v>0</v>
+      </c>
+      <c r="BF259">
+        <v>0</v>
+      </c>
+      <c r="BG259">
+        <v>0</v>
+      </c>
+      <c r="BH259">
+        <v>0</v>
+      </c>
+      <c r="BI259">
+        <v>0</v>
+      </c>
+      <c r="BJ259">
+        <v>0</v>
+      </c>
+      <c r="BK259">
+        <v>0</v>
+      </c>
+      <c r="BL259">
+        <v>0</v>
+      </c>
+      <c r="BM259">
+        <v>0</v>
+      </c>
+      <c r="BN259">
+        <v>0</v>
+      </c>
+      <c r="BO259">
+        <v>0</v>
+      </c>
+      <c r="BP259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7025197</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45396.6875</v>
+      </c>
+      <c r="F260">
+        <v>29</v>
+      </c>
+      <c r="G260" t="s">
+        <v>83</v>
+      </c>
+      <c r="H260" t="s">
+        <v>77</v>
+      </c>
+      <c r="I260">
         <v>2</v>
       </c>
-      <c r="AV259">
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
         <v>2</v>
       </c>
-      <c r="AW259">
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>257</v>
+      </c>
+      <c r="P260" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260">
+        <v>0</v>
+      </c>
+      <c r="V260">
+        <v>0</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>1.28</v>
+      </c>
+      <c r="AA260">
+        <v>5.72</v>
+      </c>
+      <c r="AB260">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="AC260">
+        <v>0</v>
+      </c>
+      <c r="AD260">
+        <v>0</v>
+      </c>
+      <c r="AE260">
+        <v>0</v>
+      </c>
+      <c r="AF260">
+        <v>0</v>
+      </c>
+      <c r="AG260">
+        <v>1.7</v>
+      </c>
+      <c r="AH260">
+        <v>2.03</v>
+      </c>
+      <c r="AI260">
+        <v>0</v>
+      </c>
+      <c r="AJ260">
+        <v>0</v>
+      </c>
+      <c r="AK260">
+        <v>0</v>
+      </c>
+      <c r="AL260">
+        <v>0</v>
+      </c>
+      <c r="AM260">
+        <v>0</v>
+      </c>
+      <c r="AN260">
+        <v>2.71</v>
+      </c>
+      <c r="AO260">
+        <v>1.5</v>
+      </c>
+      <c r="AP260">
+        <v>2.73</v>
+      </c>
+      <c r="AQ260">
+        <v>1.4</v>
+      </c>
+      <c r="AR260">
+        <v>2</v>
+      </c>
+      <c r="AS260">
+        <v>1.05</v>
+      </c>
+      <c r="AT260">
+        <v>3.05</v>
+      </c>
+      <c r="AU260">
+        <v>3</v>
+      </c>
+      <c r="AV260">
+        <v>0</v>
+      </c>
+      <c r="AW260">
+        <v>3</v>
+      </c>
+      <c r="AX260">
+        <v>0</v>
+      </c>
+      <c r="AY260">
+        <v>6</v>
+      </c>
+      <c r="AZ260">
+        <v>0</v>
+      </c>
+      <c r="BA260">
+        <v>3</v>
+      </c>
+      <c r="BB260">
+        <v>1</v>
+      </c>
+      <c r="BC260">
         <v>4</v>
       </c>
-      <c r="AX259">
-        <v>2</v>
-      </c>
-      <c r="AY259">
-        <v>6</v>
-      </c>
-      <c r="AZ259">
-        <v>4</v>
-      </c>
-      <c r="BA259">
-        <v>1</v>
-      </c>
-      <c r="BB259">
-        <v>2</v>
-      </c>
-      <c r="BC259">
-        <v>3</v>
-      </c>
-      <c r="BD259">
-        <v>0</v>
-      </c>
-      <c r="BE259">
-        <v>0</v>
-      </c>
-      <c r="BF259">
-        <v>0</v>
-      </c>
-      <c r="BG259">
-        <v>0</v>
-      </c>
-      <c r="BH259">
-        <v>0</v>
-      </c>
-      <c r="BI259">
-        <v>0</v>
-      </c>
-      <c r="BJ259">
-        <v>0</v>
-      </c>
-      <c r="BK259">
-        <v>0</v>
-      </c>
-      <c r="BL259">
-        <v>0</v>
-      </c>
-      <c r="BM259">
-        <v>0</v>
-      </c>
-      <c r="BN259">
-        <v>0</v>
-      </c>
-      <c r="BO259">
-        <v>0</v>
-      </c>
-      <c r="BP259">
+      <c r="BD260">
+        <v>0</v>
+      </c>
+      <c r="BE260">
+        <v>0</v>
+      </c>
+      <c r="BF260">
+        <v>0</v>
+      </c>
+      <c r="BG260">
+        <v>0</v>
+      </c>
+      <c r="BH260">
+        <v>0</v>
+      </c>
+      <c r="BI260">
+        <v>0</v>
+      </c>
+      <c r="BJ260">
+        <v>0</v>
+      </c>
+      <c r="BK260">
+        <v>0</v>
+      </c>
+      <c r="BL260">
+        <v>0</v>
+      </c>
+      <c r="BM260">
+        <v>0</v>
+      </c>
+      <c r="BN260">
+        <v>0</v>
+      </c>
+      <c r="BO260">
+        <v>0</v>
+      </c>
+      <c r="BP260">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2667,7 +2667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -5963,7 +5963,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -9874,7 +9874,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41">
         <v>2.07</v>
@@ -10907,7 +10907,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -13376,7 +13376,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58">
         <v>0.93</v>
@@ -13997,7 +13997,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -17293,7 +17293,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -18114,7 +18114,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81">
         <v>1.86</v>
@@ -20589,7 +20589,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR93">
         <v>1.36</v>
@@ -20998,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -24088,7 +24088,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ110">
         <v>2.13</v>
@@ -25533,7 +25533,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -28002,7 +28002,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129">
         <v>1.4</v>
@@ -28623,7 +28623,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ132">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR132">
         <v>2.01</v>
@@ -31095,7 +31095,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR144">
         <v>1.24</v>
@@ -32740,7 +32740,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ152">
         <v>0.8</v>
@@ -33564,7 +33564,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ156">
         <v>2.29</v>
@@ -36863,7 +36863,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ172">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR172">
         <v>1.78</v>
@@ -37684,7 +37684,7 @@
         <v>1.33</v>
       </c>
       <c r="AP176">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ176">
         <v>1.79</v>
@@ -39129,7 +39129,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR183">
         <v>1.13</v>
@@ -42837,7 +42837,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ201">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR201">
         <v>1.01</v>
@@ -43246,7 +43246,7 @@
         <v>0.45</v>
       </c>
       <c r="AP203">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ203">
         <v>0.5</v>
@@ -46542,7 +46542,7 @@
         <v>0.92</v>
       </c>
       <c r="AP219">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ219">
         <v>0.8</v>
@@ -47781,7 +47781,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ225">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR225">
         <v>1.11</v>
@@ -50047,7 +50047,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ236">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR236">
         <v>1.99</v>
@@ -51280,7 +51280,7 @@
         <v>1.31</v>
       </c>
       <c r="AP242">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ242">
         <v>1.4</v>
@@ -55009,63 +55009,269 @@
         <v>0</v>
       </c>
       <c r="AW260">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY260">
+        <v>9</v>
+      </c>
+      <c r="AZ260">
+        <v>2</v>
+      </c>
+      <c r="BA260">
         <v>6</v>
       </c>
-      <c r="AZ260">
-        <v>0</v>
-      </c>
-      <c r="BA260">
-        <v>3</v>
-      </c>
       <c r="BB260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC260">
+        <v>8</v>
+      </c>
+      <c r="BD260">
+        <v>0</v>
+      </c>
+      <c r="BE260">
+        <v>0</v>
+      </c>
+      <c r="BF260">
+        <v>0</v>
+      </c>
+      <c r="BG260">
+        <v>0</v>
+      </c>
+      <c r="BH260">
+        <v>0</v>
+      </c>
+      <c r="BI260">
+        <v>0</v>
+      </c>
+      <c r="BJ260">
+        <v>0</v>
+      </c>
+      <c r="BK260">
+        <v>0</v>
+      </c>
+      <c r="BL260">
+        <v>0</v>
+      </c>
+      <c r="BM260">
+        <v>0</v>
+      </c>
+      <c r="BN260">
+        <v>0</v>
+      </c>
+      <c r="BO260">
+        <v>0</v>
+      </c>
+      <c r="BP260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7025201</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45397.67708333334</v>
+      </c>
+      <c r="F261">
+        <v>29</v>
+      </c>
+      <c r="G261" t="s">
+        <v>86</v>
+      </c>
+      <c r="H261" t="s">
+        <v>81</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>1</v>
+      </c>
+      <c r="O261" t="s">
+        <v>90</v>
+      </c>
+      <c r="P261" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>2</v>
+      </c>
+      <c r="AA261">
+        <v>3.5</v>
+      </c>
+      <c r="AB261">
+        <v>3.7</v>
+      </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
+      <c r="AD261">
+        <v>0</v>
+      </c>
+      <c r="AE261">
+        <v>0</v>
+      </c>
+      <c r="AF261">
+        <v>0</v>
+      </c>
+      <c r="AG261">
+        <v>1.93</v>
+      </c>
+      <c r="AH261">
+        <v>1.8</v>
+      </c>
+      <c r="AI261">
+        <v>0</v>
+      </c>
+      <c r="AJ261">
+        <v>0</v>
+      </c>
+      <c r="AK261">
+        <v>0</v>
+      </c>
+      <c r="AL261">
+        <v>0</v>
+      </c>
+      <c r="AM261">
+        <v>0</v>
+      </c>
+      <c r="AN261">
+        <v>0.71</v>
+      </c>
+      <c r="AO261">
+        <v>0.5</v>
+      </c>
+      <c r="AP261">
+        <v>0.67</v>
+      </c>
+      <c r="AQ261">
+        <v>0.67</v>
+      </c>
+      <c r="AR261">
+        <v>1.4</v>
+      </c>
+      <c r="AS261">
+        <v>1.08</v>
+      </c>
+      <c r="AT261">
+        <v>2.48</v>
+      </c>
+      <c r="AU261">
         <v>4</v>
       </c>
-      <c r="BD260">
-        <v>0</v>
-      </c>
-      <c r="BE260">
-        <v>0</v>
-      </c>
-      <c r="BF260">
-        <v>0</v>
-      </c>
-      <c r="BG260">
-        <v>0</v>
-      </c>
-      <c r="BH260">
-        <v>0</v>
-      </c>
-      <c r="BI260">
-        <v>0</v>
-      </c>
-      <c r="BJ260">
-        <v>0</v>
-      </c>
-      <c r="BK260">
-        <v>0</v>
-      </c>
-      <c r="BL260">
-        <v>0</v>
-      </c>
-      <c r="BM260">
-        <v>0</v>
-      </c>
-      <c r="BN260">
-        <v>0</v>
-      </c>
-      <c r="BO260">
-        <v>0</v>
-      </c>
-      <c r="BP260">
+      <c r="AV261">
+        <v>0</v>
+      </c>
+      <c r="AW261">
+        <v>2</v>
+      </c>
+      <c r="AX261">
+        <v>5</v>
+      </c>
+      <c r="AY261">
+        <v>6</v>
+      </c>
+      <c r="AZ261">
+        <v>5</v>
+      </c>
+      <c r="BA261">
+        <v>8</v>
+      </c>
+      <c r="BB261">
+        <v>4</v>
+      </c>
+      <c r="BC261">
+        <v>12</v>
+      </c>
+      <c r="BD261">
+        <v>0</v>
+      </c>
+      <c r="BE261">
+        <v>0</v>
+      </c>
+      <c r="BF261">
+        <v>0</v>
+      </c>
+      <c r="BG261">
+        <v>0</v>
+      </c>
+      <c r="BH261">
+        <v>0</v>
+      </c>
+      <c r="BI261">
+        <v>0</v>
+      </c>
+      <c r="BJ261">
+        <v>0</v>
+      </c>
+      <c r="BK261">
+        <v>0</v>
+      </c>
+      <c r="BL261">
+        <v>0</v>
+      </c>
+      <c r="BM261">
+        <v>0</v>
+      </c>
+      <c r="BN261">
+        <v>0</v>
+      </c>
+      <c r="BO261">
+        <v>0</v>
+      </c>
+      <c r="BP261">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3697,7 +3697,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ11">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -8847,7 +8847,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ36">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>0.8</v>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -13791,7 +13791,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ60">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -15848,7 +15848,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>1.79</v>
@@ -18323,7 +18323,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ82">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR82">
         <v>0.88</v>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -22031,7 +22031,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ100">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR100">
         <v>2.2</v>
@@ -22852,7 +22852,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ104">
         <v>1.86</v>
@@ -24709,7 +24709,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ113">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -27178,7 +27178,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ125">
         <v>0.5</v>
@@ -29447,7 +29447,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ136">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -31092,7 +31092,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ144">
         <v>0.67</v>
@@ -31919,7 +31919,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ148">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR148">
         <v>1.28</v>
@@ -33358,7 +33358,7 @@
         <v>2.11</v>
       </c>
       <c r="AP155">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ155">
         <v>2.13</v>
@@ -33567,7 +33567,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ156">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -40568,7 +40568,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ190">
         <v>0.6</v>
@@ -42219,7 +42219,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ198">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -43867,7 +43867,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -45924,7 +45924,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ216">
         <v>0.8</v>
@@ -47369,7 +47369,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ223">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR223">
         <v>1.25</v>
@@ -48190,7 +48190,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ227">
         <v>0.71</v>
@@ -50253,7 +50253,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ237">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR237">
         <v>1.06</v>
@@ -51898,7 +51898,7 @@
         <v>0.85</v>
       </c>
       <c r="AP245">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ245">
         <v>0.79</v>
@@ -53549,7 +53549,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ253">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR253">
         <v>1.15</v>
@@ -55209,69 +55209,275 @@
         <v>2.48</v>
       </c>
       <c r="AU261">
+        <v>6</v>
+      </c>
+      <c r="AV261">
+        <v>3</v>
+      </c>
+      <c r="AW261">
         <v>4</v>
       </c>
-      <c r="AV261">
-        <v>0</v>
-      </c>
-      <c r="AW261">
-        <v>2</v>
-      </c>
       <c r="AX261">
+        <v>4</v>
+      </c>
+      <c r="AY261">
+        <v>10</v>
+      </c>
+      <c r="AZ261">
+        <v>7</v>
+      </c>
+      <c r="BA261">
+        <v>10</v>
+      </c>
+      <c r="BB261">
         <v>5</v>
       </c>
-      <c r="AY261">
+      <c r="BC261">
+        <v>15</v>
+      </c>
+      <c r="BD261">
+        <v>0</v>
+      </c>
+      <c r="BE261">
+        <v>0</v>
+      </c>
+      <c r="BF261">
+        <v>0</v>
+      </c>
+      <c r="BG261">
+        <v>0</v>
+      </c>
+      <c r="BH261">
+        <v>0</v>
+      </c>
+      <c r="BI261">
+        <v>0</v>
+      </c>
+      <c r="BJ261">
+        <v>0</v>
+      </c>
+      <c r="BK261">
+        <v>0</v>
+      </c>
+      <c r="BL261">
+        <v>0</v>
+      </c>
+      <c r="BM261">
+        <v>0</v>
+      </c>
+      <c r="BN261">
+        <v>0</v>
+      </c>
+      <c r="BO261">
+        <v>0</v>
+      </c>
+      <c r="BP261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7025109</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45398.67708333334</v>
+      </c>
+      <c r="F262">
+        <v>20</v>
+      </c>
+      <c r="G262" t="s">
+        <v>87</v>
+      </c>
+      <c r="H262" t="s">
+        <v>73</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>90</v>
+      </c>
+      <c r="P262" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>8.6</v>
+      </c>
+      <c r="AA262">
+        <v>5</v>
+      </c>
+      <c r="AB262">
+        <v>1.31</v>
+      </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
+      <c r="AE262">
+        <v>0</v>
+      </c>
+      <c r="AF262">
+        <v>0</v>
+      </c>
+      <c r="AG262">
+        <v>1.71</v>
+      </c>
+      <c r="AH262">
+        <v>2.06</v>
+      </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
+      <c r="AJ262">
+        <v>0</v>
+      </c>
+      <c r="AK262">
+        <v>0</v>
+      </c>
+      <c r="AL262">
+        <v>0</v>
+      </c>
+      <c r="AM262">
+        <v>0</v>
+      </c>
+      <c r="AN262">
+        <v>1.54</v>
+      </c>
+      <c r="AO262">
+        <v>2.29</v>
+      </c>
+      <c r="AP262">
+        <v>1.43</v>
+      </c>
+      <c r="AQ262">
+        <v>2.33</v>
+      </c>
+      <c r="AR262">
+        <v>1.36</v>
+      </c>
+      <c r="AS262">
+        <v>1.46</v>
+      </c>
+      <c r="AT262">
+        <v>2.82</v>
+      </c>
+      <c r="AU262">
+        <v>0</v>
+      </c>
+      <c r="AV262">
+        <v>0</v>
+      </c>
+      <c r="AW262">
         <v>6</v>
       </c>
-      <c r="AZ261">
+      <c r="AX262">
         <v>5</v>
       </c>
-      <c r="BA261">
-        <v>8</v>
-      </c>
-      <c r="BB261">
+      <c r="AY262">
+        <v>6</v>
+      </c>
+      <c r="AZ262">
+        <v>5</v>
+      </c>
+      <c r="BA262">
         <v>4</v>
       </c>
-      <c r="BC261">
-        <v>12</v>
-      </c>
-      <c r="BD261">
-        <v>0</v>
-      </c>
-      <c r="BE261">
-        <v>0</v>
-      </c>
-      <c r="BF261">
-        <v>0</v>
-      </c>
-      <c r="BG261">
-        <v>0</v>
-      </c>
-      <c r="BH261">
-        <v>0</v>
-      </c>
-      <c r="BI261">
-        <v>0</v>
-      </c>
-      <c r="BJ261">
-        <v>0</v>
-      </c>
-      <c r="BK261">
-        <v>0</v>
-      </c>
-      <c r="BL261">
-        <v>0</v>
-      </c>
-      <c r="BM261">
-        <v>0</v>
-      </c>
-      <c r="BN261">
-        <v>0</v>
-      </c>
-      <c r="BO261">
-        <v>0</v>
-      </c>
-      <c r="BP261">
+      <c r="BB262">
+        <v>6</v>
+      </c>
+      <c r="BC262">
+        <v>10</v>
+      </c>
+      <c r="BD262">
+        <v>0</v>
+      </c>
+      <c r="BE262">
+        <v>0</v>
+      </c>
+      <c r="BF262">
+        <v>0</v>
+      </c>
+      <c r="BG262">
+        <v>0</v>
+      </c>
+      <c r="BH262">
+        <v>0</v>
+      </c>
+      <c r="BI262">
+        <v>0</v>
+      </c>
+      <c r="BJ262">
+        <v>0</v>
+      </c>
+      <c r="BK262">
+        <v>0</v>
+      </c>
+      <c r="BL262">
+        <v>0</v>
+      </c>
+      <c r="BM262">
+        <v>0</v>
+      </c>
+      <c r="BN262">
+        <v>0</v>
+      </c>
+      <c r="BO262">
+        <v>0</v>
+      </c>
+      <c r="BP262">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['18', '45+1', '78']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -938,9 +941,6 @@
   </si>
   <si>
     <t>['29', '90+2', '90+6']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['3', '87']</t>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1762,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2792,7 +2792,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1.86</v>
@@ -8148,7 +8148,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>2.63</v>
@@ -8766,7 +8766,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11444,7 +11444,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13504,7 +13504,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14328,7 +14328,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14406,7 +14406,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
         <v>1.4</v>
@@ -14740,7 +14740,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14946,7 +14946,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15358,7 +15358,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15770,7 +15770,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16469,7 +16469,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.69</v>
@@ -16594,7 +16594,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17418,7 +17418,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17624,7 +17624,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -18036,7 +18036,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19890,7 +19890,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20177,7 +20177,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR91">
         <v>1.41</v>
@@ -21126,7 +21126,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ103">
         <v>0.71</v>
@@ -23186,7 +23186,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ108">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
         <v>0.97</v>
@@ -26148,7 +26148,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ120">
         <v>0.79</v>
@@ -27100,7 +27100,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR130">
         <v>1.05</v>
@@ -29366,7 +29366,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30886,7 +30886,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ143">
         <v>0.93</v>
@@ -33155,7 +33155,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ154">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33979,7 +33979,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR158">
         <v>1.29</v>
@@ -36654,7 +36654,7 @@
         <v>0.44</v>
       </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
@@ -37069,7 +37069,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ173">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR173">
         <v>1.16</v>
@@ -39538,7 +39538,7 @@
         <v>1.4</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ185">
         <v>1.4</v>
@@ -41395,7 +41395,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ194">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR194">
         <v>1.12</v>
@@ -43864,7 +43864,7 @@
         <v>2.2</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ206">
         <v>2.33</v>
@@ -44279,7 +44279,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ208">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR208">
         <v>1.16</v>
@@ -46748,7 +46748,7 @@
         <v>2.08</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ220">
         <v>2.13</v>
@@ -49017,7 +49017,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ231">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR231">
         <v>1.15</v>
@@ -52104,7 +52104,7 @@
         <v>0.54</v>
       </c>
       <c r="AP246">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ246">
         <v>0.5</v>
@@ -52313,7 +52313,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ247">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR247">
         <v>1.82</v>
@@ -55116,7 +55116,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55478,6 +55478,212 @@
         <v>0</v>
       </c>
       <c r="BP262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7025209</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45401.67708333334</v>
+      </c>
+      <c r="F263">
+        <v>30</v>
+      </c>
+      <c r="G263" t="s">
+        <v>74</v>
+      </c>
+      <c r="H263" t="s">
+        <v>76</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>258</v>
+      </c>
+      <c r="P263" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+      <c r="V263">
+        <v>0</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>2.4</v>
+      </c>
+      <c r="AA263">
+        <v>3.25</v>
+      </c>
+      <c r="AB263">
+        <v>2.9</v>
+      </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
+      <c r="AE263">
+        <v>0</v>
+      </c>
+      <c r="AF263">
+        <v>0</v>
+      </c>
+      <c r="AG263">
+        <v>2.05</v>
+      </c>
+      <c r="AH263">
+        <v>1.67</v>
+      </c>
+      <c r="AI263">
+        <v>0</v>
+      </c>
+      <c r="AJ263">
+        <v>0</v>
+      </c>
+      <c r="AK263">
+        <v>0</v>
+      </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
+      <c r="AM263">
+        <v>0</v>
+      </c>
+      <c r="AN263">
+        <v>1.5</v>
+      </c>
+      <c r="AO263">
+        <v>1.43</v>
+      </c>
+      <c r="AP263">
+        <v>1.47</v>
+      </c>
+      <c r="AQ263">
+        <v>1.4</v>
+      </c>
+      <c r="AR263">
+        <v>1.11</v>
+      </c>
+      <c r="AS263">
+        <v>1.07</v>
+      </c>
+      <c r="AT263">
+        <v>2.18</v>
+      </c>
+      <c r="AU263">
+        <v>3</v>
+      </c>
+      <c r="AV263">
+        <v>3</v>
+      </c>
+      <c r="AW263">
+        <v>0</v>
+      </c>
+      <c r="AX263">
+        <v>4</v>
+      </c>
+      <c r="AY263">
+        <v>3</v>
+      </c>
+      <c r="AZ263">
+        <v>7</v>
+      </c>
+      <c r="BA263">
+        <v>1</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>4</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,9 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['53', '85']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -893,9 +896,6 @@
   </si>
   <si>
     <t>['21', '35', '90']</t>
-  </si>
-  <si>
-    <t>['53', '85']</t>
   </si>
   <si>
     <t>['12', '20']</t>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP263"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1762,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2174,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
         <v>1.86</v>
@@ -3410,7 +3410,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>2.07</v>
@@ -3616,7 +3616,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -6581,7 +6581,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ25">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6912,7 +6912,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.77</v>
@@ -7611,7 +7611,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -8148,7 +8148,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>2.33</v>
@@ -8972,7 +8972,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
         <v>2.13</v>
@@ -9178,7 +9178,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11444,7 +11444,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11856,7 +11856,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -12062,7 +12062,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12143,7 +12143,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -12268,7 +12268,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12552,7 +12552,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.8</v>
@@ -12886,7 +12886,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13504,7 +13504,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13582,7 +13582,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13710,7 +13710,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14818,7 +14818,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ65">
         <v>0.8</v>
@@ -15027,7 +15027,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15233,7 +15233,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ67">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15358,7 +15358,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15436,7 +15436,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.6</v>
@@ -16057,7 +16057,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ71">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -18320,7 +18320,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ82">
         <v>2.33</v>
@@ -18860,7 +18860,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18941,7 +18941,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19144,7 +19144,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.93</v>
@@ -19350,7 +19350,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87">
         <v>1.79</v>
@@ -19559,7 +19559,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ88">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19971,7 +19971,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -21616,7 +21616,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>0.8</v>
@@ -22237,7 +22237,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ101">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22649,7 +22649,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ103">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -23186,7 +23186,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.5</v>
@@ -23470,7 +23470,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
         <v>2.07</v>
@@ -23676,7 +23676,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ108">
         <v>1.4</v>
@@ -23885,7 +23885,7 @@
         <v>3</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -25945,7 +25945,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ119">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR119">
         <v>1.26</v>
@@ -26151,7 +26151,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ120">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
         <v>1.15</v>
@@ -26357,7 +26357,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26560,7 +26560,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ122">
         <v>1.79</v>
@@ -26766,7 +26766,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>0.93</v>
@@ -27100,7 +27100,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>2.07</v>
@@ -29856,7 +29856,7 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ138">
         <v>1.86</v>
@@ -30065,7 +30065,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR139">
         <v>1.23</v>
@@ -30271,7 +30271,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ140">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR140">
         <v>0.99</v>
@@ -30680,7 +30680,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
         <v>1.79</v>
@@ -31298,7 +31298,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145">
         <v>1.4</v>
@@ -32331,7 +32331,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ150">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR150">
         <v>1.14</v>
@@ -34597,7 +34597,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -35009,7 +35009,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ163">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35212,7 +35212,7 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ164">
         <v>0.93</v>
@@ -35418,7 +35418,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35833,7 +35833,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ167">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -36860,7 +36860,7 @@
         <v>0.44</v>
       </c>
       <c r="AP172">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
         <v>0.67</v>
@@ -37893,7 +37893,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ177">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR177">
         <v>2.27</v>
@@ -38099,7 +38099,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR178">
         <v>1.28</v>
@@ -38302,7 +38302,7 @@
         <v>1.8</v>
       </c>
       <c r="AP179">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ179">
         <v>1.4</v>
@@ -39126,7 +39126,7 @@
         <v>0.5</v>
       </c>
       <c r="AP183">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
         <v>0.67</v>
@@ -39332,7 +39332,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ184">
         <v>0.5</v>
@@ -40365,7 +40365,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ189">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -41189,7 +41189,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ193">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR193">
         <v>1.92</v>
@@ -41601,7 +41601,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ195">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR195">
         <v>2.17</v>
@@ -41807,7 +41807,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR196">
         <v>1.28</v>
@@ -42010,7 +42010,7 @@
         <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ197">
         <v>0.8</v>
@@ -42216,7 +42216,7 @@
         <v>2.11</v>
       </c>
       <c r="AP198">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ198">
         <v>2.33</v>
@@ -44070,7 +44070,7 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ207">
         <v>2.13</v>
@@ -44482,7 +44482,7 @@
         <v>0.45</v>
       </c>
       <c r="AP209">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ209">
         <v>0.6</v>
@@ -44894,10 +44894,10 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR211">
         <v>1.86</v>
@@ -45103,7 +45103,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ212">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR212">
         <v>1.11</v>
@@ -45309,7 +45309,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ213">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -46954,7 +46954,7 @@
         <v>1.75</v>
       </c>
       <c r="AP221">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ221">
         <v>1.4</v>
@@ -48193,7 +48193,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ227">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR227">
         <v>1.35</v>
@@ -48602,10 +48602,10 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR229">
         <v>1.86</v>
@@ -48811,7 +48811,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ230">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR230">
         <v>1.86</v>
@@ -49014,7 +49014,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ231">
         <v>1.4</v>
@@ -50868,7 +50868,7 @@
         <v>0.54</v>
       </c>
       <c r="AP240">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ240">
         <v>0.6</v>
@@ -51901,7 +51901,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ245">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR245">
         <v>1.34</v>
@@ -52107,7 +52107,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ246">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR246">
         <v>1.1</v>
@@ -52310,7 +52310,7 @@
         <v>1.31</v>
       </c>
       <c r="AP247">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ247">
         <v>1.4</v>
@@ -52928,10 +52928,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR250">
         <v>1.13</v>
@@ -55116,7 +55116,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55621,69 +55621,687 @@
         <v>2.18</v>
       </c>
       <c r="AU263">
+        <v>4</v>
+      </c>
+      <c r="AV263">
+        <v>5</v>
+      </c>
+      <c r="AW263">
+        <v>0</v>
+      </c>
+      <c r="AX263">
+        <v>10</v>
+      </c>
+      <c r="AY263">
+        <v>4</v>
+      </c>
+      <c r="AZ263">
+        <v>15</v>
+      </c>
+      <c r="BA263">
+        <v>4</v>
+      </c>
+      <c r="BB263">
+        <v>6</v>
+      </c>
+      <c r="BC263">
+        <v>10</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7025208</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45402.47916666666</v>
+      </c>
+      <c r="F264">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>77</v>
+      </c>
+      <c r="H264" t="s">
+        <v>71</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
+        <v>90</v>
+      </c>
+      <c r="P264" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>0</v>
+      </c>
+      <c r="V264">
+        <v>0</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>2.09</v>
+      </c>
+      <c r="AA264">
+        <v>3.3</v>
+      </c>
+      <c r="AB264">
+        <v>3.7</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>0</v>
+      </c>
+      <c r="AF264">
+        <v>0</v>
+      </c>
+      <c r="AG264">
+        <v>2.13</v>
+      </c>
+      <c r="AH264">
+        <v>1.63</v>
+      </c>
+      <c r="AI264">
+        <v>0</v>
+      </c>
+      <c r="AJ264">
+        <v>0</v>
+      </c>
+      <c r="AK264">
+        <v>0</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>0</v>
+      </c>
+      <c r="AN264">
+        <v>1.57</v>
+      </c>
+      <c r="AO264">
+        <v>0.5</v>
+      </c>
+      <c r="AP264">
+        <v>1.47</v>
+      </c>
+      <c r="AQ264">
+        <v>0.67</v>
+      </c>
+      <c r="AR264">
+        <v>1.11</v>
+      </c>
+      <c r="AS264">
+        <v>1.12</v>
+      </c>
+      <c r="AT264">
+        <v>2.23</v>
+      </c>
+      <c r="AU264">
+        <v>6</v>
+      </c>
+      <c r="AV264">
+        <v>2</v>
+      </c>
+      <c r="AW264">
+        <v>5</v>
+      </c>
+      <c r="AX264">
+        <v>1</v>
+      </c>
+      <c r="AY264">
+        <v>11</v>
+      </c>
+      <c r="AZ264">
         <v>3</v>
       </c>
-      <c r="AV263">
+      <c r="BA264">
+        <v>7</v>
+      </c>
+      <c r="BB264">
+        <v>1</v>
+      </c>
+      <c r="BC264">
+        <v>8</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>0</v>
+      </c>
+      <c r="BG264">
+        <v>0</v>
+      </c>
+      <c r="BH264">
+        <v>0</v>
+      </c>
+      <c r="BI264">
+        <v>0</v>
+      </c>
+      <c r="BJ264">
+        <v>0</v>
+      </c>
+      <c r="BK264">
+        <v>0</v>
+      </c>
+      <c r="BL264">
+        <v>0</v>
+      </c>
+      <c r="BM264">
+        <v>0</v>
+      </c>
+      <c r="BN264">
+        <v>0</v>
+      </c>
+      <c r="BO264">
+        <v>0</v>
+      </c>
+      <c r="BP264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7025204</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45402.58333333334</v>
+      </c>
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>78</v>
+      </c>
+      <c r="H265" t="s">
+        <v>75</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>213</v>
+      </c>
+      <c r="P265" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="U265">
+        <v>0</v>
+      </c>
+      <c r="V265">
+        <v>0</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>2.38</v>
+      </c>
+      <c r="AA265">
+        <v>3.1</v>
+      </c>
+      <c r="AB265">
+        <v>2.8</v>
+      </c>
+      <c r="AC265">
+        <v>0</v>
+      </c>
+      <c r="AD265">
+        <v>0</v>
+      </c>
+      <c r="AE265">
+        <v>0</v>
+      </c>
+      <c r="AF265">
+        <v>0</v>
+      </c>
+      <c r="AG265">
+        <v>2.14</v>
+      </c>
+      <c r="AH265">
+        <v>1.66</v>
+      </c>
+      <c 